--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D850A-7635-4461-AA9B-6A019CC519A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C18D850A-7635-4461-AA9B-6A019CC519A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10C2C45F-0AE0-4614-890C-38328C664D72}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,18 +838,18 @@
     <xf numFmtId="176" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1218,11 +1218,13 @@
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="96"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="16">
         <v>10</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="16">
+        <v>10</v>
+      </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -1249,7 +1251,7 @@
       <c r="AH2" s="22"/>
       <c r="AI2" s="23">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ2" s="24">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1262,7 +1264,7 @@
       <c r="AL2" s="26"/>
       <c r="AM2" s="27">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN2" s="28"/>
     </row>
@@ -1288,7 +1290,9 @@
       <c r="I3" s="24">
         <v>10</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="24">
+        <v>10</v>
+      </c>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
@@ -1315,7 +1319,7 @@
       <c r="AH3" s="22"/>
       <c r="AI3" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ3" s="24">
         <f t="shared" si="1"/>
@@ -1328,7 +1332,7 @@
       <c r="AL3" s="26"/>
       <c r="AM3" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN3" s="36"/>
     </row>
@@ -1350,11 +1354,13 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="30"/>
-      <c r="H4" s="98"/>
+      <c r="H4" s="99"/>
       <c r="I4" s="24">
         <v>10</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="24">
+        <v>10</v>
+      </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -1381,7 +1387,7 @@
       <c r="AH4" s="22"/>
       <c r="AI4" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ4" s="24">
         <f t="shared" si="1"/>
@@ -1394,7 +1400,7 @@
       <c r="AL4" s="26"/>
       <c r="AM4" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN4" s="36"/>
     </row>
@@ -1420,7 +1426,9 @@
       <c r="I5" s="24">
         <v>10</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="24">
+        <v>10</v>
+      </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
@@ -1447,7 +1455,7 @@
       <c r="AH5" s="22"/>
       <c r="AI5" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="24">
         <f t="shared" si="1"/>
@@ -1460,7 +1468,7 @@
       <c r="AL5" s="26"/>
       <c r="AM5" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN5" s="36"/>
     </row>
@@ -1482,11 +1490,13 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="98"/>
+      <c r="H6" s="99"/>
       <c r="I6" s="24">
         <v>10</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="24">
+        <v>10</v>
+      </c>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
@@ -1513,7 +1523,7 @@
       <c r="AH6" s="22"/>
       <c r="AI6" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ6" s="24">
         <f t="shared" si="1"/>
@@ -1526,7 +1536,7 @@
       <c r="AL6" s="26"/>
       <c r="AM6" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN6" s="36"/>
     </row>
@@ -1552,7 +1562,9 @@
       <c r="I7" s="24">
         <v>9</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="24">
+        <v>7.5</v>
+      </c>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -1579,7 +1591,7 @@
       <c r="AH7" s="22"/>
       <c r="AI7" s="23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AJ7" s="24">
         <f t="shared" si="1"/>
@@ -1592,7 +1604,7 @@
       <c r="AL7" s="26"/>
       <c r="AM7" s="27">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.5</v>
       </c>
       <c r="AN7" s="36"/>
     </row>
@@ -1614,11 +1626,13 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="98"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="24">
         <v>10</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="24">
+        <v>7</v>
+      </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -1645,7 +1659,7 @@
       <c r="AH8" s="22"/>
       <c r="AI8" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ8" s="24">
         <f t="shared" si="1"/>
@@ -1658,7 +1672,7 @@
       <c r="AL8" s="26"/>
       <c r="AM8" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN8" s="36"/>
     </row>
@@ -1684,7 +1698,9 @@
       <c r="I9" s="24">
         <v>10</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="24">
+        <v>10</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -1711,7 +1727,7 @@
       <c r="AH9" s="22"/>
       <c r="AI9" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ9" s="24">
         <f t="shared" si="1"/>
@@ -1724,7 +1740,7 @@
       <c r="AL9" s="26"/>
       <c r="AM9" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN9" s="36"/>
     </row>
@@ -1746,11 +1762,13 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="98"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="24">
         <v>10</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="24">
+        <v>10</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
@@ -1777,7 +1795,7 @@
       <c r="AH10" s="22"/>
       <c r="AI10" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ10" s="24">
         <f t="shared" si="1"/>
@@ -1790,7 +1808,7 @@
       <c r="AL10" s="26"/>
       <c r="AM10" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN10" s="36"/>
     </row>
@@ -1816,7 +1834,9 @@
       <c r="I11" s="24">
         <v>10</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="24">
+        <v>7</v>
+      </c>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -1843,7 +1863,7 @@
       <c r="AH11" s="22"/>
       <c r="AI11" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ11" s="24">
         <f t="shared" si="1"/>
@@ -1856,7 +1876,7 @@
       <c r="AL11" s="26"/>
       <c r="AM11" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN11" s="36"/>
     </row>
@@ -1878,11 +1898,13 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
-      <c r="H12" s="98"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="24">
         <v>10</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="24">
+        <v>5</v>
+      </c>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -1909,7 +1931,7 @@
       <c r="AH12" s="22"/>
       <c r="AI12" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ12" s="24">
         <f t="shared" si="1"/>
@@ -1922,7 +1944,7 @@
       <c r="AL12" s="26"/>
       <c r="AM12" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="AN12" s="36"/>
     </row>
@@ -1948,7 +1970,9 @@
       <c r="I13" s="24">
         <v>0</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="24">
+        <v>0</v>
+      </c>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
@@ -2010,11 +2034,13 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="98"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="24">
         <v>10</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="24">
+        <v>8</v>
+      </c>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -2041,7 +2067,7 @@
       <c r="AH14" s="22"/>
       <c r="AI14" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AJ14" s="24">
         <f t="shared" si="1"/>
@@ -2054,7 +2080,7 @@
       <c r="AL14" s="26"/>
       <c r="AM14" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN14" s="36"/>
     </row>
@@ -2080,7 +2106,9 @@
       <c r="I15" s="24">
         <v>10</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="24">
+        <v>6</v>
+      </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -2107,7 +2135,7 @@
       <c r="AH15" s="22"/>
       <c r="AI15" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ15" s="24">
         <f t="shared" si="1"/>
@@ -2120,7 +2148,7 @@
       <c r="AL15" s="26"/>
       <c r="AM15" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN15" s="36"/>
     </row>
@@ -2142,11 +2170,13 @@
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="98"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="24">
         <v>9</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <v>8</v>
+      </c>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -2173,7 +2203,7 @@
       <c r="AH16" s="22"/>
       <c r="AI16" s="23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ16" s="24">
         <f t="shared" si="1"/>
@@ -2186,7 +2216,7 @@
       <c r="AL16" s="26"/>
       <c r="AM16" s="27">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.6363636363636367</v>
       </c>
       <c r="AN16" s="36"/>
     </row>
@@ -2212,7 +2242,9 @@
       <c r="I17" s="24">
         <v>7</v>
       </c>
-      <c r="J17" s="24"/>
+      <c r="J17" s="24">
+        <v>8</v>
+      </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
@@ -2239,7 +2271,7 @@
       <c r="AH17" s="22"/>
       <c r="AI17" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AJ17" s="24">
         <f t="shared" si="1"/>
@@ -2252,7 +2284,7 @@
       <c r="AL17" s="26"/>
       <c r="AM17" s="27">
         <f t="shared" si="3"/>
-        <v>1.9090909090909089</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="AN17" s="36"/>
     </row>
@@ -2274,11 +2306,13 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
-      <c r="H18" s="98"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="24">
         <v>10</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="24">
+        <v>10</v>
+      </c>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2305,7 +2339,7 @@
       <c r="AH18" s="22"/>
       <c r="AI18" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ18" s="24">
         <f t="shared" si="1"/>
@@ -2318,7 +2352,7 @@
       <c r="AL18" s="26"/>
       <c r="AM18" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN18" s="36"/>
     </row>
@@ -2344,7 +2378,9 @@
       <c r="I19" s="24">
         <v>10</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="24">
+        <v>10</v>
+      </c>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -2371,7 +2407,7 @@
       <c r="AH19" s="22"/>
       <c r="AI19" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ19" s="24">
         <f t="shared" si="1"/>
@@ -2384,7 +2420,7 @@
       <c r="AL19" s="37"/>
       <c r="AM19" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN19" s="36"/>
     </row>
@@ -2406,11 +2442,13 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
-      <c r="H20" s="98"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="24">
         <v>10</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24">
+        <v>9</v>
+      </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -2437,7 +2475,7 @@
       <c r="AH20" s="22"/>
       <c r="AI20" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ20" s="24">
         <f t="shared" si="1"/>
@@ -2450,7 +2488,7 @@
       <c r="AL20" s="37"/>
       <c r="AM20" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN20" s="36"/>
     </row>
@@ -2534,11 +2572,13 @@
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="39"/>
-      <c r="H22" s="100"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="42">
         <v>10</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="42">
+        <v>10</v>
+      </c>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
@@ -2565,7 +2605,7 @@
       <c r="AH22" s="22"/>
       <c r="AI22" s="23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ22" s="24">
         <f t="shared" si="1"/>
@@ -2578,7 +2618,7 @@
       <c r="AL22" s="37"/>
       <c r="AM22" s="27">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN22" s="47"/>
     </row>
@@ -2600,11 +2640,13 @@
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="101"/>
+      <c r="H23" s="100"/>
       <c r="I23" s="52">
         <v>10</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="52">
+        <v>10</v>
+      </c>
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
@@ -2631,7 +2673,7 @@
       <c r="AH23" s="58"/>
       <c r="AI23" s="54">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ23" s="52">
         <f t="shared" si="1"/>
@@ -2644,7 +2686,7 @@
       <c r="AL23" s="60"/>
       <c r="AM23" s="61">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN23" s="62"/>
     </row>
@@ -2670,7 +2712,9 @@
       <c r="I24" s="67">
         <v>10</v>
       </c>
-      <c r="J24" s="67"/>
+      <c r="J24" s="67">
+        <v>10</v>
+      </c>
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="67"/>
@@ -2697,7 +2741,7 @@
       <c r="AH24" s="56"/>
       <c r="AI24" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ24" s="67">
         <f t="shared" si="1"/>
@@ -2710,7 +2754,7 @@
       <c r="AL24" s="71"/>
       <c r="AM24" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN24" s="73"/>
     </row>
@@ -2732,11 +2776,13 @@
       </c>
       <c r="F25" s="63"/>
       <c r="G25" s="64"/>
-      <c r="H25" s="99"/>
+      <c r="H25" s="96"/>
       <c r="I25" s="67">
         <v>10</v>
       </c>
-      <c r="J25" s="67"/>
+      <c r="J25" s="67">
+        <v>10</v>
+      </c>
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
       <c r="M25" s="67"/>
@@ -2763,7 +2809,7 @@
       <c r="AH25" s="56"/>
       <c r="AI25" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ25" s="67">
         <f t="shared" si="1"/>
@@ -2776,7 +2822,7 @@
       <c r="AL25" s="71"/>
       <c r="AM25" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN25" s="73"/>
     </row>
@@ -2802,7 +2848,9 @@
       <c r="I26" s="67">
         <v>10</v>
       </c>
-      <c r="J26" s="67"/>
+      <c r="J26" s="67">
+        <v>10</v>
+      </c>
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
       <c r="M26" s="67"/>
@@ -2829,7 +2877,7 @@
       <c r="AH26" s="56"/>
       <c r="AI26" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ26" s="67">
         <f t="shared" si="1"/>
@@ -2842,7 +2890,7 @@
       <c r="AL26" s="71"/>
       <c r="AM26" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN26" s="73"/>
     </row>
@@ -2864,11 +2912,13 @@
       </c>
       <c r="F27" s="63"/>
       <c r="G27" s="64"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="96"/>
       <c r="I27" s="67">
         <v>10</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="67">
+        <v>10</v>
+      </c>
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
       <c r="M27" s="67"/>
@@ -2895,7 +2945,7 @@
       <c r="AH27" s="56"/>
       <c r="AI27" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ27" s="67">
         <f t="shared" si="1"/>
@@ -2908,7 +2958,7 @@
       <c r="AL27" s="71"/>
       <c r="AM27" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN27" s="73"/>
     </row>
@@ -2934,7 +2984,9 @@
       <c r="I28" s="67">
         <v>10</v>
       </c>
-      <c r="J28" s="67"/>
+      <c r="J28" s="67">
+        <v>10</v>
+      </c>
       <c r="K28" s="67"/>
       <c r="L28" s="67"/>
       <c r="M28" s="67"/>
@@ -2961,7 +3013,7 @@
       <c r="AH28" s="56"/>
       <c r="AI28" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ28" s="67">
         <f t="shared" si="1"/>
@@ -2974,7 +3026,7 @@
       <c r="AL28" s="71"/>
       <c r="AM28" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN28" s="73"/>
     </row>
@@ -2996,11 +3048,13 @@
       </c>
       <c r="F29" s="63"/>
       <c r="G29" s="64"/>
-      <c r="H29" s="99"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="67">
         <v>9</v>
       </c>
-      <c r="J29" s="67"/>
+      <c r="J29" s="67">
+        <v>10</v>
+      </c>
       <c r="K29" s="67"/>
       <c r="L29" s="67"/>
       <c r="M29" s="67"/>
@@ -3027,7 +3081,7 @@
       <c r="AH29" s="56"/>
       <c r="AI29" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ29" s="67">
         <f t="shared" si="1"/>
@@ -3040,7 +3094,7 @@
       <c r="AL29" s="71"/>
       <c r="AM29" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN29" s="73"/>
     </row>
@@ -3124,11 +3178,13 @@
       </c>
       <c r="F31" s="63"/>
       <c r="G31" s="64"/>
-      <c r="H31" s="99"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="67">
         <v>8</v>
       </c>
-      <c r="J31" s="67"/>
+      <c r="J31" s="67">
+        <v>10</v>
+      </c>
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
       <c r="M31" s="67"/>
@@ -3155,7 +3211,7 @@
       <c r="AH31" s="56"/>
       <c r="AI31" s="69">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AJ31" s="67">
         <f t="shared" si="1"/>
@@ -3168,7 +3224,7 @@
       <c r="AL31" s="71"/>
       <c r="AM31" s="72">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN31" s="73"/>
     </row>
@@ -3194,7 +3250,9 @@
       <c r="I32" s="67">
         <v>9</v>
       </c>
-      <c r="J32" s="67"/>
+      <c r="J32" s="67">
+        <v>10</v>
+      </c>
       <c r="K32" s="67"/>
       <c r="L32" s="67"/>
       <c r="M32" s="67"/>
@@ -3221,7 +3279,7 @@
       <c r="AH32" s="56"/>
       <c r="AI32" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ32" s="67">
         <f t="shared" si="1"/>
@@ -3234,7 +3292,7 @@
       <c r="AL32" s="71"/>
       <c r="AM32" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN32" s="73"/>
     </row>
@@ -3256,11 +3314,13 @@
       </c>
       <c r="F33" s="63"/>
       <c r="G33" s="64"/>
-      <c r="H33" s="99"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="67">
         <v>10</v>
       </c>
-      <c r="J33" s="67"/>
+      <c r="J33" s="67">
+        <v>10</v>
+      </c>
       <c r="K33" s="67"/>
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
@@ -3287,7 +3347,7 @@
       <c r="AH33" s="56"/>
       <c r="AI33" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ33" s="67">
         <f t="shared" si="1"/>
@@ -3300,7 +3360,7 @@
       <c r="AL33" s="71"/>
       <c r="AM33" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN33" s="73"/>
     </row>
@@ -3326,7 +3386,9 @@
       <c r="I34" s="67">
         <v>9</v>
       </c>
-      <c r="J34" s="67"/>
+      <c r="J34" s="67">
+        <v>10</v>
+      </c>
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
       <c r="M34" s="67"/>
@@ -3353,7 +3415,7 @@
       <c r="AH34" s="56"/>
       <c r="AI34" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ34" s="67">
         <f t="shared" si="1"/>
@@ -3366,7 +3428,7 @@
       <c r="AL34" s="71"/>
       <c r="AM34" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN34" s="73"/>
     </row>
@@ -3388,11 +3450,13 @@
       </c>
       <c r="F35" s="63"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="99"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="67">
         <v>9</v>
       </c>
-      <c r="J35" s="67"/>
+      <c r="J35" s="67">
+        <v>10</v>
+      </c>
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
@@ -3419,7 +3483,7 @@
       <c r="AH35" s="56"/>
       <c r="AI35" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ35" s="67">
         <f t="shared" si="1"/>
@@ -3432,7 +3496,7 @@
       <c r="AL35" s="71"/>
       <c r="AM35" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN35" s="73"/>
     </row>
@@ -3458,7 +3522,9 @@
       <c r="I36" s="67">
         <v>10</v>
       </c>
-      <c r="J36" s="67"/>
+      <c r="J36" s="67">
+        <v>6</v>
+      </c>
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
       <c r="M36" s="67"/>
@@ -3485,7 +3551,7 @@
       <c r="AH36" s="56"/>
       <c r="AI36" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AJ36" s="67">
         <f t="shared" si="1"/>
@@ -3498,7 +3564,7 @@
       <c r="AL36" s="71"/>
       <c r="AM36" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN36" s="73"/>
     </row>
@@ -3520,11 +3586,13 @@
       </c>
       <c r="F37" s="63"/>
       <c r="G37" s="64"/>
-      <c r="H37" s="99"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="67">
         <v>10</v>
       </c>
-      <c r="J37" s="67"/>
+      <c r="J37" s="67">
+        <v>9</v>
+      </c>
       <c r="K37" s="67"/>
       <c r="L37" s="67"/>
       <c r="M37" s="67"/>
@@ -3551,7 +3619,7 @@
       <c r="AH37" s="56"/>
       <c r="AI37" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ37" s="67">
         <f t="shared" si="1"/>
@@ -3564,7 +3632,7 @@
       <c r="AL37" s="71"/>
       <c r="AM37" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN37" s="73"/>
     </row>
@@ -3590,7 +3658,9 @@
       <c r="I38" s="67">
         <v>9</v>
       </c>
-      <c r="J38" s="67"/>
+      <c r="J38" s="67">
+        <v>10</v>
+      </c>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
@@ -3617,7 +3687,7 @@
       <c r="AH38" s="56"/>
       <c r="AI38" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ38" s="67">
         <f t="shared" si="1"/>
@@ -3630,7 +3700,7 @@
       <c r="AL38" s="71"/>
       <c r="AM38" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>5.1818181818181817</v>
       </c>
       <c r="AN38" s="73"/>
     </row>
@@ -3652,11 +3722,13 @@
       </c>
       <c r="F39" s="63"/>
       <c r="G39" s="64"/>
-      <c r="H39" s="99"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="67">
         <v>9</v>
       </c>
-      <c r="J39" s="67"/>
+      <c r="J39" s="67">
+        <v>7</v>
+      </c>
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
@@ -3683,7 +3755,7 @@
       <c r="AH39" s="56"/>
       <c r="AI39" s="69">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ39" s="67">
         <f t="shared" si="1"/>
@@ -3696,7 +3768,7 @@
       <c r="AL39" s="71"/>
       <c r="AM39" s="72">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN39" s="73"/>
     </row>
@@ -3722,7 +3794,9 @@
       <c r="I40" s="67">
         <v>10</v>
       </c>
-      <c r="J40" s="67"/>
+      <c r="J40" s="67">
+        <v>8</v>
+      </c>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
@@ -3749,7 +3823,7 @@
       <c r="AH40" s="56"/>
       <c r="AI40" s="69">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AJ40" s="67">
         <f t="shared" si="1"/>
@@ -3762,7 +3836,7 @@
       <c r="AL40" s="71"/>
       <c r="AM40" s="72">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN40" s="73"/>
     </row>
@@ -3784,11 +3858,13 @@
       </c>
       <c r="F41" s="63"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="99"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="67">
         <v>8</v>
       </c>
-      <c r="J41" s="67"/>
+      <c r="J41" s="67">
+        <v>10</v>
+      </c>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
@@ -3815,7 +3891,7 @@
       <c r="AH41" s="56"/>
       <c r="AI41" s="69">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AJ41" s="67">
         <f t="shared" si="1"/>
@@ -3828,7 +3904,7 @@
       <c r="AL41" s="71"/>
       <c r="AM41" s="72">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="AN41" s="73"/>
     </row>
@@ -3850,11 +3926,13 @@
       </c>
       <c r="F42" s="75"/>
       <c r="G42" s="76"/>
-      <c r="H42" s="100"/>
+      <c r="H42" s="98"/>
       <c r="I42" s="79">
         <v>9</v>
       </c>
-      <c r="J42" s="79"/>
+      <c r="J42" s="79">
+        <v>4</v>
+      </c>
       <c r="K42" s="79"/>
       <c r="L42" s="79"/>
       <c r="M42" s="79"/>
@@ -3881,7 +3959,7 @@
       <c r="AH42" s="83"/>
       <c r="AI42" s="81">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ42" s="79">
         <f t="shared" si="1"/>
@@ -3894,7 +3972,7 @@
       <c r="AL42" s="86"/>
       <c r="AM42" s="87">
         <f t="shared" si="3"/>
-        <v>2.4545454545454546</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="AN42" s="88"/>
     </row>
@@ -3905,15 +3983,15 @@
         <v>82</v>
       </c>
       <c r="I43" s="90">
-        <f t="shared" ref="I43:AM43" si="4">AVERAGE(I2:I19)</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="J43" s="90" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(I2:I22)</f>
+        <v>9.25</v>
+      </c>
+      <c r="J43" s="90">
+        <f>AVERAGE(J2:J22)</f>
+        <v>8.2750000000000004</v>
       </c>
       <c r="K43" s="90" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K43:AM43" si="4">AVERAGE(K2:K22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="90" t="e">
@@ -3992,15 +4070,15 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="91" t="e">
+      <c r="AE43" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF43" s="91" t="e">
+      <c r="AF43" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="91" t="e">
+      <c r="AG43" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4010,7 +4088,7 @@
       </c>
       <c r="AI43" s="90">
         <f t="shared" si="4"/>
-        <v>9.1666666666666661</v>
+        <v>16.69047619047619</v>
       </c>
       <c r="AJ43" s="90">
         <f t="shared" si="4"/>
@@ -4026,7 +4104,7 @@
       </c>
       <c r="AM43" s="90">
         <f t="shared" si="4"/>
-        <v>2.4999999999999996</v>
+        <v>4.5519480519480524</v>
       </c>
       <c r="AN43" s="91"/>
     </row>
@@ -4037,12 +4115,12 @@
         <v>83</v>
       </c>
       <c r="I44" s="91">
-        <f t="shared" ref="I44:AM44" si="5">AVERAGE(I23:I40)</f>
-        <v>9.5294117647058822</v>
-      </c>
-      <c r="J44" s="91" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(I23:I42)</f>
+        <v>9.4210526315789469</v>
+      </c>
+      <c r="J44" s="91">
+        <f t="shared" ref="J44:AM44" si="5">AVERAGE(J23:J42)</f>
+        <v>9.1578947368421044</v>
       </c>
       <c r="K44" s="91" t="e">
         <f t="shared" si="5"/>
@@ -4142,7 +4220,7 @@
       </c>
       <c r="AI44" s="91">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="AJ44" s="91">
         <f t="shared" si="5"/>
@@ -4158,7 +4236,7 @@
       </c>
       <c r="AM44" s="91">
         <f t="shared" si="5"/>
-        <v>2.4545454545454541</v>
+        <v>4.8136363636363635</v>
       </c>
       <c r="AN44" s="91"/>
     </row>
@@ -4169,12 +4247,12 @@
         <v>84</v>
       </c>
       <c r="I45" s="91">
-        <f t="shared" ref="I45:AM45" si="6">AVERAGE(I2:I40)</f>
-        <v>9.378378378378379</v>
-      </c>
-      <c r="J45" s="91" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(I2:I42)</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="J45" s="91">
+        <f t="shared" ref="J45:AM45" si="6">AVERAGE(J2:J42)</f>
+        <v>8.7051282051282044</v>
       </c>
       <c r="K45" s="91" t="e">
         <f t="shared" si="6"/>
@@ -4274,7 +4352,7 @@
       </c>
       <c r="AI45" s="91">
         <f t="shared" si="6"/>
-        <v>8.8974358974358978</v>
+        <v>17.158536585365855</v>
       </c>
       <c r="AJ45" s="91">
         <f t="shared" si="6"/>
@@ -4290,7 +4368,7 @@
       </c>
       <c r="AM45" s="91">
         <f t="shared" si="6"/>
-        <v>2.4265734265734271</v>
+        <v>4.6796008869179611</v>
       </c>
       <c r="AN45" s="91"/>
     </row>
@@ -4301,12 +4379,12 @@
         <v>85</v>
       </c>
       <c r="I46" s="91">
-        <f t="shared" ref="I46:AM46" si="7">STDEV(I2:I40)</f>
-        <v>1.7216166716095536</v>
-      </c>
-      <c r="J46" s="91" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <f>STDEV(I2:I42)</f>
+        <v>1.6910497103299518</v>
+      </c>
+      <c r="J46" s="91">
+        <f t="shared" ref="J46:AM46" si="7">STDEV(J2:J42)</f>
+        <v>2.1695195584990348</v>
       </c>
       <c r="K46" s="91" t="e">
         <f t="shared" si="7"/>
@@ -4406,7 +4484,7 @@
       </c>
       <c r="AI46" s="91">
         <f t="shared" si="7"/>
-        <v>2.6832312786017791</v>
+        <v>5.1918674679616066</v>
       </c>
       <c r="AJ46" s="91">
         <f t="shared" si="7"/>
@@ -4422,7 +4500,7 @@
       </c>
       <c r="AM46" s="91">
         <f t="shared" si="7"/>
-        <v>0.73179034870957493</v>
+        <v>1.4159638548986166</v>
       </c>
       <c r="AN46" s="91"/>
     </row>
@@ -4433,12 +4511,12 @@
         <v>86</v>
       </c>
       <c r="I47" s="91">
-        <f t="shared" ref="I47:AM47" si="8">MAX(I2:I40)</f>
+        <f>MAX(I2:I42)</f>
         <v>10</v>
       </c>
       <c r="J47" s="91">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="J47:AM47" si="8">MAX(J2:J42)</f>
+        <v>10</v>
       </c>
       <c r="K47" s="91">
         <f t="shared" si="8"/>
@@ -4538,7 +4616,7 @@
       </c>
       <c r="AI47" s="91">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ47" s="91">
         <f t="shared" si="8"/>
@@ -4554,7 +4632,7 @@
       </c>
       <c r="AM47" s="91">
         <f t="shared" si="8"/>
-        <v>2.7272727272727275</v>
+        <v>5.454545454545455</v>
       </c>
       <c r="AN47" s="91"/>
     </row>
@@ -4565,11 +4643,11 @@
         <v>87</v>
       </c>
       <c r="I48" s="95">
-        <f t="shared" ref="I48:AM48" si="9">MIN(I2:I40)</f>
+        <f>MIN(I2:I42)</f>
         <v>0</v>
       </c>
       <c r="J48" s="95">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J48:AM48" si="9">MIN(J2:J42)</f>
         <v>0</v>
       </c>
       <c r="K48" s="95">
@@ -4692,6 +4770,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4702,16 +4790,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF6D5A-EF26-419F-99A5-EFEE0950CD5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{CD294105-E15E-404D-B2AF-D359CB7EA072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ABF06B87-F2FD-4531-90A5-A369EAC83452}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,6 +310,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -674,67 +675,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1020,7 +1021,7 @@
       <c r="S1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="45" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="24" t="s">
@@ -1102,8 +1103,8 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="40">
+      <c r="H2" s="53"/>
+      <c r="I2" s="36">
         <v>10</v>
       </c>
       <c r="J2" s="6">
@@ -1117,11 +1118,13 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40">
+      <c r="S2" s="37"/>
+      <c r="T2" s="36">
         <v>7</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="6">
+        <v>10</v>
+      </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -1130,18 +1133,18 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="50"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="46"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="51"/>
+      <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
         <v>20</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1150,7 +1153,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>7.3636363636363642</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1172,8 +1175,8 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="40">
+      <c r="H3" s="51"/>
+      <c r="I3" s="36">
         <v>10</v>
       </c>
       <c r="J3" s="6">
@@ -1187,11 +1190,13 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="40">
+      <c r="S3" s="37"/>
+      <c r="T3" s="36">
         <v>7</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="6">
+        <v>10</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
@@ -1200,18 +1205,18 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="50"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="46"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="51"/>
+      <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1220,7 +1225,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1242,8 +1247,8 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="40">
+      <c r="H4" s="53"/>
+      <c r="I4" s="36">
         <v>10</v>
       </c>
       <c r="J4" s="6">
@@ -1257,11 +1262,13 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="40">
-        <v>10</v>
-      </c>
-      <c r="U4" s="6"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="36">
+        <v>10</v>
+      </c>
+      <c r="U4" s="6">
+        <v>10</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -1270,18 +1277,18 @@
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="50"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="46"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="51"/>
+      <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1290,7 +1297,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1312,8 +1319,8 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="40">
+      <c r="H5" s="51"/>
+      <c r="I5" s="36">
         <v>10</v>
       </c>
       <c r="J5" s="6">
@@ -1327,11 +1334,13 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="40">
-        <v>10</v>
-      </c>
-      <c r="U5" s="6"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="36">
+        <v>10</v>
+      </c>
+      <c r="U5" s="6">
+        <v>10</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
@@ -1340,18 +1349,18 @@
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="50"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="46"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="51"/>
+      <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1360,7 +1369,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1382,8 +1391,8 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="40">
+      <c r="H6" s="53"/>
+      <c r="I6" s="36">
         <v>10</v>
       </c>
       <c r="J6" s="6">
@@ -1397,11 +1406,13 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="40">
+      <c r="S6" s="37"/>
+      <c r="T6" s="36">
         <v>8</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6">
+        <v>9</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1410,18 +1421,18 @@
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="50"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="46"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="51"/>
+      <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1430,7 +1441,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1452,8 +1463,8 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="40">
+      <c r="H7" s="51"/>
+      <c r="I7" s="36">
         <v>9</v>
       </c>
       <c r="J7" s="6">
@@ -1467,11 +1478,13 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="40">
+      <c r="S7" s="37"/>
+      <c r="T7" s="36">
         <v>8</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="6">
+        <v>9</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1480,18 +1493,18 @@
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="50"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="46"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="51"/>
+      <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1500,7 +1513,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>6.6818181818181817</v>
+        <v>9.1363636363636367</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1522,8 +1535,8 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="40">
+      <c r="H8" s="53"/>
+      <c r="I8" s="36">
         <v>10</v>
       </c>
       <c r="J8" s="6">
@@ -1537,11 +1550,13 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="40">
+      <c r="S8" s="37"/>
+      <c r="T8" s="36">
         <v>7</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="6">
+        <v>10</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1550,18 +1565,18 @@
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="50"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="46"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="51"/>
+      <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1570,7 +1585,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>6.5454545454545459</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1592,8 +1607,8 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="40">
+      <c r="H9" s="51"/>
+      <c r="I9" s="36">
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -1607,11 +1622,13 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="40">
+      <c r="S9" s="37"/>
+      <c r="T9" s="36">
         <v>7</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="6">
+        <v>10</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1620,18 +1637,18 @@
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="50"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="46"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="51"/>
+      <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1640,7 +1657,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>7.3636363636363642</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1662,8 +1679,8 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="40">
+      <c r="H10" s="53"/>
+      <c r="I10" s="36">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -1677,11 +1694,13 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="40">
+      <c r="S10" s="37"/>
+      <c r="T10" s="36">
         <v>8</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="6">
+        <v>10</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -1690,18 +1709,18 @@
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="50"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="46"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="51"/>
+      <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1710,7 +1729,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1732,8 +1751,8 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="40">
+      <c r="H11" s="51"/>
+      <c r="I11" s="36">
         <v>10</v>
       </c>
       <c r="J11" s="6">
@@ -1747,11 +1766,13 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="40">
+      <c r="S11" s="37"/>
+      <c r="T11" s="36">
         <v>8</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="6">
+        <v>10</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -1760,18 +1781,18 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="50"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="46"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="51"/>
+      <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -1780,7 +1801,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>9.5454545454545467</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1802,8 +1823,8 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="40">
+      <c r="H12" s="53"/>
+      <c r="I12" s="36">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -1817,11 +1838,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="40">
+      <c r="S12" s="37"/>
+      <c r="T12" s="36">
         <v>4</v>
       </c>
-      <c r="U12" s="6"/>
+      <c r="U12" s="6">
+        <v>10</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1830,18 +1853,18 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="50"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="46"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="51"/>
+      <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -1850,7 +1873,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>5.1818181818181817</v>
+        <v>7.9090909090909083</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1872,8 +1895,8 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="40">
+      <c r="H13" s="51"/>
+      <c r="I13" s="36">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1887,11 +1910,13 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="40">
+      <c r="S13" s="37"/>
+      <c r="T13" s="36">
         <v>4</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="6">
+        <v>10</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1900,18 +1925,18 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="50"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="46"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="51"/>
+      <c r="AH13" s="47"/>
       <c r="AI13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -1920,7 +1945,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>1.0909090909090908</v>
+        <v>3.8181818181818179</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -1942,8 +1967,8 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="40">
+      <c r="H14" s="53"/>
+      <c r="I14" s="36">
         <v>10</v>
       </c>
       <c r="J14" s="6">
@@ -1957,11 +1982,13 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="40">
+      <c r="S14" s="37"/>
+      <c r="T14" s="36">
         <v>6</v>
       </c>
-      <c r="U14" s="6"/>
+      <c r="U14" s="6">
+        <v>7</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -1970,18 +1997,18 @@
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="50"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="46"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="51"/>
+      <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -1990,7 +2017,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>8.454545454545455</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2012,8 +2039,8 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="40">
+      <c r="H15" s="51"/>
+      <c r="I15" s="36">
         <v>10</v>
       </c>
       <c r="J15" s="6">
@@ -2027,11 +2054,13 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="40">
+      <c r="S15" s="37"/>
+      <c r="T15" s="36">
         <v>6</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="6">
+        <v>7</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2040,18 +2069,18 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="50"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="46"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="51"/>
+      <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2060,7 +2089,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7.9090909090909083</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2082,8 +2111,8 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="40">
+      <c r="H16" s="53"/>
+      <c r="I16" s="36">
         <v>9</v>
       </c>
       <c r="J16" s="6">
@@ -2097,11 +2126,13 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="40">
+      <c r="S16" s="37"/>
+      <c r="T16" s="36">
         <v>3</v>
       </c>
-      <c r="U16" s="6"/>
+      <c r="U16" s="6">
+        <v>9</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2110,18 +2141,18 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="50"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="46"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="51"/>
+      <c r="AH16" s="47"/>
       <c r="AI16" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AJ16" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AK16" s="6">
         <f t="shared" si="2"/>
@@ -2130,7 +2161,7 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="9">
         <f t="shared" si="3"/>
-        <v>5.454545454545455</v>
+        <v>7.9090909090909092</v>
       </c>
       <c r="AN16" s="4"/>
     </row>
@@ -2152,8 +2183,8 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="40">
+      <c r="H17" s="51"/>
+      <c r="I17" s="36">
         <v>7</v>
       </c>
       <c r="J17" s="6">
@@ -2167,11 +2198,13 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="40">
+      <c r="S17" s="37"/>
+      <c r="T17" s="36">
         <v>3</v>
       </c>
-      <c r="U17" s="6"/>
+      <c r="U17" s="6">
+        <v>9</v>
+      </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2180,18 +2213,18 @@
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="50"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="46"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="51"/>
+      <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2200,7 +2233,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>4.9090909090909092</v>
+        <v>7.3636363636363633</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2222,8 +2255,8 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="40">
+      <c r="H18" s="53"/>
+      <c r="I18" s="36">
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -2237,11 +2270,13 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="40">
+      <c r="S18" s="37"/>
+      <c r="T18" s="36">
         <v>9</v>
       </c>
-      <c r="U18" s="6"/>
+      <c r="U18" s="6">
+        <v>10</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2250,18 +2285,18 @@
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="50"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="46"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="51"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2270,7 +2305,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909101</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2292,8 +2327,8 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="40">
+      <c r="H19" s="51"/>
+      <c r="I19" s="36">
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -2307,11 +2342,13 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="40">
+      <c r="S19" s="37"/>
+      <c r="T19" s="36">
         <v>9</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6">
+        <v>10</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2320,18 +2357,18 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="50"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="46"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="51"/>
+      <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2340,7 +2377,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909101</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2362,8 +2399,8 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="40">
+      <c r="H20" s="53"/>
+      <c r="I20" s="36">
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -2377,11 +2414,13 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="40">
-        <v>10</v>
-      </c>
-      <c r="U20" s="6"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="36">
+        <v>10</v>
+      </c>
+      <c r="U20" s="6">
+        <v>10</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2390,18 +2429,18 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="50"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="46"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
-      <c r="AH20" s="51"/>
+      <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2410,7 +2449,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909092</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2430,8 +2469,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2441,8 +2480,8 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="40"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="36"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -2452,11 +2491,11 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="50"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="46"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="51"/>
+      <c r="AH21" s="47"/>
       <c r="AI21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2494,8 +2533,8 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="40">
+      <c r="H22" s="51"/>
+      <c r="I22" s="36">
         <v>10</v>
       </c>
       <c r="J22" s="6">
@@ -2509,11 +2548,13 @@
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="40">
-        <v>10</v>
-      </c>
-      <c r="U22" s="6"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="36">
+        <v>10</v>
+      </c>
+      <c r="U22" s="6">
+        <v>10</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2522,18 +2563,18 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="50"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="46"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="51"/>
+      <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2542,7 +2583,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2564,8 +2605,8 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="42">
+      <c r="H23" s="50"/>
+      <c r="I23" s="38">
         <v>10</v>
       </c>
       <c r="J23" s="12">
@@ -2579,11 +2620,13 @@
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="42">
+      <c r="S23" s="39"/>
+      <c r="T23" s="38">
         <v>8</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="12">
+        <v>10</v>
+      </c>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -2592,18 +2635,18 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="52"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
-      <c r="AH23" s="53"/>
+      <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2612,7 +2655,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2634,8 +2677,8 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="42">
+      <c r="H24" s="51"/>
+      <c r="I24" s="38">
         <v>10</v>
       </c>
       <c r="J24" s="12">
@@ -2649,11 +2692,13 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="42">
+      <c r="S24" s="39"/>
+      <c r="T24" s="38">
         <v>8</v>
       </c>
-      <c r="U24" s="12"/>
+      <c r="U24" s="12">
+        <v>10</v>
+      </c>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
@@ -2662,18 +2707,18 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="52"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="48"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
-      <c r="AH24" s="53"/>
+      <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -2682,7 +2727,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2704,8 +2749,8 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="42">
+      <c r="H25" s="50"/>
+      <c r="I25" s="38">
         <v>10</v>
       </c>
       <c r="J25" s="12">
@@ -2719,11 +2764,13 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="42">
+      <c r="S25" s="39"/>
+      <c r="T25" s="38">
         <v>8</v>
       </c>
-      <c r="U25" s="12"/>
+      <c r="U25" s="12">
+        <v>10</v>
+      </c>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
@@ -2732,18 +2779,18 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="52"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="48"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
-      <c r="AH25" s="53"/>
+      <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -2752,7 +2799,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2774,8 +2821,8 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="42">
+      <c r="H26" s="51"/>
+      <c r="I26" s="38">
         <v>10</v>
       </c>
       <c r="J26" s="12">
@@ -2789,11 +2836,13 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="42">
+      <c r="S26" s="39"/>
+      <c r="T26" s="38">
         <v>8</v>
       </c>
-      <c r="U26" s="12"/>
+      <c r="U26" s="12">
+        <v>10</v>
+      </c>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -2802,18 +2851,18 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="52"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="48"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
-      <c r="AH26" s="53"/>
+      <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -2822,7 +2871,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -2844,8 +2893,8 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="42">
+      <c r="H27" s="50"/>
+      <c r="I27" s="38">
         <v>10</v>
       </c>
       <c r="J27" s="12">
@@ -2859,11 +2908,13 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="42">
-        <v>10</v>
-      </c>
-      <c r="U27" s="12"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="38">
+        <v>10</v>
+      </c>
+      <c r="U27" s="12">
+        <v>10</v>
+      </c>
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
@@ -2872,18 +2923,18 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="52"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="48"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="53"/>
+      <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -2892,7 +2943,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -2914,8 +2965,8 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="42">
+      <c r="H28" s="51"/>
+      <c r="I28" s="38">
         <v>10</v>
       </c>
       <c r="J28" s="12">
@@ -2929,11 +2980,13 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="42">
-        <v>10</v>
-      </c>
-      <c r="U28" s="12"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="38">
+        <v>10</v>
+      </c>
+      <c r="U28" s="12">
+        <v>10</v>
+      </c>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
@@ -2942,18 +2995,18 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="52"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="48"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="53"/>
+      <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -2962,7 +3015,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -2984,8 +3037,8 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="42">
+      <c r="H29" s="50"/>
+      <c r="I29" s="38">
         <v>9</v>
       </c>
       <c r="J29" s="12">
@@ -2999,11 +3052,13 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="42">
-        <v>10</v>
-      </c>
-      <c r="U29" s="12"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="38">
+        <v>10</v>
+      </c>
+      <c r="U29" s="12">
+        <v>6</v>
+      </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
@@ -3012,18 +3067,18 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="52"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="48"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
-      <c r="AH29" s="53"/>
+      <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3032,7 +3087,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>7.9090909090909092</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3052,8 +3107,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="42"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
@@ -3063,8 +3118,8 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="42"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="38"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
@@ -3074,11 +3129,11 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="52"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="48"/>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
-      <c r="AH30" s="53"/>
+      <c r="AH30" s="49"/>
       <c r="AI30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3116,8 +3171,8 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="42">
+      <c r="H31" s="50"/>
+      <c r="I31" s="38">
         <v>8</v>
       </c>
       <c r="J31" s="12">
@@ -3131,11 +3186,13 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="42">
+      <c r="S31" s="39"/>
+      <c r="T31" s="38">
         <v>7</v>
       </c>
-      <c r="U31" s="12"/>
+      <c r="U31" s="12">
+        <v>10</v>
+      </c>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
@@ -3144,18 +3201,18 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="52"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="48"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
-      <c r="AH31" s="53"/>
+      <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3164,7 +3221,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>9.5454545454545467</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3186,8 +3243,8 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="42">
+      <c r="H32" s="51"/>
+      <c r="I32" s="38">
         <v>9</v>
       </c>
       <c r="J32" s="12">
@@ -3201,11 +3258,13 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="42">
+      <c r="S32" s="39"/>
+      <c r="T32" s="38">
         <v>7</v>
       </c>
-      <c r="U32" s="12"/>
+      <c r="U32" s="12">
+        <v>10</v>
+      </c>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
@@ -3214,18 +3273,18 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="52"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="48"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
-      <c r="AH32" s="53"/>
+      <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3234,7 +3293,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>7.0909090909090908</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3256,8 +3315,8 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="42">
+      <c r="H33" s="50"/>
+      <c r="I33" s="38">
         <v>10</v>
       </c>
       <c r="J33" s="12">
@@ -3271,11 +3330,13 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="42">
-        <v>10</v>
-      </c>
-      <c r="U33" s="12"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="38">
+        <v>10</v>
+      </c>
+      <c r="U33" s="12">
+        <v>10</v>
+      </c>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
@@ -3284,18 +3345,18 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="52"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="48"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
-      <c r="AH33" s="53"/>
+      <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3304,7 +3365,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3326,8 +3387,8 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="42">
+      <c r="H34" s="51"/>
+      <c r="I34" s="38">
         <v>9</v>
       </c>
       <c r="J34" s="12">
@@ -3341,11 +3402,13 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="42">
-        <v>10</v>
-      </c>
-      <c r="U34" s="12"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="38">
+        <v>10</v>
+      </c>
+      <c r="U34" s="12">
+        <v>10</v>
+      </c>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
@@ -3354,18 +3417,18 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="52"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="48"/>
       <c r="AF34" s="13"/>
       <c r="AG34" s="13"/>
-      <c r="AH34" s="53"/>
+      <c r="AH34" s="49"/>
       <c r="AI34" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK34" s="12">
         <f t="shared" si="2"/>
@@ -3374,7 +3437,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>7.9090909090909092</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3396,8 +3459,8 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="42">
+      <c r="H35" s="50"/>
+      <c r="I35" s="38">
         <v>9</v>
       </c>
       <c r="J35" s="12">
@@ -3411,11 +3474,13 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="42">
+      <c r="S35" s="39"/>
+      <c r="T35" s="38">
         <v>8</v>
       </c>
-      <c r="U35" s="12"/>
+      <c r="U35" s="12">
+        <v>6</v>
+      </c>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -3424,18 +3489,18 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
-      <c r="AD35" s="43"/>
-      <c r="AE35" s="52"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="48"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="13"/>
-      <c r="AH35" s="53"/>
+      <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3444,7 +3509,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>9</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3466,8 +3531,8 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="42">
+      <c r="H36" s="51"/>
+      <c r="I36" s="38">
         <v>10</v>
       </c>
       <c r="J36" s="12">
@@ -3481,11 +3546,13 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="42">
+      <c r="S36" s="39"/>
+      <c r="T36" s="38">
         <v>8</v>
       </c>
-      <c r="U36" s="12"/>
+      <c r="U36" s="12">
+        <v>6</v>
+      </c>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
@@ -3494,18 +3561,18 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="52"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="48"/>
       <c r="AF36" s="13"/>
       <c r="AG36" s="13"/>
-      <c r="AH36" s="53"/>
+      <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -3514,7 +3581,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>8.1818181818181817</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3536,8 +3603,8 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="42">
+      <c r="H37" s="50"/>
+      <c r="I37" s="38">
         <v>10</v>
       </c>
       <c r="J37" s="12">
@@ -3551,11 +3618,13 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="42">
+      <c r="S37" s="39"/>
+      <c r="T37" s="38">
         <v>8</v>
       </c>
-      <c r="U37" s="12"/>
+      <c r="U37" s="12">
+        <v>10</v>
+      </c>
       <c r="V37" s="12"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
@@ -3564,18 +3633,18 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="43"/>
-      <c r="AE37" s="52"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="48"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="13"/>
-      <c r="AH37" s="53"/>
+      <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -3584,7 +3653,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3606,8 +3675,8 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="42">
+      <c r="H38" s="51"/>
+      <c r="I38" s="38">
         <v>9</v>
       </c>
       <c r="J38" s="12">
@@ -3621,11 +3690,13 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="42">
+      <c r="S38" s="39"/>
+      <c r="T38" s="38">
         <v>8</v>
       </c>
-      <c r="U38" s="12"/>
+      <c r="U38" s="12">
+        <v>10</v>
+      </c>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
@@ -3634,18 +3705,18 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="52"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="48"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="13"/>
-      <c r="AH38" s="53"/>
+      <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -3654,7 +3725,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3676,8 +3747,8 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="42">
+      <c r="H39" s="50"/>
+      <c r="I39" s="38">
         <v>9</v>
       </c>
       <c r="J39" s="12">
@@ -3691,11 +3762,13 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="42">
+      <c r="S39" s="39"/>
+      <c r="T39" s="38">
         <v>6</v>
       </c>
-      <c r="U39" s="12"/>
+      <c r="U39" s="12">
+        <v>10</v>
+      </c>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
@@ -3704,18 +3777,18 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="52"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="48"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="13"/>
-      <c r="AH39" s="53"/>
+      <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -3724,7 +3797,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8.7272727272727266</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -3746,8 +3819,8 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="42">
+      <c r="H40" s="51"/>
+      <c r="I40" s="38">
         <v>10</v>
       </c>
       <c r="J40" s="12">
@@ -3761,11 +3834,13 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="42">
+      <c r="S40" s="39"/>
+      <c r="T40" s="38">
         <v>6</v>
       </c>
-      <c r="U40" s="12"/>
+      <c r="U40" s="12">
+        <v>10</v>
+      </c>
       <c r="V40" s="12"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
@@ -3774,18 +3849,18 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="52"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="48"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="13"/>
-      <c r="AH40" s="53"/>
+      <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -3794,7 +3869,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>6.545454545454545</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -3816,8 +3891,8 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="42">
+      <c r="H41" s="50"/>
+      <c r="I41" s="38">
         <v>8</v>
       </c>
       <c r="J41" s="12">
@@ -3831,11 +3906,13 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="42">
+      <c r="S41" s="39"/>
+      <c r="T41" s="38">
         <v>5</v>
       </c>
-      <c r="U41" s="12"/>
+      <c r="U41" s="12">
+        <v>10</v>
+      </c>
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
@@ -3844,18 +3921,18 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="52"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="48"/>
       <c r="AF41" s="13"/>
       <c r="AG41" s="13"/>
-      <c r="AH41" s="53"/>
+      <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -3864,7 +3941,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>6.2727272727272734</v>
+        <v>9</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -3886,8 +3963,8 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="42">
+      <c r="H42" s="52"/>
+      <c r="I42" s="38">
         <v>9</v>
       </c>
       <c r="J42" s="12">
@@ -3901,11 +3978,13 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="42">
+      <c r="S42" s="39"/>
+      <c r="T42" s="38">
         <v>5</v>
       </c>
-      <c r="U42" s="12"/>
+      <c r="U42" s="12">
+        <v>10</v>
+      </c>
       <c r="V42" s="12"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
@@ -3914,18 +3993,18 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="52"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="48"/>
       <c r="AF42" s="13"/>
       <c r="AG42" s="13"/>
-      <c r="AH42" s="53"/>
+      <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -3934,17 +4013,17 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>4.9090909090909092</v>
+        <v>7.6363636363636367</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
     <row r="43" spans="1:40" ht="12.75">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="40">
         <f>AVERAGE(I2:I22)</f>
         <v>9.25</v>
       </c>
@@ -3984,17 +4063,17 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S43" s="45" t="e">
+      <c r="S43" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T43" s="44">
+      <c r="T43" s="40">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="U43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="U43" s="19">
+        <f>AVERAGE(U2:U29)</f>
+        <v>9.481481481481481</v>
       </c>
       <c r="V43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4028,11 +4107,11 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD43" s="45" t="e">
+      <c r="AD43" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE43" s="44" t="e">
+      <c r="AE43" s="40" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4044,17 +4123,17 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH43" s="45" t="e">
+      <c r="AH43" s="41" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI43" s="39">
+      <c r="AI43" s="35">
         <f t="shared" si="4"/>
         <v>16.69047619047619</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>6.8571428571428568</v>
+        <v>15.904761904761905</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4066,17 +4145,17 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>6.4220779220779223</v>
+        <v>8.8896103896103877</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
     <row r="44" spans="1:40" ht="12.75">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="40">
         <f>AVERAGE(I23:I42)</f>
         <v>9.4210526315789469</v>
       </c>
@@ -4116,17 +4195,17 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S44" s="45" t="e">
+      <c r="S44" s="41" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T44" s="44">
+      <c r="T44" s="40">
         <f t="shared" si="5"/>
         <v>7.8947368421052628</v>
       </c>
-      <c r="U44" s="19" t="e">
+      <c r="U44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3684210526315788</v>
       </c>
       <c r="V44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4160,11 +4239,11 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD44" s="45" t="e">
+      <c r="AD44" s="41" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE44" s="44" t="e">
+      <c r="AE44" s="40" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -4176,17 +4255,17 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH44" s="45" t="e">
+      <c r="AH44" s="41" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI44" s="39">
+      <c r="AI44" s="35">
         <f t="shared" si="5"/>
         <v>17.649999999999999</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4198,17 +4277,17 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>6.8590909090909093</v>
+        <v>9.2863636363636353</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
     <row r="45" spans="1:40" ht="12.75">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="40">
         <f>AVERAGE(I2:I42)</f>
         <v>9.3333333333333339</v>
       </c>
@@ -4248,17 +4327,17 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S45" s="45" t="e">
+      <c r="S45" s="41" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T45" s="44">
+      <c r="T45" s="40">
         <f t="shared" si="6"/>
         <v>7.5384615384615383</v>
       </c>
-      <c r="U45" s="19" t="e">
+      <c r="U45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.4358974358974361</v>
       </c>
       <c r="V45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4292,11 +4371,11 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD45" s="45" t="e">
+      <c r="AD45" s="41" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE45" s="44" t="e">
+      <c r="AE45" s="40" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
@@ -4308,17 +4387,17 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH45" s="45" t="e">
+      <c r="AH45" s="41" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI45" s="39">
+      <c r="AI45" s="35">
         <f t="shared" si="6"/>
         <v>17.158536585365855</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>7.1707317073170733</v>
+        <v>16.146341463414632</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4330,17 +4409,17 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>6.6352549889135259</v>
+        <v>9.0831485587583138</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
     <row r="46" spans="1:40" ht="12.75">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="40">
         <f>STDEV(I2:I42)</f>
         <v>1.6910497103299518</v>
       </c>
@@ -4380,17 +4459,17 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S46" s="45" t="e">
+      <c r="S46" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T46" s="44">
+      <c r="T46" s="40">
         <f t="shared" si="7"/>
         <v>1.9979746830248113</v>
       </c>
-      <c r="U46" s="19" t="e">
+      <c r="U46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.2310644045504477</v>
       </c>
       <c r="V46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4424,11 +4503,11 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD46" s="45" t="e">
+      <c r="AD46" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE46" s="44" t="e">
+      <c r="AE46" s="40" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -4440,17 +4519,17 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH46" s="45" t="e">
+      <c r="AH46" s="41" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI46" s="39">
+      <c r="AI46" s="35">
         <f t="shared" si="7"/>
         <v>5.1918674679616066</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>2.5485529131684741</v>
+        <v>4.3735624816032779</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4462,17 +4541,17 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>2.0072823977883312</v>
+        <v>2.4923001764074697</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
     <row r="47" spans="1:40" ht="12.75">
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="44">
+      <c r="I47" s="40">
         <f>MAX(I2:I42)</f>
         <v>10</v>
       </c>
@@ -4512,17 +4591,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S47" s="45">
+      <c r="S47" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T47" s="44">
+      <c r="T47" s="40">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="U47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V47" s="19">
         <f t="shared" si="8"/>
@@ -4556,11 +4635,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="45">
+      <c r="AD47" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="44">
+      <c r="AE47" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4572,17 +4651,17 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH47" s="45">
+      <c r="AH47" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI47" s="39">
+      <c r="AI47" s="35">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -4594,121 +4673,121 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>8.1818181818181834</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="42">
         <f>MIN(I2:I42)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="43">
         <f t="shared" ref="J48:AM48" si="9">MIN(J2:J42)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="47">
+      <c r="K48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L48" s="47">
+      <c r="L48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M48" s="47">
+      <c r="M48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N48" s="47">
+      <c r="N48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O48" s="47">
+      <c r="O48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P48" s="47">
+      <c r="P48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="47">
+      <c r="Q48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R48" s="47">
+      <c r="R48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S48" s="48">
+      <c r="S48" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T48" s="46">
+      <c r="T48" s="42">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="U48" s="47">
+      <c r="U48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="47">
+        <v>6</v>
+      </c>
+      <c r="V48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W48" s="47">
+      <c r="W48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X48" s="47">
+      <c r="X48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="47">
+      <c r="Y48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="47">
+      <c r="Z48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="47">
+      <c r="AA48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="47">
+      <c r="AB48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC48" s="47">
+      <c r="AC48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="48">
+      <c r="AD48" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="46">
+      <c r="AE48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="47">
+      <c r="AF48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG48" s="47">
+      <c r="AG48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH48" s="48">
+      <c r="AH48" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI48" s="39">
+      <c r="AI48" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4732,6 +4811,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4742,16 +4831,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{CD294105-E15E-404D-B2AF-D359CB7EA072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{ABF06B87-F2FD-4531-90A5-A369EAC83452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF5686-E10B-4B6A-AF95-5A3386D07255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,6 +334,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -580,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -729,13 +735,16 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +966,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1103,14 +1112,16 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="53"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
       <c r="J2" s="6">
         <v>10</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>7</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -1140,7 +1151,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1153,7 +1164,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>10.090909090909092</v>
+        <v>12</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1182,7 +1193,9 @@
       <c r="J3" s="6">
         <v>10</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>5</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -1212,7 +1225,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1225,7 +1238,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>10.090909090909092</v>
+        <v>11.454545454545455</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1247,14 +1260,16 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="53"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
       <c r="J4" s="6">
         <v>10</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>9</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -1284,7 +1299,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1297,7 +1312,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1326,7 +1341,9 @@
       <c r="J5" s="6">
         <v>10</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6">
+        <v>8</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1356,7 +1373,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1369,7 +1386,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1391,14 +1408,16 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="53"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
       <c r="J6" s="6">
         <v>10</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1428,7 +1447,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1441,7 +1460,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>10.090909090909092</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1470,7 +1489,9 @@
       <c r="J7" s="6">
         <v>7.5</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6">
+        <v>9</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1500,7 +1521,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>25.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1513,7 +1534,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>9.1363636363636367</v>
+        <v>11.59090909090909</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1535,14 +1556,16 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="53"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
       <c r="J8" s="6">
         <v>7</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>7</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1572,7 +1595,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1585,7 +1608,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1614,7 +1637,9 @@
       <c r="J9" s="6">
         <v>10</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6">
+        <v>9</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1644,7 +1669,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1657,7 +1682,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>10.090909090909092</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1679,14 +1704,16 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="53"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
       <c r="J10" s="6">
         <v>10</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1716,7 +1743,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1729,7 +1756,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1758,7 +1785,9 @@
       <c r="J11" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6">
+        <v>9</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1788,7 +1817,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -1801,7 +1830,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>9.5454545454545467</v>
+        <v>12</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1823,14 +1852,16 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="53"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
       <c r="J12" s="6">
         <v>5</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6">
+        <v>9</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1860,7 +1891,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -1873,7 +1904,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909083</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1899,10 +1930,12 @@
       <c r="I13" s="36">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6"/>
+      <c r="J13" s="54">
+        <v>0</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1915,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="U13" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -1936,7 +1969,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -1945,7 +1978,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>3.8181818181818179</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -1967,14 +2000,16 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
       <c r="J14" s="6">
         <v>8</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6">
+        <v>5</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2004,7 +2039,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2017,7 +2052,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>8.454545454545455</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2046,7 +2081,9 @@
       <c r="J15" s="6">
         <v>6</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>8</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2076,7 +2113,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2089,11 +2126,11 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909083</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" ht="14.25">
+    <row r="16" spans="1:40" ht="14.25" hidden="1">
       <c r="A16" s="26" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2148,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="53"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2190,7 +2227,9 @@
       <c r="J17" s="6">
         <v>8</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="6">
+        <v>8</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2220,7 +2259,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2233,7 +2272,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>7.3636363636363633</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2255,14 +2294,16 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="53"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
       <c r="J18" s="6">
         <v>10</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>9</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -2292,7 +2333,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2305,7 +2346,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2334,7 +2375,9 @@
       <c r="J19" s="6">
         <v>10</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2364,7 +2407,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2377,7 +2420,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2399,14 +2442,16 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
       <c r="J20" s="6">
         <v>9</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6">
+        <v>6</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -2436,7 +2481,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2449,7 +2494,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2540,7 +2585,9 @@
       <c r="J22" s="6">
         <v>10</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6">
+        <v>7</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -2570,7 +2617,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -2583,7 +2630,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2605,14 +2652,16 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
       <c r="J23" s="12">
         <v>10</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12">
+        <v>7</v>
+      </c>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -2642,7 +2691,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -2655,7 +2704,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.272727272727273</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2684,7 +2733,9 @@
       <c r="J24" s="12">
         <v>10</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="12">
+        <v>9</v>
+      </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
@@ -2714,7 +2765,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -2727,7 +2778,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.818181818181817</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2749,14 +2800,16 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
       <c r="J25" s="12">
         <v>10</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="12">
+        <v>8</v>
+      </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -2786,7 +2839,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -2799,7 +2852,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2828,7 +2881,9 @@
       <c r="J26" s="12">
         <v>10</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="12">
+        <v>9</v>
+      </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
@@ -2858,7 +2913,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -2871,7 +2926,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.818181818181817</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -2893,14 +2948,16 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="50"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
       <c r="J27" s="12">
         <v>10</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12">
+        <v>7</v>
+      </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -2930,7 +2987,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -2943,7 +3000,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -2972,7 +3029,9 @@
       <c r="J28" s="12">
         <v>10</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="12">
+        <v>9</v>
+      </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
@@ -3002,7 +3061,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3015,7 +3074,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3037,14 +3096,16 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
       <c r="J29" s="12">
         <v>10</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>9</v>
+      </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -3074,7 +3135,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3087,7 +3148,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>9.545454545454545</v>
+        <v>12</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3171,14 +3232,16 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="50"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
       <c r="J31" s="12">
         <v>10</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="12">
+        <v>8</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
@@ -3208,7 +3271,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3221,7 +3284,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>9.5454545454545467</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3250,7 +3313,9 @@
       <c r="J32" s="12">
         <v>10</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="12">
+        <v>7</v>
+      </c>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
@@ -3280,7 +3345,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3293,7 +3358,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3315,14 +3380,16 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="50"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
       <c r="J33" s="12">
         <v>10</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="12">
+        <v>8</v>
+      </c>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
@@ -3352,7 +3419,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -3365,7 +3432,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3394,7 +3461,9 @@
       <c r="J34" s="12">
         <v>10</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="12">
+        <v>8</v>
+      </c>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
@@ -3424,7 +3493,7 @@
       <c r="AH34" s="49"/>
       <c r="AI34" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
@@ -3437,7 +3506,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3459,14 +3528,16 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="50"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
       <c r="J35" s="12">
         <v>10</v>
       </c>
-      <c r="K35" s="12"/>
+      <c r="K35" s="12">
+        <v>6</v>
+      </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
@@ -3496,7 +3567,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -3509,7 +3580,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3538,7 +3609,9 @@
       <c r="J36" s="12">
         <v>6</v>
       </c>
-      <c r="K36" s="12"/>
+      <c r="K36" s="12">
+        <v>7</v>
+      </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -3568,7 +3641,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -3581,7 +3654,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>8.1818181818181817</v>
+        <v>10.09090909090909</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3603,14 +3676,16 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="50"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
       <c r="J37" s="12">
         <v>9</v>
       </c>
-      <c r="K37" s="12"/>
+      <c r="K37" s="12">
+        <v>7</v>
+      </c>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3640,7 +3715,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -3653,7 +3728,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3682,7 +3757,9 @@
       <c r="J38" s="12">
         <v>10</v>
       </c>
-      <c r="K38" s="12"/>
+      <c r="K38" s="12">
+        <v>9</v>
+      </c>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -3712,7 +3789,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -3725,7 +3802,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3747,14 +3824,16 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="50"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
       <c r="J39" s="12">
         <v>7</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="K39" s="12">
+        <v>9</v>
+      </c>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -3784,7 +3863,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -3797,7 +3876,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>8.7272727272727266</v>
+        <v>11.181818181818182</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -3826,7 +3905,9 @@
       <c r="J40" s="12">
         <v>8</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="12">
+        <v>8</v>
+      </c>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
@@ -3856,7 +3937,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -3869,7 +3950,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>11.454545454545453</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -3891,14 +3972,16 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="50"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
       <c r="J41" s="12">
         <v>10</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="12">
+        <v>7</v>
+      </c>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
@@ -3928,7 +4011,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -3941,7 +4024,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -3963,14 +4046,16 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="52"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
       <c r="J42" s="12">
         <v>4</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="12">
+        <v>6</v>
+      </c>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
@@ -4000,7 +4085,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4013,7 +4098,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>7.6363636363636367</v>
+        <v>9.2727272727272734</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4031,9 +4116,9 @@
         <f>AVERAGE(J2:J22)</f>
         <v>8.2750000000000004</v>
       </c>
-      <c r="K43" s="19" t="e">
+      <c r="K43" s="19">
         <f t="shared" ref="K43:AM43" si="4">AVERAGE(K2:K22)</f>
-        <v>#DIV/0!</v>
+        <v>7.2631578947368425</v>
       </c>
       <c r="L43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4073,7 +4158,7 @@
       </c>
       <c r="U43" s="19">
         <f>AVERAGE(U2:U29)</f>
-        <v>9.481481481481481</v>
+        <v>9.1111111111111107</v>
       </c>
       <c r="V43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4129,11 +4214,11 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>16.69047619047619</v>
+        <v>23.261904761904763</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>15.904761904761905</v>
+        <v>15.428571428571429</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4145,7 +4230,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>8.8896103896103877</v>
+        <v>10.551948051948052</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4163,9 +4248,9 @@
         <f t="shared" ref="J44:AM44" si="5">AVERAGE(J23:J42)</f>
         <v>9.1578947368421044</v>
       </c>
-      <c r="K44" s="19" t="e">
+      <c r="K44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>7.7894736842105265</v>
       </c>
       <c r="L44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4261,7 +4346,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>17.649999999999999</v>
+        <v>25.05</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -4277,7 +4362,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>9.2863636363636353</v>
+        <v>11.304545454545453</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4295,9 +4380,9 @@
         <f t="shared" ref="J45:AM45" si="6">AVERAGE(J2:J42)</f>
         <v>8.7051282051282044</v>
       </c>
-      <c r="K45" s="19" t="e">
+      <c r="K45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>7.5263157894736841</v>
       </c>
       <c r="L45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4337,7 +4422,7 @@
       </c>
       <c r="U45" s="19">
         <f t="shared" si="6"/>
-        <v>9.4358974358974361</v>
+        <v>9.1794871794871788</v>
       </c>
       <c r="V45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4393,11 +4478,11 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>17.158536585365855</v>
+        <v>24.134146341463413</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>16.146341463414632</v>
+        <v>15.902439024390244</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4409,7 +4494,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>9.0831485587583138</v>
+        <v>10.919068736141908</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4427,9 +4512,9 @@
         <f t="shared" ref="J46:AM46" si="7">STDEV(J2:J42)</f>
         <v>2.1695195584990348</v>
       </c>
-      <c r="K46" s="19" t="e">
+      <c r="K46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.7357425719155961</v>
       </c>
       <c r="L46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4469,7 +4554,7 @@
       </c>
       <c r="U46" s="19">
         <f t="shared" si="7"/>
-        <v>1.2310644045504477</v>
+        <v>1.9449231465237753</v>
       </c>
       <c r="V46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4525,11 +4610,11 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>5.1918674679616066</v>
+        <v>7.334016967395752</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>4.3735624816032779</v>
+        <v>4.7581765312395703</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4541,7 +4626,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>2.4923001764074697</v>
+        <v>3.24682795289409</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4561,7 +4646,7 @@
       </c>
       <c r="K47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L47" s="19">
         <f t="shared" si="8"/>
@@ -4657,7 +4742,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -4673,7 +4758,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>10.90909090909091</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -4733,7 +4818,7 @@
       </c>
       <c r="U48" s="43">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V48" s="43">
         <f t="shared" si="9"/>
@@ -4811,16 +4896,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4831,6 +4906,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AF5686-E10B-4B6A-AF95-5A3386D07255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7B257856-7C20-44DA-8795-C49BC0C9D30B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,16 +735,16 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +967,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="50"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1122,7 +1122,9 @@
       <c r="K2" s="6">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -1151,7 +1153,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1164,7 +1166,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>12</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1186,7 +1188,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1196,7 +1198,9 @@
       <c r="K3" s="6">
         <v>5</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>7</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1225,7 +1229,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1238,7 +1242,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>11.454545454545455</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1260,7 +1264,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="50"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1270,7 +1274,9 @@
       <c r="K4" s="6">
         <v>9</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1299,7 +1305,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1312,7 +1318,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.090909090909093</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1334,7 +1340,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="51"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1344,7 +1350,9 @@
       <c r="K5" s="6">
         <v>8</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>10</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1373,7 +1381,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1386,7 +1394,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1408,7 +1416,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="50"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1418,7 +1426,9 @@
       <c r="K6" s="6">
         <v>9</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1447,7 +1457,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1460,7 +1470,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1482,7 +1492,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="51"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1492,7 +1502,9 @@
       <c r="K7" s="6">
         <v>9</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>10</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1521,7 +1533,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>35.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1534,7 +1546,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>11.59090909090909</v>
+        <v>14.31818181818182</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1556,7 +1568,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="50"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1566,7 +1578,9 @@
       <c r="K8" s="6">
         <v>7</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>7</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1595,7 +1609,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1608,7 +1622,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>11.181818181818182</v>
+        <v>13.09090909090909</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1630,7 +1644,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -1640,7 +1654,9 @@
       <c r="K9" s="6">
         <v>9</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <v>9</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -1669,7 +1685,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1682,7 +1698,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1704,7 +1720,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="50"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1714,7 +1730,9 @@
       <c r="K10" s="6">
         <v>8</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>9</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -1743,7 +1761,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1756,7 +1774,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1778,7 +1796,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -1852,7 +1870,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="50"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1862,7 +1880,9 @@
       <c r="K12" s="6">
         <v>9</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <v>9</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1891,7 +1911,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -1904,7 +1924,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>10.363636363636363</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1926,14 +1946,14 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
-      <c r="J13" s="54">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54">
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50">
         <v>0</v>
       </c>
       <c r="L13" s="6"/>
@@ -2000,7 +2020,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="50"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2010,7 +2030,9 @@
       <c r="K14" s="6">
         <v>5</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>6</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2039,7 +2061,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2052,7 +2074,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>9.8181818181818183</v>
+        <v>11.454545454545453</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2074,7 +2096,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2084,7 +2106,9 @@
       <c r="K15" s="6">
         <v>8</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>10</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2113,7 +2137,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2126,11 +2150,11 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.818181818181818</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" ht="14.25" hidden="1">
+    <row r="16" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>40</v>
       </c>
@@ -2148,7 +2172,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="50"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2220,7 +2244,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2230,7 +2254,9 @@
       <c r="K17" s="6">
         <v>8</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>9</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2259,7 +2285,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2272,7 +2298,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>9.545454545454545</v>
+        <v>12</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2294,7 +2320,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2304,7 +2330,9 @@
       <c r="K18" s="6">
         <v>9</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <v>10</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2333,7 +2361,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2346,7 +2374,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2368,7 +2396,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="51"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -2378,7 +2406,9 @@
       <c r="K19" s="6">
         <v>6</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>7</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2407,7 +2437,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2420,7 +2450,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>12.272727272727273</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2442,7 +2472,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2452,7 +2482,9 @@
       <c r="K20" s="6">
         <v>6</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>8</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2481,7 +2513,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2494,11 +2526,11 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>12.272727272727273</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" ht="14.25" hidden="1">
+    <row r="21" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
@@ -2514,7 +2546,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2578,7 +2610,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -2588,7 +2620,9 @@
       <c r="K22" s="6">
         <v>7</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>9</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2617,7 +2651,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -2630,7 +2664,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2652,7 +2686,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="52"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2662,7 +2696,9 @@
       <c r="K23" s="12">
         <v>7</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="12">
+        <v>7</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -2691,7 +2727,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -2704,7 +2740,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>12.272727272727273</v>
+        <v>14.181818181818183</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2726,7 +2762,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -2736,7 +2772,9 @@
       <c r="K24" s="12">
         <v>9</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="12">
+        <v>7</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -2765,7 +2803,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -2778,7 +2816,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>12.818181818181817</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2800,7 +2838,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="52"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2810,7 +2848,9 @@
       <c r="K25" s="12">
         <v>8</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="12">
+        <v>8</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -2839,7 +2879,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -2852,7 +2892,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2874,7 +2914,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -2884,7 +2924,9 @@
       <c r="K26" s="12">
         <v>9</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="12">
+        <v>9</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -2913,7 +2955,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -2926,7 +2968,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>12.818181818181817</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -2948,7 +2990,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="52"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -2958,7 +3000,9 @@
       <c r="K27" s="12">
         <v>7</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12">
+        <v>10</v>
+      </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -2987,7 +3031,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3000,7 +3044,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.545454545454547</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3022,7 +3066,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3032,7 +3076,9 @@
       <c r="K28" s="12">
         <v>9</v>
       </c>
-      <c r="L28" s="12"/>
+      <c r="L28" s="12">
+        <v>10</v>
+      </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3061,7 +3107,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3074,7 +3120,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.090909090909093</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3096,7 +3142,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="52"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3106,7 +3152,9 @@
       <c r="K29" s="12">
         <v>9</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="12">
+        <v>10</v>
+      </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -3135,7 +3183,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3148,11 +3196,11 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
-    <row r="30" spans="1:40" ht="14.25" hidden="1">
+    <row r="30" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="27" t="s">
         <v>62</v>
       </c>
@@ -3168,7 +3216,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3232,7 +3280,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="52"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3242,7 +3290,9 @@
       <c r="K31" s="12">
         <v>8</v>
       </c>
-      <c r="L31" s="12"/>
+      <c r="L31" s="12">
+        <v>10</v>
+      </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -3271,7 +3321,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3284,7 +3334,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3306,7 +3356,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -3316,7 +3366,9 @@
       <c r="K32" s="12">
         <v>7</v>
       </c>
-      <c r="L32" s="12"/>
+      <c r="L32" s="12">
+        <v>10</v>
+      </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -3345,7 +3397,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3358,7 +3410,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3380,7 +3432,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="52"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3390,7 +3442,9 @@
       <c r="K33" s="12">
         <v>8</v>
       </c>
-      <c r="L33" s="12"/>
+      <c r="L33" s="12">
+        <v>9</v>
+      </c>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
@@ -3419,7 +3473,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -3432,7 +3486,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.545454545454547</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3454,7 +3508,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="51"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -3464,7 +3518,9 @@
       <c r="K34" s="12">
         <v>8</v>
       </c>
-      <c r="L34" s="12"/>
+      <c r="L34" s="12">
+        <v>8</v>
+      </c>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
@@ -3493,7 +3549,7 @@
       <c r="AH34" s="49"/>
       <c r="AI34" s="21">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
@@ -3506,7 +3562,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3528,7 +3584,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="52"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3538,7 +3594,9 @@
       <c r="K35" s="12">
         <v>6</v>
       </c>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12">
+        <v>9</v>
+      </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -3567,7 +3625,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -3580,7 +3638,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>13.090909090909092</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3602,7 +3660,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="51"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -3612,7 +3670,9 @@
       <c r="K36" s="12">
         <v>7</v>
       </c>
-      <c r="L36" s="12"/>
+      <c r="L36" s="12">
+        <v>9</v>
+      </c>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
@@ -3641,7 +3701,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -3654,7 +3714,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>10.09090909090909</v>
+        <v>12.545454545454545</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3676,7 +3736,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="52"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3686,7 +3746,9 @@
       <c r="K37" s="12">
         <v>7</v>
       </c>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12">
+        <v>10</v>
+      </c>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
@@ -3715,7 +3777,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -3728,7 +3790,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3750,7 +3812,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="51"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -3760,7 +3822,9 @@
       <c r="K38" s="12">
         <v>9</v>
       </c>
-      <c r="L38" s="12"/>
+      <c r="L38" s="12">
+        <v>10</v>
+      </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -3789,7 +3853,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -3802,7 +3866,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3824,7 +3888,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="52"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -3834,7 +3898,9 @@
       <c r="K39" s="12">
         <v>9</v>
       </c>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12">
+        <v>8</v>
+      </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
@@ -3863,7 +3929,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -3876,7 +3942,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>11.181818181818182</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -3898,7 +3964,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="51"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -3908,7 +3974,9 @@
       <c r="K40" s="12">
         <v>8</v>
       </c>
-      <c r="L40" s="12"/>
+      <c r="L40" s="12">
+        <v>8</v>
+      </c>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
@@ -3937,7 +4005,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -3950,7 +4018,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -3972,7 +4040,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="52"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -3982,7 +4050,9 @@
       <c r="K41" s="12">
         <v>7</v>
       </c>
-      <c r="L41" s="12"/>
+      <c r="L41" s="12">
+        <v>9</v>
+      </c>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
@@ -4011,7 +4081,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -4024,7 +4094,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>10.90909090909091</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4056,7 +4126,9 @@
       <c r="K42" s="12">
         <v>6</v>
       </c>
-      <c r="L42" s="12"/>
+      <c r="L42" s="12">
+        <v>8</v>
+      </c>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -4085,7 +4157,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4098,7 +4170,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>9.2727272727272734</v>
+        <v>11.454545454545453</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4120,9 +4192,9 @@
         <f t="shared" ref="K43:AM43" si="4">AVERAGE(K2:K22)</f>
         <v>7.2631578947368425</v>
       </c>
-      <c r="L43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="L43" s="19">
+        <f>AVERAGE(L2:L29)</f>
+        <v>8.5833333333333339</v>
       </c>
       <c r="M43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4214,7 +4286,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>23.261904761904763</v>
+        <v>30.166666666666668</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -4230,7 +4302,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>10.551948051948052</v>
+        <v>12.435064935064934</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4252,9 +4324,9 @@
         <f t="shared" si="5"/>
         <v>7.7894736842105265</v>
       </c>
-      <c r="L44" s="19" t="e">
+      <c r="L44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.8947368421052637</v>
       </c>
       <c r="M44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4346,7 +4418,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>25.05</v>
+        <v>33.5</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -4362,7 +4434,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>11.304545454545453</v>
+        <v>13.609090909090909</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4384,9 +4456,9 @@
         <f t="shared" si="6"/>
         <v>7.5263157894736841</v>
       </c>
-      <c r="L45" s="19" t="e">
+      <c r="L45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>8.7222222222222214</v>
       </c>
       <c r="M45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4478,7 +4550,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>24.134146341463413</v>
+        <v>31.792682926829269</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -4494,7 +4566,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>10.919068736141908</v>
+        <v>13.007760532150778</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4516,9 +4588,9 @@
         <f t="shared" si="7"/>
         <v>1.7357425719155961</v>
       </c>
-      <c r="L46" s="19" t="e">
+      <c r="L46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.1858959508950204</v>
       </c>
       <c r="M46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4610,7 +4682,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>7.334016967395752</v>
+        <v>9.9177716812775696</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -4626,7 +4698,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>3.24682795289409</v>
+        <v>3.9223072360051279</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4650,7 +4722,7 @@
       </c>
       <c r="L47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M47" s="19">
         <f t="shared" si="8"/>
@@ -4742,7 +4814,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -4758,7 +4830,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>13.363636363636363</v>
+        <v>16.090909090909093</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -4782,7 +4854,7 @@
       </c>
       <c r="L48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M48" s="43">
         <f t="shared" si="9"/>
@@ -4896,6 +4968,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4906,16 +4988,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7B257856-7C20-44DA-8795-C49BC0C9D30B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2E1F6B-11AE-4630-9FDF-210DBF167F85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,14 +738,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1138,7 +1138,9 @@
       <c r="U2" s="6">
         <v>10</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="6">
+        <v>10</v>
+      </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -1157,7 +1159,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1166,7 +1168,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>14.181818181818182</v>
+        <v>16.909090909090907</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1214,7 +1216,9 @@
       <c r="U3" s="6">
         <v>10</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6">
+        <v>10</v>
+      </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1242,7 +1246,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1264,7 +1268,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1290,7 +1294,9 @@
       <c r="U4" s="6">
         <v>10</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="6">
+        <v>10</v>
+      </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1318,7 +1324,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>16.090909090909093</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1366,7 +1372,9 @@
       <c r="U5" s="6">
         <v>10</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6">
+        <v>10</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -1385,7 +1393,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1394,7 +1402,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181818</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1416,7 +1424,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1442,7 +1450,9 @@
       <c r="U6" s="6">
         <v>9</v>
       </c>
-      <c r="V6" s="6"/>
+      <c r="V6" s="6">
+        <v>10</v>
+      </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
@@ -1461,7 +1471,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1470,7 +1480,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1518,7 +1528,9 @@
       <c r="U7" s="6">
         <v>9</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="6">
+        <v>10</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -1537,7 +1549,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1546,7 +1558,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>14.31818181818182</v>
+        <v>17.045454545454547</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1568,7 +1580,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1594,7 +1606,9 @@
       <c r="U8" s="6">
         <v>10</v>
       </c>
-      <c r="V8" s="6"/>
+      <c r="V8" s="6">
+        <v>10</v>
+      </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -1613,7 +1627,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1622,7 +1636,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1670,7 +1684,9 @@
       <c r="U9" s="6">
         <v>10</v>
       </c>
-      <c r="V9" s="6"/>
+      <c r="V9" s="6">
+        <v>10</v>
+      </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -1689,7 +1705,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1698,7 +1714,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1720,7 +1736,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1746,7 +1762,9 @@
       <c r="U10" s="6">
         <v>10</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="6">
+        <v>10</v>
+      </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -1765,7 +1783,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1774,7 +1792,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1870,7 +1888,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1896,7 +1914,9 @@
       <c r="U12" s="6">
         <v>10</v>
       </c>
-      <c r="V12" s="6"/>
+      <c r="V12" s="6">
+        <v>9</v>
+      </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
@@ -1915,7 +1935,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -1924,7 +1944,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1956,7 +1976,9 @@
       <c r="K13" s="50">
         <v>0</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1970,7 +1992,9 @@
       <c r="U13" s="6">
         <v>0</v>
       </c>
-      <c r="V13" s="6"/>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -2020,7 +2044,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2046,7 +2070,9 @@
       <c r="U14" s="6">
         <v>7</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="6">
+        <v>7</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -2065,7 +2091,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2074,7 +2100,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2122,7 +2148,9 @@
       <c r="U15" s="6">
         <v>7</v>
       </c>
-      <c r="V15" s="6"/>
+      <c r="V15" s="6">
+        <v>7</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -2141,7 +2169,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2150,7 +2178,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>14.727272727272728</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2172,7 +2200,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2270,7 +2298,9 @@
       <c r="U17" s="6">
         <v>9</v>
       </c>
-      <c r="V17" s="6"/>
+      <c r="V17" s="6">
+        <v>8</v>
+      </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -2289,7 +2319,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2298,7 +2328,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2320,7 +2350,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2346,7 +2376,9 @@
       <c r="U18" s="6">
         <v>10</v>
       </c>
-      <c r="V18" s="6"/>
+      <c r="V18" s="6">
+        <v>9</v>
+      </c>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -2365,7 +2397,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2374,7 +2406,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181818</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2422,7 +2454,9 @@
       <c r="U19" s="6">
         <v>10</v>
       </c>
-      <c r="V19" s="6"/>
+      <c r="V19" s="6">
+        <v>9</v>
+      </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -2441,7 +2475,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2450,7 +2484,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>14.181818181818182</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2472,7 +2506,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2498,7 +2532,9 @@
       <c r="U20" s="6">
         <v>10</v>
       </c>
-      <c r="V20" s="6"/>
+      <c r="V20" s="6">
+        <v>9</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -2517,7 +2553,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2526,7 +2562,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>16.909090909090907</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2636,7 +2672,9 @@
       <c r="U22" s="6">
         <v>10</v>
       </c>
-      <c r="V22" s="6"/>
+      <c r="V22" s="6">
+        <v>9</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -2655,7 +2693,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2664,7 +2702,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2686,7 +2724,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2712,7 +2750,9 @@
       <c r="U23" s="12">
         <v>10</v>
       </c>
-      <c r="V23" s="12"/>
+      <c r="V23" s="12">
+        <v>10</v>
+      </c>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -2731,7 +2771,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2740,7 +2780,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>14.181818181818183</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2788,7 +2828,9 @@
       <c r="U24" s="12">
         <v>10</v>
       </c>
-      <c r="V24" s="12"/>
+      <c r="V24" s="12">
+        <v>10</v>
+      </c>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -2807,7 +2849,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -2816,7 +2858,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2838,7 +2880,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2864,7 +2906,9 @@
       <c r="U25" s="12">
         <v>10</v>
       </c>
-      <c r="V25" s="12"/>
+      <c r="V25" s="12">
+        <v>10</v>
+      </c>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
@@ -2883,7 +2927,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -2892,7 +2936,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2940,7 +2984,9 @@
       <c r="U26" s="12">
         <v>10</v>
       </c>
-      <c r="V26" s="12"/>
+      <c r="V26" s="12">
+        <v>10</v>
+      </c>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -2959,7 +3005,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -2968,7 +3014,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>18</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -2990,7 +3036,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3016,7 +3062,9 @@
       <c r="U27" s="12">
         <v>10</v>
       </c>
-      <c r="V27" s="12"/>
+      <c r="V27" s="12">
+        <v>9</v>
+      </c>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
@@ -3035,7 +3083,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3044,7 +3092,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>15.545454545454547</v>
+        <v>18</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3092,7 +3140,9 @@
       <c r="U28" s="12">
         <v>10</v>
       </c>
-      <c r="V28" s="12"/>
+      <c r="V28" s="12">
+        <v>9</v>
+      </c>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
@@ -3111,7 +3161,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3120,7 +3170,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>16.090909090909093</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3142,7 +3192,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3168,7 +3218,9 @@
       <c r="U29" s="12">
         <v>6</v>
       </c>
-      <c r="V29" s="12"/>
+      <c r="V29" s="12">
+        <v>9</v>
+      </c>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
@@ -3187,7 +3239,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3196,7 +3248,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3280,7 +3332,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3306,7 +3358,9 @@
       <c r="U31" s="12">
         <v>10</v>
       </c>
-      <c r="V31" s="12"/>
+      <c r="V31" s="12">
+        <v>9</v>
+      </c>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
@@ -3325,7 +3379,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3334,7 +3388,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3382,7 +3436,9 @@
       <c r="U32" s="12">
         <v>10</v>
       </c>
-      <c r="V32" s="12"/>
+      <c r="V32" s="12">
+        <v>9</v>
+      </c>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
@@ -3401,7 +3457,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3410,7 +3466,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3432,7 +3488,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3458,7 +3514,9 @@
       <c r="U33" s="12">
         <v>10</v>
       </c>
-      <c r="V33" s="12"/>
+      <c r="V33" s="12">
+        <v>10</v>
+      </c>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -3477,7 +3535,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3486,7 +3544,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>15.545454545454547</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3534,7 +3592,9 @@
       <c r="U34" s="12">
         <v>10</v>
       </c>
-      <c r="V34" s="12"/>
+      <c r="V34" s="12">
+        <v>10</v>
+      </c>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
@@ -3553,7 +3613,7 @@
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK34" s="12">
         <f t="shared" si="2"/>
@@ -3562,7 +3622,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3584,7 +3644,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3610,7 +3670,9 @@
       <c r="U35" s="12">
         <v>6</v>
       </c>
-      <c r="V35" s="12"/>
+      <c r="V35" s="12">
+        <v>8</v>
+      </c>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
@@ -3629,7 +3691,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3638,7 +3700,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>13.090909090909092</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3686,7 +3748,9 @@
       <c r="U36" s="12">
         <v>6</v>
       </c>
-      <c r="V36" s="12"/>
+      <c r="V36" s="12">
+        <v>8</v>
+      </c>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
@@ -3705,7 +3769,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -3714,7 +3778,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3736,7 +3800,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3762,7 +3826,9 @@
       <c r="U37" s="12">
         <v>10</v>
       </c>
-      <c r="V37" s="12"/>
+      <c r="V37" s="12">
+        <v>10</v>
+      </c>
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
@@ -3781,7 +3847,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -3790,7 +3856,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3838,7 +3904,9 @@
       <c r="U38" s="12">
         <v>10</v>
       </c>
-      <c r="V38" s="12"/>
+      <c r="V38" s="12">
+        <v>10</v>
+      </c>
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
@@ -3857,7 +3925,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -3866,7 +3934,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>18</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3888,7 +3956,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -3914,7 +3982,9 @@
       <c r="U39" s="12">
         <v>10</v>
       </c>
-      <c r="V39" s="12"/>
+      <c r="V39" s="12">
+        <v>10</v>
+      </c>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
@@ -3933,7 +4003,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -3942,7 +4012,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -3990,7 +4060,9 @@
       <c r="U40" s="12">
         <v>10</v>
       </c>
-      <c r="V40" s="12"/>
+      <c r="V40" s="12">
+        <v>10</v>
+      </c>
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
@@ -4009,7 +4081,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4018,7 +4090,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4040,7 +4112,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4066,7 +4138,9 @@
       <c r="U41" s="12">
         <v>10</v>
       </c>
-      <c r="V41" s="12"/>
+      <c r="V41" s="12">
+        <v>8</v>
+      </c>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
@@ -4085,7 +4159,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4094,7 +4168,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>15.545454545454547</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4116,7 +4190,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4142,7 +4216,9 @@
       <c r="U42" s="12">
         <v>10</v>
       </c>
-      <c r="V42" s="12"/>
+      <c r="V42" s="12">
+        <v>8</v>
+      </c>
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
@@ -4161,7 +4237,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4170,7 +4246,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4194,7 +4270,7 @@
       </c>
       <c r="L43" s="19">
         <f>AVERAGE(L2:L29)</f>
-        <v>8.5833333333333339</v>
+        <v>8.24</v>
       </c>
       <c r="M43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4232,9 +4308,9 @@
         <f>AVERAGE(U2:U29)</f>
         <v>9.1111111111111107</v>
       </c>
-      <c r="V43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="V43" s="19">
+        <f>AVERAGE(V2:V29)</f>
+        <v>8.9600000000000009</v>
       </c>
       <c r="W43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4290,7 +4366,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>15.428571428571429</v>
+        <v>22.904761904761905</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4302,7 +4378,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>12.435064935064934</v>
+        <v>14.474025974025976</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4364,9 +4440,9 @@
         <f t="shared" si="5"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="V44" s="19" t="e">
+      <c r="V44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3157894736842106</v>
       </c>
       <c r="W44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4422,7 +4498,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>16.399999999999999</v>
+        <v>25.25</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4434,7 +4510,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>13.609090909090909</v>
+        <v>16.022727272727273</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4458,7 +4534,7 @@
       </c>
       <c r="L45" s="19">
         <f t="shared" si="6"/>
-        <v>8.7222222222222214</v>
+        <v>8.486486486486486</v>
       </c>
       <c r="M45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4496,9 +4572,9 @@
         <f t="shared" si="6"/>
         <v>9.1794871794871788</v>
       </c>
-      <c r="V45" s="19" t="e">
+      <c r="V45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.0270270270270263</v>
       </c>
       <c r="W45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4554,7 +4630,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>15.902439024390244</v>
+        <v>24.048780487804876</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4566,7 +4642,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>13.007760532150778</v>
+        <v>15.229490022172953</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4590,7 +4666,7 @@
       </c>
       <c r="L46" s="19">
         <f t="shared" si="7"/>
-        <v>1.1858959508950204</v>
+        <v>1.8502495570661344</v>
       </c>
       <c r="M46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4628,9 +4704,9 @@
         <f t="shared" si="7"/>
         <v>1.9449231465237753</v>
       </c>
-      <c r="V46" s="19" t="e">
+      <c r="V46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.7714790820492734</v>
       </c>
       <c r="W46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4686,7 +4762,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>4.7581765312395703</v>
+        <v>7.4998373966113263</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4698,7 +4774,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>3.9223072360051279</v>
+        <v>4.6953902048252951</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4762,7 +4838,7 @@
       </c>
       <c r="V47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W47" s="19">
         <f t="shared" si="8"/>
@@ -4818,7 +4894,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -4830,7 +4906,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>16.090909090909093</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -4854,7 +4930,7 @@
       </c>
       <c r="L48" s="43">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M48" s="43">
         <f t="shared" si="9"/>
@@ -4968,16 +5044,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4988,6 +5054,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7B257856-7C20-44DA-8795-C49BC0C9D30B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E6D53557-EDF2-4BFC-AA58-61B7D1598D0B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,14 +738,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1806,7 +1806,9 @@
       <c r="K11" s="6">
         <v>9</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>10</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1835,7 +1837,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -1848,7 +1850,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1870,7 +1872,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2020,7 +2022,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2172,7 +2174,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2472,7 +2474,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2686,7 +2688,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2838,7 +2840,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2990,7 +2992,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3142,7 +3144,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3280,7 +3282,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3432,7 +3434,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3584,7 +3586,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3736,7 +3738,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3888,7 +3890,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4040,7 +4042,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4116,7 +4118,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4194,7 +4196,7 @@
       </c>
       <c r="L43" s="19">
         <f>AVERAGE(L2:L29)</f>
-        <v>8.5833333333333339</v>
+        <v>8.64</v>
       </c>
       <c r="M43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4286,7 +4288,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>30.166666666666668</v>
+        <v>30.642857142857142</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -4302,7 +4304,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>12.435064935064934</v>
+        <v>12.564935064935066</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4458,7 +4460,7 @@
       </c>
       <c r="L45" s="19">
         <f t="shared" si="6"/>
-        <v>8.7222222222222214</v>
+        <v>8.7567567567567561</v>
       </c>
       <c r="M45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4550,7 +4552,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>31.792682926829269</v>
+        <v>32.036585365853661</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -4566,7 +4568,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>13.007760532150778</v>
+        <v>13.07427937915743</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4590,7 +4592,7 @@
       </c>
       <c r="L46" s="19">
         <f t="shared" si="7"/>
-        <v>1.1858959508950204</v>
+        <v>1.1880283714673703</v>
       </c>
       <c r="M46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4682,7 +4684,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>9.9177716812775696</v>
+        <v>9.8946893861697589</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -4698,7 +4700,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>3.9223072360051279</v>
+        <v>3.9279113024814123</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4968,16 +4970,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4988,6 +4980,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D2A0CE0D-1E72-4BEC-BBA2-C51FE7A52CE9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{12934432-F63D-4423-AA15-E2068173D3EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,14 +738,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1139,7 +1139,9 @@
         <v>10</v>
       </c>
       <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="W2" s="6">
+        <v>9</v>
+      </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
@@ -1157,7 +1159,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1166,7 +1168,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>14.181818181818182</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1215,7 +1217,9 @@
         <v>10</v>
       </c>
       <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="W3" s="6">
+        <v>9</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1242,7 +1246,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1264,7 +1268,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1291,7 +1295,9 @@
         <v>10</v>
       </c>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="W4" s="6">
+        <v>10</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -1309,7 +1315,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1318,7 +1324,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>16.090909090909093</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1367,7 +1373,9 @@
         <v>10</v>
       </c>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="6">
+        <v>10</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -1385,7 +1393,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1394,7 +1402,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181818</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1416,7 +1424,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1443,7 +1451,9 @@
         <v>9</v>
       </c>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="6">
+        <v>10</v>
+      </c>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -1461,7 +1471,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1470,7 +1480,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1519,7 +1529,9 @@
         <v>9</v>
       </c>
       <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="W7" s="6">
+        <v>10</v>
+      </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
@@ -1537,7 +1549,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1546,7 +1558,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>14.31818181818182</v>
+        <v>17.045454545454547</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1568,7 +1580,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1595,7 +1607,9 @@
         <v>10</v>
       </c>
       <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="W8" s="6">
+        <v>10</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -1613,7 +1627,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1622,7 +1636,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>13.09090909090909</v>
+        <v>15.818181818181817</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1671,7 +1685,9 @@
         <v>10</v>
       </c>
       <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="W9" s="6">
+        <v>10</v>
+      </c>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -1689,7 +1705,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1698,7 +1714,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1720,7 +1736,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1747,7 +1763,9 @@
         <v>10</v>
       </c>
       <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="6">
+        <v>8</v>
+      </c>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1765,7 +1783,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1774,7 +1792,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.181818181818183</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1806,7 +1824,9 @@
       <c r="K11" s="6">
         <v>9</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>10</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1835,7 +1855,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -1848,7 +1868,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1870,7 +1890,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1897,7 +1917,9 @@
         <v>10</v>
       </c>
       <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="6">
+        <v>10</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -1915,7 +1937,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -1924,7 +1946,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1956,7 +1978,9 @@
       <c r="K13" s="50">
         <v>0</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1971,7 +1995,9 @@
         <v>0</v>
       </c>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="6">
+        <v>10</v>
+      </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -1989,7 +2015,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -1998,7 +2024,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>1.0909090909090908</v>
+        <v>3.8181818181818179</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2020,7 +2046,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2047,7 +2073,9 @@
         <v>7</v>
       </c>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6">
+        <v>7</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -2065,7 +2093,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2074,7 +2102,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>13.363636363636363</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2123,7 +2151,9 @@
         <v>7</v>
       </c>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="6">
+        <v>7</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
@@ -2141,7 +2171,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2150,7 +2180,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>12.818181818181818</v>
+        <v>14.727272727272728</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2172,7 +2202,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2271,7 +2301,9 @@
         <v>9</v>
       </c>
       <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="W17" s="6">
+        <v>8</v>
+      </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -2289,7 +2321,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2298,7 +2330,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2320,7 +2352,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2347,7 +2379,9 @@
         <v>10</v>
       </c>
       <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="W18" s="6">
+        <v>10</v>
+      </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -2365,7 +2399,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2374,7 +2408,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181818</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2423,7 +2457,9 @@
         <v>10</v>
       </c>
       <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="6">
+        <v>10</v>
+      </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -2441,7 +2477,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2450,7 +2486,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>14.181818181818182</v>
+        <v>16.909090909090907</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2472,7 +2508,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2499,7 +2535,9 @@
         <v>10</v>
       </c>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="6">
+        <v>8</v>
+      </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -2517,7 +2555,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2526,7 +2564,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>16.636363636363637</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2637,7 +2675,9 @@
         <v>10</v>
       </c>
       <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="W22" s="6">
+        <v>8</v>
+      </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -2655,7 +2695,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2664,7 +2704,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2686,7 +2726,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2713,7 +2753,9 @@
         <v>10</v>
       </c>
       <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
+      <c r="W23" s="12">
+        <v>10</v>
+      </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -2731,7 +2773,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2740,7 +2782,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>14.181818181818183</v>
+        <v>16.90909090909091</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2789,7 +2831,9 @@
         <v>10</v>
       </c>
       <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
+      <c r="W24" s="12">
+        <v>10</v>
+      </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
@@ -2807,7 +2851,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -2816,7 +2860,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2838,7 +2882,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2865,7 +2909,9 @@
         <v>10</v>
       </c>
       <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
+      <c r="W25" s="12">
+        <v>10</v>
+      </c>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -2883,7 +2929,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -2892,7 +2938,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2941,7 +2987,9 @@
         <v>10</v>
       </c>
       <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="W26" s="12">
+        <v>10</v>
+      </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
@@ -2959,7 +3007,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -2968,7 +3016,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>18</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -2990,7 +3038,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3017,7 +3065,9 @@
         <v>10</v>
       </c>
       <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
+      <c r="W27" s="12">
+        <v>8</v>
+      </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
@@ -3035,7 +3085,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3044,7 +3094,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>15.545454545454547</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3093,7 +3143,9 @@
         <v>10</v>
       </c>
       <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
+      <c r="W28" s="12">
+        <v>8</v>
+      </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
@@ -3111,7 +3163,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3120,7 +3172,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>16.090909090909093</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3142,7 +3194,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3169,7 +3221,9 @@
         <v>6</v>
       </c>
       <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
+      <c r="W29" s="12">
+        <v>10</v>
+      </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -3187,7 +3241,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3196,7 +3250,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3280,7 +3334,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3307,7 +3361,9 @@
         <v>10</v>
       </c>
       <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
+      <c r="W31" s="12">
+        <v>10</v>
+      </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
@@ -3325,7 +3381,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3334,7 +3390,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3383,7 +3439,9 @@
         <v>10</v>
       </c>
       <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
+      <c r="W32" s="12">
+        <v>10</v>
+      </c>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -3401,7 +3459,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3410,7 +3468,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>14.454545454545455</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3432,7 +3490,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3459,7 +3517,9 @@
         <v>10</v>
       </c>
       <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
+      <c r="W33" s="12">
+        <v>10</v>
+      </c>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
@@ -3477,7 +3537,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3486,7 +3546,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>15.545454545454547</v>
+        <v>18.272727272727273</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3535,7 +3595,9 @@
         <v>10</v>
       </c>
       <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
+      <c r="W34" s="12">
+        <v>10</v>
+      </c>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
@@ -3553,7 +3615,7 @@
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK34" s="12">
         <f t="shared" si="2"/>
@@ -3562,7 +3624,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17.727272727272727</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3584,7 +3646,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3611,7 +3673,9 @@
         <v>6</v>
       </c>
       <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
+      <c r="W35" s="12">
+        <v>10</v>
+      </c>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
@@ -3629,7 +3693,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3638,7 +3702,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>13.090909090909092</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3687,7 +3751,9 @@
         <v>6</v>
       </c>
       <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
+      <c r="W36" s="12">
+        <v>10</v>
+      </c>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
@@ -3705,7 +3771,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -3714,7 +3780,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>12.545454545454545</v>
+        <v>15.272727272727272</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3736,7 +3802,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3763,7 +3829,9 @@
         <v>10</v>
       </c>
       <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
+      <c r="W37" s="12">
+        <v>10</v>
+      </c>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -3781,7 +3849,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -3790,7 +3858,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3839,7 +3907,9 @@
         <v>10</v>
       </c>
       <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
+      <c r="W38" s="12">
+        <v>10</v>
+      </c>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -3857,7 +3927,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -3866,7 +3936,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>15.272727272727273</v>
+        <v>18</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3888,7 +3958,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -3915,7 +3985,9 @@
         <v>10</v>
       </c>
       <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
+      <c r="W39" s="12">
+        <v>10</v>
+      </c>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -3933,7 +4005,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -3942,7 +4014,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -3991,7 +4063,9 @@
         <v>10</v>
       </c>
       <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="W40" s="12">
+        <v>10</v>
+      </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4009,7 +4083,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4018,7 +4092,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>13.636363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4040,7 +4114,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4067,7 +4141,9 @@
         <v>10</v>
       </c>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
+      <c r="W41" s="12">
+        <v>10</v>
+      </c>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
@@ -4085,7 +4161,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4094,7 +4170,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>16.090909090909093</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4116,7 +4192,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4143,7 +4219,9 @@
         <v>10</v>
       </c>
       <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
+      <c r="W42" s="12">
+        <v>10</v>
+      </c>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4161,7 +4239,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4170,7 +4248,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>11.454545454545453</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4194,7 +4272,7 @@
       </c>
       <c r="L43" s="19">
         <f>AVERAGE(L2:L29)</f>
-        <v>8.5833333333333339</v>
+        <v>8.3076923076923084</v>
       </c>
       <c r="M43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4236,9 +4314,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="W43" s="19">
+        <f>AVERAGE(W2:W29)</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4286,11 +4364,11 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>30.166666666666668</v>
+        <v>30.642857142857142</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>15.428571428571429</v>
+        <v>23.238095238095237</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4302,7 +4380,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>12.435064935064934</v>
+        <v>14.694805194805193</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4368,9 +4446,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W44" s="19" t="e">
+      <c r="W44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.7894736842105257</v>
       </c>
       <c r="X44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4422,7 +4500,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>16.399999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4434,7 +4512,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>13.609090909090909</v>
+        <v>16.145454545454548</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4458,7 +4536,7 @@
       </c>
       <c r="L45" s="19">
         <f t="shared" si="6"/>
-        <v>8.7222222222222214</v>
+        <v>8.526315789473685</v>
       </c>
       <c r="M45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4500,9 +4578,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W45" s="19" t="e">
+      <c r="W45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="X45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4550,11 +4628,11 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>31.792682926829269</v>
+        <v>32.036585365853661</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>15.902439024390244</v>
+        <v>24.439024390243901</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4566,7 +4644,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>13.007760532150778</v>
+        <v>15.402439024390244</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4590,7 +4668,7 @@
       </c>
       <c r="L46" s="19">
         <f t="shared" si="7"/>
-        <v>1.1858959508950204</v>
+        <v>1.8415158577483244</v>
       </c>
       <c r="M46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4632,9 +4710,9 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W46" s="19" t="e">
+      <c r="W46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.96016765302832519</v>
       </c>
       <c r="X46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4682,11 +4760,11 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>9.9177716812775696</v>
+        <v>9.8946893861697589</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>4.7581765312395703</v>
+        <v>6.9030746066075688</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4698,7 +4776,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>3.9223072360051279</v>
+        <v>4.4634831599287921</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4766,7 +4844,7 @@
       </c>
       <c r="W47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X47" s="19">
         <f t="shared" si="8"/>
@@ -4818,7 +4896,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -4830,7 +4908,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>16.090909090909093</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -4854,7 +4932,7 @@
       </c>
       <c r="L48" s="43">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M48" s="43">
         <f t="shared" si="9"/>
@@ -4898,7 +4976,7 @@
       </c>
       <c r="W48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X48" s="43">
         <f t="shared" si="9"/>
@@ -4968,16 +5046,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -4988,6 +5056,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="102_{4F003ECE-0D53-4303-9E14-E2C16E6C176D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{12934432-F63D-4423-AA15-E2068173D3EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FD098-7B9D-4BFB-8756-04254F7D6DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,14 +738,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -966,7 +966,7 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1841,7 +1841,9 @@
         <v>10</v>
       </c>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="6">
+        <v>10</v>
+      </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -1859,7 +1861,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -1868,7 +1870,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>14.727272727272727</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1890,7 +1892,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2046,7 +2048,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2202,7 +2204,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2352,7 +2354,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2726,7 +2728,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2882,7 +2884,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3038,7 +3040,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3194,7 +3196,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3334,7 +3336,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3490,7 +3492,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3646,7 +3648,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3802,7 +3804,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3958,7 +3960,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4114,7 +4116,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4192,7 +4194,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="54"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4316,7 +4318,7 @@
       </c>
       <c r="W43" s="19">
         <f>AVERAGE(W2:W29)</f>
-        <v>9.1999999999999993</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="X43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4368,7 +4370,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>23.238095238095237</v>
+        <v>23.714285714285715</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4380,7 +4382,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>14.694805194805193</v>
+        <v>14.824675324675324</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4580,7 +4582,7 @@
       </c>
       <c r="W45" s="19">
         <f t="shared" si="6"/>
-        <v>9.4594594594594597</v>
+        <v>9.473684210526315</v>
       </c>
       <c r="X45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4632,7 +4634,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>24.439024390243901</v>
+        <v>24.682926829268293</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4644,7 +4646,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>15.402439024390244</v>
+        <v>15.468957871396896</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4712,7 +4714,7 @@
       </c>
       <c r="W46" s="19">
         <f t="shared" si="7"/>
-        <v>0.96016765302832519</v>
+        <v>0.95115412413134293</v>
       </c>
       <c r="X46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4764,7 +4766,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>6.9030746066075688</v>
+        <v>6.8463093137479687</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4776,7 +4778,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>4.4634831599287921</v>
+        <v>4.4734806163471497</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5046,6 +5048,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5056,16 +5068,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9FD098-7B9D-4BFB-8756-04254F7D6DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5884BB-54C8-4037-8348-5F481239A533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -289,6 +289,10 @@
   </si>
   <si>
     <t>최저</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -738,14 +742,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -966,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1112,7 +1116,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1125,7 +1129,9 @@
       <c r="L2" s="6">
         <v>8</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6">
+        <v>8</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -1138,7 +1144,9 @@
       <c r="U2" s="6">
         <v>10</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="V2" s="6">
+        <v>10</v>
+      </c>
       <c r="W2" s="6">
         <v>9</v>
       </c>
@@ -1155,11 +1163,11 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1168,7 +1176,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>16.636363636363637</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1203,7 +1211,9 @@
       <c r="L3" s="6">
         <v>7</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>8</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -1216,7 +1226,9 @@
       <c r="U3" s="6">
         <v>10</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="V3" s="6">
+        <v>10</v>
+      </c>
       <c r="W3" s="6">
         <v>9</v>
       </c>
@@ -1233,11 +1245,11 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1246,7 +1258,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181817</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1268,7 +1280,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1281,7 +1293,9 @@
       <c r="L4" s="6">
         <v>10</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>10</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
@@ -1294,7 +1308,9 @@
       <c r="U4" s="6">
         <v>10</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="V4" s="6">
+        <v>10</v>
+      </c>
       <c r="W4" s="6">
         <v>10</v>
       </c>
@@ -1311,11 +1327,11 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1324,7 +1340,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1359,7 +1375,9 @@
       <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>10</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1372,7 +1390,9 @@
       <c r="U5" s="6">
         <v>10</v>
       </c>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6">
+        <v>10</v>
+      </c>
       <c r="W5" s="6">
         <v>10</v>
       </c>
@@ -1389,11 +1409,11 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1402,7 +1422,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>24</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1424,7 +1444,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1437,7 +1457,9 @@
       <c r="L6" s="6">
         <v>7</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>10</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -1450,7 +1472,9 @@
       <c r="U6" s="6">
         <v>9</v>
       </c>
-      <c r="V6" s="6"/>
+      <c r="V6" s="6">
+        <v>10</v>
+      </c>
       <c r="W6" s="6">
         <v>10</v>
       </c>
@@ -1467,11 +1491,11 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1480,7 +1504,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1515,7 +1539,9 @@
       <c r="L7" s="6">
         <v>10</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>10</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1528,7 +1554,9 @@
       <c r="U7" s="6">
         <v>9</v>
       </c>
-      <c r="V7" s="6"/>
+      <c r="V7" s="6">
+        <v>10</v>
+      </c>
       <c r="W7" s="6">
         <v>10</v>
       </c>
@@ -1545,11 +1573,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1558,7 +1586,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>17.045454545454547</v>
+        <v>22.5</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1580,7 +1608,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1593,7 +1621,9 @@
       <c r="L8" s="6">
         <v>7</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>10</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -1606,7 +1636,9 @@
       <c r="U8" s="6">
         <v>10</v>
       </c>
-      <c r="V8" s="6"/>
+      <c r="V8" s="6">
+        <v>10</v>
+      </c>
       <c r="W8" s="6">
         <v>10</v>
       </c>
@@ -1623,11 +1655,11 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1636,7 +1668,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>15.818181818181817</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1671,7 +1703,9 @@
       <c r="L9" s="6">
         <v>9</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1684,7 +1718,9 @@
       <c r="U9" s="6">
         <v>10</v>
       </c>
-      <c r="V9" s="6"/>
+      <c r="V9" s="6">
+        <v>10</v>
+      </c>
       <c r="W9" s="6">
         <v>10</v>
       </c>
@@ -1701,11 +1737,11 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1714,7 +1750,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>22.363636363636367</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1736,7 +1772,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1749,7 +1785,9 @@
       <c r="L10" s="6">
         <v>9</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>10</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1762,7 +1800,9 @@
       <c r="U10" s="6">
         <v>10</v>
       </c>
-      <c r="V10" s="6"/>
+      <c r="V10" s="6">
+        <v>10</v>
+      </c>
       <c r="W10" s="6">
         <v>8</v>
       </c>
@@ -1779,11 +1819,11 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1792,7 +1832,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>17.181818181818183</v>
+        <v>22.636363636363633</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1827,7 +1867,9 @@
       <c r="L11" s="6">
         <v>10</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6">
+        <v>10</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -1840,7 +1882,9 @@
       <c r="U11" s="6">
         <v>10</v>
       </c>
-      <c r="V11" s="6"/>
+      <c r="V11" s="6">
+        <v>10</v>
+      </c>
       <c r="W11" s="6">
         <v>10</v>
       </c>
@@ -1857,11 +1901,11 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -1870,7 +1914,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1892,7 +1936,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1905,7 +1949,9 @@
       <c r="L12" s="6">
         <v>9</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6">
+        <v>7</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -1918,7 +1964,9 @@
       <c r="U12" s="6">
         <v>10</v>
       </c>
-      <c r="V12" s="6"/>
+      <c r="V12" s="6">
+        <v>9</v>
+      </c>
       <c r="W12" s="6">
         <v>10</v>
       </c>
@@ -1935,11 +1983,11 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -1948,7 +1996,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>15.545454545454545</v>
+        <v>19.90909090909091</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -1980,10 +2028,12 @@
       <c r="K13" s="50">
         <v>0</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6"/>
+      <c r="L13" s="50">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>4</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1993,12 +2043,14 @@
       <c r="T13" s="36">
         <v>4</v>
       </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6">
-        <v>10</v>
+      <c r="U13" s="50">
+        <v>0</v>
+      </c>
+      <c r="V13" s="50">
+        <v>0</v>
+      </c>
+      <c r="W13" s="50">
+        <v>0</v>
       </c>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -2013,11 +2065,11 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -2026,7 +2078,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>3.8181818181818179</v>
+        <v>2.1818181818181817</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2048,7 +2100,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2061,7 +2113,9 @@
       <c r="L14" s="6">
         <v>6</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6">
+        <v>8</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2074,7 +2128,9 @@
       <c r="U14" s="6">
         <v>7</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="6">
+        <v>7</v>
+      </c>
       <c r="W14" s="6">
         <v>7</v>
       </c>
@@ -2091,11 +2147,11 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2104,7 +2160,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>13.363636363636363</v>
+        <v>17.454545454545453</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2139,7 +2195,9 @@
       <c r="L15" s="6">
         <v>10</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6">
+        <v>8</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2152,7 +2210,9 @@
       <c r="U15" s="6">
         <v>7</v>
       </c>
-      <c r="V15" s="6"/>
+      <c r="V15" s="6">
+        <v>7</v>
+      </c>
       <c r="W15" s="6">
         <v>7</v>
       </c>
@@ -2169,11 +2229,11 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2182,7 +2242,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>14.727272727272728</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2204,7 +2264,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2260,10 +2320,10 @@
     </row>
     <row r="17" spans="1:40" ht="14.25">
       <c r="A17" s="26" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B17" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5">
         <v>202202117</v>
@@ -2289,7 +2349,9 @@
       <c r="L17" s="6">
         <v>9</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6">
+        <v>8</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2302,7 +2364,9 @@
       <c r="U17" s="6">
         <v>9</v>
       </c>
-      <c r="V17" s="6"/>
+      <c r="V17" s="6">
+        <v>8</v>
+      </c>
       <c r="W17" s="6">
         <v>8</v>
       </c>
@@ -2319,11 +2383,11 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2332,7 +2396,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>14.181818181818182</v>
+        <v>18.545454545454547</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2354,7 +2418,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2367,7 +2431,9 @@
       <c r="L18" s="6">
         <v>10</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6">
+        <v>10</v>
+      </c>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -2380,7 +2446,9 @@
       <c r="U18" s="6">
         <v>10</v>
       </c>
-      <c r="V18" s="6"/>
+      <c r="V18" s="6">
+        <v>9</v>
+      </c>
       <c r="W18" s="6">
         <v>10</v>
       </c>
@@ -2397,11 +2465,11 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2410,7 +2478,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>23.727272727272727</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2445,7 +2513,9 @@
       <c r="L19" s="6">
         <v>7</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <v>9</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2458,7 +2528,9 @@
       <c r="U19" s="6">
         <v>10</v>
       </c>
-      <c r="V19" s="6"/>
+      <c r="V19" s="6">
+        <v>9</v>
+      </c>
       <c r="W19" s="6">
         <v>10</v>
       </c>
@@ -2475,11 +2547,11 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2488,7 +2560,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>16.909090909090907</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2510,7 +2582,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2523,7 +2595,9 @@
       <c r="L20" s="6">
         <v>8</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>6</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2536,7 +2610,9 @@
       <c r="U20" s="6">
         <v>10</v>
       </c>
-      <c r="V20" s="6"/>
+      <c r="V20" s="6">
+        <v>9</v>
+      </c>
       <c r="W20" s="6">
         <v>8</v>
       </c>
@@ -2553,11 +2629,11 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2566,7 +2642,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>16.636363636363637</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2663,7 +2739,9 @@
       <c r="L22" s="6">
         <v>9</v>
       </c>
-      <c r="M22" s="6"/>
+      <c r="M22" s="6">
+        <v>10</v>
+      </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -2676,7 +2754,9 @@
       <c r="U22" s="6">
         <v>10</v>
       </c>
-      <c r="V22" s="6"/>
+      <c r="V22" s="6">
+        <v>9</v>
+      </c>
       <c r="W22" s="6">
         <v>8</v>
       </c>
@@ -2693,11 +2773,11 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2706,7 +2786,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.636363636363637</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2728,7 +2808,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2741,7 +2821,9 @@
       <c r="L23" s="12">
         <v>7</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12">
+        <v>10</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -2754,7 +2836,9 @@
       <c r="U23" s="12">
         <v>10</v>
       </c>
-      <c r="V23" s="12"/>
+      <c r="V23" s="12">
+        <v>10</v>
+      </c>
       <c r="W23" s="12">
         <v>10</v>
       </c>
@@ -2771,11 +2855,11 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2784,7 +2868,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>16.90909090909091</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2819,7 +2903,9 @@
       <c r="L24" s="12">
         <v>7</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="12">
+        <v>10</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -2832,7 +2918,9 @@
       <c r="U24" s="12">
         <v>10</v>
       </c>
-      <c r="V24" s="12"/>
+      <c r="V24" s="12">
+        <v>10</v>
+      </c>
       <c r="W24" s="12">
         <v>10</v>
       </c>
@@ -2849,11 +2937,11 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -2862,7 +2950,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2884,7 +2972,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2897,7 +2985,9 @@
       <c r="L25" s="12">
         <v>8</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="12">
+        <v>10</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -2910,7 +3000,9 @@
       <c r="U25" s="12">
         <v>10</v>
       </c>
-      <c r="V25" s="12"/>
+      <c r="V25" s="12">
+        <v>10</v>
+      </c>
       <c r="W25" s="12">
         <v>10</v>
       </c>
@@ -2927,11 +3019,11 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -2940,7 +3032,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -2975,7 +3067,9 @@
       <c r="L26" s="12">
         <v>9</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="12">
+        <v>8</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -2988,7 +3082,9 @@
       <c r="U26" s="12">
         <v>10</v>
       </c>
-      <c r="V26" s="12"/>
+      <c r="V26" s="12">
+        <v>10</v>
+      </c>
       <c r="W26" s="12">
         <v>10</v>
       </c>
@@ -3005,11 +3101,11 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3018,7 +3114,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3040,7 +3136,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3053,7 +3149,9 @@
       <c r="L27" s="12">
         <v>10</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="12">
+        <v>8</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -3066,7 +3164,9 @@
       <c r="U27" s="12">
         <v>10</v>
       </c>
-      <c r="V27" s="12"/>
+      <c r="V27" s="12">
+        <v>9</v>
+      </c>
       <c r="W27" s="12">
         <v>8</v>
       </c>
@@ -3083,11 +3183,11 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3096,7 +3196,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>22.363636363636367</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3131,7 +3231,9 @@
       <c r="L28" s="12">
         <v>10</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="12">
+        <v>10</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -3144,7 +3246,9 @@
       <c r="U28" s="12">
         <v>10</v>
       </c>
-      <c r="V28" s="12"/>
+      <c r="V28" s="12">
+        <v>9</v>
+      </c>
       <c r="W28" s="12">
         <v>8</v>
       </c>
@@ -3161,11 +3265,11 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3174,7 +3278,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>18.272727272727273</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3196,7 +3300,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3209,7 +3313,9 @@
       <c r="L29" s="12">
         <v>10</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12">
+        <v>10</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -3222,7 +3328,9 @@
       <c r="U29" s="12">
         <v>6</v>
       </c>
-      <c r="V29" s="12"/>
+      <c r="V29" s="12">
+        <v>9</v>
+      </c>
       <c r="W29" s="12">
         <v>10</v>
       </c>
@@ -3239,11 +3347,11 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3252,7 +3360,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.636363636363633</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3336,7 +3444,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3349,7 +3457,9 @@
       <c r="L31" s="12">
         <v>10</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <v>10</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -3362,7 +3472,9 @@
       <c r="U31" s="12">
         <v>10</v>
       </c>
-      <c r="V31" s="12"/>
+      <c r="V31" s="12">
+        <v>9</v>
+      </c>
       <c r="W31" s="12">
         <v>10</v>
       </c>
@@ -3379,11 +3491,11 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3392,7 +3504,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3427,7 +3539,9 @@
       <c r="L32" s="12">
         <v>10</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="12">
+        <v>9</v>
+      </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -3440,7 +3554,9 @@
       <c r="U32" s="12">
         <v>10</v>
       </c>
-      <c r="V32" s="12"/>
+      <c r="V32" s="12">
+        <v>9</v>
+      </c>
       <c r="W32" s="12">
         <v>10</v>
       </c>
@@ -3457,11 +3573,11 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3470,7 +3586,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>22.090909090909093</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3479,7 +3595,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="11">
         <v>202002176</v>
@@ -3492,7 +3608,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3505,7 +3621,9 @@
       <c r="L33" s="12">
         <v>9</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="12">
+        <v>7</v>
+      </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -3518,7 +3636,9 @@
       <c r="U33" s="12">
         <v>10</v>
       </c>
-      <c r="V33" s="12"/>
+      <c r="V33" s="12">
+        <v>10</v>
+      </c>
       <c r="W33" s="12">
         <v>10</v>
       </c>
@@ -3535,11 +3655,11 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3548,11 +3668,11 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>18.272727272727273</v>
+        <v>22.90909090909091</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
-    <row r="34" spans="1:40" ht="14.25">
+    <row r="34" spans="1:40" ht="14.25" hidden="1">
       <c r="A34" s="27" t="s">
         <v>62</v>
       </c>
@@ -3596,7 +3716,9 @@
       <c r="U34" s="12">
         <v>10</v>
       </c>
-      <c r="V34" s="12"/>
+      <c r="V34" s="12">
+        <v>10</v>
+      </c>
       <c r="W34" s="12">
         <v>10</v>
       </c>
@@ -3617,7 +3739,7 @@
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK34" s="12">
         <f t="shared" si="2"/>
@@ -3626,7 +3748,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>17.727272727272727</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -3648,7 +3770,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3661,7 +3783,9 @@
       <c r="L35" s="12">
         <v>9</v>
       </c>
-      <c r="M35" s="12"/>
+      <c r="M35" s="12">
+        <v>10</v>
+      </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
@@ -3674,7 +3798,9 @@
       <c r="U35" s="12">
         <v>6</v>
       </c>
-      <c r="V35" s="12"/>
+      <c r="V35" s="12">
+        <v>8</v>
+      </c>
       <c r="W35" s="12">
         <v>10</v>
       </c>
@@ -3691,11 +3817,11 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3704,7 +3830,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>15.818181818181818</v>
+        <v>20.727272727272727</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3739,7 +3865,9 @@
       <c r="L36" s="12">
         <v>9</v>
       </c>
-      <c r="M36" s="12"/>
+      <c r="M36" s="12">
+        <v>8</v>
+      </c>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -3752,7 +3880,9 @@
       <c r="U36" s="12">
         <v>6</v>
       </c>
-      <c r="V36" s="12"/>
+      <c r="V36" s="12">
+        <v>8</v>
+      </c>
       <c r="W36" s="12">
         <v>10</v>
       </c>
@@ -3769,11 +3899,11 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -3782,7 +3912,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>15.272727272727272</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3804,7 +3934,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3817,7 +3947,9 @@
       <c r="L37" s="12">
         <v>10</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="12">
+        <v>8</v>
+      </c>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -3830,7 +3962,9 @@
       <c r="U37" s="12">
         <v>10</v>
       </c>
-      <c r="V37" s="12"/>
+      <c r="V37" s="12">
+        <v>10</v>
+      </c>
       <c r="W37" s="12">
         <v>10</v>
       </c>
@@ -3847,11 +3981,11 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -3860,7 +3994,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -3895,7 +4029,9 @@
       <c r="L38" s="12">
         <v>10</v>
       </c>
-      <c r="M38" s="12"/>
+      <c r="M38" s="12">
+        <v>10</v>
+      </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
@@ -3908,7 +4044,9 @@
       <c r="U38" s="12">
         <v>10</v>
       </c>
-      <c r="V38" s="12"/>
+      <c r="V38" s="12">
+        <v>10</v>
+      </c>
       <c r="W38" s="12">
         <v>10</v>
       </c>
@@ -3925,11 +4063,11 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -3938,7 +4076,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -3960,7 +4098,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -3973,7 +4111,9 @@
       <c r="L39" s="12">
         <v>8</v>
       </c>
-      <c r="M39" s="12"/>
+      <c r="M39" s="12">
+        <v>9</v>
+      </c>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
@@ -3986,7 +4126,9 @@
       <c r="U39" s="12">
         <v>10</v>
       </c>
-      <c r="V39" s="12"/>
+      <c r="V39" s="12">
+        <v>10</v>
+      </c>
       <c r="W39" s="12">
         <v>10</v>
       </c>
@@ -4003,11 +4145,11 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4016,7 +4158,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>16.09090909090909</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4051,7 +4193,9 @@
       <c r="L40" s="12">
         <v>8</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="12">
+        <v>8</v>
+      </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -4064,7 +4208,9 @@
       <c r="U40" s="12">
         <v>10</v>
       </c>
-      <c r="V40" s="12"/>
+      <c r="V40" s="12">
+        <v>10</v>
+      </c>
       <c r="W40" s="12">
         <v>10</v>
       </c>
@@ -4081,11 +4227,11 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4094,7 +4240,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>16.363636363636363</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4116,7 +4262,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4129,7 +4275,9 @@
       <c r="L41" s="12">
         <v>9</v>
       </c>
-      <c r="M41" s="12"/>
+      <c r="M41" s="12">
+        <v>8</v>
+      </c>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
@@ -4142,7 +4290,9 @@
       <c r="U41" s="12">
         <v>10</v>
       </c>
-      <c r="V41" s="12"/>
+      <c r="V41" s="12">
+        <v>8</v>
+      </c>
       <c r="W41" s="12">
         <v>10</v>
       </c>
@@ -4159,11 +4309,11 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4172,7 +4322,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>16.090909090909093</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4194,7 +4344,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4207,7 +4357,9 @@
       <c r="L42" s="12">
         <v>8</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="12">
+        <v>9</v>
+      </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
@@ -4220,7 +4372,9 @@
       <c r="U42" s="12">
         <v>10</v>
       </c>
-      <c r="V42" s="12"/>
+      <c r="V42" s="12">
+        <v>8</v>
+      </c>
       <c r="W42" s="12">
         <v>10</v>
       </c>
@@ -4237,11 +4391,11 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4250,7 +4404,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>14.181818181818182</v>
+        <v>18.81818181818182</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4276,9 +4430,9 @@
         <f>AVERAGE(L2:L29)</f>
         <v>8.3076923076923084</v>
       </c>
-      <c r="M43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="M43" s="19">
+        <f>AVERAGE(M2:M29)</f>
+        <v>8.8076923076923084</v>
       </c>
       <c r="N43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4312,13 +4466,13 @@
         <f>AVERAGE(U2:U29)</f>
         <v>9.1111111111111107</v>
       </c>
-      <c r="V43" s="19" t="e">
+      <c r="V43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.7894736842105257</v>
       </c>
       <c r="W43" s="19">
         <f>AVERAGE(W2:W29)</f>
-        <v>9.2307692307692299</v>
+        <v>8.8461538461538467</v>
       </c>
       <c r="X43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4366,11 +4520,11 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>30.642857142857142</v>
+        <v>38.404761904761905</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>23.714285714285715</v>
+        <v>31.19047619047619</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4382,7 +4536,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>14.824675324675324</v>
+        <v>18.980519480519483</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4408,9 +4562,9 @@
         <f t="shared" si="5"/>
         <v>8.8947368421052637</v>
       </c>
-      <c r="M44" s="19" t="e">
+      <c r="M44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9</v>
       </c>
       <c r="N44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4444,9 +4598,9 @@
         <f t="shared" si="5"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="V44" s="19" t="e">
+      <c r="V44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3157894736842106</v>
       </c>
       <c r="W44" s="19">
         <f t="shared" si="5"/>
@@ -4498,11 +4652,11 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>33.5</v>
+        <v>41.6</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>25.7</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4514,7 +4668,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>16.145454545454548</v>
+        <v>20.768181818181812</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4540,9 +4694,9 @@
         <f t="shared" si="6"/>
         <v>8.526315789473685</v>
       </c>
-      <c r="M45" s="19" t="e">
+      <c r="M45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>8.7837837837837842</v>
       </c>
       <c r="N45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4576,13 +4730,13 @@
         <f t="shared" si="6"/>
         <v>9.1794871794871788</v>
       </c>
-      <c r="V45" s="19" t="e">
+      <c r="V45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.0526315789473681</v>
       </c>
       <c r="W45" s="19">
         <f t="shared" si="6"/>
-        <v>9.473684210526315</v>
+        <v>9.2105263157894743</v>
       </c>
       <c r="X45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4630,11 +4784,11 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>32.036585365853661</v>
+        <v>39.963414634146339</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>24.682926829268293</v>
+        <v>32.829268292682926</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4646,7 +4800,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>15.468957871396896</v>
+        <v>19.852549889135261</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4672,9 +4826,9 @@
         <f t="shared" si="7"/>
         <v>1.8415158577483244</v>
       </c>
-      <c r="M46" s="19" t="e">
+      <c r="M46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.4168653808698666</v>
       </c>
       <c r="N46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4708,13 +4862,13 @@
         <f t="shared" si="7"/>
         <v>1.9449231465237753</v>
       </c>
-      <c r="V46" s="19" t="e">
+      <c r="V46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.7544902766523713</v>
       </c>
       <c r="W46" s="19">
         <f t="shared" si="7"/>
-        <v>0.95115412413134293</v>
+        <v>1.8032687248115173</v>
       </c>
       <c r="X46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4762,11 +4916,11 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>9.8946893861697589</v>
+        <v>12.2588693625791</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>6.8463093137479687</v>
+        <v>10.214946008238101</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -4778,7 +4932,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>4.4734806163471497</v>
+        <v>6.0571382355128511</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4806,7 +4960,7 @@
       </c>
       <c r="M47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N47" s="19">
         <f t="shared" si="8"/>
@@ -4842,7 +4996,7 @@
       </c>
       <c r="V47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W47" s="19">
         <f t="shared" si="8"/>
@@ -4894,11 +5048,11 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -4910,7 +5064,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>18.81818181818182</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -4938,7 +5092,7 @@
       </c>
       <c r="M48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N48" s="43">
         <f t="shared" si="9"/>
@@ -4978,7 +5132,7 @@
       </c>
       <c r="W48" s="43">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X48" s="43">
         <f t="shared" si="9"/>
@@ -5048,16 +5202,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5068,6 +5212,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5884BB-54C8-4037-8348-5F481239A533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{C29A0535-8F40-440D-9CA8-7BA0BB77D1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0743D750-2B62-43EC-B0E4-B5EDD1D23A14}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,14 +742,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1132,7 +1132,9 @@
       <c r="M2" s="6">
         <v>8</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6">
+        <v>10</v>
+      </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -1163,7 +1165,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1176,7 +1178,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>21.545454545454547</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1214,7 +1216,9 @@
       <c r="M3" s="6">
         <v>8</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6">
+        <v>10</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1245,7 +1249,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1258,7 +1262,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1280,7 +1284,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1296,7 +1300,9 @@
       <c r="M4" s="6">
         <v>10</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6">
+        <v>10</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
@@ -1327,7 +1333,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1340,7 +1346,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1378,7 +1384,9 @@
       <c r="M5" s="6">
         <v>10</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6">
+        <v>10</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1409,7 +1417,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1422,7 +1430,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1444,7 +1452,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1460,7 +1468,9 @@
       <c r="M6" s="6">
         <v>10</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6">
+        <v>10</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1491,7 +1501,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1504,7 +1514,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>22.636363636363637</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1542,7 +1552,9 @@
       <c r="M7" s="6">
         <v>10</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6">
+        <v>10</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1573,7 +1585,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>45.5</v>
+        <v>55.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1586,7 +1598,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>25.227272727272727</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1608,7 +1620,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1624,7 +1636,9 @@
       <c r="M8" s="6">
         <v>10</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6">
+        <v>10</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -1655,7 +1669,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1668,7 +1682,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>24</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1706,7 +1720,9 @@
       <c r="M9" s="6">
         <v>7</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1737,7 +1753,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1750,7 +1766,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>22.363636363636367</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1772,7 +1788,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1788,7 +1804,9 @@
       <c r="M10" s="6">
         <v>10</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6">
+        <v>10</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1819,7 +1837,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1832,7 +1850,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>22.636363636363633</v>
+        <v>25.363636363636363</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1870,7 +1888,9 @@
       <c r="M11" s="6">
         <v>10</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6">
+        <v>10</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1901,7 +1921,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -1914,7 +1934,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.636363636363633</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1936,7 +1956,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1952,7 +1972,9 @@
       <c r="M12" s="6">
         <v>7</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6">
+        <v>8</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1983,7 +2005,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -1996,7 +2018,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>19.90909090909091</v>
+        <v>22.09090909090909</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2034,7 +2056,9 @@
       <c r="M13" s="6">
         <v>4</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6">
+        <v>8</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -2065,7 +2089,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
@@ -2078,7 +2102,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>2.1818181818181817</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2100,7 +2124,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2116,7 +2140,9 @@
       <c r="M14" s="6">
         <v>8</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6">
+        <v>10</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -2147,7 +2173,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2160,7 +2186,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>17.454545454545453</v>
+        <v>20.18181818181818</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2198,7 +2224,9 @@
       <c r="M15" s="6">
         <v>8</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6">
+        <v>10</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -2229,7 +2257,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2242,7 +2270,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>21.545454545454547</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2264,7 +2292,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2418,7 +2446,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2434,7 +2462,9 @@
       <c r="M18" s="6">
         <v>10</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6">
+        <v>10</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -2465,7 +2495,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2478,7 +2508,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>23.727272727272727</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2516,7 +2546,9 @@
       <c r="M19" s="6">
         <v>9</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6">
+        <v>10</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -2547,7 +2579,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2560,7 +2592,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>21.81818181818182</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2582,7 +2614,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2598,7 +2630,9 @@
       <c r="M20" s="6">
         <v>6</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6">
+        <v>8</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2629,7 +2663,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2642,7 +2676,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2742,7 +2776,9 @@
       <c r="M22" s="6">
         <v>10</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>9</v>
+      </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -2773,7 +2809,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -2786,7 +2822,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>22.636363636363637</v>
+        <v>25.090909090909093</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2808,7 +2844,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2824,7 +2860,9 @@
       <c r="M23" s="12">
         <v>10</v>
       </c>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12">
+        <v>10</v>
+      </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -2855,7 +2893,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -2868,7 +2906,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2906,7 +2944,9 @@
       <c r="M24" s="12">
         <v>10</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="12">
+        <v>10</v>
+      </c>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -2937,7 +2977,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -2950,7 +2990,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.636363636363633</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -2972,7 +3012,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -2988,7 +3028,9 @@
       <c r="M25" s="12">
         <v>10</v>
       </c>
-      <c r="N25" s="12"/>
+      <c r="N25" s="12">
+        <v>8</v>
+      </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -3019,7 +3061,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3032,7 +3074,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3070,7 +3112,9 @@
       <c r="M26" s="12">
         <v>8</v>
       </c>
-      <c r="N26" s="12"/>
+      <c r="N26" s="12">
+        <v>10</v>
+      </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -3101,7 +3145,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3114,7 +3158,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.636363636363633</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3136,7 +3180,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3152,7 +3196,9 @@
       <c r="M27" s="12">
         <v>8</v>
       </c>
-      <c r="N27" s="12"/>
+      <c r="N27" s="12">
+        <v>8</v>
+      </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -3183,7 +3229,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3196,7 +3242,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>22.363636363636367</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3234,7 +3280,9 @@
       <c r="M28" s="12">
         <v>10</v>
       </c>
-      <c r="N28" s="12"/>
+      <c r="N28" s="12">
+        <v>8</v>
+      </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -3265,7 +3313,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3278,7 +3326,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>25.636363636363637</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3300,7 +3348,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3316,7 +3364,9 @@
       <c r="M29" s="12">
         <v>10</v>
       </c>
-      <c r="N29" s="12"/>
+      <c r="N29" s="12">
+        <v>10</v>
+      </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -3347,7 +3397,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3360,7 +3410,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>22.636363636363633</v>
+        <v>25.36363636363636</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3444,7 +3494,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3460,7 +3510,9 @@
       <c r="M31" s="12">
         <v>10</v>
       </c>
-      <c r="N31" s="12"/>
+      <c r="N31" s="12">
+        <v>10</v>
+      </c>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -3491,7 +3543,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3504,7 +3556,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3542,7 +3594,9 @@
       <c r="M32" s="12">
         <v>9</v>
       </c>
-      <c r="N32" s="12"/>
+      <c r="N32" s="12">
+        <v>10</v>
+      </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -3573,7 +3627,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3586,7 +3640,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>22.090909090909093</v>
+        <v>24.81818181818182</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3608,7 +3662,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3624,7 +3678,9 @@
       <c r="M33" s="12">
         <v>7</v>
       </c>
-      <c r="N33" s="12"/>
+      <c r="N33" s="12">
+        <v>7</v>
+      </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -3655,7 +3711,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -3668,7 +3724,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>22.90909090909091</v>
+        <v>24.81818181818182</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3770,7 +3826,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3786,7 +3842,9 @@
       <c r="M35" s="12">
         <v>10</v>
       </c>
-      <c r="N35" s="12"/>
+      <c r="N35" s="12">
+        <v>10</v>
+      </c>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -3817,7 +3875,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -3830,7 +3888,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>20.727272727272727</v>
+        <v>23.454545454545453</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3868,7 +3926,9 @@
       <c r="M36" s="12">
         <v>8</v>
       </c>
-      <c r="N36" s="12"/>
+      <c r="N36" s="12">
+        <v>10</v>
+      </c>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -3899,7 +3959,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -3912,7 +3972,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>19.636363636363637</v>
+        <v>22.363636363636363</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3934,7 +3994,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -3950,7 +4010,9 @@
       <c r="M37" s="12">
         <v>8</v>
       </c>
-      <c r="N37" s="12"/>
+      <c r="N37" s="12">
+        <v>10</v>
+      </c>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -3981,7 +4043,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -3994,7 +4056,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4032,7 +4094,9 @@
       <c r="M38" s="12">
         <v>10</v>
       </c>
-      <c r="N38" s="12"/>
+      <c r="N38" s="12">
+        <v>10</v>
+      </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -4063,7 +4127,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4076,7 +4140,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4098,7 +4162,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4114,7 +4178,9 @@
       <c r="M39" s="12">
         <v>9</v>
       </c>
-      <c r="N39" s="12"/>
+      <c r="N39" s="12">
+        <v>10</v>
+      </c>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -4145,7 +4211,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4158,7 +4224,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>24</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4196,7 +4262,9 @@
       <c r="M40" s="12">
         <v>8</v>
       </c>
-      <c r="N40" s="12"/>
+      <c r="N40" s="12">
+        <v>10</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
@@ -4227,7 +4295,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4240,7 +4308,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>24</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4262,7 +4330,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4278,7 +4346,9 @@
       <c r="M41" s="12">
         <v>8</v>
       </c>
-      <c r="N41" s="12"/>
+      <c r="N41" s="12">
+        <v>10</v>
+      </c>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -4309,7 +4379,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -4322,7 +4392,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>23.18181818181818</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4344,7 +4414,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="54"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4360,7 +4430,9 @@
       <c r="M42" s="12">
         <v>9</v>
       </c>
-      <c r="N42" s="12"/>
+      <c r="N42" s="12">
+        <v>9</v>
+      </c>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -4391,7 +4463,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4404,7 +4476,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>18.81818181818182</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4434,9 +4506,9 @@
         <f>AVERAGE(M2:M29)</f>
         <v>8.8076923076923084</v>
       </c>
-      <c r="N43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="N43" s="19">
+        <f>AVERAGE(N2:N29)</f>
+        <v>9.4</v>
       </c>
       <c r="O43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4520,7 +4592,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>38.404761904761905</v>
+        <v>46.547619047619051</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -4536,7 +4608,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>18.980519480519483</v>
+        <v>21.201298701298704</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4566,9 +4638,9 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N44" s="19" t="e">
+      <c r="N44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="O44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4652,7 +4724,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>41.6</v>
+        <v>50.1</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -4668,7 +4740,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>20.768181818181812</v>
+        <v>23.086363636363636</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4698,9 +4770,9 @@
         <f t="shared" si="6"/>
         <v>8.7837837837837842</v>
       </c>
-      <c r="N45" s="19" t="e">
+      <c r="N45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.4722222222222214</v>
       </c>
       <c r="O45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4784,7 +4856,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>39.963414634146339</v>
+        <v>48.280487804878049</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -4800,7 +4872,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>19.852549889135261</v>
+        <v>22.120842572062084</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4830,9 +4902,9 @@
         <f t="shared" si="7"/>
         <v>1.4168653808698666</v>
       </c>
-      <c r="N46" s="19" t="e">
+      <c r="N46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.90982293759707888</v>
       </c>
       <c r="O46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4916,7 +4988,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>12.2588693625791</v>
+        <v>14.67056951028478</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -4932,7 +5004,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>6.0571382355128511</v>
+        <v>6.6785830894166009</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -4964,7 +5036,7 @@
       </c>
       <c r="N47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O47" s="19">
         <f t="shared" si="8"/>
@@ -5048,7 +5120,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5064,7 +5136,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5096,7 +5168,7 @@
       </c>
       <c r="N48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O48" s="43">
         <f t="shared" si="9"/>
@@ -5202,6 +5274,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5212,16 +5294,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{C29A0535-8F40-440D-9CA8-7BA0BB77D1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0743D750-2B62-43EC-B0E4-B5EDD1D23A14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D677A4-15DF-46E8-B167-47BCD0C1BD17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,14 +742,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -971,7 +971,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1152,7 +1152,9 @@
       <c r="W2" s="6">
         <v>9</v>
       </c>
-      <c r="X2" s="6"/>
+      <c r="X2" s="6">
+        <v>10</v>
+      </c>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
@@ -1169,7 +1171,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1178,7 +1180,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1236,7 +1238,9 @@
       <c r="W3" s="6">
         <v>9</v>
       </c>
-      <c r="X3" s="6"/>
+      <c r="X3" s="6">
+        <v>10</v>
+      </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
@@ -1253,7 +1257,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1262,7 +1266,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1284,7 +1288,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1320,7 +1324,9 @@
       <c r="W4" s="6">
         <v>10</v>
       </c>
-      <c r="X4" s="6"/>
+      <c r="X4" s="6">
+        <v>10</v>
+      </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1337,7 +1343,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1346,7 +1352,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1404,7 +1410,9 @@
       <c r="W5" s="6">
         <v>10</v>
       </c>
-      <c r="X5" s="6"/>
+      <c r="X5" s="6">
+        <v>10</v>
+      </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1421,7 +1429,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1430,7 +1438,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1452,7 +1460,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1488,7 +1496,9 @@
       <c r="W6" s="6">
         <v>10</v>
       </c>
-      <c r="X6" s="6"/>
+      <c r="X6" s="6">
+        <v>10</v>
+      </c>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1505,7 +1515,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1514,7 +1524,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>25.363636363636363</v>
+        <v>28.090909090909086</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1572,7 +1582,9 @@
       <c r="W7" s="6">
         <v>10</v>
       </c>
-      <c r="X7" s="6"/>
+      <c r="X7" s="6">
+        <v>10</v>
+      </c>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1589,7 +1601,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1598,7 +1610,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>25.227272727272727</v>
+        <v>27.954545454545453</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1620,7 +1632,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1656,7 +1668,9 @@
       <c r="W8" s="6">
         <v>10</v>
       </c>
-      <c r="X8" s="6"/>
+      <c r="X8" s="6">
+        <v>10</v>
+      </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -1673,7 +1687,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1682,7 +1696,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1740,7 +1754,9 @@
       <c r="W9" s="6">
         <v>10</v>
       </c>
-      <c r="X9" s="6"/>
+      <c r="X9" s="6">
+        <v>10</v>
+      </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1757,7 +1773,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1766,7 +1782,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1788,7 +1804,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1824,7 +1840,9 @@
       <c r="W10" s="6">
         <v>8</v>
       </c>
-      <c r="X10" s="6"/>
+      <c r="X10" s="6">
+        <v>10</v>
+      </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1841,7 +1859,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1850,7 +1868,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>25.363636363636363</v>
+        <v>28.09090909090909</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1908,7 +1926,9 @@
       <c r="W11" s="6">
         <v>10</v>
       </c>
-      <c r="X11" s="6"/>
+      <c r="X11" s="6">
+        <v>10</v>
+      </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1925,7 +1945,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -1934,7 +1954,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>25.636363636363633</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1956,7 +1976,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -1992,7 +2012,9 @@
       <c r="W12" s="6">
         <v>10</v>
       </c>
-      <c r="X12" s="6"/>
+      <c r="X12" s="6">
+        <v>9</v>
+      </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2009,7 +2031,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2018,7 +2040,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>22.09090909090909</v>
+        <v>24.545454545454547</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2076,7 +2098,9 @@
       <c r="W13" s="50">
         <v>0</v>
       </c>
-      <c r="X13" s="6"/>
+      <c r="X13" s="6">
+        <v>9</v>
+      </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -2093,7 +2117,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -2102,7 +2126,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>4.3636363636363633</v>
+        <v>6.8181818181818183</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2124,7 +2148,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2160,7 +2184,9 @@
       <c r="W14" s="6">
         <v>7</v>
       </c>
-      <c r="X14" s="6"/>
+      <c r="X14" s="6">
+        <v>10</v>
+      </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -2177,7 +2203,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2186,7 +2212,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>20.18181818181818</v>
+        <v>22.909090909090907</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2244,7 +2270,9 @@
       <c r="W15" s="6">
         <v>7</v>
       </c>
-      <c r="X15" s="6"/>
+      <c r="X15" s="6">
+        <v>10</v>
+      </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -2261,7 +2289,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2270,7 +2298,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>21.545454545454547</v>
+        <v>24.272727272727273</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2292,7 +2320,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2398,7 +2426,9 @@
       <c r="W17" s="6">
         <v>8</v>
       </c>
-      <c r="X17" s="6"/>
+      <c r="X17" s="6">
+        <v>10</v>
+      </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2415,7 +2445,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2424,7 +2454,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>18.545454545454547</v>
+        <v>21.272727272727273</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2446,7 +2476,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2482,7 +2512,9 @@
       <c r="W18" s="6">
         <v>10</v>
       </c>
-      <c r="X18" s="6"/>
+      <c r="X18" s="6">
+        <v>10</v>
+      </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -2499,7 +2531,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2508,7 +2540,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2566,7 +2598,9 @@
       <c r="W19" s="6">
         <v>10</v>
       </c>
-      <c r="X19" s="6"/>
+      <c r="X19" s="6">
+        <v>10</v>
+      </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -2583,7 +2617,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2592,7 +2626,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2614,7 +2648,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2650,7 +2684,9 @@
       <c r="W20" s="6">
         <v>8</v>
       </c>
-      <c r="X20" s="6"/>
+      <c r="X20" s="6">
+        <v>10</v>
+      </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -2667,7 +2703,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2676,7 +2712,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.636363636363633</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2796,7 +2832,9 @@
       <c r="W22" s="6">
         <v>8</v>
       </c>
-      <c r="X22" s="6"/>
+      <c r="X22" s="6">
+        <v>10</v>
+      </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -2813,7 +2851,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2822,7 +2860,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>25.090909090909093</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2844,7 +2882,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2880,7 +2918,9 @@
       <c r="W23" s="12">
         <v>10</v>
       </c>
-      <c r="X23" s="12"/>
+      <c r="X23" s="12">
+        <v>10</v>
+      </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
@@ -2897,7 +2937,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2906,7 +2946,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -2964,7 +3004,9 @@
       <c r="W24" s="12">
         <v>10</v>
       </c>
-      <c r="X24" s="12"/>
+      <c r="X24" s="12">
+        <v>10</v>
+      </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -2981,7 +3023,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -2990,7 +3032,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>25.636363636363633</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3012,7 +3054,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3048,7 +3090,9 @@
       <c r="W25" s="12">
         <v>10</v>
       </c>
-      <c r="X25" s="12"/>
+      <c r="X25" s="12">
+        <v>10</v>
+      </c>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
@@ -3065,7 +3109,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3074,7 +3118,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3132,7 +3176,9 @@
       <c r="W26" s="12">
         <v>10</v>
       </c>
-      <c r="X26" s="12"/>
+      <c r="X26" s="12">
+        <v>10</v>
+      </c>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -3149,7 +3195,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3158,7 +3204,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>25.636363636363633</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3180,7 +3226,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3216,7 +3262,9 @@
       <c r="W27" s="12">
         <v>8</v>
       </c>
-      <c r="X27" s="12"/>
+      <c r="X27" s="12">
+        <v>10</v>
+      </c>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -3233,7 +3281,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3242,7 +3290,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3300,7 +3348,9 @@
       <c r="W28" s="12">
         <v>8</v>
       </c>
-      <c r="X28" s="12"/>
+      <c r="X28" s="12">
+        <v>10</v>
+      </c>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -3317,7 +3367,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3326,7 +3376,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>25.636363636363637</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3348,7 +3398,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3384,7 +3434,9 @@
       <c r="W29" s="12">
         <v>10</v>
       </c>
-      <c r="X29" s="12"/>
+      <c r="X29" s="12">
+        <v>10</v>
+      </c>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
@@ -3401,7 +3453,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3410,7 +3462,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>25.36363636363636</v>
+        <v>28.09090909090909</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3494,7 +3546,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3530,7 +3582,9 @@
       <c r="W31" s="12">
         <v>10</v>
       </c>
-      <c r="X31" s="12"/>
+      <c r="X31" s="12">
+        <v>10</v>
+      </c>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
@@ -3547,7 +3601,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3556,7 +3610,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3614,7 +3668,9 @@
       <c r="W32" s="12">
         <v>10</v>
       </c>
-      <c r="X32" s="12"/>
+      <c r="X32" s="12">
+        <v>10</v>
+      </c>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
@@ -3631,7 +3687,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3640,7 +3696,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>24.81818181818182</v>
+        <v>27.545454545454547</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3662,7 +3718,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3698,7 +3754,9 @@
       <c r="W33" s="12">
         <v>10</v>
       </c>
-      <c r="X33" s="12"/>
+      <c r="X33" s="12">
+        <v>6</v>
+      </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
@@ -3715,7 +3773,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3724,7 +3782,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>24.81818181818182</v>
+        <v>26.454545454545453</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3826,7 +3884,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3862,7 +3920,9 @@
       <c r="W35" s="12">
         <v>10</v>
       </c>
-      <c r="X35" s="12"/>
+      <c r="X35" s="12">
+        <v>10</v>
+      </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -3879,7 +3939,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3888,7 +3948,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>23.454545454545453</v>
+        <v>26.18181818181818</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -3946,7 +4006,9 @@
       <c r="W36" s="12">
         <v>10</v>
       </c>
-      <c r="X36" s="12"/>
+      <c r="X36" s="12">
+        <v>10</v>
+      </c>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
@@ -3963,7 +4025,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -3972,7 +4034,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>22.363636363636363</v>
+        <v>25.090909090909093</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -3994,7 +4056,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4030,7 +4092,9 @@
       <c r="W37" s="12">
         <v>10</v>
       </c>
-      <c r="X37" s="12"/>
+      <c r="X37" s="12">
+        <v>10</v>
+      </c>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
@@ -4047,7 +4111,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4056,7 +4120,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>25.09090909090909</v>
+        <v>27.818181818181817</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4114,7 +4178,9 @@
       <c r="W38" s="12">
         <v>10</v>
       </c>
-      <c r="X38" s="12"/>
+      <c r="X38" s="12">
+        <v>10</v>
+      </c>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
@@ -4131,7 +4197,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4140,7 +4206,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>26.18181818181818</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4162,7 +4228,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4198,7 +4264,9 @@
       <c r="W39" s="12">
         <v>10</v>
       </c>
-      <c r="X39" s="12"/>
+      <c r="X39" s="12">
+        <v>10</v>
+      </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
@@ -4215,7 +4283,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4224,7 +4292,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4282,7 +4350,9 @@
       <c r="W40" s="12">
         <v>10</v>
       </c>
-      <c r="X40" s="12"/>
+      <c r="X40" s="12">
+        <v>10</v>
+      </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
@@ -4299,7 +4369,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4308,7 +4378,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4330,7 +4400,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4366,7 +4436,9 @@
       <c r="W41" s="12">
         <v>10</v>
       </c>
-      <c r="X41" s="12"/>
+      <c r="X41" s="12">
+        <v>10</v>
+      </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
@@ -4383,7 +4455,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4392,7 +4464,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>23.18181818181818</v>
+        <v>25.90909090909091</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4414,7 +4486,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4450,7 +4522,9 @@
       <c r="W42" s="12">
         <v>10</v>
       </c>
-      <c r="X42" s="12"/>
+      <c r="X42" s="12">
+        <v>10</v>
+      </c>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
@@ -4467,7 +4541,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4476,7 +4550,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>24</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4546,9 +4620,9 @@
         <f>AVERAGE(W2:W29)</f>
         <v>8.8461538461538467</v>
       </c>
-      <c r="X43" s="19" t="e">
+      <c r="X43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.8947368421052637</v>
       </c>
       <c r="Y43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4596,7 +4670,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>31.19047619047619</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4608,7 +4682,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>21.201298701298704</v>
+        <v>23.642857142857139</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4678,9 +4752,9 @@
         <f t="shared" si="5"/>
         <v>9.7894736842105257</v>
       </c>
-      <c r="X44" s="19" t="e">
+      <c r="X44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="Y44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4728,7 +4802,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>34.549999999999997</v>
+        <v>43.35</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4740,7 +4814,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>23.086363636363636</v>
+        <v>25.486363636363642</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4810,9 +4884,9 @@
         <f t="shared" si="6"/>
         <v>9.2105263157894743</v>
       </c>
-      <c r="X45" s="19" t="e">
+      <c r="X45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.8378378378378386</v>
       </c>
       <c r="Y45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4860,7 +4934,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>32.829268292682926</v>
+        <v>41.707317073170735</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4872,7 +4946,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>22.120842572062084</v>
+        <v>24.542128603104217</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -4942,9 +5016,9 @@
         <f t="shared" si="7"/>
         <v>1.8032687248115173</v>
       </c>
-      <c r="X46" s="19" t="e">
+      <c r="X46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.68773030540537694</v>
       </c>
       <c r="Y46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -4992,7 +5066,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>10.214946008238101</v>
+        <v>12.375871489392225</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5004,7 +5078,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>6.6785830894166009</v>
+        <v>7.319723088995679</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5076,7 +5150,7 @@
       </c>
       <c r="X47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y47" s="19">
         <f t="shared" si="8"/>
@@ -5124,7 +5198,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5136,7 +5210,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5208,7 +5282,7 @@
       </c>
       <c r="X48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y48" s="43">
         <f t="shared" si="9"/>
@@ -5274,16 +5348,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5294,6 +5358,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D677A4-15DF-46E8-B167-47BCD0C1BD17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{17817C8A-7AC3-4C03-B0C8-A151FE13C97E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7D5524DF-F5BE-452F-9C62-0BDEA2F9FA78}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,14 +742,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -970,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1155,7 +1155,9 @@
       <c r="X2" s="6">
         <v>10</v>
       </c>
-      <c r="Y2" s="6"/>
+      <c r="Y2" s="6">
+        <v>10</v>
+      </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -1171,7 +1173,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1180,7 +1182,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>27</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1241,7 +1243,9 @@
       <c r="X3" s="6">
         <v>10</v>
       </c>
-      <c r="Y3" s="6"/>
+      <c r="Y3" s="6">
+        <v>10</v>
+      </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
@@ -1257,7 +1261,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1266,7 +1270,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>26.18181818181818</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1288,7 +1292,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1327,7 +1331,9 @@
       <c r="X4" s="6">
         <v>10</v>
       </c>
-      <c r="Y4" s="6"/>
+      <c r="Y4" s="6">
+        <v>10</v>
+      </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
@@ -1343,7 +1349,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1352,7 +1358,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>29.727272727272727</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1413,7 +1419,9 @@
       <c r="X5" s="6">
         <v>10</v>
       </c>
-      <c r="Y5" s="6"/>
+      <c r="Y5" s="6">
+        <v>10</v>
+      </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
@@ -1429,7 +1437,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1438,7 +1446,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.18181818181818</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1460,7 +1468,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1499,7 +1507,9 @@
       <c r="X6" s="6">
         <v>10</v>
       </c>
-      <c r="Y6" s="6"/>
+      <c r="Y6" s="6">
+        <v>8</v>
+      </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
@@ -1515,7 +1525,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1524,7 +1534,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>28.090909090909086</v>
+        <v>30.272727272727273</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1585,7 +1595,9 @@
       <c r="X7" s="6">
         <v>10</v>
       </c>
-      <c r="Y7" s="6"/>
+      <c r="Y7" s="6">
+        <v>8</v>
+      </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
@@ -1601,7 +1613,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1610,7 +1622,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>27.954545454545453</v>
+        <v>30.136363636363633</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1632,7 +1644,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1671,7 +1683,9 @@
       <c r="X8" s="6">
         <v>10</v>
       </c>
-      <c r="Y8" s="6"/>
+      <c r="Y8" s="6">
+        <v>10</v>
+      </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
@@ -1687,7 +1701,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1696,7 +1710,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1757,7 +1771,9 @@
       <c r="X9" s="6">
         <v>10</v>
       </c>
-      <c r="Y9" s="6"/>
+      <c r="Y9" s="6">
+        <v>10</v>
+      </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -1773,7 +1789,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1782,7 +1798,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>30</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1804,7 +1820,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1843,7 +1859,9 @@
       <c r="X10" s="6">
         <v>10</v>
       </c>
-      <c r="Y10" s="6"/>
+      <c r="Y10" s="6">
+        <v>10</v>
+      </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -1859,7 +1877,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1868,7 +1886,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>28.09090909090909</v>
+        <v>30.818181818181817</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1929,7 +1947,9 @@
       <c r="X11" s="6">
         <v>10</v>
       </c>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="6">
+        <v>10</v>
+      </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
@@ -1945,7 +1965,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -1954,7 +1974,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>31.090909090909086</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1976,7 +1996,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2015,7 +2035,9 @@
       <c r="X12" s="6">
         <v>9</v>
       </c>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="6">
+        <v>8</v>
+      </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
@@ -2031,7 +2053,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2040,7 +2062,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>24.545454545454547</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2101,7 +2123,9 @@
       <c r="X13" s="6">
         <v>9</v>
       </c>
-      <c r="Y13" s="6"/>
+      <c r="Y13" s="6">
+        <v>8</v>
+      </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -2117,7 +2141,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -2126,7 +2150,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>6.8181818181818183</v>
+        <v>9</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2148,7 +2172,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2187,7 +2211,9 @@
       <c r="X14" s="6">
         <v>10</v>
       </c>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="6">
+        <v>10</v>
+      </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -2203,7 +2229,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2212,7 +2238,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>22.909090909090907</v>
+        <v>25.636363636363633</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2273,7 +2299,9 @@
       <c r="X15" s="6">
         <v>10</v>
       </c>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="6">
+        <v>10</v>
+      </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
@@ -2289,7 +2317,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2298,7 +2326,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>24.272727272727273</v>
+        <v>27</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2320,7 +2348,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2429,7 +2457,10 @@
       <c r="X17" s="6">
         <v>10</v>
       </c>
-      <c r="Y17" s="6"/>
+      <c r="Y17" s="6">
+        <f>Y29</f>
+        <v>10</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -2445,7 +2476,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2454,7 +2485,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>21.272727272727273</v>
+        <v>24</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2476,7 +2507,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2515,7 +2546,9 @@
       <c r="X18" s="6">
         <v>10</v>
       </c>
-      <c r="Y18" s="6"/>
+      <c r="Y18" s="6">
+        <v>10</v>
+      </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
@@ -2531,7 +2564,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2540,7 +2573,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>29.18181818181818</v>
+        <v>31.909090909090907</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2601,7 +2634,9 @@
       <c r="X19" s="6">
         <v>10</v>
       </c>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="6">
+        <v>10</v>
+      </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -2617,7 +2652,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2626,7 +2661,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>30</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2648,7 +2683,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2687,7 +2722,9 @@
       <c r="X20" s="6">
         <v>10</v>
       </c>
-      <c r="Y20" s="6"/>
+      <c r="Y20" s="6">
+        <v>10</v>
+      </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -2703,7 +2740,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2712,7 +2749,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>25.636363636363633</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2835,7 +2872,9 @@
       <c r="X22" s="6">
         <v>10</v>
       </c>
-      <c r="Y22" s="6"/>
+      <c r="Y22" s="6">
+        <v>10</v>
+      </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
@@ -2851,7 +2890,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2860,7 +2899,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.545454545454547</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2882,7 +2921,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2921,7 +2960,9 @@
       <c r="X23" s="12">
         <v>10</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="12">
+        <v>10</v>
+      </c>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
@@ -2937,7 +2978,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -2946,7 +2987,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.545454545454543</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3007,7 +3048,9 @@
       <c r="X24" s="12">
         <v>10</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="12">
+        <v>10</v>
+      </c>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
@@ -3023,7 +3066,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3032,7 +3075,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>31.090909090909086</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3054,7 +3097,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3093,7 +3136,9 @@
       <c r="X25" s="12">
         <v>10</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="12">
+        <v>10</v>
+      </c>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
@@ -3109,7 +3154,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3118,7 +3163,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.545454545454543</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3179,7 +3224,9 @@
       <c r="X26" s="12">
         <v>10</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="12">
+        <v>10</v>
+      </c>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
@@ -3195,7 +3242,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3204,7 +3251,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>31.090909090909086</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3226,7 +3273,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3265,7 +3312,9 @@
       <c r="X27" s="12">
         <v>10</v>
       </c>
-      <c r="Y27" s="12"/>
+      <c r="Y27" s="12">
+        <v>8</v>
+      </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
@@ -3281,7 +3330,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3290,7 +3339,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>27.272727272727273</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3351,7 +3400,9 @@
       <c r="X28" s="12">
         <v>10</v>
       </c>
-      <c r="Y28" s="12"/>
+      <c r="Y28" s="12">
+        <v>8</v>
+      </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
@@ -3367,7 +3418,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3376,7 +3427,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>30.545454545454547</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3398,7 +3449,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3437,7 +3488,9 @@
       <c r="X29" s="12">
         <v>10</v>
       </c>
-      <c r="Y29" s="12"/>
+      <c r="Y29" s="12">
+        <v>10</v>
+      </c>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
@@ -3453,7 +3506,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3462,7 +3515,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>28.09090909090909</v>
+        <v>30.818181818181817</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3546,7 +3599,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3585,7 +3638,9 @@
       <c r="X31" s="12">
         <v>10</v>
       </c>
-      <c r="Y31" s="12"/>
+      <c r="Y31" s="12">
+        <v>8</v>
+      </c>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
@@ -3601,7 +3656,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3610,7 +3665,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3671,7 +3726,9 @@
       <c r="X32" s="12">
         <v>10</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="12">
+        <v>8</v>
+      </c>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
@@ -3687,7 +3744,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3696,7 +3753,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>27.545454545454547</v>
+        <v>29.727272727272727</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3718,7 +3775,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3757,7 +3814,9 @@
       <c r="X33" s="12">
         <v>6</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="12">
+        <v>10</v>
+      </c>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
@@ -3773,7 +3832,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3782,7 +3841,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>26.454545454545453</v>
+        <v>29.18181818181818</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3884,7 +3943,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3923,7 +3982,9 @@
       <c r="X35" s="12">
         <v>10</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="12">
+        <v>10</v>
+      </c>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
@@ -3939,7 +4000,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -3948,7 +4009,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>26.18181818181818</v>
+        <v>28.909090909090907</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4009,7 +4070,9 @@
       <c r="X36" s="12">
         <v>10</v>
       </c>
-      <c r="Y36" s="12"/>
+      <c r="Y36" s="12">
+        <v>10</v>
+      </c>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
@@ -4025,7 +4088,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4034,7 +4097,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>25.090909090909093</v>
+        <v>27.81818181818182</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4056,7 +4119,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4095,7 +4158,9 @@
       <c r="X37" s="12">
         <v>10</v>
       </c>
-      <c r="Y37" s="12"/>
+      <c r="Y37" s="12">
+        <v>10</v>
+      </c>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
@@ -4111,7 +4176,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4120,7 +4185,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>27.818181818181817</v>
+        <v>30.545454545454543</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4181,7 +4246,9 @@
       <c r="X38" s="12">
         <v>10</v>
       </c>
-      <c r="Y38" s="12"/>
+      <c r="Y38" s="12">
+        <v>10</v>
+      </c>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
@@ -4197,7 +4264,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4206,7 +4273,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>28.909090909090907</v>
+        <v>31.636363636363633</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4228,7 +4295,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4267,7 +4334,9 @@
       <c r="X39" s="12">
         <v>10</v>
       </c>
-      <c r="Y39" s="12"/>
+      <c r="Y39" s="12">
+        <v>10</v>
+      </c>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
@@ -4283,7 +4352,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4292,7 +4361,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4353,7 +4422,9 @@
       <c r="X40" s="12">
         <v>10</v>
       </c>
-      <c r="Y40" s="12"/>
+      <c r="Y40" s="12">
+        <v>10</v>
+      </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
@@ -4369,7 +4440,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4378,7 +4449,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4400,7 +4471,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4439,7 +4510,9 @@
       <c r="X41" s="12">
         <v>10</v>
       </c>
-      <c r="Y41" s="12"/>
+      <c r="Y41" s="12">
+        <v>10</v>
+      </c>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
@@ -4455,7 +4528,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4464,7 +4537,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>25.90909090909091</v>
+        <v>28.636363636363637</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4486,7 +4559,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="54"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4525,7 +4598,9 @@
       <c r="X42" s="12">
         <v>10</v>
       </c>
-      <c r="Y42" s="12"/>
+      <c r="Y42" s="12">
+        <v>10</v>
+      </c>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
@@ -4541,7 +4616,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4550,7 +4625,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4624,9 +4699,9 @@
         <f t="shared" si="4"/>
         <v>9.8947368421052637</v>
       </c>
-      <c r="Y43" s="19" t="e">
+      <c r="Y43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.5789473684210531</v>
       </c>
       <c r="Z43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4670,7 +4745,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>40.142857142857146</v>
+        <v>48.80952380952381</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4682,7 +4757,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>23.642857142857139</v>
+        <v>26.006493506493506</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4756,9 +4831,9 @@
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="Y44" s="19" t="e">
+      <c r="Y44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.5555555555555554</v>
       </c>
       <c r="Z44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4802,7 +4877,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>43.35</v>
+        <v>51.95</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4814,7 +4889,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>25.486363636363642</v>
+        <v>27.831818181818182</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4888,9 +4963,9 @@
         <f t="shared" si="6"/>
         <v>9.8378378378378386</v>
       </c>
-      <c r="Y45" s="19" t="e">
+      <c r="Y45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.5675675675675684</v>
       </c>
       <c r="Z45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -4934,7 +5009,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>41.707317073170735</v>
+        <v>50.341463414634148</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -4946,7 +5021,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>24.542128603104217</v>
+        <v>26.896895787139695</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5020,9 +5095,9 @@
         <f t="shared" si="7"/>
         <v>0.68773030540537694</v>
       </c>
-      <c r="Y46" s="19" t="e">
+      <c r="Y46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.83468359076760157</v>
       </c>
       <c r="Z46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5066,7 +5141,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>12.375871489392225</v>
+        <v>14.809810525623819</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5078,7 +5153,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>7.319723088995679</v>
+        <v>7.9813381533424534</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5154,7 +5229,7 @@
       </c>
       <c r="Y47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z47" s="19">
         <f t="shared" si="8"/>
@@ -5198,7 +5273,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5210,7 +5285,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>29.727272727272727</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5286,7 +5361,7 @@
       </c>
       <c r="Y48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z48" s="43">
         <f t="shared" si="9"/>
@@ -5348,6 +5423,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5358,16 +5443,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{17817C8A-7AC3-4C03-B0C8-A151FE13C97E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7D5524DF-F5BE-452F-9C62-0BDEA2F9FA78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B192C-0105-4166-B557-D68160D22507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,6 +346,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -587,10 +596,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,16 +754,20 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="설명 텍스트" xfId="1" builtinId="53"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1116,7 +1132,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1135,7 +1151,9 @@
       <c r="N2" s="6">
         <v>10</v>
       </c>
-      <c r="O2" s="6"/>
+      <c r="O2" s="6">
+        <v>10</v>
+      </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -1169,7 +1187,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1182,7 +1200,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>29.727272727272727</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1223,7 +1241,9 @@
       <c r="N3" s="6">
         <v>10</v>
       </c>
-      <c r="O3" s="6"/>
+      <c r="O3" s="6">
+        <v>8</v>
+      </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1257,7 +1277,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1270,7 +1290,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>28.909090909090907</v>
+        <v>31.090909090909086</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1292,7 +1312,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1311,7 +1331,9 @@
       <c r="N4" s="6">
         <v>10</v>
       </c>
-      <c r="O4" s="6"/>
+      <c r="O4" s="6">
+        <v>9</v>
+      </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -1345,7 +1367,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1358,7 +1380,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>32.454545454545453</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1399,7 +1421,9 @@
       <c r="N5" s="6">
         <v>10</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="6">
+        <v>10</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1433,7 +1457,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1446,7 +1470,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>32.18181818181818</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1468,7 +1492,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1487,7 +1511,9 @@
       <c r="N6" s="6">
         <v>10</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6">
+        <v>10</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1521,7 +1547,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1534,7 +1560,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>30.272727272727273</v>
+        <v>33</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1575,7 +1601,9 @@
       <c r="N7" s="6">
         <v>10</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6">
+        <v>9</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1609,7 +1637,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>55.5</v>
+        <v>64.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1622,7 +1650,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>30.136363636363633</v>
+        <v>32.590909090909093</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1644,7 +1672,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1663,7 +1691,9 @@
       <c r="N8" s="6">
         <v>10</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6">
+        <v>10</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1697,7 +1727,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1710,7 +1740,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.18181818181818</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1751,7 +1781,9 @@
       <c r="N9" s="6">
         <v>8</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6">
+        <v>10</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1785,7 +1817,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1798,7 +1830,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1820,7 +1852,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1839,7 +1871,9 @@
       <c r="N10" s="6">
         <v>10</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>10</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1873,7 +1907,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1886,7 +1920,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>30.818181818181817</v>
+        <v>33.545454545454547</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1927,7 +1961,9 @@
       <c r="N11" s="6">
         <v>10</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6">
+        <v>9</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1961,7 +1997,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -1974,7 +2010,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>31.090909090909086</v>
+        <v>33.545454545454547</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -1996,7 +2032,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2015,7 +2051,9 @@
       <c r="N12" s="6">
         <v>8</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6">
+        <v>10</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -2049,7 +2087,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -2062,7 +2100,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2103,7 +2141,9 @@
       <c r="N13" s="6">
         <v>8</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6">
+        <v>10</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -2137,7 +2177,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
@@ -2150,7 +2190,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11.727272727272727</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2172,7 +2212,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2191,7 +2231,9 @@
       <c r="N14" s="6">
         <v>10</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6">
+        <v>10</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2225,7 +2267,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2238,7 +2280,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>25.636363636363633</v>
+        <v>28.36363636363636</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2279,7 +2321,9 @@
       <c r="N15" s="6">
         <v>10</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6">
+        <v>10</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2313,7 +2357,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2326,7 +2370,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29.727272727272723</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2348,7 +2392,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2437,7 +2481,9 @@
         <v>8</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="6">
+        <v>10</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -2472,7 +2518,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2485,7 +2531,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.727272727272727</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2507,7 +2553,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2526,7 +2572,9 @@
       <c r="N18" s="6">
         <v>10</v>
       </c>
-      <c r="O18" s="6"/>
+      <c r="O18" s="6">
+        <v>10</v>
+      </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -2560,7 +2608,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2573,7 +2621,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>31.909090909090907</v>
+        <v>34.63636363636364</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2614,7 +2662,9 @@
       <c r="N19" s="6">
         <v>10</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6">
+        <v>10</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2648,7 +2698,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2661,7 +2711,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32.72727272727272</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2683,7 +2733,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2702,7 +2752,9 @@
       <c r="N20" s="6">
         <v>8</v>
       </c>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>10</v>
+      </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2736,7 +2788,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2749,7 +2801,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>31.09090909090909</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2852,7 +2904,9 @@
       <c r="N22" s="6">
         <v>9</v>
       </c>
-      <c r="O22" s="6"/>
+      <c r="O22" s="6">
+        <v>10</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2886,7 +2940,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -2899,7 +2953,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>30.545454545454547</v>
+        <v>33.272727272727273</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2921,7 +2975,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2940,7 +2994,9 @@
       <c r="N23" s="12">
         <v>10</v>
       </c>
-      <c r="O23" s="12"/>
+      <c r="O23" s="12">
+        <v>10</v>
+      </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
@@ -2974,7 +3030,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -2987,7 +3043,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>30.545454545454543</v>
+        <v>33.272727272727266</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3028,7 +3084,9 @@
       <c r="N24" s="12">
         <v>10</v>
       </c>
-      <c r="O24" s="12"/>
+      <c r="O24" s="12">
+        <v>10</v>
+      </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
@@ -3062,7 +3120,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -3075,7 +3133,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>31.090909090909086</v>
+        <v>33.818181818181813</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3097,7 +3155,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3116,7 +3174,9 @@
       <c r="N25" s="12">
         <v>8</v>
       </c>
-      <c r="O25" s="12"/>
+      <c r="O25" s="12">
+        <v>10</v>
+      </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
@@ -3150,7 +3210,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3163,7 +3223,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>30.545454545454543</v>
+        <v>33.272727272727266</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3204,7 +3264,9 @@
       <c r="N26" s="12">
         <v>10</v>
       </c>
-      <c r="O26" s="12"/>
+      <c r="O26" s="12">
+        <v>10</v>
+      </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
@@ -3238,7 +3300,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3251,7 +3313,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>31.090909090909086</v>
+        <v>33.818181818181813</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3273,7 +3335,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3292,7 +3354,9 @@
       <c r="N27" s="12">
         <v>8</v>
       </c>
-      <c r="O27" s="12"/>
+      <c r="O27" s="12">
+        <v>10</v>
+      </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
@@ -3326,7 +3390,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3339,7 +3403,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.181818181818187</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3380,7 +3444,9 @@
       <c r="N28" s="12">
         <v>8</v>
       </c>
-      <c r="O28" s="12"/>
+      <c r="O28" s="12">
+        <v>10</v>
+      </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
@@ -3414,7 +3480,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3427,7 +3493,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>30.545454545454547</v>
+        <v>33.272727272727273</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3449,7 +3515,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3468,7 +3534,9 @@
       <c r="N29" s="12">
         <v>10</v>
       </c>
-      <c r="O29" s="12"/>
+      <c r="O29" s="12">
+        <v>10</v>
+      </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -3502,7 +3570,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3515,7 +3583,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>30.818181818181817</v>
+        <v>33.545454545454547</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3599,7 +3667,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3618,7 +3686,9 @@
       <c r="N31" s="12">
         <v>10</v>
       </c>
-      <c r="O31" s="12"/>
+      <c r="O31" s="12">
+        <v>10</v>
+      </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
@@ -3642,7 +3712,7 @@
         <v>8</v>
       </c>
       <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
+      <c r="AA31" s="55"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="39"/>
@@ -3652,7 +3722,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3665,7 +3735,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3706,7 +3776,9 @@
       <c r="N32" s="12">
         <v>10</v>
       </c>
-      <c r="O32" s="12"/>
+      <c r="O32" s="12">
+        <v>10</v>
+      </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
@@ -3740,7 +3812,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3753,7 +3825,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>29.727272727272727</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3775,7 +3847,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3794,7 +3866,9 @@
       <c r="N33" s="12">
         <v>7</v>
       </c>
-      <c r="O33" s="12"/>
+      <c r="O33" s="12">
+        <v>9</v>
+      </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
@@ -3828,7 +3902,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -3841,7 +3915,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>29.18181818181818</v>
+        <v>31.636363636363633</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3943,7 +4017,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -3962,7 +4036,9 @@
       <c r="N35" s="12">
         <v>10</v>
       </c>
-      <c r="O35" s="12"/>
+      <c r="O35" s="12">
+        <v>10</v>
+      </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
@@ -3996,7 +4072,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -4009,7 +4085,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>28.909090909090907</v>
+        <v>31.636363636363633</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4050,7 +4126,9 @@
       <c r="N36" s="12">
         <v>10</v>
       </c>
-      <c r="O36" s="12"/>
+      <c r="O36" s="12">
+        <v>10</v>
+      </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
@@ -4084,7 +4162,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -4097,7 +4175,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>27.81818181818182</v>
+        <v>30.545454545454547</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4119,7 +4197,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4138,7 +4216,9 @@
       <c r="N37" s="12">
         <v>10</v>
       </c>
-      <c r="O37" s="12"/>
+      <c r="O37" s="12">
+        <v>10</v>
+      </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
@@ -4172,7 +4252,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -4185,7 +4265,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>30.545454545454543</v>
+        <v>33.272727272727266</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4226,7 +4306,9 @@
       <c r="N38" s="12">
         <v>10</v>
       </c>
-      <c r="O38" s="12"/>
+      <c r="O38" s="12">
+        <v>10</v>
+      </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -4260,7 +4342,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4273,7 +4355,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>31.636363636363633</v>
+        <v>34.36363636363636</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4295,7 +4377,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4314,7 +4396,9 @@
       <c r="N39" s="12">
         <v>10</v>
       </c>
-      <c r="O39" s="12"/>
+      <c r="O39" s="12">
+        <v>10</v>
+      </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
@@ -4348,7 +4432,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4361,7 +4445,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.18181818181818</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4402,7 +4486,9 @@
       <c r="N40" s="12">
         <v>10</v>
       </c>
-      <c r="O40" s="12"/>
+      <c r="O40" s="12">
+        <v>10</v>
+      </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
@@ -4436,7 +4522,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4449,7 +4535,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.18181818181818</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4471,7 +4557,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4490,7 +4576,9 @@
       <c r="N41" s="12">
         <v>10</v>
       </c>
-      <c r="O41" s="12"/>
+      <c r="O41" s="12">
+        <v>8</v>
+      </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
@@ -4524,7 +4612,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -4537,7 +4625,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>28.636363636363637</v>
+        <v>30.81818181818182</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4559,7 +4647,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4578,7 +4666,9 @@
       <c r="N42" s="12">
         <v>9</v>
       </c>
-      <c r="O42" s="12"/>
+      <c r="O42" s="12">
+        <v>10</v>
+      </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
@@ -4612,7 +4702,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4625,7 +4715,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>29.454545454545453</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4659,9 +4749,9 @@
         <f>AVERAGE(N2:N29)</f>
         <v>9.4</v>
       </c>
-      <c r="O43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="O43" s="19">
+        <f>AVERAGE(O2:O29)</f>
+        <v>9.8076923076923084</v>
       </c>
       <c r="P43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4741,7 +4831,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>46.547619047619051</v>
+        <v>55.357142857142854</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -4757,7 +4847,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>26.006493506493506</v>
+        <v>28.409090909090917</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4791,9 +4881,9 @@
         <f t="shared" si="5"/>
         <v>9.4444444444444446</v>
       </c>
-      <c r="O44" s="19" t="e">
+      <c r="O44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="P44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4873,7 +4963,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>50.1</v>
+        <v>58.95</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -4889,7 +4979,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>27.831818181818182</v>
+        <v>30.245454545454542</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -4923,9 +5013,9 @@
         <f t="shared" si="6"/>
         <v>9.4722222222222214</v>
       </c>
-      <c r="O45" s="19" t="e">
+      <c r="O45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.7837837837837842</v>
       </c>
       <c r="P45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5005,7 +5095,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>48.280487804878049</v>
+        <v>57.109756097560975</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -5021,7 +5111,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>26.896895787139695</v>
+        <v>29.304878048780488</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5055,9 +5145,9 @@
         <f t="shared" si="7"/>
         <v>0.90982293759707888</v>
       </c>
-      <c r="O46" s="19" t="e">
+      <c r="O46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.53412103992005922</v>
       </c>
       <c r="P46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5137,7 +5227,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>14.67056951028478</v>
+        <v>17.109029850901088</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -5153,7 +5243,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>7.9813381533424534</v>
+        <v>8.651937178000674</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5189,7 +5279,7 @@
       </c>
       <c r="O47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P47" s="19">
         <f t="shared" si="8"/>
@@ -5269,7 +5359,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5285,7 +5375,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>32.454545454545453</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5321,7 +5411,7 @@
       </c>
       <c r="O48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P48" s="43">
         <f t="shared" si="9"/>
@@ -5423,16 +5513,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5443,6 +5523,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B192C-0105-4166-B557-D68160D22507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E635799-154F-47B2-9B56-C73D8BE1F575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,16 +754,16 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1154,7 +1154,9 @@
       <c r="O2" s="6">
         <v>10</v>
       </c>
-      <c r="P2" s="6"/>
+      <c r="P2" s="6">
+        <v>10</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="37"/>
@@ -1187,7 +1189,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1200,7 +1202,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>32.454545454545453</v>
+        <v>35.18181818181818</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1222,7 +1224,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="52"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1244,7 +1246,9 @@
       <c r="O3" s="6">
         <v>8</v>
       </c>
-      <c r="P3" s="6"/>
+      <c r="P3" s="6">
+        <v>10</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="37"/>
@@ -1277,7 +1281,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1290,7 +1294,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>31.090909090909086</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1312,7 +1316,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1334,7 +1338,9 @@
       <c r="O4" s="6">
         <v>9</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <v>10</v>
+      </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="37"/>
@@ -1367,7 +1373,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1380,7 +1386,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="52"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1424,7 +1430,9 @@
       <c r="O5" s="6">
         <v>10</v>
       </c>
-      <c r="P5" s="6"/>
+      <c r="P5" s="6">
+        <v>10</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="37"/>
@@ -1457,7 +1465,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1470,7 +1478,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1492,7 +1500,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1514,7 +1522,9 @@
       <c r="O6" s="6">
         <v>10</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6">
+        <v>10</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="37"/>
@@ -1547,7 +1557,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1560,7 +1570,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>35.727272727272727</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1582,7 +1592,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="52"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1604,7 +1614,9 @@
       <c r="O7" s="6">
         <v>9</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6">
+        <v>10</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="37"/>
@@ -1637,7 +1649,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>64.5</v>
+        <v>74.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1650,7 +1662,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>32.590909090909093</v>
+        <v>35.318181818181813</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1672,7 +1684,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1694,7 +1706,9 @@
       <c r="O8" s="6">
         <v>10</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6">
+        <v>10</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="37"/>
@@ -1727,7 +1741,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1740,7 +1754,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>32.18181818181818</v>
+        <v>34.909090909090914</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1762,7 +1776,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -1784,7 +1798,9 @@
       <c r="O9" s="6">
         <v>10</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6">
+        <v>10</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="37"/>
@@ -1817,7 +1833,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1830,7 +1846,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>32.727272727272727</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1852,7 +1868,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1874,7 +1890,9 @@
       <c r="O10" s="6">
         <v>10</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6">
+        <v>10</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="37"/>
@@ -1907,7 +1925,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1920,7 +1938,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>33.545454545454547</v>
+        <v>36.272727272727273</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1942,7 +1960,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="52"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -1964,7 +1982,9 @@
       <c r="O11" s="6">
         <v>9</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="6">
+        <v>10</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="37"/>
@@ -1997,7 +2017,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -2010,7 +2030,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>33.545454545454547</v>
+        <v>36.272727272727266</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2032,7 +2052,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2054,7 +2074,9 @@
       <c r="O12" s="6">
         <v>10</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>10</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="37"/>
@@ -2087,7 +2109,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -2100,7 +2122,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.181818181818187</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2122,7 +2144,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="52"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
@@ -2144,7 +2166,9 @@
       <c r="O13" s="6">
         <v>10</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>10</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="37"/>
@@ -2177,7 +2201,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="20">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
@@ -2190,7 +2214,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>11.727272727272727</v>
+        <v>14.454545454545453</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2212,7 +2236,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="55"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2234,7 +2258,9 @@
       <c r="O14" s="6">
         <v>10</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="6">
+        <v>10</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="37"/>
@@ -2267,7 +2293,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2280,7 +2306,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>28.36363636363636</v>
+        <v>31.09090909090909</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2302,7 +2328,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="52"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2324,7 +2350,9 @@
       <c r="O15" s="6">
         <v>10</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="37"/>
@@ -2357,7 +2385,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2370,7 +2398,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>29.727272727272723</v>
+        <v>32.454545454545453</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2392,7 +2420,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="55"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2404,7 +2432,9 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="P16" s="6">
+        <v>10</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="37"/>
@@ -2429,7 +2459,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AJ16" s="6">
         <f t="shared" si="1"/>
@@ -2442,7 +2472,7 @@
       <c r="AL16" s="8"/>
       <c r="AM16" s="9">
         <f t="shared" si="3"/>
-        <v>7.9090909090909092</v>
+        <v>10.636363636363637</v>
       </c>
       <c r="AN16" s="4"/>
     </row>
@@ -2464,7 +2494,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="52"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2480,11 +2510,15 @@
       <c r="M17" s="6">
         <v>8</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6">
+        <v>9</v>
+      </c>
       <c r="O17" s="6">
         <v>10</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6">
+        <v>10</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="37"/>
@@ -2518,7 +2552,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2531,7 +2565,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>26.727272727272727</v>
+        <v>31.90909090909091</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2553,7 +2587,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2575,7 +2609,9 @@
       <c r="O18" s="6">
         <v>10</v>
       </c>
-      <c r="P18" s="6"/>
+      <c r="P18" s="6">
+        <v>10</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="37"/>
@@ -2608,7 +2644,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2621,7 +2657,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>34.63636363636364</v>
+        <v>37.36363636363636</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2643,7 +2679,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="52"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -2665,7 +2701,9 @@
       <c r="O19" s="6">
         <v>10</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="6">
+        <v>10</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="37"/>
@@ -2698,7 +2736,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2711,7 +2749,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>32.72727272727272</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2733,7 +2771,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2755,7 +2793,9 @@
       <c r="O20" s="6">
         <v>10</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="6">
+        <v>10</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="37"/>
@@ -2788,7 +2828,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2801,7 +2841,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>31.09090909090909</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2821,7 +2861,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2829,7 +2869,9 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="P21" s="6">
+        <v>10</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="37"/>
@@ -2850,7 +2892,7 @@
       <c r="AH21" s="47"/>
       <c r="AI21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="6">
         <f t="shared" si="1"/>
@@ -2863,7 +2905,7 @@
       <c r="AL21" s="8"/>
       <c r="AM21" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN21" s="4"/>
     </row>
@@ -2885,7 +2927,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="52"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -2907,7 +2949,9 @@
       <c r="O22" s="6">
         <v>10</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6">
+        <v>10</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="37"/>
@@ -2940,7 +2984,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -2953,7 +2997,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>33.272727272727273</v>
+        <v>36</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -2975,7 +3019,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -2997,7 +3041,9 @@
       <c r="O23" s="12">
         <v>10</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="12">
+        <v>10</v>
+      </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="39"/>
@@ -3030,7 +3076,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -3043,7 +3089,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>33.272727272727266</v>
+        <v>36</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3065,7 +3111,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="52"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -3087,7 +3133,9 @@
       <c r="O24" s="12">
         <v>10</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="12">
+        <v>10</v>
+      </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="39"/>
@@ -3120,7 +3168,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -3133,7 +3181,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>33.818181818181813</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3155,7 +3203,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3177,7 +3225,9 @@
       <c r="O25" s="12">
         <v>10</v>
       </c>
-      <c r="P25" s="12"/>
+      <c r="P25" s="12">
+        <v>10</v>
+      </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="39"/>
@@ -3210,7 +3260,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3223,7 +3273,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>33.272727272727266</v>
+        <v>36</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3245,7 +3295,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="52"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -3267,7 +3317,9 @@
       <c r="O26" s="12">
         <v>10</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="12">
+        <v>10</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="39"/>
@@ -3300,7 +3352,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3313,7 +3365,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>33.818181818181813</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3335,7 +3387,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3357,7 +3409,9 @@
       <c r="O27" s="12">
         <v>10</v>
       </c>
-      <c r="P27" s="12"/>
+      <c r="P27" s="12">
+        <v>10</v>
+      </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="39"/>
@@ -3377,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="Y27" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
@@ -3390,11 +3444,11 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3403,7 +3457,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>32.181818181818187</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3425,7 +3479,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="52"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3447,7 +3501,9 @@
       <c r="O28" s="12">
         <v>10</v>
       </c>
-      <c r="P28" s="12"/>
+      <c r="P28" s="12">
+        <v>10</v>
+      </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="39"/>
@@ -3467,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="Y28" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -3480,11 +3536,11 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3493,7 +3549,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>33.272727272727273</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3515,7 +3571,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3537,7 +3593,9 @@
       <c r="O29" s="12">
         <v>10</v>
       </c>
-      <c r="P29" s="12"/>
+      <c r="P29" s="12">
+        <v>10</v>
+      </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="39"/>
@@ -3570,7 +3628,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3583,7 +3641,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>33.545454545454547</v>
+        <v>36.272727272727273</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3603,7 +3661,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="52"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3611,7 +3669,9 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
+      <c r="P30" s="12">
+        <v>10</v>
+      </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="39"/>
@@ -3632,7 +3692,7 @@
       <c r="AH30" s="49"/>
       <c r="AI30" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ30" s="12">
         <f t="shared" si="1"/>
@@ -3645,7 +3705,7 @@
       <c r="AL30" s="14"/>
       <c r="AM30" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN30" s="10"/>
     </row>
@@ -3667,7 +3727,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3689,7 +3749,9 @@
       <c r="O31" s="12">
         <v>10</v>
       </c>
-      <c r="P31" s="12"/>
+      <c r="P31" s="12">
+        <v>10</v>
+      </c>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="39"/>
@@ -3712,7 +3774,7 @@
         <v>8</v>
       </c>
       <c r="Z31" s="12"/>
-      <c r="AA31" s="55"/>
+      <c r="AA31" s="51"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="39"/>
@@ -3722,7 +3784,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3735,7 +3797,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>32.727272727272727</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3757,7 +3819,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="52"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -3779,7 +3841,9 @@
       <c r="O32" s="12">
         <v>10</v>
       </c>
-      <c r="P32" s="12"/>
+      <c r="P32" s="12">
+        <v>10</v>
+      </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="39"/>
@@ -3812,7 +3876,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3825,7 +3889,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>32.454545454545453</v>
+        <v>35.18181818181818</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3847,7 +3911,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3869,7 +3933,9 @@
       <c r="O33" s="12">
         <v>9</v>
       </c>
-      <c r="P33" s="12"/>
+      <c r="P33" s="12">
+        <v>10</v>
+      </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="39"/>
@@ -3902,7 +3968,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -3915,7 +3981,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>31.636363636363633</v>
+        <v>34.36363636363636</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -3937,7 +4003,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="52"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -3953,7 +4019,9 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
+      <c r="P34" s="12">
+        <v>10</v>
+      </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="39"/>
@@ -3982,7 +4050,7 @@
       <c r="AH34" s="49"/>
       <c r="AI34" s="21">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ34" s="12">
         <f t="shared" si="1"/>
@@ -3995,7 +4063,7 @@
       <c r="AL34" s="14"/>
       <c r="AM34" s="15">
         <f t="shared" si="3"/>
-        <v>20.454545454545453</v>
+        <v>23.181818181818183</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
@@ -4017,7 +4085,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4039,7 +4107,9 @@
       <c r="O35" s="12">
         <v>10</v>
       </c>
-      <c r="P35" s="12"/>
+      <c r="P35" s="12">
+        <v>10</v>
+      </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="39"/>
@@ -4072,7 +4142,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -4085,7 +4155,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>31.636363636363633</v>
+        <v>34.363636363636367</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4107,7 +4177,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="52"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -4129,7 +4199,9 @@
       <c r="O36" s="12">
         <v>10</v>
       </c>
-      <c r="P36" s="12"/>
+      <c r="P36" s="12">
+        <v>10</v>
+      </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="39"/>
@@ -4162,7 +4234,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -4175,7 +4247,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>30.545454545454547</v>
+        <v>33.272727272727273</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4197,7 +4269,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4219,7 +4291,9 @@
       <c r="O37" s="12">
         <v>10</v>
       </c>
-      <c r="P37" s="12"/>
+      <c r="P37" s="12">
+        <v>10</v>
+      </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="39"/>
@@ -4252,7 +4326,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -4265,7 +4339,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>33.272727272727266</v>
+        <v>36</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4287,7 +4361,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="52"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -4309,7 +4383,9 @@
       <c r="O38" s="12">
         <v>10</v>
       </c>
-      <c r="P38" s="12"/>
+      <c r="P38" s="12">
+        <v>10</v>
+      </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="39"/>
@@ -4342,7 +4418,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4355,7 +4431,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>34.36363636363636</v>
+        <v>37.090909090909093</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4377,7 +4453,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4399,7 +4475,9 @@
       <c r="O39" s="12">
         <v>10</v>
       </c>
-      <c r="P39" s="12"/>
+      <c r="P39" s="12">
+        <v>10</v>
+      </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="39"/>
@@ -4432,7 +4510,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4445,7 +4523,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>32.18181818181818</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4467,7 +4545,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="52"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -4489,7 +4567,9 @@
       <c r="O40" s="12">
         <v>10</v>
       </c>
-      <c r="P40" s="12"/>
+      <c r="P40" s="12">
+        <v>10</v>
+      </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="39"/>
@@ -4522,7 +4602,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4535,7 +4615,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>32.18181818181818</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4557,7 +4637,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4579,7 +4659,9 @@
       <c r="O41" s="12">
         <v>8</v>
       </c>
-      <c r="P41" s="12"/>
+      <c r="P41" s="12">
+        <v>10</v>
+      </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="39"/>
@@ -4612,7 +4694,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -4625,7 +4707,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>30.81818181818182</v>
+        <v>33.545454545454547</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4669,7 +4751,9 @@
       <c r="O42" s="12">
         <v>10</v>
       </c>
-      <c r="P42" s="12"/>
+      <c r="P42" s="12">
+        <v>10</v>
+      </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="39"/>
@@ -4702,7 +4786,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4715,7 +4799,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>29.454545454545453</v>
+        <v>32.18181818181818</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4747,15 +4831,15 @@
       </c>
       <c r="N43" s="19">
         <f>AVERAGE(N2:N29)</f>
-        <v>9.4</v>
+        <v>9.384615384615385</v>
       </c>
       <c r="O43" s="19">
         <f>AVERAGE(O2:O29)</f>
         <v>9.8076923076923084</v>
       </c>
-      <c r="P43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="P43" s="19">
+        <f>AVERAGE(P2:P23)</f>
+        <v>10</v>
       </c>
       <c r="Q43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4831,7 +4915,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>55.357142857142854</v>
+        <v>65.785714285714292</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -4847,7 +4931,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>28.409090909090917</v>
+        <v>31.253246753246756</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -4885,9 +4969,9 @@
         <f t="shared" si="5"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="P44" s="19" t="e">
+      <c r="P44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4923,7 +5007,7 @@
       </c>
       <c r="Y44" s="19">
         <f t="shared" si="5"/>
-        <v>9.5555555555555554</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="Z44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -4963,11 +5047,11 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>58.95</v>
+        <v>68.95</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>51.95</v>
+        <v>52.15</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -4979,7 +5063,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>30.245454545454542</v>
+        <v>33.027272727272717</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5011,15 +5095,15 @@
       </c>
       <c r="N45" s="19">
         <f t="shared" si="6"/>
-        <v>9.4722222222222214</v>
+        <v>9.4594594594594597</v>
       </c>
       <c r="O45" s="19">
         <f t="shared" si="6"/>
         <v>9.7837837837837842</v>
       </c>
-      <c r="P45" s="19" t="e">
+      <c r="P45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5055,7 +5139,7 @@
       </c>
       <c r="Y45" s="19">
         <f t="shared" si="6"/>
-        <v>9.5675675675675684</v>
+        <v>9.6756756756756754</v>
       </c>
       <c r="Z45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5095,11 +5179,11 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>57.109756097560975</v>
+        <v>67.329268292682926</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>50.341463414634148</v>
+        <v>50.439024390243901</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5111,7 +5195,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>29.304878048780488</v>
+        <v>32.118625277161861</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5143,15 +5227,15 @@
       </c>
       <c r="N46" s="19">
         <f t="shared" si="7"/>
-        <v>0.90982293759707888</v>
+        <v>0.90045033778149652</v>
       </c>
       <c r="O46" s="19">
         <f t="shared" si="7"/>
         <v>0.53412103992005922</v>
       </c>
-      <c r="P46" s="19" t="e">
+      <c r="P46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5187,7 +5271,7 @@
       </c>
       <c r="Y46" s="19">
         <f t="shared" si="7"/>
-        <v>0.83468359076760157</v>
+        <v>0.74736775322364446</v>
       </c>
       <c r="Z46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5227,11 +5311,11 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>17.109029850901088</v>
+        <v>17.073228222899715</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>14.809810525623819</v>
+        <v>14.847640857199851</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5243,7 +5327,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>8.651937178000674</v>
+        <v>8.6535646768606256</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5283,7 +5367,7 @@
       </c>
       <c r="P47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="19">
         <f t="shared" si="8"/>
@@ -5359,7 +5443,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5375,7 +5459,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>34.909090909090907</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5415,7 +5499,7 @@
       </c>
       <c r="P48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="43">
         <f t="shared" si="9"/>
@@ -5491,7 +5575,7 @@
       </c>
       <c r="AI48" s="35">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ48" s="19">
         <f t="shared" si="9"/>
@@ -5507,12 +5591,22 @@
       </c>
       <c r="AM48" s="19">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.7272727272727275</v>
       </c>
       <c r="AN48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5523,19 +5617,248 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
+    <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2e373f53-b420-467f-8c7e-fb09abd81bb2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E635799-154F-47B2-9B56-C73D8BE1F575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E5341-9C57-4BB3-BE92-490F66FF616E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,14 +757,14 @@
     <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="설명 텍스트" xfId="1" builtinId="53"/>
@@ -986,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="55"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1178,7 +1178,9 @@
       <c r="Y2" s="6">
         <v>10</v>
       </c>
-      <c r="Z2" s="6"/>
+      <c r="Z2" s="6">
+        <v>10</v>
+      </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
@@ -1193,7 +1195,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1202,7 +1204,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>35.18181818181818</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1270,7 +1272,9 @@
       <c r="Y3" s="6">
         <v>10</v>
       </c>
-      <c r="Z3" s="6"/>
+      <c r="Z3" s="6">
+        <v>10</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
@@ -1285,7 +1289,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1294,7 +1298,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>33.81818181818182</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1316,7 +1320,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="55"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1362,7 +1366,9 @@
       <c r="Y4" s="6">
         <v>10</v>
       </c>
-      <c r="Z4" s="6"/>
+      <c r="Z4" s="6">
+        <v>10</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
@@ -1377,7 +1383,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1386,7 +1392,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1454,7 +1460,9 @@
       <c r="Y5" s="6">
         <v>10</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="6">
+        <v>10</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -1469,7 +1477,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1478,7 +1486,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1500,7 +1508,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="55"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1546,7 +1554,9 @@
       <c r="Y6" s="6">
         <v>8</v>
       </c>
-      <c r="Z6" s="6"/>
+      <c r="Z6" s="6">
+        <v>10</v>
+      </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
@@ -1561,7 +1571,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1570,7 +1580,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>35.727272727272727</v>
+        <v>38.454545454545453</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1638,7 +1648,9 @@
       <c r="Y7" s="6">
         <v>8</v>
       </c>
-      <c r="Z7" s="6"/>
+      <c r="Z7" s="6">
+        <v>10</v>
+      </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
@@ -1653,7 +1665,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1662,7 +1674,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>35.318181818181813</v>
+        <v>38.045454545454547</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1684,7 +1696,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="55"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1730,7 +1742,9 @@
       <c r="Y8" s="6">
         <v>10</v>
       </c>
-      <c r="Z8" s="6"/>
+      <c r="Z8" s="6">
+        <v>10</v>
+      </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
@@ -1745,7 +1759,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1754,7 +1768,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>34.909090909090914</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1822,7 +1836,9 @@
       <c r="Y9" s="6">
         <v>10</v>
       </c>
-      <c r="Z9" s="6"/>
+      <c r="Z9" s="6">
+        <v>10</v>
+      </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
@@ -1837,7 +1853,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1846,7 +1862,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>38.181818181818187</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1868,7 +1884,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="55"/>
+      <c r="H10" s="52"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1914,7 +1930,9 @@
       <c r="Y10" s="6">
         <v>10</v>
       </c>
-      <c r="Z10" s="6"/>
+      <c r="Z10" s="6">
+        <v>10</v>
+      </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
@@ -1929,7 +1947,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1938,7 +1956,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>36.272727272727273</v>
+        <v>39</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2006,7 +2024,9 @@
       <c r="Y11" s="6">
         <v>10</v>
       </c>
-      <c r="Z11" s="6"/>
+      <c r="Z11" s="6">
+        <v>10</v>
+      </c>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
@@ -2021,7 +2041,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -2030,7 +2050,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>36.272727272727266</v>
+        <v>39</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2052,7 +2072,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="55"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2098,7 +2118,9 @@
       <c r="Y12" s="6">
         <v>8</v>
       </c>
-      <c r="Z12" s="6"/>
+      <c r="Z12" s="6">
+        <v>10</v>
+      </c>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
@@ -2113,7 +2135,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2122,7 +2144,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>32.181818181818187</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2190,7 +2212,9 @@
       <c r="Y13" s="6">
         <v>8</v>
       </c>
-      <c r="Z13" s="6"/>
+      <c r="Z13" s="6">
+        <v>10</v>
+      </c>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
@@ -2205,7 +2229,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -2214,7 +2238,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>14.454545454545453</v>
+        <v>17.18181818181818</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2236,7 +2260,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2282,7 +2306,9 @@
       <c r="Y14" s="6">
         <v>10</v>
       </c>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="6">
+        <v>10</v>
+      </c>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
@@ -2297,7 +2323,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2306,7 +2332,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>31.09090909090909</v>
+        <v>33.81818181818182</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2374,7 +2400,9 @@
       <c r="Y15" s="6">
         <v>10</v>
       </c>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="6">
+        <v>10</v>
+      </c>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
@@ -2389,7 +2417,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2398,7 +2426,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>32.454545454545453</v>
+        <v>35.18181818181818</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2420,7 +2448,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="55"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2541,7 +2569,9 @@
         <f>Y29</f>
         <v>10</v>
       </c>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="6">
+        <v>10</v>
+      </c>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
@@ -2556,7 +2586,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2565,7 +2595,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>31.90909090909091</v>
+        <v>34.63636363636364</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2587,7 +2617,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2633,7 +2663,9 @@
       <c r="Y18" s="6">
         <v>10</v>
       </c>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="6">
+        <v>10</v>
+      </c>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
@@ -2648,7 +2680,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2657,7 +2689,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>37.36363636363636</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2725,7 +2757,9 @@
       <c r="Y19" s="6">
         <v>10</v>
       </c>
-      <c r="Z19" s="6"/>
+      <c r="Z19" s="6">
+        <v>10</v>
+      </c>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
@@ -2740,7 +2774,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2749,7 +2783,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>38.181818181818187</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2771,7 +2805,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="55"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2817,7 +2851,9 @@
       <c r="Y20" s="6">
         <v>10</v>
       </c>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="6">
+        <v>8</v>
+      </c>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
@@ -2832,7 +2868,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2841,7 +2877,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>33.81818181818182</v>
+        <v>36</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2973,7 +3009,9 @@
       <c r="Y22" s="6">
         <v>10</v>
       </c>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="6">
+        <v>8</v>
+      </c>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
@@ -2988,7 +3026,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -2997,7 +3035,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3019,7 +3057,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="52"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3065,7 +3103,9 @@
       <c r="Y23" s="12">
         <v>10</v>
       </c>
-      <c r="Z23" s="12"/>
+      <c r="Z23" s="12">
+        <v>8</v>
+      </c>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
@@ -3080,7 +3120,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -3089,7 +3129,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.181818181818187</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3157,7 +3197,9 @@
       <c r="Y24" s="12">
         <v>10</v>
       </c>
-      <c r="Z24" s="12"/>
+      <c r="Z24" s="12">
+        <v>8</v>
+      </c>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
@@ -3172,7 +3214,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3181,7 +3223,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>38.727272727272727</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3203,7 +3245,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="52"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3249,7 +3291,9 @@
       <c r="Y25" s="12">
         <v>10</v>
       </c>
-      <c r="Z25" s="12"/>
+      <c r="Z25" s="12">
+        <v>8</v>
+      </c>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
@@ -3264,7 +3308,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3273,7 +3317,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.181818181818187</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3341,7 +3385,9 @@
       <c r="Y26" s="12">
         <v>10</v>
       </c>
-      <c r="Z26" s="12"/>
+      <c r="Z26" s="12">
+        <v>8</v>
+      </c>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
@@ -3356,7 +3402,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3365,7 +3411,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>38.727272727272727</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3387,7 +3433,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="52"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3433,7 +3479,9 @@
       <c r="Y27" s="12">
         <v>10</v>
       </c>
-      <c r="Z27" s="12"/>
+      <c r="Z27" s="12">
+        <v>8</v>
+      </c>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
@@ -3448,7 +3496,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3457,7 +3505,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3525,7 +3573,9 @@
       <c r="Y28" s="12">
         <v>10</v>
       </c>
-      <c r="Z28" s="12"/>
+      <c r="Z28" s="12">
+        <v>8</v>
+      </c>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
@@ -3540,7 +3590,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3549,7 +3599,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>38.727272727272727</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3571,7 +3621,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="52"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3617,7 +3667,9 @@
       <c r="Y29" s="12">
         <v>10</v>
       </c>
-      <c r="Z29" s="12"/>
+      <c r="Z29" s="12">
+        <v>10</v>
+      </c>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -3632,7 +3684,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3641,7 +3693,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>36.272727272727273</v>
+        <v>39</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3727,7 +3779,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="52"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3773,7 +3825,9 @@
       <c r="Y31" s="12">
         <v>8</v>
       </c>
-      <c r="Z31" s="12"/>
+      <c r="Z31" s="12">
+        <v>8</v>
+      </c>
       <c r="AA31" s="51"/>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
@@ -3788,7 +3842,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3797,7 +3851,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>37.636363636363633</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3865,7 +3919,9 @@
       <c r="Y32" s="12">
         <v>8</v>
       </c>
-      <c r="Z32" s="12"/>
+      <c r="Z32" s="12">
+        <v>8</v>
+      </c>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
@@ -3880,7 +3936,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3889,7 +3945,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>35.18181818181818</v>
+        <v>37.36363636363636</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3911,7 +3967,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="52"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -3957,7 +4013,9 @@
       <c r="Y33" s="12">
         <v>10</v>
       </c>
-      <c r="Z33" s="12"/>
+      <c r="Z33" s="12">
+        <v>10</v>
+      </c>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
@@ -3972,7 +4030,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -3981,7 +4039,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>34.36363636363636</v>
+        <v>37.090909090909093</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4085,7 +4143,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="52"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4131,7 +4189,9 @@
       <c r="Y35" s="12">
         <v>10</v>
       </c>
-      <c r="Z35" s="12"/>
+      <c r="Z35" s="12">
+        <v>8</v>
+      </c>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -4146,7 +4206,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -4155,7 +4215,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>34.363636363636367</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4223,7 +4283,9 @@
       <c r="Y36" s="12">
         <v>10</v>
       </c>
-      <c r="Z36" s="12"/>
+      <c r="Z36" s="12">
+        <v>8</v>
+      </c>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
@@ -4238,7 +4300,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4247,7 +4309,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>33.272727272727273</v>
+        <v>35.454545454545453</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4269,7 +4331,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="52"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4315,7 +4377,9 @@
       <c r="Y37" s="12">
         <v>10</v>
       </c>
-      <c r="Z37" s="12"/>
+      <c r="Z37" s="12">
+        <v>10</v>
+      </c>
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
@@ -4330,7 +4394,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4339,7 +4403,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.727272727272734</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4407,7 +4471,9 @@
       <c r="Y38" s="12">
         <v>10</v>
       </c>
-      <c r="Z38" s="12"/>
+      <c r="Z38" s="12">
+        <v>10</v>
+      </c>
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
@@ -4422,7 +4488,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4431,7 +4497,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>37.090909090909093</v>
+        <v>39.81818181818182</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4453,7 +4519,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="52"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4499,7 +4565,9 @@
       <c r="Y39" s="12">
         <v>10</v>
       </c>
-      <c r="Z39" s="12"/>
+      <c r="Z39" s="12">
+        <v>10</v>
+      </c>
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
@@ -4514,7 +4582,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4523,7 +4591,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4591,7 +4659,9 @@
       <c r="Y40" s="12">
         <v>10</v>
       </c>
-      <c r="Z40" s="12"/>
+      <c r="Z40" s="12">
+        <v>10</v>
+      </c>
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
@@ -4606,7 +4676,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4615,7 +4685,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.63636363636364</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4637,7 +4707,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="52"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4683,7 +4753,9 @@
       <c r="Y41" s="12">
         <v>10</v>
       </c>
-      <c r="Z41" s="12"/>
+      <c r="Z41" s="12">
+        <v>8</v>
+      </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
@@ -4698,7 +4770,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4707,7 +4779,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>33.545454545454547</v>
+        <v>35.727272727272727</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4729,7 +4801,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="54"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4775,7 +4847,9 @@
       <c r="Y42" s="12">
         <v>10</v>
       </c>
-      <c r="Z42" s="12"/>
+      <c r="Z42" s="12">
+        <v>8</v>
+      </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
@@ -4790,7 +4864,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4799,7 +4873,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>32.18181818181818</v>
+        <v>34.36363636363636</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4877,9 +4951,9 @@
         <f t="shared" si="4"/>
         <v>9.5789473684210531</v>
       </c>
-      <c r="Z43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="Z43" s="19">
+        <f>AVERAGE(Z2:Z29)</f>
+        <v>9.384615384615385</v>
       </c>
       <c r="AA43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4919,7 +4993,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>48.80952380952381</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -4931,7 +5005,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>31.253246753246756</v>
+        <v>33.668831168831176</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5009,9 +5083,9 @@
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="Z44" s="19" t="e">
+      <c r="Z44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="AA44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -5051,7 +5125,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>52.15</v>
+        <v>59.95</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -5063,7 +5137,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>33.027272727272717</v>
+        <v>35.154545454545456</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5141,9 +5215,9 @@
         <f t="shared" si="6"/>
         <v>9.6756756756756754</v>
       </c>
-      <c r="Z45" s="19" t="e">
+      <c r="Z45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.2432432432432439</v>
       </c>
       <c r="AA45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5183,7 +5257,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>50.439024390243901</v>
+        <v>58.780487804878049</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5195,7 +5269,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>32.118625277161861</v>
+        <v>34.393569844789361</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5273,9 +5347,9 @@
         <f t="shared" si="7"/>
         <v>0.74736775322364446</v>
       </c>
-      <c r="Z46" s="19" t="e">
+      <c r="Z46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.98334478539674353</v>
       </c>
       <c r="AA46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5315,7 +5389,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>14.847640857199851</v>
+        <v>17.22572523164402</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5327,7 +5401,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>8.6535646768606256</v>
+        <v>9.3038337969844989</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5407,7 +5481,7 @@
       </c>
       <c r="Z47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA47" s="19">
         <f t="shared" si="8"/>
@@ -5447,7 +5521,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5459,7 +5533,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5539,7 +5613,7 @@
       </c>
       <c r="Z48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA48" s="43">
         <f t="shared" si="9"/>
@@ -5597,16 +5671,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5617,6 +5681,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5807,18 +5881,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5840,14 +5914,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5861,4 +5927,12 @@
     <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E5341-9C57-4BB3-BE92-490F66FF616E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{7359FC8B-27A6-4A91-BC8C-744BEF256F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11D47BFF-80F7-4FDC-93D4-5F92A58DD148}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,15 +346,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -596,13 +587,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,20 +742,16 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="설명 텍스트" xfId="1" builtinId="53"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z49" sqref="Z49"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1132,7 +1116,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="52"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1181,7 +1165,9 @@
       <c r="Z2" s="6">
         <v>10</v>
       </c>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="6">
+        <v>10</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="37"/>
@@ -1195,7 +1181,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1204,7 +1190,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>37.909090909090907</v>
+        <v>40.63636363636364</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1226,7 +1212,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="53"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1275,7 +1261,9 @@
       <c r="Z3" s="6">
         <v>10</v>
       </c>
-      <c r="AA3" s="6"/>
+      <c r="AA3" s="6">
+        <v>10</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="37"/>
@@ -1289,7 +1277,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1298,7 +1286,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1320,7 +1308,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="52"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1369,7 +1357,9 @@
       <c r="Z4" s="6">
         <v>10</v>
       </c>
-      <c r="AA4" s="6"/>
+      <c r="AA4" s="6">
+        <v>10</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="37"/>
@@ -1383,7 +1373,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1392,7 +1382,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1414,7 +1404,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="53"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1463,7 +1453,9 @@
       <c r="Z5" s="6">
         <v>10</v>
       </c>
-      <c r="AA5" s="6"/>
+      <c r="AA5" s="6">
+        <v>10</v>
+      </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="37"/>
@@ -1477,7 +1469,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1486,7 +1478,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1508,7 +1500,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="52"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1557,7 +1549,9 @@
       <c r="Z6" s="6">
         <v>10</v>
       </c>
-      <c r="AA6" s="6"/>
+      <c r="AA6" s="6">
+        <v>9</v>
+      </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="37"/>
@@ -1571,7 +1565,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1580,7 +1574,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>38.454545454545453</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1602,7 +1596,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="53"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1651,7 +1645,9 @@
       <c r="Z7" s="6">
         <v>10</v>
       </c>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="6">
+        <v>9</v>
+      </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="37"/>
@@ -1665,7 +1661,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1674,7 +1670,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>38.045454545454547</v>
+        <v>40.5</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1696,7 +1692,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="52"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1745,7 +1741,9 @@
       <c r="Z8" s="6">
         <v>10</v>
       </c>
-      <c r="AA8" s="6"/>
+      <c r="AA8" s="6">
+        <v>10</v>
+      </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="37"/>
@@ -1759,7 +1757,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1768,7 +1766,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.363636363636367</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1790,7 +1788,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="53"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -1839,7 +1837,9 @@
       <c r="Z9" s="6">
         <v>10</v>
       </c>
-      <c r="AA9" s="6"/>
+      <c r="AA9" s="6">
+        <v>10</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="37"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1862,7 +1862,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>38.181818181818187</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="52"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1933,7 +1933,9 @@
       <c r="Z10" s="6">
         <v>10</v>
       </c>
-      <c r="AA10" s="6"/>
+      <c r="AA10" s="6">
+        <v>10</v>
+      </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="37"/>
@@ -1947,7 +1949,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1956,7 +1958,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.727272727272727</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -1978,7 +1980,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="53"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -2027,7 +2029,9 @@
       <c r="Z11" s="6">
         <v>10</v>
       </c>
-      <c r="AA11" s="6"/>
+      <c r="AA11" s="6">
+        <v>10</v>
+      </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="37"/>
@@ -2041,7 +2045,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -2050,7 +2054,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.727272727272727</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2121,7 +2125,9 @@
       <c r="Z12" s="6">
         <v>10</v>
       </c>
-      <c r="AA12" s="6"/>
+      <c r="AA12" s="6">
+        <v>9</v>
+      </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="37"/>
@@ -2135,7 +2141,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2144,7 +2150,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>34.909090909090907</v>
+        <v>37.363636363636367</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="53"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
@@ -2215,7 +2221,9 @@
       <c r="Z13" s="6">
         <v>10</v>
       </c>
-      <c r="AA13" s="6"/>
+      <c r="AA13" s="6">
+        <v>9</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="37"/>
@@ -2229,7 +2237,7 @@
       </c>
       <c r="AJ13" s="6">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
@@ -2238,7 +2246,7 @@
       <c r="AL13" s="8"/>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>17.18181818181818</v>
+        <v>19.636363636363637</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
@@ -2260,7 +2268,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="52"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2309,7 +2317,9 @@
       <c r="Z14" s="6">
         <v>10</v>
       </c>
-      <c r="AA14" s="6"/>
+      <c r="AA14" s="6">
+        <v>10</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="37"/>
@@ -2323,7 +2333,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2332,7 +2342,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>33.81818181818182</v>
+        <v>36.545454545454547</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2354,7 +2364,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="53"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2403,7 +2413,9 @@
       <c r="Z15" s="6">
         <v>10</v>
       </c>
-      <c r="AA15" s="6"/>
+      <c r="AA15" s="6">
+        <v>10</v>
+      </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="37"/>
@@ -2417,7 +2429,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2426,7 +2438,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>35.18181818181818</v>
+        <v>37.909090909090907</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="52"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2522,7 +2534,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2572,7 +2584,9 @@
       <c r="Z17" s="6">
         <v>10</v>
       </c>
-      <c r="AA17" s="6"/>
+      <c r="AA17" s="6">
+        <v>9</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="37"/>
@@ -2586,7 +2600,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2595,7 +2609,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>34.63636363636364</v>
+        <v>37.090909090909093</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2617,7 +2631,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="52"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2666,7 +2680,9 @@
       <c r="Z18" s="6">
         <v>10</v>
       </c>
-      <c r="AA18" s="6"/>
+      <c r="AA18" s="6">
+        <v>10</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="37"/>
@@ -2680,7 +2696,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2689,7 +2705,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2711,7 +2727,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="53"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -2760,7 +2776,9 @@
       <c r="Z19" s="6">
         <v>10</v>
       </c>
-      <c r="AA19" s="6"/>
+      <c r="AA19" s="6">
+        <v>10</v>
+      </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="37"/>
@@ -2774,7 +2792,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2783,7 +2801,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>38.181818181818187</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2805,7 +2823,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="52"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2854,7 +2872,9 @@
       <c r="Z20" s="6">
         <v>8</v>
       </c>
-      <c r="AA20" s="6"/>
+      <c r="AA20" s="6">
+        <v>10</v>
+      </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="37"/>
@@ -2868,7 +2888,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2877,7 +2897,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38.727272727272727</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2897,7 +2917,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="53"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2963,7 +2983,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -3012,7 +3032,9 @@
       <c r="Z22" s="6">
         <v>8</v>
       </c>
-      <c r="AA22" s="6"/>
+      <c r="AA22" s="6">
+        <v>10</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="37"/>
@@ -3026,7 +3048,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -3035,7 +3057,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>38.18181818181818</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3057,7 +3079,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3106,7 +3128,9 @@
       <c r="Z23" s="12">
         <v>8</v>
       </c>
-      <c r="AA23" s="12"/>
+      <c r="AA23" s="12">
+        <v>10</v>
+      </c>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="39"/>
@@ -3120,7 +3144,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -3129,7 +3153,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>38.181818181818187</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3151,7 +3175,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -3200,7 +3224,9 @@
       <c r="Z24" s="12">
         <v>8</v>
       </c>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="12">
+        <v>10</v>
+      </c>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="39"/>
@@ -3214,7 +3240,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3223,7 +3249,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>38.727272727272727</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3245,7 +3271,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3294,7 +3320,9 @@
       <c r="Z25" s="12">
         <v>8</v>
       </c>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="12">
+        <v>10</v>
+      </c>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="39"/>
@@ -3308,7 +3336,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3317,7 +3345,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>38.181818181818187</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3339,7 +3367,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -3388,7 +3416,9 @@
       <c r="Z26" s="12">
         <v>8</v>
       </c>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="12">
+        <v>10</v>
+      </c>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="39"/>
@@ -3402,7 +3432,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3411,7 +3441,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>38.727272727272727</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3433,7 +3463,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3482,7 +3512,9 @@
       <c r="Z27" s="12">
         <v>8</v>
       </c>
-      <c r="AA27" s="12"/>
+      <c r="AA27" s="12">
+        <v>10</v>
+      </c>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="39"/>
@@ -3496,7 +3528,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3505,7 +3537,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3527,7 +3559,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3576,7 +3608,9 @@
       <c r="Z28" s="12">
         <v>8</v>
       </c>
-      <c r="AA28" s="12"/>
+      <c r="AA28" s="12">
+        <v>10</v>
+      </c>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="39"/>
@@ -3590,7 +3624,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3599,7 +3633,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>38.727272727272727</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3621,7 +3655,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3670,7 +3704,9 @@
       <c r="Z29" s="12">
         <v>10</v>
       </c>
-      <c r="AA29" s="12"/>
+      <c r="AA29" s="12">
+        <v>9</v>
+      </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="39"/>
@@ -3684,7 +3720,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3693,7 +3729,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3713,7 +3749,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="53"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3779,7 +3815,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3828,7 +3864,9 @@
       <c r="Z31" s="12">
         <v>8</v>
       </c>
-      <c r="AA31" s="51"/>
+      <c r="AA31" s="12">
+        <v>10</v>
+      </c>
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="39"/>
@@ -3842,7 +3880,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3851,7 +3889,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>37.636363636363633</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3873,7 +3911,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="53"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -3922,7 +3960,9 @@
       <c r="Z32" s="12">
         <v>8</v>
       </c>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="12">
+        <v>10</v>
+      </c>
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="39"/>
@@ -3936,7 +3976,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -3945,7 +3985,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>37.36363636363636</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -3967,7 +4007,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4016,7 +4056,9 @@
       <c r="Z33" s="12">
         <v>10</v>
       </c>
-      <c r="AA33" s="12"/>
+      <c r="AA33" s="12">
+        <v>9</v>
+      </c>
       <c r="AB33" s="12"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="39"/>
@@ -4030,7 +4072,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -4039,7 +4081,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>37.090909090909093</v>
+        <v>39.545454545454547</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4061,7 +4103,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -4143,7 +4185,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4192,7 +4234,9 @@
       <c r="Z35" s="12">
         <v>8</v>
       </c>
-      <c r="AA35" s="12"/>
+      <c r="AA35" s="12">
+        <v>10</v>
+      </c>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="39"/>
@@ -4206,7 +4250,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -4215,7 +4259,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4237,7 +4281,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="53"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -4286,7 +4330,9 @@
       <c r="Z36" s="12">
         <v>8</v>
       </c>
-      <c r="AA36" s="12"/>
+      <c r="AA36" s="12">
+        <v>10</v>
+      </c>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="39"/>
@@ -4300,7 +4346,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4309,7 +4355,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>35.454545454545453</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4331,7 +4377,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="54"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4380,7 +4426,9 @@
       <c r="Z37" s="12">
         <v>10</v>
       </c>
-      <c r="AA37" s="12"/>
+      <c r="AA37" s="12">
+        <v>10</v>
+      </c>
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="39"/>
@@ -4394,7 +4442,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4403,7 +4451,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>38.727272727272734</v>
+        <v>41.454545454545453</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4425,7 +4473,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="53"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -4474,7 +4522,9 @@
       <c r="Z38" s="12">
         <v>10</v>
       </c>
-      <c r="AA38" s="12"/>
+      <c r="AA38" s="12">
+        <v>10</v>
+      </c>
       <c r="AB38" s="12"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="39"/>
@@ -4488,7 +4538,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4497,7 +4547,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>39.81818181818182</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4519,7 +4569,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="54"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4568,7 +4618,9 @@
       <c r="Z39" s="12">
         <v>10</v>
       </c>
-      <c r="AA39" s="12"/>
+      <c r="AA39" s="12">
+        <v>10</v>
+      </c>
       <c r="AB39" s="12"/>
       <c r="AC39" s="12"/>
       <c r="AD39" s="39"/>
@@ -4582,7 +4634,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4591,7 +4643,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4613,7 +4665,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="53"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -4662,7 +4714,9 @@
       <c r="Z40" s="12">
         <v>10</v>
       </c>
-      <c r="AA40" s="12"/>
+      <c r="AA40" s="12">
+        <v>10</v>
+      </c>
       <c r="AB40" s="12"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="39"/>
@@ -4676,7 +4730,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4685,7 +4739,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>37.63636363636364</v>
+        <v>40.36363636363636</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4707,7 +4761,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="54"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4756,7 +4810,9 @@
       <c r="Z41" s="12">
         <v>8</v>
       </c>
-      <c r="AA41" s="12"/>
+      <c r="AA41" s="12">
+        <v>9</v>
+      </c>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="39"/>
@@ -4770,7 +4826,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4779,7 +4835,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>35.727272727272727</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4801,7 +4857,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="55"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4850,7 +4906,9 @@
       <c r="Z42" s="12">
         <v>8</v>
       </c>
-      <c r="AA42" s="12"/>
+      <c r="AA42" s="12">
+        <v>9</v>
+      </c>
       <c r="AB42" s="12"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="39"/>
@@ -4864,7 +4922,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -4873,7 +4931,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>34.36363636363636</v>
+        <v>36.818181818181813</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4955,9 +5013,9 @@
         <f>AVERAGE(Z2:Z29)</f>
         <v>9.384615384615385</v>
       </c>
-      <c r="AA43" s="19" t="e">
+      <c r="AA43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.7368421052631575</v>
       </c>
       <c r="AB43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -4993,7 +5051,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>57.666666666666664</v>
+        <v>66.476190476190482</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -5005,7 +5063,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>33.668831168831176</v>
+        <v>36.071428571428569</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5087,9 +5145,9 @@
         <f t="shared" si="5"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="AA44" s="19" t="e">
+      <c r="AA44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="AB44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -5125,7 +5183,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>59.95</v>
+        <v>68.75</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -5137,7 +5195,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>35.154545454545456</v>
+        <v>37.554545454545448</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5219,9 +5277,9 @@
         <f t="shared" si="6"/>
         <v>9.2432432432432439</v>
       </c>
-      <c r="AA45" s="19" t="e">
+      <c r="AA45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.7567567567567561</v>
       </c>
       <c r="AB45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5257,7 +5315,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>58.780487804878049</v>
+        <v>67.58536585365853</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5269,7 +5327,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>34.393569844789361</v>
+        <v>36.794900221729485</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5351,9 +5409,9 @@
         <f t="shared" si="7"/>
         <v>0.98334478539674353</v>
       </c>
-      <c r="AA46" s="19" t="e">
+      <c r="AA46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.43495883620083997</v>
       </c>
       <c r="AB46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5389,7 +5447,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>17.22572523164402</v>
+        <v>19.92231865240101</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5401,7 +5459,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>9.3038337969844989</v>
+        <v>10.030929039309134</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5485,7 +5543,7 @@
       </c>
       <c r="AA47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB47" s="19">
         <f t="shared" si="8"/>
@@ -5521,7 +5579,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5533,7 +5591,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>40.36363636363636</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5617,7 +5675,7 @@
       </c>
       <c r="AA48" s="43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB48" s="43">
         <f t="shared" si="9"/>
@@ -5671,6 +5729,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5681,16 +5749,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5881,18 +5939,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5914,25 +5972,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{7359FC8B-27A6-4A91-BC8C-744BEF256F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11D47BFF-80F7-4FDC-93D4-5F92A58DD148}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26BC20D-5C41-4FD7-BB89-2F9A90F7107F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="89">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -303,7 +303,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -344,6 +344,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -590,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,13 +755,22 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC36" sqref="AC36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1116,7 +1138,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1141,7 +1163,9 @@
       <c r="P2" s="6">
         <v>10</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="6">
+        <v>10</v>
+      </c>
       <c r="R2" s="6"/>
       <c r="S2" s="37"/>
       <c r="T2" s="36">
@@ -1177,7 +1201,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1190,7 +1214,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>40.63636363636364</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1237,7 +1261,9 @@
       <c r="P3" s="6">
         <v>10</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="6">
+        <v>9</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="37"/>
       <c r="T3" s="36">
@@ -1273,7 +1299,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1286,7 +1312,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>41.727272727272727</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1308,7 +1334,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1333,7 +1359,9 @@
       <c r="P4" s="6">
         <v>10</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="6">
+        <v>10</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="37"/>
       <c r="T4" s="36">
@@ -1369,7 +1397,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1382,7 +1410,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1429,7 +1457,9 @@
       <c r="P5" s="6">
         <v>10</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="6">
+        <v>9</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="37"/>
       <c r="T5" s="36">
@@ -1465,7 +1495,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1478,7 +1508,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.545454545454547</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1500,7 +1530,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1525,7 +1555,9 @@
       <c r="P6" s="6">
         <v>10</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6">
+        <v>10</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="37"/>
       <c r="T6" s="36">
@@ -1561,7 +1593,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1574,7 +1606,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1621,7 +1653,9 @@
       <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="6">
+        <v>9</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="37"/>
       <c r="T7" s="36">
@@ -1657,7 +1691,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>74.5</v>
+        <v>83.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1670,7 +1704,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>40.5</v>
+        <v>42.954545454545453</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1692,7 +1726,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1717,7 +1751,9 @@
       <c r="P8" s="6">
         <v>10</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="6">
+        <v>10</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="37"/>
       <c r="T8" s="36">
@@ -1753,7 +1789,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1766,7 +1802,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>40.363636363636367</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1813,7 +1849,9 @@
       <c r="P9" s="6">
         <v>10</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6">
+        <v>10</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="37"/>
       <c r="T9" s="36">
@@ -1849,7 +1887,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1862,7 +1900,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.63636363636364</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1884,7 +1922,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1909,7 +1947,9 @@
       <c r="P10" s="6">
         <v>10</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="6">
+        <v>9</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="37"/>
       <c r="T10" s="36">
@@ -1945,7 +1985,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -1958,7 +1998,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>41.727272727272727</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2005,7 +2045,9 @@
       <c r="P11" s="6">
         <v>10</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6">
+        <v>8</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="37"/>
       <c r="T11" s="36">
@@ -2041,7 +2083,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -2054,7 +2096,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>41.727272727272727</v>
+        <v>43.909090909090907</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2076,7 +2118,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2101,7 +2143,9 @@
       <c r="P12" s="6">
         <v>10</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="6">
+        <v>10</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="37"/>
       <c r="T12" s="36">
@@ -2137,7 +2181,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -2150,7 +2194,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>37.363636363636367</v>
+        <v>40.090909090909093</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2197,7 +2241,9 @@
       <c r="P13" s="6">
         <v>10</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="50">
+        <v>0</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="37"/>
       <c r="T13" s="36">
@@ -2268,7 +2314,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2293,7 +2339,9 @@
       <c r="P14" s="6">
         <v>10</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6">
+        <v>10</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="37"/>
       <c r="T14" s="36">
@@ -2329,7 +2377,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2342,7 +2390,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>36.545454545454547</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2389,7 +2437,9 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="57">
+        <v>0</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="37"/>
       <c r="T15" s="36">
@@ -2460,7 +2510,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2559,7 +2609,9 @@
       <c r="P17" s="6">
         <v>10</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="6">
+        <v>9</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="37"/>
       <c r="T17" s="36">
@@ -2596,7 +2648,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2609,7 +2661,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>37.090909090909093</v>
+        <v>39.545454545454547</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2631,7 +2683,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2656,7 +2708,9 @@
       <c r="P18" s="6">
         <v>10</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="6">
+        <v>9</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="37"/>
       <c r="T18" s="36">
@@ -2692,7 +2746,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2705,7 +2759,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45.272727272727273</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2752,7 +2806,9 @@
       <c r="P19" s="6">
         <v>10</v>
       </c>
-      <c r="Q19" s="6"/>
+      <c r="Q19" s="6">
+        <v>9</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="37"/>
       <c r="T19" s="36">
@@ -2788,7 +2844,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2801,7 +2857,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2823,7 +2879,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2848,7 +2904,9 @@
       <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="56">
+        <v>0</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="37"/>
       <c r="T20" s="36">
@@ -3008,7 +3066,9 @@
       <c r="P22" s="6">
         <v>10</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="6">
+        <v>9</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="37"/>
       <c r="T22" s="36">
@@ -3044,7 +3104,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -3057,7 +3117,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3079,7 +3139,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3104,7 +3164,9 @@
       <c r="P23" s="12">
         <v>10</v>
       </c>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="12">
+        <v>9</v>
+      </c>
       <c r="R23" s="12"/>
       <c r="S23" s="39"/>
       <c r="T23" s="38">
@@ -3140,7 +3202,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -3153,7 +3215,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3200,7 +3262,9 @@
       <c r="P24" s="12">
         <v>10</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="12">
+        <v>10</v>
+      </c>
       <c r="R24" s="12"/>
       <c r="S24" s="39"/>
       <c r="T24" s="38">
@@ -3236,7 +3300,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -3249,7 +3313,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3271,7 +3335,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3296,7 +3360,9 @@
       <c r="P25" s="12">
         <v>10</v>
       </c>
-      <c r="Q25" s="12"/>
+      <c r="Q25" s="12">
+        <v>9</v>
+      </c>
       <c r="R25" s="12"/>
       <c r="S25" s="39"/>
       <c r="T25" s="38">
@@ -3332,7 +3398,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3345,7 +3411,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3392,7 +3458,9 @@
       <c r="P26" s="12">
         <v>10</v>
       </c>
-      <c r="Q26" s="12"/>
+      <c r="Q26" s="12">
+        <v>10</v>
+      </c>
       <c r="R26" s="12"/>
       <c r="S26" s="39"/>
       <c r="T26" s="38">
@@ -3428,7 +3496,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3441,7 +3509,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3463,7 +3531,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3488,7 +3556,9 @@
       <c r="P27" s="12">
         <v>10</v>
       </c>
-      <c r="Q27" s="12"/>
+      <c r="Q27" s="12">
+        <v>9</v>
+      </c>
       <c r="R27" s="12"/>
       <c r="S27" s="39"/>
       <c r="T27" s="38">
@@ -3524,7 +3594,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3537,7 +3607,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3584,7 +3654,9 @@
       <c r="P28" s="12">
         <v>10</v>
       </c>
-      <c r="Q28" s="12"/>
+      <c r="Q28" s="12">
+        <v>10</v>
+      </c>
       <c r="R28" s="12"/>
       <c r="S28" s="39"/>
       <c r="T28" s="38">
@@ -3620,7 +3692,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3633,7 +3705,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.18181818181818</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3655,7 +3727,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="51"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3680,7 +3752,9 @@
       <c r="P29" s="12">
         <v>10</v>
       </c>
-      <c r="Q29" s="12"/>
+      <c r="Q29" s="12">
+        <v>10</v>
+      </c>
       <c r="R29" s="12"/>
       <c r="S29" s="39"/>
       <c r="T29" s="38">
@@ -3716,7 +3790,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3729,7 +3803,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3815,7 +3889,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3840,7 +3914,9 @@
       <c r="P31" s="12">
         <v>10</v>
       </c>
-      <c r="Q31" s="12"/>
+      <c r="Q31" s="12">
+        <v>10</v>
+      </c>
       <c r="R31" s="12"/>
       <c r="S31" s="39"/>
       <c r="T31" s="38">
@@ -3876,7 +3952,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -3889,7 +3965,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3936,7 +4012,9 @@
       <c r="P32" s="12">
         <v>10</v>
       </c>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="12">
+        <v>9</v>
+      </c>
       <c r="R32" s="12"/>
       <c r="S32" s="39"/>
       <c r="T32" s="38">
@@ -3972,7 +4050,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -3985,7 +4063,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -4007,7 +4085,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4032,7 +4110,9 @@
       <c r="P33" s="12">
         <v>10</v>
       </c>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="12">
+        <v>9</v>
+      </c>
       <c r="R33" s="12"/>
       <c r="S33" s="39"/>
       <c r="T33" s="38">
@@ -4068,7 +4148,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -4081,7 +4161,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>39.545454545454547</v>
+        <v>42</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4185,7 +4265,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="51"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4210,7 +4290,9 @@
       <c r="P35" s="12">
         <v>10</v>
       </c>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="12">
+        <v>10</v>
+      </c>
       <c r="R35" s="12"/>
       <c r="S35" s="39"/>
       <c r="T35" s="38">
@@ -4246,7 +4328,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -4259,7 +4341,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>42</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4306,7 +4388,9 @@
       <c r="P36" s="12">
         <v>10</v>
       </c>
-      <c r="Q36" s="12"/>
+      <c r="Q36" s="12">
+        <v>9</v>
+      </c>
       <c r="R36" s="12"/>
       <c r="S36" s="39"/>
       <c r="T36" s="38">
@@ -4342,7 +4426,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -4355,7 +4439,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>38.18181818181818</v>
+        <v>40.636363636363633</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4377,7 +4461,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="51"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4402,7 +4486,9 @@
       <c r="P37" s="12">
         <v>10</v>
       </c>
-      <c r="Q37" s="12"/>
+      <c r="Q37" s="12">
+        <v>10</v>
+      </c>
       <c r="R37" s="12"/>
       <c r="S37" s="39"/>
       <c r="T37" s="38">
@@ -4438,7 +4524,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -4451,7 +4537,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>41.454545454545453</v>
+        <v>44.181818181818187</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4498,7 +4584,9 @@
       <c r="P38" s="12">
         <v>10</v>
       </c>
-      <c r="Q38" s="12"/>
+      <c r="Q38" s="12">
+        <v>9</v>
+      </c>
       <c r="R38" s="12"/>
       <c r="S38" s="39"/>
       <c r="T38" s="38">
@@ -4534,7 +4622,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4547,7 +4635,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>45</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4569,7 +4657,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="51"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4594,7 +4682,9 @@
       <c r="P39" s="12">
         <v>10</v>
       </c>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="12">
+        <v>8</v>
+      </c>
       <c r="R39" s="12"/>
       <c r="S39" s="39"/>
       <c r="T39" s="38">
@@ -4630,7 +4720,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4643,7 +4733,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>42.545454545454547</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4690,7 +4780,9 @@
       <c r="P40" s="12">
         <v>10</v>
       </c>
-      <c r="Q40" s="12"/>
+      <c r="Q40" s="12">
+        <v>10</v>
+      </c>
       <c r="R40" s="12"/>
       <c r="S40" s="39"/>
       <c r="T40" s="38">
@@ -4726,7 +4818,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4739,7 +4831,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>40.36363636363636</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4761,7 +4853,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="51"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4786,7 +4878,9 @@
       <c r="P41" s="12">
         <v>10</v>
       </c>
-      <c r="Q41" s="12"/>
+      <c r="Q41" s="55">
+        <v>0</v>
+      </c>
       <c r="R41" s="12"/>
       <c r="S41" s="39"/>
       <c r="T41" s="38">
@@ -4857,7 +4951,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -4882,7 +4976,9 @@
       <c r="P42" s="12">
         <v>10</v>
       </c>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="12">
+        <v>9</v>
+      </c>
       <c r="R42" s="12"/>
       <c r="S42" s="39"/>
       <c r="T42" s="38">
@@ -4918,7 +5014,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -4931,7 +5027,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>36.818181818181813</v>
+        <v>39.272727272727273</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -4973,9 +5069,9 @@
         <f>AVERAGE(P2:P23)</f>
         <v>10</v>
       </c>
-      <c r="Q43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="Q43" s="19">
+        <f>AVERAGE(Q2:Q29)</f>
+        <v>8.3461538461538467</v>
       </c>
       <c r="R43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -5047,7 +5143,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>65.785714285714292</v>
+        <v>72.928571428571431</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -5063,7 +5159,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>36.071428571428569</v>
+        <v>38.019480519480517</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5105,9 +5201,9 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q44" s="19" t="e">
+      <c r="Q44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="R44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -5179,7 +5275,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>68.95</v>
+        <v>76.95</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -5195,7 +5291,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>37.554545454545448</v>
+        <v>39.736363636363635</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5237,9 +5333,9 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q45" s="19" t="e">
+      <c r="Q45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>8.378378378378379</v>
       </c>
       <c r="R45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5311,7 +5407,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>67.329268292682926</v>
+        <v>74.890243902439025</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -5327,7 +5423,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>36.794900221729485</v>
+        <v>38.856984478935701</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5369,9 +5465,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="19" t="e">
+      <c r="Q46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>3.0124865269532859</v>
       </c>
       <c r="R46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5443,7 +5539,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>17.073228222899715</v>
+        <v>20.07159441696211</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -5459,7 +5555,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>10.030929039309134</v>
+        <v>10.823096481883434</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5503,7 +5599,7 @@
       </c>
       <c r="Q47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R47" s="19">
         <f t="shared" si="8"/>
@@ -5575,7 +5671,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5591,7 +5687,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>43.090909090909093</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5729,16 +5825,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5749,6 +5835,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5939,18 +6035,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5972,14 +6068,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -5993,4 +6081,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26BC20D-5C41-4FD7-BB89-2F9A90F7107F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A1207-59C5-4721-B795-7459A7D3F461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t xml:space="preserve">                                                             </t>
   </si>
@@ -755,14 +755,6 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,6 +763,14 @@
     </xf>
     <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +993,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="51"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1192,7 +1192,9 @@
       <c r="AA2" s="6">
         <v>10</v>
       </c>
-      <c r="AB2" s="6"/>
+      <c r="AB2" s="6">
+        <v>10</v>
+      </c>
       <c r="AC2" s="6"/>
       <c r="AD2" s="37"/>
       <c r="AE2" s="46"/>
@@ -1205,7 +1207,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1214,7 +1216,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>43.36363636363636</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1236,7 +1238,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="52"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1290,7 +1292,9 @@
       <c r="AA3" s="6">
         <v>10</v>
       </c>
-      <c r="AB3" s="6"/>
+      <c r="AB3" s="6">
+        <v>10</v>
+      </c>
       <c r="AC3" s="6"/>
       <c r="AD3" s="37"/>
       <c r="AE3" s="46"/>
@@ -1303,7 +1307,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1312,7 +1316,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>41.727272727272727</v>
+        <v>44.454545454545453</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="51"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1388,7 +1392,9 @@
       <c r="AA4" s="6">
         <v>10</v>
       </c>
-      <c r="AB4" s="6"/>
+      <c r="AB4" s="6">
+        <v>10</v>
+      </c>
       <c r="AC4" s="6"/>
       <c r="AD4" s="37"/>
       <c r="AE4" s="46"/>
@@ -1401,7 +1407,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1410,7 +1416,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1432,7 +1438,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="52"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1486,7 +1492,9 @@
       <c r="AA5" s="6">
         <v>10</v>
       </c>
-      <c r="AB5" s="6"/>
+      <c r="AB5" s="6">
+        <v>10</v>
+      </c>
       <c r="AC5" s="6"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="46"/>
@@ -1499,7 +1507,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1508,7 +1516,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1530,7 +1538,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="51"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1584,7 +1592,9 @@
       <c r="AA6" s="6">
         <v>9</v>
       </c>
-      <c r="AB6" s="6"/>
+      <c r="AB6" s="6">
+        <v>10</v>
+      </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="37"/>
       <c r="AE6" s="46"/>
@@ -1597,7 +1607,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1606,7 +1616,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>43.63636363636364</v>
+        <v>46.363636363636367</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1628,7 +1638,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="52"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1682,7 +1692,9 @@
       <c r="AA7" s="6">
         <v>9</v>
       </c>
-      <c r="AB7" s="6"/>
+      <c r="AB7" s="6">
+        <v>10</v>
+      </c>
       <c r="AC7" s="6"/>
       <c r="AD7" s="37"/>
       <c r="AE7" s="46"/>
@@ -1695,7 +1707,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1704,7 +1716,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>42.954545454545453</v>
+        <v>45.68181818181818</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1726,7 +1738,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="51"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1780,7 +1792,9 @@
       <c r="AA8" s="6">
         <v>10</v>
       </c>
-      <c r="AB8" s="6"/>
+      <c r="AB8" s="6">
+        <v>9</v>
+      </c>
       <c r="AC8" s="6"/>
       <c r="AD8" s="37"/>
       <c r="AE8" s="46"/>
@@ -1793,7 +1807,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1802,7 +1816,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.545454545454547</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1824,7 +1838,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="52"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -1878,7 +1892,9 @@
       <c r="AA9" s="6">
         <v>10</v>
       </c>
-      <c r="AB9" s="6"/>
+      <c r="AB9" s="6">
+        <v>9</v>
+      </c>
       <c r="AC9" s="6"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="46"/>
@@ -1891,7 +1907,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -1900,7 +1916,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>43.63636363636364</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1922,7 +1938,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1976,7 +1992,9 @@
       <c r="AA10" s="6">
         <v>10</v>
       </c>
-      <c r="AB10" s="6"/>
+      <c r="AB10" s="6">
+        <v>10</v>
+      </c>
       <c r="AC10" s="6"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="46"/>
@@ -1989,7 +2007,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -1998,7 +2016,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.909090909090914</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2020,7 +2038,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="52"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -2074,7 +2092,9 @@
       <c r="AA11" s="6">
         <v>10</v>
       </c>
-      <c r="AB11" s="6"/>
+      <c r="AB11" s="6">
+        <v>10</v>
+      </c>
       <c r="AC11" s="6"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="46"/>
@@ -2087,7 +2107,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -2096,7 +2116,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>43.909090909090907</v>
+        <v>46.63636363636364</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2118,7 +2138,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2172,7 +2192,9 @@
       <c r="AA12" s="6">
         <v>9</v>
       </c>
-      <c r="AB12" s="6"/>
+      <c r="AB12" s="6">
+        <v>10</v>
+      </c>
       <c r="AC12" s="6"/>
       <c r="AD12" s="37"/>
       <c r="AE12" s="46"/>
@@ -2185,7 +2207,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2194,7 +2216,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>40.090909090909093</v>
+        <v>42.818181818181813</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2216,7 +2238,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="52"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
@@ -2270,7 +2292,9 @@
       <c r="AA13" s="6">
         <v>9</v>
       </c>
-      <c r="AB13" s="6"/>
+      <c r="AB13" s="50">
+        <v>0</v>
+      </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="37"/>
       <c r="AE13" s="46"/>
@@ -2314,7 +2338,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2368,7 +2392,9 @@
       <c r="AA14" s="6">
         <v>10</v>
       </c>
-      <c r="AB14" s="6"/>
+      <c r="AB14" s="6">
+        <v>10</v>
+      </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="37"/>
       <c r="AE14" s="46"/>
@@ -2381,7 +2407,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2390,7 +2416,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>42</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2412,7 +2438,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="52"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2437,7 +2463,7 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="53">
         <v>0</v>
       </c>
       <c r="R15" s="6"/>
@@ -2466,7 +2492,9 @@
       <c r="AA15" s="6">
         <v>10</v>
       </c>
-      <c r="AB15" s="6"/>
+      <c r="AB15" s="6">
+        <v>10</v>
+      </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="37"/>
       <c r="AE15" s="46"/>
@@ -2479,7 +2507,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2488,7 +2516,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>37.909090909090907</v>
+        <v>40.63636363636364</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2510,7 +2538,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="51"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2584,7 +2612,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="52"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2639,7 +2667,9 @@
       <c r="AA17" s="6">
         <v>9</v>
       </c>
-      <c r="AB17" s="6"/>
+      <c r="AB17" s="6">
+        <v>9</v>
+      </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="46"/>
@@ -2652,7 +2682,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2661,7 +2691,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>39.545454545454547</v>
+        <v>42</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2683,7 +2713,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="51"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2737,7 +2767,9 @@
       <c r="AA18" s="6">
         <v>10</v>
       </c>
-      <c r="AB18" s="6"/>
+      <c r="AB18" s="6">
+        <v>10</v>
+      </c>
       <c r="AC18" s="6"/>
       <c r="AD18" s="37"/>
       <c r="AE18" s="46"/>
@@ -2750,7 +2782,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2759,7 +2791,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>45.272727272727273</v>
+        <v>48</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2781,7 +2813,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="52"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -2835,7 +2867,9 @@
       <c r="AA19" s="6">
         <v>10</v>
       </c>
-      <c r="AB19" s="6"/>
+      <c r="AB19" s="6">
+        <v>10</v>
+      </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="37"/>
       <c r="AE19" s="46"/>
@@ -2848,7 +2882,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -2857,7 +2891,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2879,7 +2913,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2904,7 +2938,7 @@
       <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="52">
         <v>0</v>
       </c>
       <c r="R20" s="6"/>
@@ -2933,7 +2967,9 @@
       <c r="AA20" s="6">
         <v>10</v>
       </c>
-      <c r="AB20" s="6"/>
+      <c r="AB20" s="6">
+        <v>9</v>
+      </c>
       <c r="AC20" s="6"/>
       <c r="AD20" s="37"/>
       <c r="AE20" s="46"/>
@@ -2946,7 +2982,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -2955,7 +2991,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>38.727272727272727</v>
+        <v>41.181818181818187</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -2975,7 +3011,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3041,7 +3077,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="52"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -3095,7 +3131,9 @@
       <c r="AA22" s="6">
         <v>10</v>
       </c>
-      <c r="AB22" s="6"/>
+      <c r="AB22" s="6">
+        <v>9</v>
+      </c>
       <c r="AC22" s="6"/>
       <c r="AD22" s="37"/>
       <c r="AE22" s="46"/>
@@ -3108,7 +3146,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -3117,7 +3155,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3139,7 +3177,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3193,7 +3231,9 @@
       <c r="AA23" s="12">
         <v>10</v>
       </c>
-      <c r="AB23" s="12"/>
+      <c r="AB23" s="12">
+        <v>10</v>
+      </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="39"/>
       <c r="AE23" s="48"/>
@@ -3206,7 +3246,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -3215,7 +3255,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3237,7 +3277,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="52"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -3291,7 +3331,9 @@
       <c r="AA24" s="12">
         <v>10</v>
       </c>
-      <c r="AB24" s="12"/>
+      <c r="AB24" s="12">
+        <v>10</v>
+      </c>
       <c r="AC24" s="12"/>
       <c r="AD24" s="39"/>
       <c r="AE24" s="48"/>
@@ -3304,7 +3346,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3313,7 +3355,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.909090909090914</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3335,7 +3377,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3389,7 +3431,9 @@
       <c r="AA25" s="12">
         <v>10</v>
       </c>
-      <c r="AB25" s="12"/>
+      <c r="AB25" s="12">
+        <v>9</v>
+      </c>
       <c r="AC25" s="12"/>
       <c r="AD25" s="39"/>
       <c r="AE25" s="48"/>
@@ -3402,7 +3446,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3411,7 +3455,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>45.818181818181813</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3433,7 +3477,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="52"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -3487,7 +3531,9 @@
       <c r="AA26" s="12">
         <v>10</v>
       </c>
-      <c r="AB26" s="12"/>
+      <c r="AB26" s="12">
+        <v>9</v>
+      </c>
       <c r="AC26" s="12"/>
       <c r="AD26" s="39"/>
       <c r="AE26" s="48"/>
@@ -3500,7 +3546,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3509,7 +3555,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.63636363636364</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3531,7 +3577,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3585,7 +3631,9 @@
       <c r="AA27" s="12">
         <v>10</v>
       </c>
-      <c r="AB27" s="12"/>
+      <c r="AB27" s="12">
+        <v>10</v>
+      </c>
       <c r="AC27" s="12"/>
       <c r="AD27" s="39"/>
       <c r="AE27" s="48"/>
@@ -3598,7 +3646,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3607,7 +3655,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45.545454545454547</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3629,7 +3677,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="52"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3683,7 +3731,9 @@
       <c r="AA28" s="12">
         <v>10</v>
       </c>
-      <c r="AB28" s="12"/>
+      <c r="AB28" s="12">
+        <v>10</v>
+      </c>
       <c r="AC28" s="12"/>
       <c r="AD28" s="39"/>
       <c r="AE28" s="48"/>
@@ -3696,7 +3746,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3705,7 +3755,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>44.18181818181818</v>
+        <v>46.909090909090907</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3727,7 +3777,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3781,7 +3831,9 @@
       <c r="AA29" s="12">
         <v>9</v>
       </c>
-      <c r="AB29" s="12"/>
+      <c r="AB29" s="12">
+        <v>9</v>
+      </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="39"/>
       <c r="AE29" s="48"/>
@@ -3794,7 +3846,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -3803,7 +3855,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.63636363636364</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3823,7 +3875,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="52"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3889,7 +3941,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3943,7 +3995,9 @@
       <c r="AA31" s="12">
         <v>10</v>
       </c>
-      <c r="AB31" s="12"/>
+      <c r="AB31" s="12">
+        <v>10</v>
+      </c>
       <c r="AC31" s="12"/>
       <c r="AD31" s="39"/>
       <c r="AE31" s="48"/>
@@ -3956,7 +4010,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -3965,7 +4019,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -3987,7 +4041,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="52"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -4041,7 +4095,9 @@
       <c r="AA32" s="12">
         <v>10</v>
       </c>
-      <c r="AB32" s="12"/>
+      <c r="AB32" s="12">
+        <v>10</v>
+      </c>
       <c r="AC32" s="12"/>
       <c r="AD32" s="39"/>
       <c r="AE32" s="48"/>
@@ -4054,7 +4110,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -4063,7 +4119,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>45.272727272727273</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -4085,7 +4141,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4139,7 +4195,9 @@
       <c r="AA33" s="12">
         <v>9</v>
       </c>
-      <c r="AB33" s="12"/>
+      <c r="AB33" s="12">
+        <v>9</v>
+      </c>
       <c r="AC33" s="12"/>
       <c r="AD33" s="39"/>
       <c r="AE33" s="48"/>
@@ -4152,7 +4210,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -4161,7 +4219,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.454545454545453</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4183,7 +4241,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="52"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -4265,7 +4323,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4319,7 +4377,9 @@
       <c r="AA35" s="12">
         <v>10</v>
       </c>
-      <c r="AB35" s="12"/>
+      <c r="AB35" s="12">
+        <v>10</v>
+      </c>
       <c r="AC35" s="12"/>
       <c r="AD35" s="39"/>
       <c r="AE35" s="48"/>
@@ -4332,7 +4392,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -4341,7 +4401,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.727272727272734</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4363,7 +4423,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="52"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -4417,7 +4477,9 @@
       <c r="AA36" s="12">
         <v>10</v>
       </c>
-      <c r="AB36" s="12"/>
+      <c r="AB36" s="12">
+        <v>10</v>
+      </c>
       <c r="AC36" s="12"/>
       <c r="AD36" s="39"/>
       <c r="AE36" s="48"/>
@@ -4430,7 +4492,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4439,7 +4501,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>40.636363636363633</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4461,7 +4523,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4515,7 +4577,9 @@
       <c r="AA37" s="12">
         <v>10</v>
       </c>
-      <c r="AB37" s="12"/>
+      <c r="AB37" s="12">
+        <v>10</v>
+      </c>
       <c r="AC37" s="12"/>
       <c r="AD37" s="39"/>
       <c r="AE37" s="48"/>
@@ -4528,7 +4592,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4537,7 +4601,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>44.181818181818187</v>
+        <v>46.909090909090907</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4559,7 +4623,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="52"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -4613,7 +4677,9 @@
       <c r="AA38" s="12">
         <v>10</v>
       </c>
-      <c r="AB38" s="12"/>
+      <c r="AB38" s="12">
+        <v>10</v>
+      </c>
       <c r="AC38" s="12"/>
       <c r="AD38" s="39"/>
       <c r="AE38" s="48"/>
@@ -4626,7 +4692,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4635,7 +4701,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47.727272727272727</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4657,7 +4723,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4711,7 +4777,9 @@
       <c r="AA39" s="12">
         <v>10</v>
       </c>
-      <c r="AB39" s="12"/>
+      <c r="AB39" s="12">
+        <v>10</v>
+      </c>
       <c r="AC39" s="12"/>
       <c r="AD39" s="39"/>
       <c r="AE39" s="48"/>
@@ -4724,7 +4792,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4733,7 +4801,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>42.545454545454547</v>
+        <v>45.27272727272728</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4755,7 +4823,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="52"/>
+      <c r="H40" s="55"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -4809,7 +4877,9 @@
       <c r="AA40" s="12">
         <v>10</v>
       </c>
-      <c r="AB40" s="12"/>
+      <c r="AB40" s="12">
+        <v>10</v>
+      </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="39"/>
       <c r="AE40" s="48"/>
@@ -4822,7 +4892,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -4831,7 +4901,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
+        <v>45.81818181818182</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4853,7 +4923,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4878,7 +4948,7 @@
       <c r="P41" s="12">
         <v>10</v>
       </c>
-      <c r="Q41" s="55">
+      <c r="Q41" s="51">
         <v>0</v>
       </c>
       <c r="R41" s="12"/>
@@ -4907,7 +4977,9 @@
       <c r="AA41" s="12">
         <v>9</v>
       </c>
-      <c r="AB41" s="12"/>
+      <c r="AB41" s="12">
+        <v>10</v>
+      </c>
       <c r="AC41" s="12"/>
       <c r="AD41" s="39"/>
       <c r="AE41" s="48"/>
@@ -4920,7 +4992,7 @@
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK41" s="12">
         <f t="shared" si="2"/>
@@ -4929,7 +5001,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>38.18181818181818</v>
+        <v>40.909090909090907</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -4951,7 +5023,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="54"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -5005,7 +5077,9 @@
       <c r="AA42" s="12">
         <v>9</v>
       </c>
-      <c r="AB42" s="12"/>
+      <c r="AB42" s="12">
+        <v>10</v>
+      </c>
       <c r="AC42" s="12"/>
       <c r="AD42" s="39"/>
       <c r="AE42" s="48"/>
@@ -5018,7 +5092,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -5027,7 +5101,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>39.272727272727273</v>
+        <v>42</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -5113,9 +5187,9 @@
         <f t="shared" si="4"/>
         <v>9.7368421052631575</v>
       </c>
-      <c r="AB43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AB43" s="19">
+        <f>AVERAGE(AB2:AB29)</f>
+        <v>9.3076923076923084</v>
       </c>
       <c r="AC43" s="19" t="e">
         <f t="shared" si="4"/>
@@ -5147,7 +5221,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>66.476190476190482</v>
+        <v>74.80952380952381</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -5159,7 +5233,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>38.019480519480517</v>
+        <v>40.292207792207805</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5245,9 +5319,9 @@
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="AB44" s="19" t="e">
+      <c r="AB44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.7777777777777786</v>
       </c>
       <c r="AC44" s="19" t="e">
         <f t="shared" si="5"/>
@@ -5279,7 +5353,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>68.75</v>
+        <v>77.55</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -5291,7 +5365,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>39.736363636363635</v>
+        <v>42.136363636363633</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5377,9 +5451,9 @@
         <f t="shared" si="6"/>
         <v>9.7567567567567561</v>
       </c>
-      <c r="AB45" s="19" t="e">
+      <c r="AB45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.486486486486486</v>
       </c>
       <c r="AC45" s="19" t="e">
         <f t="shared" si="6"/>
@@ -5411,7 +5485,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>67.58536585365853</v>
+        <v>76.146341463414629</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5423,7 +5497,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>38.856984478935701</v>
+        <v>41.191796008869197</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5509,9 +5583,9 @@
         <f t="shared" si="7"/>
         <v>0.43495883620083997</v>
       </c>
-      <c r="AB46" s="19" t="e">
+      <c r="AB46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.6603483841521813</v>
       </c>
       <c r="AC46" s="19" t="e">
         <f t="shared" si="7"/>
@@ -5543,7 +5617,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>19.92231865240101</v>
+        <v>22.962535765469976</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5555,7 +5629,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>10.823096481883434</v>
+        <v>11.659624798139072</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5643,7 +5717,7 @@
       </c>
       <c r="AB47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC47" s="19">
         <f t="shared" si="8"/>
@@ -5675,7 +5749,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5687,7 +5761,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5825,6 +5899,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5835,16 +5919,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6035,18 +6109,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6068,6 +6142,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6081,12 +6163,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A1207-59C5-4721-B795-7459A7D3F461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="102_{1788C41B-6920-4101-B6F0-044D8658542D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3FAE03BF-3EC5-4C2B-8147-BF16ED0F4154}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,14 +764,14 @@
     <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="57"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1166,7 +1166,9 @@
       <c r="Q2" s="6">
         <v>10</v>
       </c>
-      <c r="R2" s="6"/>
+      <c r="R2" s="6">
+        <v>8</v>
+      </c>
       <c r="S2" s="37"/>
       <c r="T2" s="36">
         <v>7</v>
@@ -1203,7 +1205,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1216,7 +1218,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>46.090909090909093</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1266,7 +1268,9 @@
       <c r="Q3" s="6">
         <v>9</v>
       </c>
-      <c r="R3" s="6"/>
+      <c r="R3" s="6">
+        <v>10</v>
+      </c>
       <c r="S3" s="37"/>
       <c r="T3" s="36">
         <v>7</v>
@@ -1303,7 +1307,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1316,7 +1320,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>44.454545454545453</v>
+        <v>47.181818181818187</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1338,7 +1342,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="57"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1366,7 +1370,9 @@
       <c r="Q4" s="6">
         <v>10</v>
       </c>
-      <c r="R4" s="6"/>
+      <c r="R4" s="6">
+        <v>10</v>
+      </c>
       <c r="S4" s="37"/>
       <c r="T4" s="36">
         <v>10</v>
@@ -1403,7 +1409,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1416,7 +1422,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1466,7 +1472,9 @@
       <c r="Q5" s="6">
         <v>9</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="6">
+        <v>10</v>
+      </c>
       <c r="S5" s="37"/>
       <c r="T5" s="36">
         <v>10</v>
@@ -1503,7 +1511,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1516,7 +1524,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>48.272727272727273</v>
+        <v>51</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1538,7 +1546,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1566,7 +1574,9 @@
       <c r="Q6" s="6">
         <v>10</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6">
+        <v>10</v>
+      </c>
       <c r="S6" s="37"/>
       <c r="T6" s="36">
         <v>8</v>
@@ -1603,7 +1613,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1616,7 +1626,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>46.363636363636367</v>
+        <v>49.090909090909093</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1666,7 +1676,9 @@
       <c r="Q7" s="6">
         <v>9</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6">
+        <v>10</v>
+      </c>
       <c r="S7" s="37"/>
       <c r="T7" s="36">
         <v>8</v>
@@ -1703,7 +1715,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>83.5</v>
+        <v>93.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1716,7 +1728,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>45.68181818181818</v>
+        <v>48.409090909090907</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1738,7 +1750,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1766,7 +1778,9 @@
       <c r="Q8" s="6">
         <v>10</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6">
+        <v>10</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="36">
         <v>7</v>
@@ -1803,7 +1817,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1816,7 +1830,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1866,7 +1880,9 @@
       <c r="Q9" s="6">
         <v>10</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6">
+        <v>10</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="36">
         <v>7</v>
@@ -1903,7 +1919,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1916,7 +1932,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.81818181818182</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1938,7 +1954,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1966,7 +1982,9 @@
       <c r="Q10" s="6">
         <v>9</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="6">
+        <v>6</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="36">
         <v>8</v>
@@ -2003,7 +2021,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -2016,7 +2034,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>46.909090909090914</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2066,7 +2084,9 @@
       <c r="Q11" s="6">
         <v>8</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6">
+        <v>8</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="36">
         <v>8</v>
@@ -2103,7 +2123,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -2116,7 +2136,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>46.63636363636364</v>
+        <v>48.818181818181813</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2138,7 +2158,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2166,7 +2186,9 @@
       <c r="Q12" s="6">
         <v>10</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6">
+        <v>10</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="36">
         <v>4</v>
@@ -2203,7 +2225,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -2216,7 +2238,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>42.818181818181813</v>
+        <v>45.545454545454547</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2266,7 +2288,9 @@
       <c r="Q13" s="50">
         <v>0</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="50">
+        <v>0</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="36">
         <v>4</v>
@@ -2338,7 +2362,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2366,7 +2390,9 @@
       <c r="Q14" s="6">
         <v>10</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6">
+        <v>10</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="36">
         <v>6</v>
@@ -2403,7 +2429,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2416,7 +2442,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.727272727272727</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2466,7 +2492,9 @@
       <c r="Q15" s="53">
         <v>0</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6">
+        <v>10</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="36">
         <v>6</v>
@@ -2503,7 +2531,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2516,7 +2544,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>40.63636363636364</v>
+        <v>43.36363636363636</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2538,7 +2566,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2640,7 +2668,9 @@
       <c r="Q17" s="6">
         <v>9</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6">
+        <v>10</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="36">
         <v>3</v>
@@ -2678,7 +2708,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2691,7 +2721,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.727272727272727</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2713,7 +2743,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="57"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2741,7 +2771,9 @@
       <c r="Q18" s="6">
         <v>9</v>
       </c>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6">
+        <v>10</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="36">
         <v>9</v>
@@ -2778,7 +2810,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2791,7 +2823,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2841,7 +2873,9 @@
       <c r="Q19" s="6">
         <v>9</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="6">
+        <v>10</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="36">
         <v>9</v>
@@ -2878,7 +2912,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2891,7 +2925,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.818181818181813</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2913,7 +2947,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2941,7 +2975,9 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="6"/>
+      <c r="R20" s="6">
+        <v>10</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="36">
         <v>10</v>
@@ -2978,7 +3014,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -2991,7 +3027,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>41.181818181818187</v>
+        <v>43.909090909090907</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -3105,7 +3141,9 @@
       <c r="Q22" s="6">
         <v>9</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6">
+        <v>10</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="36">
         <v>10</v>
@@ -3142,7 +3180,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -3155,7 +3193,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3177,7 +3215,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3205,7 +3243,9 @@
       <c r="Q23" s="12">
         <v>9</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="12">
+        <v>10</v>
+      </c>
       <c r="S23" s="39"/>
       <c r="T23" s="38">
         <v>8</v>
@@ -3242,7 +3282,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -3255,7 +3295,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.81818181818182</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3305,7 +3345,9 @@
       <c r="Q24" s="12">
         <v>10</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>10</v>
+      </c>
       <c r="S24" s="39"/>
       <c r="T24" s="38">
         <v>8</v>
@@ -3342,7 +3384,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -3355,7 +3397,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>46.909090909090914</v>
+        <v>49.63636363636364</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3377,7 +3419,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3405,7 +3447,9 @@
       <c r="Q25" s="12">
         <v>9</v>
       </c>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>10</v>
+      </c>
       <c r="S25" s="39"/>
       <c r="T25" s="38">
         <v>8</v>
@@ -3442,7 +3486,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3455,7 +3499,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>45.818181818181813</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3505,7 +3549,9 @@
       <c r="Q26" s="12">
         <v>10</v>
       </c>
-      <c r="R26" s="12"/>
+      <c r="R26" s="12">
+        <v>10</v>
+      </c>
       <c r="S26" s="39"/>
       <c r="T26" s="38">
         <v>8</v>
@@ -3542,7 +3588,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3555,7 +3601,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>46.63636363636364</v>
+        <v>49.36363636363636</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3577,7 +3623,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3605,7 +3651,9 @@
       <c r="Q27" s="12">
         <v>9</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="12">
+        <v>9</v>
+      </c>
       <c r="S27" s="39"/>
       <c r="T27" s="38">
         <v>10</v>
@@ -3642,7 +3690,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3655,7 +3703,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3705,7 +3753,9 @@
       <c r="Q28" s="12">
         <v>10</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="12">
+        <v>10</v>
+      </c>
       <c r="S28" s="39"/>
       <c r="T28" s="38">
         <v>10</v>
@@ -3742,7 +3792,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3755,7 +3805,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>46.909090909090907</v>
+        <v>49.636363636363633</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3777,7 +3827,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3805,7 +3855,9 @@
       <c r="Q29" s="12">
         <v>10</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>10</v>
+      </c>
       <c r="S29" s="39"/>
       <c r="T29" s="38">
         <v>10</v>
@@ -3842,7 +3894,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3855,7 +3907,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>46.63636363636364</v>
+        <v>49.36363636363636</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3941,7 +3993,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -3969,7 +4021,9 @@
       <c r="Q31" s="12">
         <v>10</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="12">
+        <v>10</v>
+      </c>
       <c r="S31" s="39"/>
       <c r="T31" s="38">
         <v>7</v>
@@ -4006,7 +4060,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -4019,7 +4073,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -4069,7 +4123,9 @@
       <c r="Q32" s="12">
         <v>9</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="12">
+        <v>10</v>
+      </c>
       <c r="S32" s="39"/>
       <c r="T32" s="38">
         <v>7</v>
@@ -4106,7 +4162,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -4119,7 +4175,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>45.272727272727273</v>
+        <v>48</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -4141,7 +4197,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4169,7 +4225,9 @@
       <c r="Q33" s="12">
         <v>9</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="12">
+        <v>10</v>
+      </c>
       <c r="S33" s="39"/>
       <c r="T33" s="38">
         <v>10</v>
@@ -4206,7 +4264,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -4219,7 +4277,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>44.454545454545453</v>
+        <v>47.181818181818187</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4323,7 +4381,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="56"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4351,7 +4409,9 @@
       <c r="Q35" s="12">
         <v>10</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="12">
+        <v>10</v>
+      </c>
       <c r="S35" s="39"/>
       <c r="T35" s="38">
         <v>8</v>
@@ -4388,7 +4448,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -4401,7 +4461,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>44.727272727272734</v>
+        <v>47.454545454545453</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4451,7 +4511,9 @@
       <c r="Q36" s="12">
         <v>9</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="12">
+        <v>10</v>
+      </c>
       <c r="S36" s="39"/>
       <c r="T36" s="38">
         <v>8</v>
@@ -4488,7 +4550,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -4501,7 +4563,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>46.090909090909093</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4523,7 +4585,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="54"/>
+      <c r="H37" s="56"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4551,7 +4613,9 @@
       <c r="Q37" s="12">
         <v>10</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="12">
+        <v>10</v>
+      </c>
       <c r="S37" s="39"/>
       <c r="T37" s="38">
         <v>8</v>
@@ -4588,7 +4652,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -4601,7 +4665,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>46.909090909090907</v>
+        <v>49.636363636363633</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4651,7 +4715,9 @@
       <c r="Q38" s="12">
         <v>9</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="12">
+        <v>10</v>
+      </c>
       <c r="S38" s="39"/>
       <c r="T38" s="38">
         <v>8</v>
@@ -4688,7 +4754,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4701,7 +4767,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>47.727272727272727</v>
+        <v>50.454545454545453</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4723,7 +4789,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="54"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4751,7 +4817,9 @@
       <c r="Q39" s="12">
         <v>8</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="12">
+        <v>10</v>
+      </c>
       <c r="S39" s="39"/>
       <c r="T39" s="38">
         <v>6</v>
@@ -4788,7 +4856,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4801,7 +4869,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>45.27272727272728</v>
+        <v>48</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4851,7 +4919,9 @@
       <c r="Q40" s="12">
         <v>10</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="12">
+        <v>10</v>
+      </c>
       <c r="S40" s="39"/>
       <c r="T40" s="38">
         <v>6</v>
@@ -4888,7 +4958,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4901,7 +4971,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>45.81818181818182</v>
+        <v>48.545454545454547</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -4923,7 +4993,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="54"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -4951,7 +5021,9 @@
       <c r="Q41" s="51">
         <v>0</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="12">
+        <v>8</v>
+      </c>
       <c r="S41" s="39"/>
       <c r="T41" s="38">
         <v>5</v>
@@ -4988,7 +5060,7 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AJ41" s="12">
         <f t="shared" si="1"/>
@@ -5001,7 +5073,7 @@
       <c r="AL41" s="14"/>
       <c r="AM41" s="15">
         <f t="shared" si="3"/>
-        <v>40.909090909090907</v>
+        <v>43.090909090909093</v>
       </c>
       <c r="AN41" s="10"/>
     </row>
@@ -5023,7 +5095,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="56"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -5051,7 +5123,9 @@
       <c r="Q42" s="12">
         <v>9</v>
       </c>
-      <c r="R42" s="12"/>
+      <c r="R42" s="12">
+        <v>10</v>
+      </c>
       <c r="S42" s="39"/>
       <c r="T42" s="38">
         <v>5</v>
@@ -5088,7 +5162,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -5101,7 +5175,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44.727272727272734</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -5147,9 +5221,9 @@
         <f>AVERAGE(Q2:Q29)</f>
         <v>8.3461538461538467</v>
       </c>
-      <c r="R43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="R43" s="19">
+        <f>AVERAGE(R2:R29)</f>
+        <v>9.2692307692307701</v>
       </c>
       <c r="S43" s="41" t="e">
         <f t="shared" si="4"/>
@@ -5217,7 +5291,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>72.928571428571431</v>
+        <v>81.11904761904762</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -5233,7 +5307,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>40.292207792207805</v>
+        <v>42.52597402597403</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5279,9 +5353,9 @@
         <f t="shared" si="5"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="R44" s="19" t="e">
+      <c r="R44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="S44" s="41" t="e">
         <f t="shared" si="5"/>
@@ -5349,7 +5423,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>76.95</v>
+        <v>85.8</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -5365,7 +5439,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>42.136363636363633</v>
+        <v>44.550000000000004</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5411,9 +5485,9 @@
         <f t="shared" si="6"/>
         <v>8.378378378378379</v>
       </c>
-      <c r="R45" s="19" t="e">
+      <c r="R45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.4324324324324316</v>
       </c>
       <c r="S45" s="41" t="e">
         <f t="shared" si="6"/>
@@ -5481,7 +5555,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>74.890243902439025</v>
+        <v>83.402439024390247</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -5497,7 +5571,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>41.191796008869197</v>
+        <v>43.513303769401332</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5543,9 +5617,9 @@
         <f t="shared" si="7"/>
         <v>3.0124865269532859</v>
       </c>
-      <c r="R46" s="19" t="e">
+      <c r="R46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.8034001919297495</v>
       </c>
       <c r="S46" s="41" t="e">
         <f t="shared" si="7"/>
@@ -5613,7 +5687,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>20.07159441696211</v>
+        <v>23.137420856751486</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -5629,7 +5703,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>11.659624798139072</v>
+        <v>12.496736118934605</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5677,7 +5751,7 @@
       </c>
       <c r="R47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S47" s="41">
         <f t="shared" si="8"/>
@@ -5745,7 +5819,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5761,7 +5835,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5899,16 +5973,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5919,6 +5983,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5927,6 +6001,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6108,15 +6191,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6124,6 +6198,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6141,26 +6223,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnu365-my.sharepoint.com/personal/mj9265_o_cnu_ac_kr/Documents/바탕 화면/조교/ISL-Homepage.github.io/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="102_{1788C41B-6920-4101-B6F0-044D8658542D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3FAE03BF-3EC5-4C2B-8147-BF16ED0F4154}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="102_{1788C41B-6920-4101-B6F0-044D8658542D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD0F0A11-D77B-4AAF-96C2-5453A96AFF58}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,14 +764,14 @@
     <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="54"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S2" s="37"/>
       <c r="T2" s="36">
@@ -1205,7 +1205,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1218,7 +1218,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>48.272727272727273</v>
+        <v>48</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="54"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="54"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="57"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="54"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="54"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="54"/>
+      <c r="H20" s="57"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="56"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="56"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="56"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="56"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="56"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="56"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="56"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="56"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="56"/>
+      <c r="H39" s="54"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
-      <c r="H41" s="56"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="38">
         <v>8</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="57"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="R43" s="19">
         <f>AVERAGE(R2:R29)</f>
-        <v>9.2692307692307701</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="S43" s="41" t="e">
         <f t="shared" si="4"/>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>81.11904761904762</v>
+        <v>81.071428571428569</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>42.52597402597403</v>
+        <v>42.512987012987018</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="R45" s="19">
         <f t="shared" si="6"/>
-        <v>9.4324324324324316</v>
+        <v>9.4054054054054053</v>
       </c>
       <c r="S45" s="41" t="e">
         <f t="shared" si="6"/>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>83.402439024390247</v>
+        <v>83.378048780487802</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>43.513303769401332</v>
+        <v>43.506651884700673</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="R46" s="19">
         <f t="shared" si="7"/>
-        <v>1.8034001919297495</v>
+        <v>1.8327189797835493</v>
       </c>
       <c r="S46" s="41" t="e">
         <f t="shared" si="7"/>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>23.137420856751486</v>
+        <v>23.129737484406547</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>12.496736118934605</v>
+        <v>12.494211721716043</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5973,6 +5973,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5983,16 +5993,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6010,6 +6010,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6191,12 +6197,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6206,6 +6206,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6221,20 +6237,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="102_{1788C41B-6920-4101-B6F0-044D8658542D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BD0F0A11-D77B-4AAF-96C2-5453A96AFF58}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33921DC-E6AC-4A17-9D61-653F223DAF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -359,6 +359,27 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -603,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,22 +776,62 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1138,7 +1199,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="57"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1169,7 +1230,9 @@
       <c r="R2" s="6">
         <v>7</v>
       </c>
-      <c r="S2" s="37"/>
+      <c r="S2" s="37">
+        <v>10</v>
+      </c>
       <c r="T2" s="36">
         <v>7</v>
       </c>
@@ -1205,7 +1268,7 @@
       <c r="AH2" s="47"/>
       <c r="AI2" s="20">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
@@ -1218,7 +1281,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>48</v>
+        <v>50.727272727272734</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1240,7 +1303,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="55"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1271,7 +1334,9 @@
       <c r="R3" s="6">
         <v>10</v>
       </c>
-      <c r="S3" s="37"/>
+      <c r="S3" s="37">
+        <v>9</v>
+      </c>
       <c r="T3" s="36">
         <v>7</v>
       </c>
@@ -1307,7 +1372,7 @@
       <c r="AH3" s="47"/>
       <c r="AI3" s="20">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
@@ -1320,7 +1385,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>47.181818181818187</v>
+        <v>49.63636363636364</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1342,7 +1407,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="57"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1373,7 +1438,9 @@
       <c r="R4" s="6">
         <v>10</v>
       </c>
-      <c r="S4" s="37"/>
+      <c r="S4" s="37">
+        <v>10</v>
+      </c>
       <c r="T4" s="36">
         <v>10</v>
       </c>
@@ -1409,7 +1476,7 @@
       <c r="AH4" s="47"/>
       <c r="AI4" s="20">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
@@ -1422,7 +1489,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1444,7 +1511,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="55"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1475,7 +1542,9 @@
       <c r="R5" s="6">
         <v>10</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="37">
+        <v>10</v>
+      </c>
       <c r="T5" s="36">
         <v>10</v>
       </c>
@@ -1511,7 +1580,7 @@
       <c r="AH5" s="47"/>
       <c r="AI5" s="20">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
@@ -1524,7 +1593,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53.727272727272734</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1546,7 +1615,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1577,7 +1646,9 @@
       <c r="R6" s="6">
         <v>10</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="37">
+        <v>10</v>
+      </c>
       <c r="T6" s="36">
         <v>8</v>
       </c>
@@ -1613,7 +1684,7 @@
       <c r="AH6" s="47"/>
       <c r="AI6" s="20">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
@@ -1626,7 +1697,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>49.090909090909093</v>
+        <v>51.81818181818182</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1648,7 +1719,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="55"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1679,7 +1750,9 @@
       <c r="R7" s="6">
         <v>10</v>
       </c>
-      <c r="S7" s="37"/>
+      <c r="S7" s="37">
+        <v>10</v>
+      </c>
       <c r="T7" s="36">
         <v>8</v>
       </c>
@@ -1715,7 +1788,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="20">
         <f t="shared" si="0"/>
-        <v>93.5</v>
+        <v>103.5</v>
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
@@ -1728,7 +1801,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>48.409090909090907</v>
+        <v>51.13636363636364</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1750,7 +1823,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="57"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1781,7 +1854,9 @@
       <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="S8" s="37"/>
+      <c r="S8" s="37">
+        <v>10</v>
+      </c>
       <c r="T8" s="36">
         <v>7</v>
       </c>
@@ -1817,7 +1892,7 @@
       <c r="AH8" s="47"/>
       <c r="AI8" s="20">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
@@ -1830,7 +1905,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>48.272727272727273</v>
+        <v>51</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1852,7 +1927,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="55"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -1883,7 +1958,9 @@
       <c r="R9" s="6">
         <v>10</v>
       </c>
-      <c r="S9" s="37"/>
+      <c r="S9" s="37">
+        <v>9</v>
+      </c>
       <c r="T9" s="36">
         <v>7</v>
       </c>
@@ -1919,7 +1996,7 @@
       <c r="AH9" s="47"/>
       <c r="AI9" s="20">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
@@ -1932,7 +2009,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>48.81818181818182</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -1954,7 +2031,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -1985,7 +2062,9 @@
       <c r="R10" s="6">
         <v>6</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="37">
+        <v>10</v>
+      </c>
       <c r="T10" s="36">
         <v>8</v>
       </c>
@@ -2021,7 +2100,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="20">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
@@ -2034,7 +2113,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2056,7 +2135,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="55"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -2087,7 +2166,9 @@
       <c r="R11" s="6">
         <v>8</v>
       </c>
-      <c r="S11" s="37"/>
+      <c r="S11" s="37">
+        <v>9</v>
+      </c>
       <c r="T11" s="36">
         <v>8</v>
       </c>
@@ -2123,7 +2204,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="20">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
@@ -2136,7 +2217,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>48.818181818181813</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2158,7 +2239,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2189,7 +2270,9 @@
       <c r="R12" s="6">
         <v>10</v>
       </c>
-      <c r="S12" s="37"/>
+      <c r="S12" s="37">
+        <v>10</v>
+      </c>
       <c r="T12" s="36">
         <v>4</v>
       </c>
@@ -2225,7 +2308,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="20">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
@@ -2238,7 +2321,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48.272727272727266</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2260,7 +2343,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
@@ -2291,7 +2374,9 @@
       <c r="R13" s="50">
         <v>0</v>
       </c>
-      <c r="S13" s="37"/>
+      <c r="S13" s="71">
+        <v>0</v>
+      </c>
       <c r="T13" s="36">
         <v>4</v>
       </c>
@@ -2362,7 +2447,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2393,7 +2478,9 @@
       <c r="R14" s="6">
         <v>10</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="37">
+        <v>10</v>
+      </c>
       <c r="T14" s="36">
         <v>6</v>
       </c>
@@ -2429,7 +2516,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="20">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
@@ -2442,7 +2529,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>44.727272727272727</v>
+        <v>47.454545454545453</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2464,7 +2551,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2489,13 +2576,15 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="53">
-        <v>0</v>
+      <c r="Q15" s="52">
+        <v>9</v>
       </c>
       <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="37"/>
+      <c r="S15" s="37">
+        <v>9</v>
+      </c>
       <c r="T15" s="36">
         <v>6</v>
       </c>
@@ -2531,7 +2620,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="20">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
@@ -2544,7 +2633,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>43.36363636363636</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2566,7 +2655,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2640,7 +2729,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="55"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2671,7 +2760,9 @@
       <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="37"/>
+      <c r="S17" s="37">
+        <v>10</v>
+      </c>
       <c r="T17" s="36">
         <v>3</v>
       </c>
@@ -2708,7 +2799,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="20">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
@@ -2721,7 +2812,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>44.727272727272727</v>
+        <v>47.454545454545453</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2743,7 +2834,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="57"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2774,7 +2865,9 @@
       <c r="R18" s="6">
         <v>10</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="37">
+        <v>10</v>
+      </c>
       <c r="T18" s="36">
         <v>9</v>
       </c>
@@ -2810,7 +2903,7 @@
       <c r="AH18" s="47"/>
       <c r="AI18" s="20">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
@@ -2823,7 +2916,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.454545454545453</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2845,7 +2938,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="55"/>
+      <c r="H19" s="54"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -2876,7 +2969,9 @@
       <c r="R19" s="6">
         <v>10</v>
       </c>
-      <c r="S19" s="37"/>
+      <c r="S19" s="37">
+        <v>9</v>
+      </c>
       <c r="T19" s="36">
         <v>9</v>
       </c>
@@ -2912,7 +3007,7 @@
       <c r="AH19" s="47"/>
       <c r="AI19" s="20">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
@@ -2925,7 +3020,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>48.818181818181813</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -2947,7 +3042,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -2972,13 +3067,15 @@
       <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="Q20" s="52">
-        <v>0</v>
+      <c r="Q20" s="51">
+        <v>9</v>
       </c>
       <c r="R20" s="6">
         <v>10</v>
       </c>
-      <c r="S20" s="37"/>
+      <c r="S20" s="37">
+        <v>10</v>
+      </c>
       <c r="T20" s="36">
         <v>10</v>
       </c>
@@ -3014,7 +3111,7 @@
       <c r="AH20" s="47"/>
       <c r="AI20" s="20">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
@@ -3027,7 +3124,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>43.909090909090907</v>
+        <v>49.090909090909093</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -3047,7 +3144,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="55"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3113,7 +3210,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="55"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -3144,7 +3241,9 @@
       <c r="R22" s="6">
         <v>10</v>
       </c>
-      <c r="S22" s="37"/>
+      <c r="S22" s="37">
+        <v>10</v>
+      </c>
       <c r="T22" s="36">
         <v>10</v>
       </c>
@@ -3180,7 +3279,7 @@
       <c r="AH22" s="47"/>
       <c r="AI22" s="20">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
@@ -3193,7 +3292,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3215,7 +3314,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3246,7 +3345,9 @@
       <c r="R23" s="12">
         <v>10</v>
       </c>
-      <c r="S23" s="39"/>
+      <c r="S23" s="39">
+        <v>10</v>
+      </c>
       <c r="T23" s="38">
         <v>8</v>
       </c>
@@ -3282,7 +3383,7 @@
       <c r="AH23" s="49"/>
       <c r="AI23" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
@@ -3295,7 +3396,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>48.81818181818182</v>
+        <v>51.545454545454547</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3317,7 +3418,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="55"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -3348,7 +3449,9 @@
       <c r="R24" s="12">
         <v>10</v>
       </c>
-      <c r="S24" s="39"/>
+      <c r="S24" s="39">
+        <v>10</v>
+      </c>
       <c r="T24" s="38">
         <v>8</v>
       </c>
@@ -3384,7 +3487,7 @@
       <c r="AH24" s="49"/>
       <c r="AI24" s="21">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
@@ -3397,7 +3500,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>49.63636363636364</v>
+        <v>52.363636363636367</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3419,7 +3522,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3450,7 +3553,9 @@
       <c r="R25" s="12">
         <v>10</v>
       </c>
-      <c r="S25" s="39"/>
+      <c r="S25" s="39">
+        <v>10</v>
+      </c>
       <c r="T25" s="38">
         <v>8</v>
       </c>
@@ -3486,7 +3591,7 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="21">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
@@ -3499,7 +3604,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3521,7 +3626,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="55"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -3552,7 +3657,9 @@
       <c r="R26" s="12">
         <v>10</v>
       </c>
-      <c r="S26" s="39"/>
+      <c r="S26" s="39">
+        <v>10</v>
+      </c>
       <c r="T26" s="38">
         <v>8</v>
       </c>
@@ -3588,7 +3695,7 @@
       <c r="AH26" s="49"/>
       <c r="AI26" s="21">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
@@ -3601,7 +3708,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>49.36363636363636</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3623,7 +3730,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3654,7 +3761,9 @@
       <c r="R27" s="12">
         <v>9</v>
       </c>
-      <c r="S27" s="39"/>
+      <c r="S27" s="39">
+        <v>9</v>
+      </c>
       <c r="T27" s="38">
         <v>10</v>
       </c>
@@ -3690,7 +3799,7 @@
       <c r="AH27" s="49"/>
       <c r="AI27" s="21">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
@@ -3703,7 +3812,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50.454545454545453</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3725,7 +3834,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="55"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3756,7 +3865,9 @@
       <c r="R28" s="12">
         <v>10</v>
       </c>
-      <c r="S28" s="39"/>
+      <c r="S28" s="39">
+        <v>10</v>
+      </c>
       <c r="T28" s="38">
         <v>10</v>
       </c>
@@ -3792,7 +3903,7 @@
       <c r="AH28" s="49"/>
       <c r="AI28" s="21">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
@@ -3805,7 +3916,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>49.636363636363633</v>
+        <v>52.36363636363636</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3827,7 +3938,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="54"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3858,7 +3969,9 @@
       <c r="R29" s="12">
         <v>10</v>
       </c>
-      <c r="S29" s="39"/>
+      <c r="S29" s="39">
+        <v>10</v>
+      </c>
       <c r="T29" s="38">
         <v>10</v>
       </c>
@@ -3894,7 +4007,7 @@
       <c r="AH29" s="49"/>
       <c r="AI29" s="21">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
@@ -3907,7 +4020,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>49.36363636363636</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -3927,7 +4040,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="55"/>
+      <c r="H30" s="54"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3993,7 +4106,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="54"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -4024,7 +4137,9 @@
       <c r="R31" s="12">
         <v>10</v>
       </c>
-      <c r="S31" s="39"/>
+      <c r="S31" s="39">
+        <v>10</v>
+      </c>
       <c r="T31" s="38">
         <v>7</v>
       </c>
@@ -4060,7 +4175,7 @@
       <c r="AH31" s="49"/>
       <c r="AI31" s="21">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
@@ -4073,7 +4188,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -4095,7 +4210,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="55"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -4126,7 +4241,9 @@
       <c r="R32" s="12">
         <v>10</v>
       </c>
-      <c r="S32" s="39"/>
+      <c r="S32" s="39">
+        <v>10</v>
+      </c>
       <c r="T32" s="38">
         <v>7</v>
       </c>
@@ -4162,7 +4279,7 @@
       <c r="AH32" s="49"/>
       <c r="AI32" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
@@ -4175,7 +4292,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50.727272727272727</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -4197,7 +4314,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="54"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4228,7 +4345,9 @@
       <c r="R33" s="12">
         <v>10</v>
       </c>
-      <c r="S33" s="39"/>
+      <c r="S33" s="39">
+        <v>10</v>
+      </c>
       <c r="T33" s="38">
         <v>10</v>
       </c>
@@ -4264,7 +4383,7 @@
       <c r="AH33" s="49"/>
       <c r="AI33" s="21">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
@@ -4277,7 +4396,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>47.181818181818187</v>
+        <v>49.909090909090907</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4299,7 +4418,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="55"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -4381,7 +4500,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="54"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4412,7 +4531,9 @@
       <c r="R35" s="12">
         <v>10</v>
       </c>
-      <c r="S35" s="39"/>
+      <c r="S35" s="39">
+        <v>10</v>
+      </c>
       <c r="T35" s="38">
         <v>8</v>
       </c>
@@ -4448,7 +4569,7 @@
       <c r="AH35" s="49"/>
       <c r="AI35" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
@@ -4461,7 +4582,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>47.454545454545453</v>
+        <v>50.181818181818187</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4483,7 +4604,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="55"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -4514,7 +4635,9 @@
       <c r="R36" s="12">
         <v>10</v>
       </c>
-      <c r="S36" s="39"/>
+      <c r="S36" s="39">
+        <v>10</v>
+      </c>
       <c r="T36" s="38">
         <v>8</v>
       </c>
@@ -4550,7 +4673,7 @@
       <c r="AH36" s="49"/>
       <c r="AI36" s="21">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
@@ -4563,7 +4686,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>46.090909090909093</v>
+        <v>48.81818181818182</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4585,7 +4708,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="54"/>
+      <c r="H37" s="55"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4616,7 +4739,9 @@
       <c r="R37" s="12">
         <v>10</v>
       </c>
-      <c r="S37" s="39"/>
+      <c r="S37" s="39">
+        <v>10</v>
+      </c>
       <c r="T37" s="38">
         <v>8</v>
       </c>
@@ -4652,7 +4777,7 @@
       <c r="AH37" s="49"/>
       <c r="AI37" s="21">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
@@ -4665,7 +4790,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>49.636363636363633</v>
+        <v>52.36363636363636</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4687,7 +4812,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="55"/>
+      <c r="H38" s="54"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -4718,7 +4843,9 @@
       <c r="R38" s="12">
         <v>10</v>
       </c>
-      <c r="S38" s="39"/>
+      <c r="S38" s="39">
+        <v>10</v>
+      </c>
       <c r="T38" s="38">
         <v>8</v>
       </c>
@@ -4754,7 +4881,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="21">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
@@ -4767,7 +4894,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>50.454545454545453</v>
+        <v>53.181818181818187</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4789,7 +4916,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="54"/>
+      <c r="H39" s="55"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4820,7 +4947,9 @@
       <c r="R39" s="12">
         <v>10</v>
       </c>
-      <c r="S39" s="39"/>
+      <c r="S39" s="39">
+        <v>10</v>
+      </c>
       <c r="T39" s="38">
         <v>6</v>
       </c>
@@ -4856,7 +4985,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="21">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
@@ -4869,7 +4998,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50.727272727272734</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -4891,7 +5020,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="55"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -4922,7 +5051,9 @@
       <c r="R40" s="12">
         <v>10</v>
       </c>
-      <c r="S40" s="39"/>
+      <c r="S40" s="39">
+        <v>10</v>
+      </c>
       <c r="T40" s="38">
         <v>6</v>
       </c>
@@ -4958,7 +5089,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="21">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
@@ -4971,111 +5102,113 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>48.545454545454547</v>
+        <v>51.272727272727273</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
-    <row r="41" spans="1:40" ht="14.25">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:40" s="70" customFormat="1" ht="14.25">
+      <c r="A41" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="10">
-        <v>10</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="B41" s="58">
+        <v>10</v>
+      </c>
+      <c r="C41" s="59">
         <v>202202143</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="58">
         <v>1075569611</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="38">
-        <v>8</v>
-      </c>
-      <c r="J41" s="12">
-        <v>10</v>
-      </c>
-      <c r="K41" s="12">
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="60">
+        <v>8</v>
+      </c>
+      <c r="J41" s="61">
+        <v>10</v>
+      </c>
+      <c r="K41" s="61">
         <v>7</v>
       </c>
-      <c r="L41" s="12">
-        <v>9</v>
-      </c>
-      <c r="M41" s="12">
-        <v>8</v>
-      </c>
-      <c r="N41" s="12">
-        <v>10</v>
-      </c>
-      <c r="O41" s="12">
-        <v>8</v>
-      </c>
-      <c r="P41" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="51">
-        <v>0</v>
-      </c>
-      <c r="R41" s="12">
-        <v>8</v>
-      </c>
-      <c r="S41" s="39"/>
-      <c r="T41" s="38">
+      <c r="L41" s="61">
+        <v>9</v>
+      </c>
+      <c r="M41" s="61">
+        <v>8</v>
+      </c>
+      <c r="N41" s="61">
+        <v>10</v>
+      </c>
+      <c r="O41" s="61">
+        <v>8</v>
+      </c>
+      <c r="P41" s="61">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="62">
+        <v>0</v>
+      </c>
+      <c r="R41" s="61">
+        <v>8</v>
+      </c>
+      <c r="S41" s="63">
+        <v>9</v>
+      </c>
+      <c r="T41" s="60">
         <v>5</v>
       </c>
-      <c r="U41" s="12">
-        <v>10</v>
-      </c>
-      <c r="V41" s="12">
-        <v>8</v>
-      </c>
-      <c r="W41" s="12">
-        <v>10</v>
-      </c>
-      <c r="X41" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="12">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="12">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="12">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="12">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="21">
+      <c r="U41" s="61">
+        <v>10</v>
+      </c>
+      <c r="V41" s="61">
+        <v>8</v>
+      </c>
+      <c r="W41" s="61">
+        <v>10</v>
+      </c>
+      <c r="X41" s="61">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="61">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="61">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="61">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="61">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="67">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="AJ41" s="12">
+        <v>87</v>
+      </c>
+      <c r="AJ41" s="61">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="AK41" s="12">
+      <c r="AK41" s="61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="15">
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="69">
         <f t="shared" si="3"/>
-        <v>43.090909090909093</v>
-      </c>
-      <c r="AN41" s="10"/>
+        <v>45.545454545454547</v>
+      </c>
+      <c r="AN41" s="58"/>
     </row>
     <row r="42" spans="1:40" ht="15" thickBot="1">
       <c r="A42" s="28" t="s">
@@ -5126,7 +5259,9 @@
       <c r="R42" s="12">
         <v>10</v>
       </c>
-      <c r="S42" s="39"/>
+      <c r="S42" s="39">
+        <v>10</v>
+      </c>
       <c r="T42" s="38">
         <v>5</v>
       </c>
@@ -5162,7 +5297,7 @@
       <c r="AH42" s="49"/>
       <c r="AI42" s="21">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
@@ -5175,7 +5310,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>44.727272727272734</v>
+        <v>47.454545454545453</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -5219,15 +5354,15 @@
       </c>
       <c r="Q43" s="19">
         <f>AVERAGE(Q2:Q29)</f>
-        <v>8.3461538461538467</v>
+        <v>9.0384615384615383</v>
       </c>
       <c r="R43" s="19">
         <f>AVERAGE(R2:R29)</f>
         <v>9.2307692307692299</v>
       </c>
-      <c r="S43" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="S43" s="41">
+        <f>AVERAGE(S2:S29)</f>
+        <v>9.384615384615385</v>
       </c>
       <c r="T43" s="40">
         <f t="shared" si="4"/>
@@ -5291,7 +5426,7 @@
       </c>
       <c r="AI43" s="35">
         <f t="shared" si="4"/>
-        <v>81.071428571428569</v>
+        <v>90.261904761904759</v>
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
@@ -5307,7 +5442,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>42.512987012987018</v>
+        <v>45.019480519480524</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5357,9 +5492,9 @@
         <f t="shared" si="5"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="S44" s="41" t="e">
+      <c r="S44" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.8888888888888893</v>
       </c>
       <c r="T44" s="40">
         <f t="shared" si="5"/>
@@ -5423,7 +5558,7 @@
       </c>
       <c r="AI44" s="35">
         <f t="shared" si="5"/>
-        <v>85.8</v>
+        <v>94.7</v>
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
@@ -5439,7 +5574,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>44.550000000000004</v>
+        <v>46.977272727272734</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5483,15 +5618,15 @@
       </c>
       <c r="Q45" s="19">
         <f t="shared" si="6"/>
-        <v>8.378378378378379</v>
+        <v>8.8648648648648649</v>
       </c>
       <c r="R45" s="19">
         <f t="shared" si="6"/>
         <v>9.4054054054054053</v>
       </c>
-      <c r="S45" s="41" t="e">
+      <c r="S45" s="41">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.5405405405405403</v>
       </c>
       <c r="T45" s="40">
         <f t="shared" si="6"/>
@@ -5555,7 +5690,7 @@
       </c>
       <c r="AI45" s="35">
         <f t="shared" si="6"/>
-        <v>83.378048780487802</v>
+        <v>92.426829268292678</v>
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
@@ -5571,7 +5706,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>43.506651884700673</v>
+        <v>45.974501108647445</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5615,15 +5750,15 @@
       </c>
       <c r="Q46" s="19">
         <f t="shared" si="7"/>
-        <v>3.0124865269532859</v>
+        <v>2.22563551675773</v>
       </c>
       <c r="R46" s="19">
         <f t="shared" si="7"/>
         <v>1.8327189797835493</v>
       </c>
-      <c r="S46" s="41" t="e">
+      <c r="S46" s="41">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.6598961579735205</v>
       </c>
       <c r="T46" s="40">
         <f t="shared" si="7"/>
@@ -5687,7 +5822,7 @@
       </c>
       <c r="AI46" s="35">
         <f t="shared" si="7"/>
-        <v>23.129737484406547</v>
+        <v>26.302462093787394</v>
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
@@ -5703,7 +5838,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>12.494211721716043</v>
+        <v>13.363690664625656</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5755,7 +5890,7 @@
       </c>
       <c r="S47" s="41">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T47" s="40">
         <f t="shared" si="8"/>
@@ -5819,7 +5954,7 @@
       </c>
       <c r="AI47" s="35">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
@@ -5835,7 +5970,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -5973,16 +6108,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -5993,6 +6118,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6010,12 +6145,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6197,6 +6326,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6206,22 +6341,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6237,4 +6356,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33921DC-E6AC-4A17-9D61-653F223DAF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF78144-CD3A-4003-979F-8A26D26B7737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,56 +782,56 @@
     <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1053,7 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T35" workbookViewId="0">
       <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="53"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="54"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="36">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="53"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="54"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="36">
         <v>10</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="53"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="36">
         <v>9</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="53"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="54"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="36">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="53"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="54"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="36">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="53"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="54"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="36">
         <v>0</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="R13" s="50">
         <v>0</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="67">
         <v>0</v>
       </c>
       <c r="T13" s="36">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="54"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="36">
         <v>10</v>
       </c>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="53"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="36">
         <v>7</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="53"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="36">
         <v>10</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="54"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="36"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="54"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="36">
         <v>10</v>
       </c>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="55"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="54"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="38">
         <v>10</v>
       </c>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="55"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="54"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="38">
         <v>10</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="55"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="54"/>
+      <c r="H28" s="69"/>
       <c r="I28" s="38">
         <v>10</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="54"/>
+      <c r="H30" s="69"/>
       <c r="I30" s="38"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="55"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="54"/>
+      <c r="H32" s="69"/>
       <c r="I32" s="38">
         <v>9</v>
       </c>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="55"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="54"/>
+      <c r="H34" s="69"/>
       <c r="I34" s="38">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="55"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="54"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="38">
         <v>10</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="55"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="54"/>
+      <c r="H38" s="69"/>
       <c r="I38" s="38">
         <v>9</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="55"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="54"/>
+      <c r="H40" s="69"/>
       <c r="I40" s="38">
         <v>10</v>
       </c>
@@ -5106,109 +5106,109 @@
       </c>
       <c r="AN40" s="10"/>
     </row>
-    <row r="41" spans="1:40" s="70" customFormat="1" ht="14.25">
-      <c r="A41" s="57" t="s">
+    <row r="41" spans="1:40" s="66" customFormat="1" ht="14.25">
+      <c r="A41" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="58">
-        <v>10</v>
-      </c>
-      <c r="C41" s="59">
+      <c r="B41" s="54">
+        <v>10</v>
+      </c>
+      <c r="C41" s="55">
         <v>202202143</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="54">
         <v>1075569611</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="60">
-        <v>8</v>
-      </c>
-      <c r="J41" s="61">
-        <v>10</v>
-      </c>
-      <c r="K41" s="61">
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="56">
+        <v>8</v>
+      </c>
+      <c r="J41" s="57">
+        <v>10</v>
+      </c>
+      <c r="K41" s="57">
         <v>7</v>
       </c>
-      <c r="L41" s="61">
-        <v>9</v>
-      </c>
-      <c r="M41" s="61">
-        <v>8</v>
-      </c>
-      <c r="N41" s="61">
-        <v>10</v>
-      </c>
-      <c r="O41" s="61">
-        <v>8</v>
-      </c>
-      <c r="P41" s="61">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="62">
-        <v>0</v>
-      </c>
-      <c r="R41" s="61">
-        <v>8</v>
-      </c>
-      <c r="S41" s="63">
-        <v>9</v>
-      </c>
-      <c r="T41" s="60">
+      <c r="L41" s="57">
+        <v>9</v>
+      </c>
+      <c r="M41" s="57">
+        <v>8</v>
+      </c>
+      <c r="N41" s="57">
+        <v>10</v>
+      </c>
+      <c r="O41" s="57">
+        <v>8</v>
+      </c>
+      <c r="P41" s="57">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="58">
+        <v>0</v>
+      </c>
+      <c r="R41" s="57">
+        <v>8</v>
+      </c>
+      <c r="S41" s="59">
+        <v>9</v>
+      </c>
+      <c r="T41" s="56">
         <v>5</v>
       </c>
-      <c r="U41" s="61">
-        <v>10</v>
-      </c>
-      <c r="V41" s="61">
-        <v>8</v>
-      </c>
-      <c r="W41" s="61">
-        <v>10</v>
-      </c>
-      <c r="X41" s="61">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="61">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="61">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="61">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="61">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="64"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="67">
+      <c r="U41" s="57">
+        <v>10</v>
+      </c>
+      <c r="V41" s="57">
+        <v>8</v>
+      </c>
+      <c r="W41" s="57">
+        <v>10</v>
+      </c>
+      <c r="X41" s="57">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="57">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="57">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="57">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="57">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="62"/>
+      <c r="AI41" s="63">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="AJ41" s="61">
+      <c r="AJ41" s="57">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="AK41" s="61">
+      <c r="AK41" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="68"/>
-      <c r="AM41" s="69">
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="65">
         <f t="shared" si="3"/>
         <v>45.545454545454547</v>
       </c>
-      <c r="AN41" s="58"/>
+      <c r="AN41" s="54"/>
     </row>
     <row r="42" spans="1:40" ht="15" thickBot="1">
       <c r="A42" s="28" t="s">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="56"/>
+      <c r="H42" s="70"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -6108,6 +6108,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -6118,16 +6128,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,6 +6145,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6326,12 +6332,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6341,6 +6341,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6356,20 +6372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF78144-CD3A-4003-979F-8A26D26B7737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C55DE4-103B-49F2-BE5E-1915FA05B482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,14 +825,14 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1053,8 +1053,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T35" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="71"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1260,7 +1260,9 @@
       <c r="AB2" s="6">
         <v>10</v>
       </c>
-      <c r="AC2" s="6"/>
+      <c r="AC2" s="6">
+        <v>10</v>
+      </c>
       <c r="AD2" s="37"/>
       <c r="AE2" s="46"/>
       <c r="AF2" s="7"/>
@@ -1272,7 +1274,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1281,7 +1283,7 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>50.727272727272734</v>
+        <v>53.454545454545453</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
@@ -1364,7 +1366,9 @@
       <c r="AB3" s="6">
         <v>10</v>
       </c>
-      <c r="AC3" s="6"/>
+      <c r="AC3" s="6">
+        <v>10</v>
+      </c>
       <c r="AD3" s="37"/>
       <c r="AE3" s="46"/>
       <c r="AF3" s="7"/>
@@ -1376,7 +1380,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1385,7 +1389,7 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>49.63636363636364</v>
+        <v>52.36363636363636</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
@@ -1407,7 +1411,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="71"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1468,7 +1472,9 @@
       <c r="AB4" s="6">
         <v>10</v>
       </c>
-      <c r="AC4" s="6"/>
+      <c r="AC4" s="6">
+        <v>10</v>
+      </c>
       <c r="AD4" s="37"/>
       <c r="AE4" s="46"/>
       <c r="AF4" s="7"/>
@@ -1480,7 +1486,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1489,7 +1495,7 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.727272727272727</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
@@ -1572,7 +1578,9 @@
       <c r="AB5" s="6">
         <v>10</v>
       </c>
-      <c r="AC5" s="6"/>
+      <c r="AC5" s="6">
+        <v>10</v>
+      </c>
       <c r="AD5" s="37"/>
       <c r="AE5" s="46"/>
       <c r="AF5" s="7"/>
@@ -1584,7 +1592,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1593,7 +1601,7 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>53.727272727272734</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
@@ -1615,7 +1623,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="71"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1676,7 +1684,9 @@
       <c r="AB6" s="6">
         <v>10</v>
       </c>
-      <c r="AC6" s="6"/>
+      <c r="AC6" s="6">
+        <v>10</v>
+      </c>
       <c r="AD6" s="37"/>
       <c r="AE6" s="46"/>
       <c r="AF6" s="7"/>
@@ -1688,7 +1698,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1697,7 +1707,7 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>51.81818181818182</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
@@ -1780,7 +1790,9 @@
       <c r="AB7" s="6">
         <v>10</v>
       </c>
-      <c r="AC7" s="6"/>
+      <c r="AC7" s="6">
+        <v>10</v>
+      </c>
       <c r="AD7" s="37"/>
       <c r="AE7" s="46"/>
       <c r="AF7" s="7"/>
@@ -1792,7 +1804,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1801,7 +1813,7 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>51.13636363636364</v>
+        <v>53.86363636363636</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
@@ -1823,7 +1835,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="71"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1884,7 +1896,9 @@
       <c r="AB8" s="6">
         <v>9</v>
       </c>
-      <c r="AC8" s="6"/>
+      <c r="AC8" s="6">
+        <v>10</v>
+      </c>
       <c r="AD8" s="37"/>
       <c r="AE8" s="46"/>
       <c r="AF8" s="7"/>
@@ -1896,7 +1910,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1905,7 +1919,7 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53.727272727272727</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
@@ -1988,7 +2002,9 @@
       <c r="AB9" s="6">
         <v>9</v>
       </c>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="6">
+        <v>10</v>
+      </c>
       <c r="AD9" s="37"/>
       <c r="AE9" s="46"/>
       <c r="AF9" s="7"/>
@@ -2000,7 +2016,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -2009,7 +2025,7 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
@@ -2031,7 +2047,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="71"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -2092,7 +2108,9 @@
       <c r="AB10" s="6">
         <v>10</v>
       </c>
-      <c r="AC10" s="6"/>
+      <c r="AC10" s="6">
+        <v>10</v>
+      </c>
       <c r="AD10" s="37"/>
       <c r="AE10" s="46"/>
       <c r="AF10" s="7"/>
@@ -2104,7 +2122,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -2113,7 +2131,7 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
@@ -2196,7 +2214,9 @@
       <c r="AB11" s="6">
         <v>10</v>
       </c>
-      <c r="AC11" s="6"/>
+      <c r="AC11" s="6">
+        <v>10</v>
+      </c>
       <c r="AD11" s="37"/>
       <c r="AE11" s="46"/>
       <c r="AF11" s="7"/>
@@ -2208,7 +2228,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -2217,7 +2237,7 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
@@ -2239,7 +2259,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="71"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2300,7 +2320,9 @@
       <c r="AB12" s="6">
         <v>10</v>
       </c>
-      <c r="AC12" s="6"/>
+      <c r="AC12" s="6">
+        <v>10</v>
+      </c>
       <c r="AD12" s="37"/>
       <c r="AE12" s="46"/>
       <c r="AF12" s="7"/>
@@ -2312,7 +2334,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2321,7 +2343,7 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>48.272727272727266</v>
+        <v>51</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
@@ -2404,7 +2426,9 @@
       <c r="AB13" s="50">
         <v>0</v>
       </c>
-      <c r="AC13" s="6"/>
+      <c r="AC13" s="50">
+        <v>0</v>
+      </c>
       <c r="AD13" s="37"/>
       <c r="AE13" s="46"/>
       <c r="AF13" s="7"/>
@@ -2447,7 +2471,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="71"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2508,7 +2532,9 @@
       <c r="AB14" s="6">
         <v>10</v>
       </c>
-      <c r="AC14" s="6"/>
+      <c r="AC14" s="6">
+        <v>8</v>
+      </c>
       <c r="AD14" s="37"/>
       <c r="AE14" s="46"/>
       <c r="AF14" s="7"/>
@@ -2520,7 +2546,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2529,7 +2555,7 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>47.454545454545453</v>
+        <v>49.636363636363633</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
@@ -2612,7 +2638,9 @@
       <c r="AB15" s="6">
         <v>10</v>
       </c>
-      <c r="AC15" s="6"/>
+      <c r="AC15" s="6">
+        <v>8</v>
+      </c>
       <c r="AD15" s="37"/>
       <c r="AE15" s="46"/>
       <c r="AF15" s="7"/>
@@ -2624,7 +2652,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2633,7 +2661,7 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>48.272727272727273</v>
+        <v>50.454545454545453</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
@@ -2655,7 +2683,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="71"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2791,7 +2819,9 @@
       <c r="AB17" s="6">
         <v>9</v>
       </c>
-      <c r="AC17" s="6"/>
+      <c r="AC17" s="6">
+        <v>10</v>
+      </c>
       <c r="AD17" s="37"/>
       <c r="AE17" s="46"/>
       <c r="AF17" s="7"/>
@@ -2803,7 +2833,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2812,7 +2842,7 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>47.454545454545453</v>
+        <v>50.181818181818187</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
@@ -2834,7 +2864,7 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="71"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2895,7 +2925,9 @@
       <c r="AB18" s="6">
         <v>10</v>
       </c>
-      <c r="AC18" s="6"/>
+      <c r="AC18" s="6">
+        <v>10</v>
+      </c>
       <c r="AD18" s="37"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="7"/>
@@ -2907,7 +2939,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2916,7 +2948,7 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>53.454545454545453</v>
+        <v>56.18181818181818</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
@@ -2999,7 +3031,9 @@
       <c r="AB19" s="6">
         <v>10</v>
       </c>
-      <c r="AC19" s="6"/>
+      <c r="AC19" s="6">
+        <v>10</v>
+      </c>
       <c r="AD19" s="37"/>
       <c r="AE19" s="46"/>
       <c r="AF19" s="7"/>
@@ -3011,7 +3045,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -3020,7 +3054,7 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
@@ -3042,7 +3076,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="71"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -3103,7 +3137,9 @@
       <c r="AB20" s="6">
         <v>9</v>
       </c>
-      <c r="AC20" s="6"/>
+      <c r="AC20" s="6">
+        <v>10</v>
+      </c>
       <c r="AD20" s="37"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="7"/>
@@ -3115,7 +3151,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -3124,7 +3160,7 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>49.090909090909093</v>
+        <v>51.818181818181813</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
@@ -3271,7 +3307,9 @@
       <c r="AB22" s="6">
         <v>9</v>
       </c>
-      <c r="AC22" s="6"/>
+      <c r="AC22" s="6">
+        <v>10</v>
+      </c>
       <c r="AD22" s="37"/>
       <c r="AE22" s="46"/>
       <c r="AF22" s="7"/>
@@ -3283,7 +3321,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -3292,7 +3330,7 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
@@ -3314,7 +3352,7 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="68"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3375,7 +3413,9 @@
       <c r="AB23" s="12">
         <v>10</v>
       </c>
-      <c r="AC23" s="12"/>
+      <c r="AC23" s="12">
+        <v>10</v>
+      </c>
       <c r="AD23" s="39"/>
       <c r="AE23" s="48"/>
       <c r="AF23" s="13"/>
@@ -3387,7 +3427,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -3396,7 +3436,7 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>51.545454545454547</v>
+        <v>54.272727272727273</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
@@ -3479,7 +3519,9 @@
       <c r="AB24" s="12">
         <v>10</v>
       </c>
-      <c r="AC24" s="12"/>
+      <c r="AC24" s="12">
+        <v>10</v>
+      </c>
       <c r="AD24" s="39"/>
       <c r="AE24" s="48"/>
       <c r="AF24" s="13"/>
@@ -3491,7 +3533,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3500,7 +3542,7 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>52.363636363636367</v>
+        <v>55.090909090909093</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
@@ -3522,7 +3564,7 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="70"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3583,7 +3625,9 @@
       <c r="AB25" s="12">
         <v>9</v>
       </c>
-      <c r="AC25" s="12"/>
+      <c r="AC25" s="12">
+        <v>10</v>
+      </c>
       <c r="AD25" s="39"/>
       <c r="AE25" s="48"/>
       <c r="AF25" s="13"/>
@@ -3595,7 +3639,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3604,7 +3648,7 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
@@ -3687,7 +3731,9 @@
       <c r="AB26" s="12">
         <v>9</v>
       </c>
-      <c r="AC26" s="12"/>
+      <c r="AC26" s="12">
+        <v>10</v>
+      </c>
       <c r="AD26" s="39"/>
       <c r="AE26" s="48"/>
       <c r="AF26" s="13"/>
@@ -3699,7 +3745,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3708,7 +3754,7 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>52.090909090909093</v>
+        <v>54.81818181818182</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
@@ -3730,7 +3776,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="68"/>
+      <c r="H27" s="70"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3791,7 +3837,9 @@
       <c r="AB27" s="12">
         <v>10</v>
       </c>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="12">
+        <v>10</v>
+      </c>
       <c r="AD27" s="39"/>
       <c r="AE27" s="48"/>
       <c r="AF27" s="13"/>
@@ -3803,7 +3851,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3812,7 +3860,7 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>50.454545454545453</v>
+        <v>53.181818181818187</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
@@ -3895,7 +3943,9 @@
       <c r="AB28" s="12">
         <v>10</v>
       </c>
-      <c r="AC28" s="12"/>
+      <c r="AC28" s="12">
+        <v>10</v>
+      </c>
       <c r="AD28" s="39"/>
       <c r="AE28" s="48"/>
       <c r="AF28" s="13"/>
@@ -3907,7 +3957,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3916,7 +3966,7 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>52.36363636363636</v>
+        <v>55.090909090909093</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
@@ -3938,7 +3988,7 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="68"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -3999,7 +4049,9 @@
       <c r="AB29" s="12">
         <v>9</v>
       </c>
-      <c r="AC29" s="12"/>
+      <c r="AC29" s="12">
+        <v>10</v>
+      </c>
       <c r="AD29" s="39"/>
       <c r="AE29" s="48"/>
       <c r="AF29" s="13"/>
@@ -4011,7 +4063,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -4020,7 +4072,7 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>52.090909090909093</v>
+        <v>54.818181818181813</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
@@ -4106,7 +4158,7 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="68"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -4167,7 +4219,9 @@
       <c r="AB31" s="12">
         <v>10</v>
       </c>
-      <c r="AC31" s="12"/>
+      <c r="AC31" s="12">
+        <v>9</v>
+      </c>
       <c r="AD31" s="39"/>
       <c r="AE31" s="48"/>
       <c r="AF31" s="13"/>
@@ -4179,7 +4233,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -4188,7 +4242,7 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>53.727272727272727</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
@@ -4271,7 +4325,9 @@
       <c r="AB32" s="12">
         <v>10</v>
       </c>
-      <c r="AC32" s="12"/>
+      <c r="AC32" s="12">
+        <v>9</v>
+      </c>
       <c r="AD32" s="39"/>
       <c r="AE32" s="48"/>
       <c r="AF32" s="13"/>
@@ -4283,7 +4339,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -4292,7 +4348,7 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>50.727272727272727</v>
+        <v>53.18181818181818</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
@@ -4314,7 +4370,7 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="68"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4375,7 +4431,9 @@
       <c r="AB33" s="12">
         <v>9</v>
       </c>
-      <c r="AC33" s="12"/>
+      <c r="AC33" s="12">
+        <v>10</v>
+      </c>
       <c r="AD33" s="39"/>
       <c r="AE33" s="48"/>
       <c r="AF33" s="13"/>
@@ -4387,7 +4445,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -4396,7 +4454,7 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>49.909090909090907</v>
+        <v>52.636363636363633</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
@@ -4500,7 +4558,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="68"/>
+      <c r="H35" s="70"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4561,7 +4619,9 @@
       <c r="AB35" s="12">
         <v>10</v>
       </c>
-      <c r="AC35" s="12"/>
+      <c r="AC35" s="12">
+        <v>10</v>
+      </c>
       <c r="AD35" s="39"/>
       <c r="AE35" s="48"/>
       <c r="AF35" s="13"/>
@@ -4573,7 +4633,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -4582,7 +4642,7 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>50.181818181818187</v>
+        <v>52.909090909090907</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
@@ -4665,7 +4725,9 @@
       <c r="AB36" s="12">
         <v>10</v>
       </c>
-      <c r="AC36" s="12"/>
+      <c r="AC36" s="12">
+        <v>10</v>
+      </c>
       <c r="AD36" s="39"/>
       <c r="AE36" s="48"/>
       <c r="AF36" s="13"/>
@@ -4677,7 +4739,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4686,7 +4748,7 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>48.81818181818182</v>
+        <v>51.545454545454547</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
@@ -4708,7 +4770,7 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="68"/>
+      <c r="H37" s="70"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4769,7 +4831,9 @@
       <c r="AB37" s="12">
         <v>10</v>
       </c>
-      <c r="AC37" s="12"/>
+      <c r="AC37" s="12">
+        <v>10</v>
+      </c>
       <c r="AD37" s="39"/>
       <c r="AE37" s="48"/>
       <c r="AF37" s="13"/>
@@ -4781,7 +4845,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4790,7 +4854,7 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>52.36363636363636</v>
+        <v>55.090909090909093</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
@@ -4873,7 +4937,9 @@
       <c r="AB38" s="12">
         <v>10</v>
       </c>
-      <c r="AC38" s="12"/>
+      <c r="AC38" s="12">
+        <v>10</v>
+      </c>
       <c r="AD38" s="39"/>
       <c r="AE38" s="48"/>
       <c r="AF38" s="13"/>
@@ -4885,7 +4951,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4894,7 +4960,7 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>53.181818181818187</v>
+        <v>55.909090909090907</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
@@ -4916,7 +4982,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="68"/>
+      <c r="H39" s="70"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -4977,7 +5043,9 @@
       <c r="AB39" s="12">
         <v>10</v>
       </c>
-      <c r="AC39" s="12"/>
+      <c r="AC39" s="12">
+        <v>10</v>
+      </c>
       <c r="AD39" s="39"/>
       <c r="AE39" s="48"/>
       <c r="AF39" s="13"/>
@@ -4989,7 +5057,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -4998,7 +5066,7 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>50.727272727272734</v>
+        <v>53.454545454545453</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
@@ -5081,7 +5149,9 @@
       <c r="AB40" s="12">
         <v>10</v>
       </c>
-      <c r="AC40" s="12"/>
+      <c r="AC40" s="12">
+        <v>10</v>
+      </c>
       <c r="AD40" s="39"/>
       <c r="AE40" s="48"/>
       <c r="AF40" s="13"/>
@@ -5093,7 +5163,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -5102,7 +5172,7 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>51.272727272727273</v>
+        <v>54</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
@@ -5124,7 +5194,7 @@
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
-      <c r="H41" s="68"/>
+      <c r="H41" s="70"/>
       <c r="I41" s="56">
         <v>8</v>
       </c>
@@ -5185,7 +5255,9 @@
       <c r="AB41" s="57">
         <v>10</v>
       </c>
-      <c r="AC41" s="57"/>
+      <c r="AC41" s="57">
+        <v>10</v>
+      </c>
       <c r="AD41" s="59"/>
       <c r="AE41" s="60"/>
       <c r="AF41" s="61"/>
@@ -5197,7 +5269,7 @@
       </c>
       <c r="AJ41" s="57">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK41" s="57">
         <f t="shared" si="2"/>
@@ -5206,7 +5278,7 @@
       <c r="AL41" s="64"/>
       <c r="AM41" s="65">
         <f t="shared" si="3"/>
-        <v>45.545454545454547</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AN41" s="54"/>
     </row>
@@ -5228,7 +5300,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="70"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -5289,7 +5361,9 @@
       <c r="AB42" s="12">
         <v>10</v>
       </c>
-      <c r="AC42" s="12"/>
+      <c r="AC42" s="12">
+        <v>10</v>
+      </c>
       <c r="AD42" s="39"/>
       <c r="AE42" s="48"/>
       <c r="AF42" s="13"/>
@@ -5301,7 +5375,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -5310,7 +5384,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>47.454545454545453</v>
+        <v>50.18181818181818</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -5400,9 +5474,9 @@
         <f>AVERAGE(AB2:AB29)</f>
         <v>9.3076923076923084</v>
       </c>
-      <c r="AC43" s="19" t="e">
+      <c r="AC43" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>9.2631578947368425</v>
       </c>
       <c r="AD43" s="41" t="e">
         <f t="shared" si="4"/>
@@ -5430,7 +5504,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>74.80952380952381</v>
+        <v>83.19047619047619</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -5442,7 +5516,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>45.019480519480524</v>
+        <v>47.305194805194809</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5532,9 +5606,9 @@
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="AC44" s="19" t="e">
+      <c r="AC44" s="19">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.8888888888888893</v>
       </c>
       <c r="AD44" s="41" t="e">
         <f t="shared" si="5"/>
@@ -5562,7 +5636,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>77.55</v>
+        <v>86.45</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -5574,7 +5648,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>46.977272727272734</v>
+        <v>49.404545454545449</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5664,9 +5738,9 @@
         <f t="shared" si="6"/>
         <v>9.486486486486486</v>
       </c>
-      <c r="AC45" s="19" t="e">
+      <c r="AC45" s="19">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.5675675675675684</v>
       </c>
       <c r="AD45" s="41" t="e">
         <f t="shared" si="6"/>
@@ -5694,7 +5768,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>76.146341463414629</v>
+        <v>84.780487804878049</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5706,7 +5780,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>45.974501108647445</v>
+        <v>48.329268292682933</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5796,9 +5870,9 @@
         <f t="shared" si="7"/>
         <v>1.6603483841521813</v>
       </c>
-      <c r="AC46" s="19" t="e">
+      <c r="AC46" s="19">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.6921475595713775</v>
       </c>
       <c r="AD46" s="41" t="e">
         <f t="shared" si="7"/>
@@ -5826,7 +5900,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>22.962535765469976</v>
+        <v>26.109875713149194</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5838,7 +5912,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>13.363690664625656</v>
+        <v>14.229105242453086</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5930,7 +6004,7 @@
       </c>
       <c r="AC47" s="19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD47" s="41">
         <f t="shared" si="8"/>
@@ -5958,7 +6032,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -5970,7 +6044,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>54</v>
+        <v>56.727272727272727</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -6108,16 +6182,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -6128,6 +6192,16 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,12 +6219,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6332,6 +6400,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6341,22 +6415,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6372,4 +6430,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C55DE4-103B-49F2-BE5E-1915FA05B482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6F164-99B7-4677-91FF-DA683251E94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,32 +112,12 @@
     <t>13주차 결과</t>
   </si>
   <si>
-    <t>프로젝트
-  (교수님)</t>
-  </si>
-  <si>
-    <t>프로젝트
-  (안재원)</t>
-  </si>
-  <si>
-    <t>프로젝트
-  (함수린)</t>
-  </si>
-  <si>
-    <t>프로젝트
-  보고서</t>
-  </si>
-  <si>
     <t>예비 총점</t>
   </si>
   <si>
     <t>결과 총점</t>
   </si>
   <si>
-    <t>프로젝트
-  결과 총점</t>
-  </si>
-  <si>
     <t>출석</t>
   </si>
   <si>
@@ -292,6 +272,217 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장민지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교수님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함수린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총점</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +494,7 @@
     <numFmt numFmtId="176" formatCode="0.0\ ;\-0.0"/>
     <numFmt numFmtId="177" formatCode="0\ ;\-0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +571,27 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -624,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -825,14 +1037,26 @@
     <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1053,13 +1277,22 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AM2" activeCellId="1" sqref="AM14:AM42 AM2:AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="30" width="11.42578125" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="12.75">
+    <row r="1" spans="1:40" ht="27">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1150,40 +1383,40 @@
       <c r="AD1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AE1" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AK1" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AM1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AN1" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="14.25">
       <c r="A2" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1192,14 +1425,14 @@
         <v>201801290</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4">
         <v>1049299310</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="68"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="36">
         <v>10</v>
       </c>
@@ -1263,7 +1496,9 @@
       <c r="AC2" s="6">
         <v>10</v>
       </c>
-      <c r="AD2" s="37"/>
+      <c r="AD2" s="37">
+        <v>10</v>
+      </c>
       <c r="AE2" s="46"/>
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
@@ -1274,7 +1509,7 @@
       </c>
       <c r="AJ2" s="6">
         <f t="shared" ref="AJ2:AJ42" si="1">SUM(T2:AD2)</f>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK2" s="6">
         <f t="shared" ref="AK2:AK42" si="2">(( AE2 +AF2+AG2)/3) +AH2</f>
@@ -1283,13 +1518,13 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
         <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
-        <v>53.454545454545453</v>
+        <v>56.181818181818187</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" ht="14.25">
       <c r="A3" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1298,7 +1533,7 @@
         <v>201903077</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4">
         <v>1089127379</v>
@@ -1369,7 +1604,9 @@
       <c r="AC3" s="6">
         <v>10</v>
       </c>
-      <c r="AD3" s="37"/>
+      <c r="AD3" s="37">
+        <v>10</v>
+      </c>
       <c r="AE3" s="46"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
@@ -1380,7 +1617,7 @@
       </c>
       <c r="AJ3" s="6">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
@@ -1389,13 +1626,13 @@
       <c r="AL3" s="8"/>
       <c r="AM3" s="9">
         <f t="shared" si="3"/>
-        <v>52.36363636363636</v>
+        <v>55.090909090909093</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" ht="14.25">
       <c r="A4" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1404,14 +1641,14 @@
         <v>202002139</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4">
         <v>1057720343</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="36">
         <v>10</v>
       </c>
@@ -1475,7 +1712,9 @@
       <c r="AC4" s="6">
         <v>10</v>
       </c>
-      <c r="AD4" s="37"/>
+      <c r="AD4" s="37">
+        <v>9</v>
+      </c>
       <c r="AE4" s="46"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -1486,7 +1725,7 @@
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
@@ -1495,13 +1734,13 @@
       <c r="AL4" s="8"/>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>56.727272727272727</v>
+        <v>59.181818181818187</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:40" ht="14.25">
       <c r="A5" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -1510,7 +1749,7 @@
         <v>202002141</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4">
         <v>1053741373</v>
@@ -1581,7 +1820,9 @@
       <c r="AC5" s="6">
         <v>10</v>
       </c>
-      <c r="AD5" s="37"/>
+      <c r="AD5" s="37">
+        <v>9</v>
+      </c>
       <c r="AE5" s="46"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -1592,7 +1833,7 @@
       </c>
       <c r="AJ5" s="6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
@@ -1601,13 +1842,13 @@
       <c r="AL5" s="8"/>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>58.909090909090914</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="1:40" ht="14.25">
       <c r="A6" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -1616,14 +1857,14 @@
         <v>202002145</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4">
         <v>1047833029</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="68"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="36">
         <v>10</v>
       </c>
@@ -1687,7 +1928,9 @@
       <c r="AC6" s="6">
         <v>10</v>
       </c>
-      <c r="AD6" s="37"/>
+      <c r="AD6" s="37">
+        <v>10</v>
+      </c>
       <c r="AE6" s="46"/>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7"/>
@@ -1698,7 +1941,7 @@
       </c>
       <c r="AJ6" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
@@ -1707,13 +1950,13 @@
       <c r="AL6" s="8"/>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>54.545454545454547</v>
+        <v>57.272727272727273</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:40" ht="14.25">
       <c r="A7" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1722,7 +1965,7 @@
         <v>202002151</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4">
         <v>1092582716</v>
@@ -1793,7 +2036,9 @@
       <c r="AC7" s="6">
         <v>10</v>
       </c>
-      <c r="AD7" s="37"/>
+      <c r="AD7" s="37">
+        <v>10</v>
+      </c>
       <c r="AE7" s="46"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -1804,7 +2049,7 @@
       </c>
       <c r="AJ7" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
@@ -1813,13 +2058,13 @@
       <c r="AL7" s="8"/>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>53.86363636363636</v>
+        <v>56.590909090909093</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
     <row r="8" spans="1:40" ht="14.25">
       <c r="A8" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -1828,14 +2073,14 @@
         <v>202002158</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4">
         <v>1083666734</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="68"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="36">
         <v>10</v>
       </c>
@@ -1899,7 +2144,9 @@
       <c r="AC8" s="6">
         <v>10</v>
       </c>
-      <c r="AD8" s="37"/>
+      <c r="AD8" s="37">
+        <v>10</v>
+      </c>
       <c r="AE8" s="46"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
@@ -1910,7 +2157,7 @@
       </c>
       <c r="AJ8" s="6">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
@@ -1919,13 +2166,13 @@
       <c r="AL8" s="8"/>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>53.727272727272727</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="1:40" ht="14.25">
       <c r="A9" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
@@ -1934,7 +2181,7 @@
         <v>202002160</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>1039570415</v>
@@ -2005,7 +2252,9 @@
       <c r="AC9" s="6">
         <v>10</v>
       </c>
-      <c r="AD9" s="37"/>
+      <c r="AD9" s="37">
+        <v>10</v>
+      </c>
       <c r="AE9" s="46"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
@@ -2016,7 +2265,7 @@
       </c>
       <c r="AJ9" s="6">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
@@ -2025,13 +2274,13 @@
       <c r="AL9" s="8"/>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.727272727272727</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" ht="14.25">
       <c r="A10" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>5</v>
@@ -2040,14 +2289,14 @@
         <v>202002166</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4">
         <v>1077620727</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="68"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="36">
         <v>10</v>
       </c>
@@ -2111,7 +2360,9 @@
       <c r="AC10" s="6">
         <v>10</v>
       </c>
-      <c r="AD10" s="37"/>
+      <c r="AD10" s="37">
+        <v>9</v>
+      </c>
       <c r="AE10" s="46"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
@@ -2122,7 +2373,7 @@
       </c>
       <c r="AJ10" s="6">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
@@ -2131,13 +2382,13 @@
       <c r="AL10" s="8"/>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" ht="14.25">
       <c r="A11" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4">
         <v>5</v>
@@ -2146,7 +2397,7 @@
         <v>202002171</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" s="4">
         <v>1027380773</v>
@@ -2217,7 +2468,9 @@
       <c r="AC11" s="6">
         <v>10</v>
       </c>
-      <c r="AD11" s="37"/>
+      <c r="AD11" s="37">
+        <v>9</v>
+      </c>
       <c r="AE11" s="46"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -2228,7 +2481,7 @@
       </c>
       <c r="AJ11" s="6">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
@@ -2237,13 +2490,13 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
     <row r="12" spans="1:40" ht="14.25">
       <c r="A12" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
@@ -2252,14 +2505,14 @@
         <v>202002173</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>1096005377</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="68"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="36">
         <v>10</v>
       </c>
@@ -2323,7 +2576,9 @@
       <c r="AC12" s="6">
         <v>10</v>
       </c>
-      <c r="AD12" s="37"/>
+      <c r="AD12" s="37">
+        <v>10</v>
+      </c>
       <c r="AE12" s="46"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
@@ -2334,7 +2589,7 @@
       </c>
       <c r="AJ12" s="6">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
@@ -2343,13 +2598,13 @@
       <c r="AL12" s="8"/>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53.727272727272727</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:40" ht="14.25">
       <c r="A13" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
@@ -2358,7 +2613,7 @@
         <v>202102205</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4">
         <v>1075924210</v>
@@ -2429,7 +2684,9 @@
       <c r="AC13" s="50">
         <v>0</v>
       </c>
-      <c r="AD13" s="37"/>
+      <c r="AD13" s="50">
+        <v>0</v>
+      </c>
       <c r="AE13" s="46"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
@@ -2455,7 +2712,7 @@
     </row>
     <row r="14" spans="1:40" ht="14.25">
       <c r="A14" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4">
         <v>7</v>
@@ -2464,14 +2721,14 @@
         <v>202104289</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4">
         <v>1065288575</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="68"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="36">
         <v>10</v>
       </c>
@@ -2535,7 +2792,9 @@
       <c r="AC14" s="6">
         <v>8</v>
       </c>
-      <c r="AD14" s="37"/>
+      <c r="AD14" s="37">
+        <v>9</v>
+      </c>
       <c r="AE14" s="46"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
@@ -2546,7 +2805,7 @@
       </c>
       <c r="AJ14" s="6">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
@@ -2555,13 +2814,13 @@
       <c r="AL14" s="8"/>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>49.636363636363633</v>
+        <v>52.090909090909086</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="1:40" ht="14.25">
       <c r="A15" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4">
         <v>7</v>
@@ -2570,7 +2829,7 @@
         <v>202202107</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15" s="4">
         <v>1090590474</v>
@@ -2641,7 +2900,9 @@
       <c r="AC15" s="6">
         <v>8</v>
       </c>
-      <c r="AD15" s="37"/>
+      <c r="AD15" s="37">
+        <v>9</v>
+      </c>
       <c r="AE15" s="46"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
@@ -2652,7 +2913,7 @@
       </c>
       <c r="AJ15" s="6">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
@@ -2661,13 +2922,13 @@
       <c r="AL15" s="8"/>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>50.454545454545453</v>
+        <v>52.909090909090907</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>8</v>
@@ -2676,14 +2937,14 @@
         <v>202202115</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4">
         <v>1027706798</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="68"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="36">
         <v>9</v>
       </c>
@@ -2741,7 +3002,7 @@
     </row>
     <row r="17" spans="1:40" ht="14.25">
       <c r="A17" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4">
         <v>4</v>
@@ -2750,7 +3011,7 @@
         <v>202202117</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>1046661361</v>
@@ -2822,7 +3083,9 @@
       <c r="AC17" s="6">
         <v>10</v>
       </c>
-      <c r="AD17" s="37"/>
+      <c r="AD17" s="37">
+        <v>9</v>
+      </c>
       <c r="AE17" s="46"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -2833,7 +3096,7 @@
       </c>
       <c r="AJ17" s="6">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
@@ -2842,13 +3105,13 @@
       <c r="AL17" s="8"/>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>50.181818181818187</v>
+        <v>52.63636363636364</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
     <row r="18" spans="1:40" ht="14.25">
       <c r="A18" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4">
         <v>9</v>
@@ -2857,14 +3120,14 @@
         <v>202202125</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4">
         <v>1033640318</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="68"/>
+      <c r="H18" s="71"/>
       <c r="I18" s="36">
         <v>10</v>
       </c>
@@ -2928,7 +3191,9 @@
       <c r="AC18" s="6">
         <v>10</v>
       </c>
-      <c r="AD18" s="37"/>
+      <c r="AD18" s="37">
+        <v>10</v>
+      </c>
       <c r="AE18" s="46"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -2939,7 +3204,7 @@
       </c>
       <c r="AJ18" s="6">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
@@ -2948,13 +3213,13 @@
       <c r="AL18" s="8"/>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>56.18181818181818</v>
+        <v>58.909090909090907</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
     <row r="19" spans="1:40" ht="14.25">
       <c r="A19" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>9</v>
@@ -2963,7 +3228,7 @@
         <v>202202131</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4">
         <v>1026976105</v>
@@ -3034,7 +3299,9 @@
       <c r="AC19" s="6">
         <v>10</v>
       </c>
-      <c r="AD19" s="37"/>
+      <c r="AD19" s="37">
+        <v>10</v>
+      </c>
       <c r="AE19" s="46"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
@@ -3045,7 +3312,7 @@
       </c>
       <c r="AJ19" s="6">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
@@ -3054,13 +3321,13 @@
       <c r="AL19" s="8"/>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.727272727272727</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="1:40" ht="14.25">
       <c r="A20" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -3069,14 +3336,14 @@
         <v>202202141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4">
         <v>1056049923</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="68"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="36">
         <v>10</v>
       </c>
@@ -3140,7 +3407,9 @@
       <c r="AC20" s="6">
         <v>10</v>
       </c>
-      <c r="AD20" s="37"/>
+      <c r="AD20" s="37">
+        <v>9</v>
+      </c>
       <c r="AE20" s="46"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -3151,7 +3420,7 @@
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
@@ -3160,13 +3429,13 @@
       <c r="AL20" s="8"/>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>51.818181818181813</v>
+        <v>54.272727272727273</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
     <row r="21" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4">
         <v>10</v>
@@ -3175,7 +3444,7 @@
         <v>202202144</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -3230,7 +3499,7 @@
     </row>
     <row r="22" spans="1:40" ht="14.25">
       <c r="A22" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>10</v>
@@ -3239,7 +3508,7 @@
         <v>201904211</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4">
         <v>1085187142</v>
@@ -3310,7 +3579,9 @@
       <c r="AC22" s="6">
         <v>10</v>
       </c>
-      <c r="AD22" s="37"/>
+      <c r="AD22" s="37">
+        <v>9</v>
+      </c>
       <c r="AE22" s="46"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -3321,7 +3592,7 @@
       </c>
       <c r="AJ22" s="6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
@@ -3330,13 +3601,13 @@
       <c r="AL22" s="8"/>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="1:40" ht="14.25">
       <c r="A23" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B23" s="10">
         <v>1</v>
@@ -3345,14 +3616,14 @@
         <v>201901930</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E23" s="10">
         <v>1098330787</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="70"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="38">
         <v>10</v>
       </c>
@@ -3416,7 +3687,9 @@
       <c r="AC23" s="12">
         <v>10</v>
       </c>
-      <c r="AD23" s="39"/>
+      <c r="AD23" s="39">
+        <v>10</v>
+      </c>
       <c r="AE23" s="48"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
@@ -3427,7 +3700,7 @@
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
@@ -3436,13 +3709,13 @@
       <c r="AL23" s="14"/>
       <c r="AM23" s="15">
         <f t="shared" si="3"/>
-        <v>54.272727272727273</v>
+        <v>57</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
     <row r="24" spans="1:40" ht="14.25">
       <c r="A24" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B24" s="10">
         <v>1</v>
@@ -3451,7 +3724,7 @@
         <v>202000896</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E24" s="10">
         <v>1049138751</v>
@@ -3522,7 +3795,9 @@
       <c r="AC24" s="12">
         <v>10</v>
       </c>
-      <c r="AD24" s="39"/>
+      <c r="AD24" s="39">
+        <v>10</v>
+      </c>
       <c r="AE24" s="48"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -3533,7 +3808,7 @@
       </c>
       <c r="AJ24" s="12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
@@ -3542,13 +3817,13 @@
       <c r="AL24" s="14"/>
       <c r="AM24" s="15">
         <f t="shared" si="3"/>
-        <v>55.090909090909093</v>
+        <v>57.81818181818182</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
     <row r="25" spans="1:40" ht="14.25">
       <c r="A25" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
@@ -3557,14 +3832,14 @@
         <v>202002140</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E25" s="10">
         <v>1067441171</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="70"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="38">
         <v>10</v>
       </c>
@@ -3628,7 +3903,9 @@
       <c r="AC25" s="12">
         <v>10</v>
       </c>
-      <c r="AD25" s="39"/>
+      <c r="AD25" s="39">
+        <v>9</v>
+      </c>
       <c r="AE25" s="48"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
@@ -3639,7 +3916,7 @@
       </c>
       <c r="AJ25" s="12">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
@@ -3648,13 +3925,13 @@
       <c r="AL25" s="14"/>
       <c r="AM25" s="15">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
     <row r="26" spans="1:40" ht="14.25">
       <c r="A26" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -3663,7 +3940,7 @@
         <v>202002144</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E26" s="10">
         <v>1053220831</v>
@@ -3734,7 +4011,9 @@
       <c r="AC26" s="12">
         <v>10</v>
       </c>
-      <c r="AD26" s="39"/>
+      <c r="AD26" s="39">
+        <v>9</v>
+      </c>
       <c r="AE26" s="48"/>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
@@ -3745,7 +4024,7 @@
       </c>
       <c r="AJ26" s="12">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
@@ -3754,13 +4033,13 @@
       <c r="AL26" s="14"/>
       <c r="AM26" s="15">
         <f t="shared" si="3"/>
-        <v>54.81818181818182</v>
+        <v>57.272727272727273</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
     <row r="27" spans="1:40" ht="14.25">
       <c r="A27" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" s="10">
         <v>3</v>
@@ -3769,14 +4048,14 @@
         <v>202002150</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E27" s="10">
         <v>1025795005</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="70"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="38">
         <v>10</v>
       </c>
@@ -3840,7 +4119,9 @@
       <c r="AC27" s="12">
         <v>10</v>
       </c>
-      <c r="AD27" s="39"/>
+      <c r="AD27" s="39">
+        <v>10</v>
+      </c>
       <c r="AE27" s="48"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
@@ -3851,7 +4132,7 @@
       </c>
       <c r="AJ27" s="12">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
@@ -3860,13 +4141,13 @@
       <c r="AL27" s="14"/>
       <c r="AM27" s="15">
         <f t="shared" si="3"/>
-        <v>53.181818181818187</v>
+        <v>55.909090909090907</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
     <row r="28" spans="1:40" ht="14.25">
       <c r="A28" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="10">
         <v>3</v>
@@ -3875,7 +4156,7 @@
         <v>202002153</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E28" s="10">
         <v>1044108146</v>
@@ -3946,7 +4227,9 @@
       <c r="AC28" s="12">
         <v>10</v>
       </c>
-      <c r="AD28" s="39"/>
+      <c r="AD28" s="39">
+        <v>10</v>
+      </c>
       <c r="AE28" s="48"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
@@ -3957,7 +4240,7 @@
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
@@ -3966,13 +4249,13 @@
       <c r="AL28" s="14"/>
       <c r="AM28" s="15">
         <f t="shared" si="3"/>
-        <v>55.090909090909093</v>
+        <v>57.81818181818182</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
     <row r="29" spans="1:40" ht="14.25">
       <c r="A29" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10">
         <v>4</v>
@@ -3981,14 +4264,14 @@
         <v>202002159</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E29" s="10">
         <v>1099420163</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="70"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="38">
         <v>9</v>
       </c>
@@ -4052,7 +4335,9 @@
       <c r="AC29" s="12">
         <v>10</v>
       </c>
-      <c r="AD29" s="39"/>
+      <c r="AD29" s="39">
+        <v>9</v>
+      </c>
       <c r="AE29" s="48"/>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
@@ -4063,7 +4348,7 @@
       </c>
       <c r="AJ29" s="12">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
@@ -4072,13 +4357,13 @@
       <c r="AL29" s="14"/>
       <c r="AM29" s="15">
         <f t="shared" si="3"/>
-        <v>54.818181818181813</v>
+        <v>57.272727272727266</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
     <row r="30" spans="1:40" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B30" s="10">
         <v>4</v>
@@ -4087,7 +4372,7 @@
         <v>202002164</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -4142,7 +4427,7 @@
     </row>
     <row r="31" spans="1:40" ht="14.25">
       <c r="A31" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B31" s="10">
         <v>5</v>
@@ -4151,14 +4436,14 @@
         <v>202002169</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E31" s="10">
         <v>1068229825</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="70"/>
+      <c r="H31" s="68"/>
       <c r="I31" s="38">
         <v>8</v>
       </c>
@@ -4222,7 +4507,9 @@
       <c r="AC31" s="12">
         <v>9</v>
       </c>
-      <c r="AD31" s="39"/>
+      <c r="AD31" s="39">
+        <v>9</v>
+      </c>
       <c r="AE31" s="48"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
@@ -4233,7 +4520,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
@@ -4242,13 +4529,13 @@
       <c r="AL31" s="14"/>
       <c r="AM31" s="15">
         <f t="shared" si="3"/>
-        <v>53.727272727272727</v>
+        <v>56.181818181818187</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
     <row r="32" spans="1:40" ht="14.25">
       <c r="A32" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B32" s="10">
         <v>5</v>
@@ -4257,7 +4544,7 @@
         <v>202002172</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E32" s="10">
         <v>1039488258</v>
@@ -4328,7 +4615,9 @@
       <c r="AC32" s="12">
         <v>9</v>
       </c>
-      <c r="AD32" s="39"/>
+      <c r="AD32" s="39">
+        <v>9</v>
+      </c>
       <c r="AE32" s="48"/>
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
@@ -4339,7 +4628,7 @@
       </c>
       <c r="AJ32" s="12">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
@@ -4348,13 +4637,13 @@
       <c r="AL32" s="14"/>
       <c r="AM32" s="15">
         <f t="shared" si="3"/>
-        <v>53.18181818181818</v>
+        <v>55.63636363636364</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
     <row r="33" spans="1:40" ht="14.25">
       <c r="A33" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B33" s="10">
         <v>4</v>
@@ -4363,14 +4652,14 @@
         <v>202002176</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E33" s="10">
         <v>1024140724</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="70"/>
+      <c r="H33" s="68"/>
       <c r="I33" s="38">
         <v>10</v>
       </c>
@@ -4434,7 +4723,9 @@
       <c r="AC33" s="12">
         <v>10</v>
       </c>
-      <c r="AD33" s="39"/>
+      <c r="AD33" s="39">
+        <v>9</v>
+      </c>
       <c r="AE33" s="48"/>
       <c r="AF33" s="13"/>
       <c r="AG33" s="13"/>
@@ -4445,7 +4736,7 @@
       </c>
       <c r="AJ33" s="12">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
@@ -4454,13 +4745,13 @@
       <c r="AL33" s="14"/>
       <c r="AM33" s="15">
         <f t="shared" si="3"/>
-        <v>52.636363636363633</v>
+        <v>55.090909090909093</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
     <row r="34" spans="1:40" ht="14.25" hidden="1">
       <c r="A34" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" s="10">
         <v>6</v>
@@ -4469,7 +4760,7 @@
         <v>202103610</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E34" s="10">
         <v>1027168862</v>
@@ -4542,7 +4833,7 @@
     </row>
     <row r="35" spans="1:40" ht="14.25">
       <c r="A35" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B35" s="10">
         <v>7</v>
@@ -4551,14 +4842,14 @@
         <v>202200001</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E35" s="10">
         <v>1051388701</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="70"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="38">
         <v>9</v>
       </c>
@@ -4622,7 +4913,9 @@
       <c r="AC35" s="12">
         <v>10</v>
       </c>
-      <c r="AD35" s="39"/>
+      <c r="AD35" s="39">
+        <v>9</v>
+      </c>
       <c r="AE35" s="48"/>
       <c r="AF35" s="13"/>
       <c r="AG35" s="13"/>
@@ -4633,7 +4926,7 @@
       </c>
       <c r="AJ35" s="12">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
@@ -4642,13 +4935,13 @@
       <c r="AL35" s="14"/>
       <c r="AM35" s="15">
         <f t="shared" si="3"/>
-        <v>52.909090909090907</v>
+        <v>55.36363636363636</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
     <row r="36" spans="1:40" ht="14.25">
       <c r="A36" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36" s="10">
         <v>7</v>
@@ -4657,7 +4950,7 @@
         <v>202202108</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E36" s="10">
         <v>1065607472</v>
@@ -4728,7 +5021,9 @@
       <c r="AC36" s="12">
         <v>10</v>
       </c>
-      <c r="AD36" s="39"/>
+      <c r="AD36" s="39">
+        <v>9</v>
+      </c>
       <c r="AE36" s="48"/>
       <c r="AF36" s="13"/>
       <c r="AG36" s="13"/>
@@ -4739,7 +5034,7 @@
       </c>
       <c r="AJ36" s="12">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
@@ -4748,13 +5043,13 @@
       <c r="AL36" s="14"/>
       <c r="AM36" s="15">
         <f t="shared" si="3"/>
-        <v>51.545454545454547</v>
+        <v>54</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
     <row r="37" spans="1:40" ht="14.25">
       <c r="A37" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B37" s="16">
         <v>8</v>
@@ -4763,14 +5058,14 @@
         <v>202202116</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E37" s="10">
         <v>1022329931</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="70"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="38">
         <v>10</v>
       </c>
@@ -4834,7 +5129,9 @@
       <c r="AC37" s="12">
         <v>10</v>
       </c>
-      <c r="AD37" s="39"/>
+      <c r="AD37" s="39">
+        <v>9</v>
+      </c>
       <c r="AE37" s="48"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="13"/>
@@ -4845,7 +5142,7 @@
       </c>
       <c r="AJ37" s="12">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
@@ -4854,13 +5151,13 @@
       <c r="AL37" s="14"/>
       <c r="AM37" s="15">
         <f t="shared" si="3"/>
-        <v>55.090909090909093</v>
+        <v>57.545454545454547</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
     <row r="38" spans="1:40" ht="14.25">
       <c r="A38" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="16">
         <v>8</v>
@@ -4869,7 +5166,7 @@
         <v>202202123</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" s="10">
         <v>1094614572</v>
@@ -4940,7 +5237,9 @@
       <c r="AC38" s="12">
         <v>10</v>
       </c>
-      <c r="AD38" s="39"/>
+      <c r="AD38" s="39">
+        <v>9</v>
+      </c>
       <c r="AE38" s="48"/>
       <c r="AF38" s="13"/>
       <c r="AG38" s="13"/>
@@ -4951,7 +5250,7 @@
       </c>
       <c r="AJ38" s="12">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
@@ -4960,13 +5259,13 @@
       <c r="AL38" s="14"/>
       <c r="AM38" s="15">
         <f t="shared" si="3"/>
-        <v>55.909090909090907</v>
+        <v>58.363636363636367</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" ht="14.25">
       <c r="A39" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B39" s="10">
         <v>9</v>
@@ -4975,14 +5274,14 @@
         <v>202202127</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E39" s="10">
         <v>1034668474</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="70"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="38">
         <v>9</v>
       </c>
@@ -5046,7 +5345,9 @@
       <c r="AC39" s="12">
         <v>10</v>
       </c>
-      <c r="AD39" s="39"/>
+      <c r="AD39" s="39">
+        <v>9</v>
+      </c>
       <c r="AE39" s="48"/>
       <c r="AF39" s="13"/>
       <c r="AG39" s="13"/>
@@ -5057,7 +5358,7 @@
       </c>
       <c r="AJ39" s="12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
@@ -5066,13 +5367,13 @@
       <c r="AL39" s="14"/>
       <c r="AM39" s="15">
         <f t="shared" si="3"/>
-        <v>53.454545454545453</v>
+        <v>55.909090909090907</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
     <row r="40" spans="1:40" ht="14.25">
       <c r="A40" s="27" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B40" s="10">
         <v>9</v>
@@ -5081,7 +5382,7 @@
         <v>202202140</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E40" s="10">
         <v>1088154112</v>
@@ -5152,7 +5453,9 @@
       <c r="AC40" s="12">
         <v>10</v>
       </c>
-      <c r="AD40" s="39"/>
+      <c r="AD40" s="39">
+        <v>9</v>
+      </c>
       <c r="AE40" s="48"/>
       <c r="AF40" s="13"/>
       <c r="AG40" s="13"/>
@@ -5163,7 +5466,7 @@
       </c>
       <c r="AJ40" s="12">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
@@ -5172,13 +5475,13 @@
       <c r="AL40" s="14"/>
       <c r="AM40" s="15">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56.454545454545453</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
     <row r="41" spans="1:40" s="66" customFormat="1" ht="14.25">
       <c r="A41" s="53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B41" s="54">
         <v>10</v>
@@ -5187,14 +5490,14 @@
         <v>202202143</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E41" s="54">
         <v>1075569611</v>
       </c>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
-      <c r="H41" s="70"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="56">
         <v>8</v>
       </c>
@@ -5258,7 +5561,9 @@
       <c r="AC41" s="57">
         <v>10</v>
       </c>
-      <c r="AD41" s="59"/>
+      <c r="AD41" s="59">
+        <v>10</v>
+      </c>
       <c r="AE41" s="60"/>
       <c r="AF41" s="61"/>
       <c r="AG41" s="61"/>
@@ -5269,7 +5574,7 @@
       </c>
       <c r="AJ41" s="57">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK41" s="57">
         <f t="shared" si="2"/>
@@ -5278,13 +5583,13 @@
       <c r="AL41" s="64"/>
       <c r="AM41" s="65">
         <f t="shared" si="3"/>
-        <v>48.272727272727273</v>
+        <v>51</v>
       </c>
       <c r="AN41" s="54"/>
     </row>
     <row r="42" spans="1:40" ht="15" thickBot="1">
       <c r="A42" s="28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" s="29">
         <v>10</v>
@@ -5293,14 +5598,14 @@
         <v>202202146</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E42" s="29">
         <v>1034054104</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="71"/>
+      <c r="H42" s="70"/>
       <c r="I42" s="38">
         <v>9</v>
       </c>
@@ -5364,7 +5669,9 @@
       <c r="AC42" s="12">
         <v>10</v>
       </c>
-      <c r="AD42" s="39"/>
+      <c r="AD42" s="39">
+        <v>10</v>
+      </c>
       <c r="AE42" s="48"/>
       <c r="AF42" s="13"/>
       <c r="AG42" s="13"/>
@@ -5375,7 +5682,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
@@ -5384,7 +5691,7 @@
       <c r="AL42" s="14"/>
       <c r="AM42" s="15">
         <f t="shared" si="3"/>
-        <v>50.18181818181818</v>
+        <v>52.909090909090907</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
@@ -5392,7 +5699,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I43" s="40">
         <f>AVERAGE(I2:I22)</f>
@@ -5478,9 +5785,9 @@
         <f t="shared" si="4"/>
         <v>9.2631578947368425</v>
       </c>
-      <c r="AD43" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD43" s="41">
+        <f>AVERAGE(AD2:AD29)</f>
+        <v>9.1538461538461533</v>
       </c>
       <c r="AE43" s="40" t="e">
         <f t="shared" si="4"/>
@@ -5504,7 +5811,7 @@
       </c>
       <c r="AJ43" s="19">
         <f t="shared" si="4"/>
-        <v>83.19047619047619</v>
+        <v>91.333333333333329</v>
       </c>
       <c r="AK43" s="19">
         <f t="shared" si="4"/>
@@ -5516,7 +5823,7 @@
       </c>
       <c r="AM43" s="19">
         <f t="shared" si="4"/>
-        <v>47.305194805194809</v>
+        <v>49.525974025974023</v>
       </c>
       <c r="AN43" s="19"/>
     </row>
@@ -5524,7 +5831,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I44" s="40">
         <f>AVERAGE(I23:I42)</f>
@@ -5610,9 +5917,9 @@
         <f t="shared" si="5"/>
         <v>9.8888888888888893</v>
       </c>
-      <c r="AD44" s="41" t="e">
+      <c r="AD44" s="41">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="AE44" s="40" t="e">
         <f t="shared" si="5"/>
@@ -5636,7 +5943,7 @@
       </c>
       <c r="AJ44" s="19">
         <f t="shared" si="5"/>
-        <v>86.45</v>
+        <v>94.85</v>
       </c>
       <c r="AK44" s="19">
         <f t="shared" si="5"/>
@@ -5648,7 +5955,7 @@
       </c>
       <c r="AM44" s="19">
         <f t="shared" si="5"/>
-        <v>49.404545454545449</v>
+        <v>51.695454545454552</v>
       </c>
       <c r="AN44" s="19"/>
     </row>
@@ -5656,7 +5963,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I45" s="40">
         <f>AVERAGE(I2:I42)</f>
@@ -5742,9 +6049,9 @@
         <f t="shared" si="6"/>
         <v>9.5675675675675684</v>
       </c>
-      <c r="AD45" s="41" t="e">
+      <c r="AD45" s="41">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>9.1621621621621614</v>
       </c>
       <c r="AE45" s="40" t="e">
         <f t="shared" si="6"/>
@@ -5768,7 +6075,7 @@
       </c>
       <c r="AJ45" s="19">
         <f t="shared" si="6"/>
-        <v>84.780487804878049</v>
+        <v>93.048780487804876</v>
       </c>
       <c r="AK45" s="19">
         <f t="shared" si="6"/>
@@ -5780,7 +6087,7 @@
       </c>
       <c r="AM45" s="19">
         <f t="shared" si="6"/>
-        <v>48.329268292682933</v>
+        <v>50.584257206208427</v>
       </c>
       <c r="AN45" s="19"/>
     </row>
@@ -5788,7 +6095,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I46" s="40">
         <f>STDEV(I2:I42)</f>
@@ -5874,9 +6181,9 @@
         <f t="shared" si="7"/>
         <v>1.6921475595713775</v>
       </c>
-      <c r="AD46" s="41" t="e">
+      <c r="AD46" s="41">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.6246967839075823</v>
       </c>
       <c r="AE46" s="40" t="e">
         <f t="shared" si="7"/>
@@ -5900,7 +6207,7 @@
       </c>
       <c r="AJ46" s="19">
         <f t="shared" si="7"/>
-        <v>26.109875713149194</v>
+        <v>29.127264907224131</v>
       </c>
       <c r="AK46" s="19">
         <f t="shared" si="7"/>
@@ -5912,7 +6219,7 @@
       </c>
       <c r="AM46" s="19">
         <f t="shared" si="7"/>
-        <v>14.229105242453086</v>
+        <v>15.054815684936077</v>
       </c>
       <c r="AN46" s="19"/>
     </row>
@@ -5920,7 +6227,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I47" s="40">
         <f>MAX(I2:I42)</f>
@@ -6008,7 +6315,7 @@
       </c>
       <c r="AD47" s="41">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE47" s="40">
         <f t="shared" si="8"/>
@@ -6032,7 +6339,7 @@
       </c>
       <c r="AJ47" s="19">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AK47" s="19">
         <f t="shared" si="8"/>
@@ -6044,7 +6351,7 @@
       </c>
       <c r="AM47" s="19">
         <f t="shared" si="8"/>
-        <v>56.727272727272727</v>
+        <v>59.181818181818187</v>
       </c>
       <c r="AN47" s="19"/>
     </row>
@@ -6052,7 +6359,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I48" s="42">
         <f>MIN(I2:I42)</f>
@@ -6182,6 +6489,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="H41:H42"/>
@@ -6192,18 +6509,20 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="AM2:AM42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6219,6 +6538,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6400,12 +6725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
   <ds:schemaRefs>
@@ -6415,6 +6734,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6430,20 +6765,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\OneDrive - 충남대학교\바탕 화면\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B6F164-99B7-4677-91FF-DA683251E94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{38B6F164-99B7-4677-91FF-DA683251E94E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BDEE72EB-2ABE-4D97-85EF-C179DB303FCB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="2023년도 학생명부 및 채점표" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -836,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,9 +876,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,23 +1025,12 @@
     <xf numFmtId="177" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1056,6 +1043,14 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,8 +1272,8 @@
   </sheetPr>
   <dimension ref="A1:AN48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AM2" activeCellId="1" sqref="AM14:AM42 AM2:AM12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1293,129 +1288,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="72" t="s">
+      <c r="AF1" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="AG1" s="72" t="s">
+      <c r="AG1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="74" t="s">
+      <c r="AH1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="75" t="s">
+      <c r="AK1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AM1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="14.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="4">
@@ -1432,8 +1427,8 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="36">
+      <c r="H2" s="73"/>
+      <c r="I2" s="35">
         <v>10</v>
       </c>
       <c r="J2" s="6">
@@ -1463,10 +1458,10 @@
       <c r="R2" s="6">
         <v>7</v>
       </c>
-      <c r="S2" s="37">
-        <v>10</v>
-      </c>
-      <c r="T2" s="36">
+      <c r="S2" s="36">
+        <v>10</v>
+      </c>
+      <c r="T2" s="35">
         <v>7</v>
       </c>
       <c r="U2" s="6">
@@ -1496,14 +1491,18 @@
       <c r="AC2" s="6">
         <v>10</v>
       </c>
-      <c r="AD2" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="7"/>
+      <c r="AD2" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
       <c r="AG2" s="7"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="20">
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="19">
         <f t="shared" ref="AI2:AI42" si="0">SUM(I2:S2)</f>
         <v>100</v>
       </c>
@@ -1517,13 +1516,13 @@
       </c>
       <c r="AL2" s="8"/>
       <c r="AM2" s="9">
-        <f t="shared" ref="AM2:AM42" si="3">+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
+        <f>+AI2/(11*10)*30+AJ2/(11*10)*30+AK2+AL2</f>
         <v>56.181818181818187</v>
       </c>
       <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" ht="14.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="4">
@@ -1540,8 +1539,8 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="36">
+      <c r="H3" s="71"/>
+      <c r="I3" s="35">
         <v>10</v>
       </c>
       <c r="J3" s="6">
@@ -1571,10 +1570,10 @@
       <c r="R3" s="6">
         <v>10</v>
       </c>
-      <c r="S3" s="37">
-        <v>9</v>
-      </c>
-      <c r="T3" s="36">
+      <c r="S3" s="36">
+        <v>9</v>
+      </c>
+      <c r="T3" s="35">
         <v>7</v>
       </c>
       <c r="U3" s="6">
@@ -1604,14 +1603,18 @@
       <c r="AC3" s="6">
         <v>10</v>
       </c>
-      <c r="AD3" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="7"/>
+      <c r="AD3" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="45">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>9</v>
+      </c>
       <c r="AG3" s="7"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="20">
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="19">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -1621,17 +1624,19 @@
       </c>
       <c r="AK3" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="8"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>10</v>
+      </c>
       <c r="AM3" s="9">
-        <f t="shared" si="3"/>
-        <v>55.090909090909093</v>
+        <f t="shared" ref="AM2:AM42" si="3">+AI3/(11*10)*30+AJ3/(11*10)*30+AK3+AL3</f>
+        <v>70.757575757575751</v>
       </c>
       <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" ht="14.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="4">
@@ -1648,8 +1653,8 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="36">
+      <c r="H4" s="73"/>
+      <c r="I4" s="35">
         <v>10</v>
       </c>
       <c r="J4" s="6">
@@ -1679,10 +1684,10 @@
       <c r="R4" s="6">
         <v>10</v>
       </c>
-      <c r="S4" s="37">
-        <v>10</v>
-      </c>
-      <c r="T4" s="36">
+      <c r="S4" s="36">
+        <v>10</v>
+      </c>
+      <c r="T4" s="35">
         <v>10</v>
       </c>
       <c r="U4" s="6">
@@ -1712,14 +1717,18 @@
       <c r="AC4" s="6">
         <v>10</v>
       </c>
-      <c r="AD4" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="7"/>
+      <c r="AD4" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="45">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>15</v>
+      </c>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="20">
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="19">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -1729,17 +1738,19 @@
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="8"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>10</v>
+      </c>
       <c r="AM4" s="9">
         <f t="shared" si="3"/>
-        <v>59.181818181818187</v>
+        <v>78.848484848484858</v>
       </c>
       <c r="AN4" s="4"/>
     </row>
     <row r="5" spans="1:40" ht="14.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="4">
@@ -1756,8 +1767,8 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="36">
+      <c r="H5" s="71"/>
+      <c r="I5" s="35">
         <v>10</v>
       </c>
       <c r="J5" s="6">
@@ -1787,10 +1798,10 @@
       <c r="R5" s="6">
         <v>10</v>
       </c>
-      <c r="S5" s="37">
-        <v>10</v>
-      </c>
-      <c r="T5" s="36">
+      <c r="S5" s="36">
+        <v>10</v>
+      </c>
+      <c r="T5" s="35">
         <v>10</v>
       </c>
       <c r="U5" s="6">
@@ -1820,14 +1831,18 @@
       <c r="AC5" s="6">
         <v>10</v>
       </c>
-      <c r="AD5" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="7"/>
+      <c r="AD5" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="45">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>15</v>
+      </c>
       <c r="AG5" s="7"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="20">
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="19">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -1837,17 +1852,19 @@
       </c>
       <c r="AK5" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="8"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>10</v>
+      </c>
       <c r="AM5" s="9">
         <f t="shared" si="3"/>
-        <v>58.909090909090914</v>
+        <v>78.575757575757578</v>
       </c>
       <c r="AN5" s="4"/>
     </row>
     <row r="6" spans="1:40" ht="14.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="4">
@@ -1864,8 +1881,8 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="36">
+      <c r="H6" s="73"/>
+      <c r="I6" s="35">
         <v>10</v>
       </c>
       <c r="J6" s="6">
@@ -1895,10 +1912,10 @@
       <c r="R6" s="6">
         <v>10</v>
       </c>
-      <c r="S6" s="37">
-        <v>10</v>
-      </c>
-      <c r="T6" s="36">
+      <c r="S6" s="36">
+        <v>10</v>
+      </c>
+      <c r="T6" s="35">
         <v>8</v>
       </c>
       <c r="U6" s="6">
@@ -1928,14 +1945,18 @@
       <c r="AC6" s="6">
         <v>10</v>
       </c>
-      <c r="AD6" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="7"/>
+      <c r="AD6" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>12</v>
+      </c>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="20">
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="19">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -1945,17 +1966,19 @@
       </c>
       <c r="AK6" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>10</v>
+      </c>
       <c r="AM6" s="9">
         <f t="shared" si="3"/>
-        <v>57.272727272727273</v>
+        <v>75.27272727272728</v>
       </c>
       <c r="AN6" s="4"/>
     </row>
     <row r="7" spans="1:40" ht="14.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="4">
@@ -1972,8 +1995,8 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="36">
+      <c r="H7" s="71"/>
+      <c r="I7" s="35">
         <v>9</v>
       </c>
       <c r="J7" s="6">
@@ -2003,10 +2026,10 @@
       <c r="R7" s="6">
         <v>10</v>
       </c>
-      <c r="S7" s="37">
-        <v>10</v>
-      </c>
-      <c r="T7" s="36">
+      <c r="S7" s="36">
+        <v>10</v>
+      </c>
+      <c r="T7" s="35">
         <v>8</v>
       </c>
       <c r="U7" s="6">
@@ -2036,14 +2059,18 @@
       <c r="AC7" s="6">
         <v>10</v>
       </c>
-      <c r="AD7" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="7"/>
+      <c r="AD7" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>12</v>
+      </c>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="20">
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="19">
         <f t="shared" si="0"/>
         <v>103.5</v>
       </c>
@@ -2053,17 +2080,19 @@
       </c>
       <c r="AK7" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>10</v>
+      </c>
       <c r="AM7" s="9">
         <f t="shared" si="3"/>
-        <v>56.590909090909093</v>
+        <v>74.590909090909093</v>
       </c>
       <c r="AN7" s="4"/>
     </row>
     <row r="8" spans="1:40" ht="14.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="4">
@@ -2080,8 +2109,8 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="36">
+      <c r="H8" s="73"/>
+      <c r="I8" s="35">
         <v>10</v>
       </c>
       <c r="J8" s="6">
@@ -2111,10 +2140,10 @@
       <c r="R8" s="6">
         <v>10</v>
       </c>
-      <c r="S8" s="37">
-        <v>10</v>
-      </c>
-      <c r="T8" s="36">
+      <c r="S8" s="36">
+        <v>10</v>
+      </c>
+      <c r="T8" s="35">
         <v>7</v>
       </c>
       <c r="U8" s="6">
@@ -2144,14 +2173,18 @@
       <c r="AC8" s="6">
         <v>10</v>
       </c>
-      <c r="AD8" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="7"/>
+      <c r="AD8" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>13</v>
+      </c>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="20">
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="19">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
@@ -2161,17 +2194,19 @@
       </c>
       <c r="AK8" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>10</v>
+      </c>
       <c r="AM8" s="9">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>74.787878787878782</v>
       </c>
       <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="1:40" ht="14.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4">
@@ -2188,8 +2223,8 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="36">
+      <c r="H9" s="71"/>
+      <c r="I9" s="35">
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -2219,10 +2254,10 @@
       <c r="R9" s="6">
         <v>10</v>
       </c>
-      <c r="S9" s="37">
-        <v>9</v>
-      </c>
-      <c r="T9" s="36">
+      <c r="S9" s="36">
+        <v>9</v>
+      </c>
+      <c r="T9" s="35">
         <v>7</v>
       </c>
       <c r="U9" s="6">
@@ -2252,14 +2287,18 @@
       <c r="AC9" s="6">
         <v>10</v>
       </c>
-      <c r="AD9" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="7"/>
+      <c r="AD9" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE9" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>13</v>
+      </c>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="20">
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="19">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -2269,17 +2308,19 @@
       </c>
       <c r="AK9" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>10</v>
+      </c>
       <c r="AM9" s="9">
         <f t="shared" si="3"/>
-        <v>56.727272727272727</v>
+        <v>75.060606060606062</v>
       </c>
       <c r="AN9" s="4"/>
     </row>
     <row r="10" spans="1:40" ht="14.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4">
@@ -2296,8 +2337,8 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="36">
+      <c r="H10" s="73"/>
+      <c r="I10" s="35">
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -2327,10 +2368,10 @@
       <c r="R10" s="6">
         <v>6</v>
       </c>
-      <c r="S10" s="37">
-        <v>10</v>
-      </c>
-      <c r="T10" s="36">
+      <c r="S10" s="36">
+        <v>10</v>
+      </c>
+      <c r="T10" s="35">
         <v>8</v>
       </c>
       <c r="U10" s="6">
@@ -2360,14 +2401,18 @@
       <c r="AC10" s="6">
         <v>10</v>
       </c>
-      <c r="AD10" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="7"/>
+      <c r="AD10" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>11</v>
+      </c>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="20">
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="19">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -2377,17 +2422,19 @@
       </c>
       <c r="AK10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="8"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>10</v>
+      </c>
       <c r="AM10" s="9">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>74.121212121212125</v>
       </c>
       <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" ht="14.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4">
@@ -2404,8 +2451,8 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="36">
+      <c r="H11" s="71"/>
+      <c r="I11" s="35">
         <v>10</v>
       </c>
       <c r="J11" s="6">
@@ -2435,10 +2482,10 @@
       <c r="R11" s="6">
         <v>8</v>
       </c>
-      <c r="S11" s="37">
-        <v>9</v>
-      </c>
-      <c r="T11" s="36">
+      <c r="S11" s="36">
+        <v>9</v>
+      </c>
+      <c r="T11" s="35">
         <v>8</v>
       </c>
       <c r="U11" s="6">
@@ -2468,14 +2515,18 @@
       <c r="AC11" s="6">
         <v>10</v>
       </c>
-      <c r="AD11" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="46"/>
-      <c r="AF11" s="7"/>
+      <c r="AD11" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>11</v>
+      </c>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="20">
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2485,17 +2536,19 @@
       </c>
       <c r="AK11" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="8"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>10</v>
+      </c>
       <c r="AM11" s="9">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>74.121212121212125</v>
       </c>
       <c r="AN11" s="4"/>
     </row>
     <row r="12" spans="1:40" ht="14.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="4">
@@ -2512,8 +2565,8 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="36">
+      <c r="H12" s="73"/>
+      <c r="I12" s="35">
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -2543,10 +2596,10 @@
       <c r="R12" s="6">
         <v>10</v>
       </c>
-      <c r="S12" s="37">
-        <v>10</v>
-      </c>
-      <c r="T12" s="36">
+      <c r="S12" s="36">
+        <v>10</v>
+      </c>
+      <c r="T12" s="35">
         <v>4</v>
       </c>
       <c r="U12" s="6">
@@ -2576,14 +2629,18 @@
       <c r="AC12" s="6">
         <v>10</v>
       </c>
-      <c r="AD12" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="7"/>
+      <c r="AD12" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="45">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>9</v>
+      </c>
       <c r="AG12" s="7"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="20">
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="19">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -2593,17 +2650,19 @@
       </c>
       <c r="AK12" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="8"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>10</v>
+      </c>
       <c r="AM12" s="9">
         <f t="shared" si="3"/>
-        <v>53.727272727272727</v>
+        <v>69.393939393939391</v>
       </c>
       <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:40" ht="14.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="4">
@@ -2620,17 +2679,17 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="36">
+      <c r="H13" s="71"/>
+      <c r="I13" s="35">
         <v>0</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <v>0</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="49">
         <v>0</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="49">
         <v>0</v>
       </c>
       <c r="M13" s="6">
@@ -2645,25 +2704,25 @@
       <c r="P13" s="6">
         <v>10</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="49">
         <v>0</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="49">
         <v>0</v>
       </c>
-      <c r="S13" s="67">
+      <c r="S13" s="65">
         <v>0</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="35">
         <v>4</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="49">
         <v>0</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13" s="49">
         <v>0</v>
       </c>
-      <c r="W13" s="50">
+      <c r="W13" s="49">
         <v>0</v>
       </c>
       <c r="X13" s="6">
@@ -2678,20 +2737,24 @@
       <c r="AA13" s="6">
         <v>9</v>
       </c>
-      <c r="AB13" s="50">
+      <c r="AB13" s="49">
         <v>0</v>
       </c>
-      <c r="AC13" s="50">
+      <c r="AC13" s="49">
         <v>0</v>
       </c>
-      <c r="AD13" s="50">
+      <c r="AD13" s="49">
         <v>0</v>
       </c>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="7"/>
+      <c r="AE13" s="45">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>9</v>
+      </c>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="20">
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="19">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -2701,17 +2764,19 @@
       </c>
       <c r="AK13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="8"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>10</v>
+      </c>
       <c r="AM13" s="9">
         <f t="shared" si="3"/>
-        <v>19.636363636363637</v>
+        <v>35.303030303030305</v>
       </c>
       <c r="AN13" s="4"/>
     </row>
     <row r="14" spans="1:40" ht="14.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4">
@@ -2728,8 +2793,8 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="36">
+      <c r="H14" s="73"/>
+      <c r="I14" s="35">
         <v>10</v>
       </c>
       <c r="J14" s="6">
@@ -2759,10 +2824,10 @@
       <c r="R14" s="6">
         <v>10</v>
       </c>
-      <c r="S14" s="37">
-        <v>10</v>
-      </c>
-      <c r="T14" s="36">
+      <c r="S14" s="36">
+        <v>10</v>
+      </c>
+      <c r="T14" s="35">
         <v>6</v>
       </c>
       <c r="U14" s="6">
@@ -2792,14 +2857,18 @@
       <c r="AC14" s="6">
         <v>8</v>
       </c>
-      <c r="AD14" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="7"/>
+      <c r="AD14" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="45">
+        <v>13</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>12</v>
+      </c>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="20">
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -2809,17 +2878,19 @@
       </c>
       <c r="AK14" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>10</v>
+      </c>
       <c r="AM14" s="9">
         <f t="shared" si="3"/>
-        <v>52.090909090909086</v>
+        <v>70.424242424242422</v>
       </c>
       <c r="AN14" s="4"/>
     </row>
     <row r="15" spans="1:40" ht="14.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="4">
@@ -2836,8 +2907,8 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="36">
+      <c r="H15" s="71"/>
+      <c r="I15" s="35">
         <v>10</v>
       </c>
       <c r="J15" s="6">
@@ -2861,16 +2932,16 @@
       <c r="P15" s="6">
         <v>10</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="51">
         <v>9</v>
       </c>
       <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="37">
-        <v>9</v>
-      </c>
-      <c r="T15" s="36">
+      <c r="S15" s="36">
+        <v>9</v>
+      </c>
+      <c r="T15" s="35">
         <v>6</v>
       </c>
       <c r="U15" s="6">
@@ -2900,14 +2971,18 @@
       <c r="AC15" s="6">
         <v>8</v>
       </c>
-      <c r="AD15" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="7"/>
+      <c r="AD15" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="45">
+        <v>13</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>12</v>
+      </c>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="20">
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2917,17 +2992,19 @@
       </c>
       <c r="AK15" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL15" s="8">
+        <v>10</v>
+      </c>
       <c r="AM15" s="9">
         <f t="shared" si="3"/>
-        <v>52.909090909090907</v>
+        <v>71.242424242424249</v>
       </c>
       <c r="AN15" s="4"/>
     </row>
     <row r="16" spans="1:40" ht="14.25" hidden="1" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="4">
@@ -2944,8 +3021,8 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="36">
+      <c r="H16" s="73"/>
+      <c r="I16" s="35">
         <v>9</v>
       </c>
       <c r="J16" s="6">
@@ -2961,8 +3038,8 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="36">
+      <c r="S16" s="36"/>
+      <c r="T16" s="35">
         <v>3</v>
       </c>
       <c r="U16" s="6">
@@ -2976,12 +3053,12 @@
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="46"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="45"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="20">
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2993,15 +3070,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="8"/>
+      <c r="AL16" s="8">
+        <v>10</v>
+      </c>
       <c r="AM16" s="9">
         <f t="shared" si="3"/>
-        <v>10.636363636363637</v>
+        <v>20.636363636363637</v>
       </c>
       <c r="AN16" s="4"/>
     </row>
     <row r="17" spans="1:40" ht="14.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B17" s="4">
@@ -3018,8 +3097,8 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="36">
+      <c r="H17" s="71"/>
+      <c r="I17" s="35">
         <v>7</v>
       </c>
       <c r="J17" s="6">
@@ -3049,10 +3128,10 @@
       <c r="R17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="37">
-        <v>10</v>
-      </c>
-      <c r="T17" s="36">
+      <c r="S17" s="36">
+        <v>10</v>
+      </c>
+      <c r="T17" s="35">
         <v>3</v>
       </c>
       <c r="U17" s="6">
@@ -3083,14 +3162,18 @@
       <c r="AC17" s="6">
         <v>10</v>
       </c>
-      <c r="AD17" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="7"/>
+      <c r="AD17" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="45">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>14</v>
+      </c>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="20">
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="19">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -3100,17 +3183,19 @@
       </c>
       <c r="AK17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="8"/>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL17" s="8">
+        <v>10</v>
+      </c>
       <c r="AM17" s="9">
         <f t="shared" si="3"/>
-        <v>52.63636363636364</v>
+        <v>71.303030303030312</v>
       </c>
       <c r="AN17" s="4"/>
     </row>
     <row r="18" spans="1:40" ht="14.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4">
@@ -3127,8 +3212,8 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="36">
+      <c r="H18" s="73"/>
+      <c r="I18" s="35">
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -3158,10 +3243,10 @@
       <c r="R18" s="6">
         <v>10</v>
       </c>
-      <c r="S18" s="37">
-        <v>10</v>
-      </c>
-      <c r="T18" s="36">
+      <c r="S18" s="36">
+        <v>10</v>
+      </c>
+      <c r="T18" s="35">
         <v>9</v>
       </c>
       <c r="U18" s="6">
@@ -3191,14 +3276,18 @@
       <c r="AC18" s="6">
         <v>10</v>
       </c>
-      <c r="AD18" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="7"/>
+      <c r="AD18" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="45">
+        <v>11</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>11</v>
+      </c>
       <c r="AG18" s="7"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="20">
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="19">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -3208,17 +3297,19 @@
       </c>
       <c r="AK18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="8"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>10</v>
+      </c>
       <c r="AM18" s="9">
         <f t="shared" si="3"/>
-        <v>58.909090909090907</v>
+        <v>76.242424242424235</v>
       </c>
       <c r="AN18" s="4"/>
     </row>
     <row r="19" spans="1:40" ht="14.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="4">
@@ -3235,8 +3326,8 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="36">
+      <c r="H19" s="71"/>
+      <c r="I19" s="35">
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -3266,10 +3357,10 @@
       <c r="R19" s="6">
         <v>10</v>
       </c>
-      <c r="S19" s="37">
-        <v>9</v>
-      </c>
-      <c r="T19" s="36">
+      <c r="S19" s="36">
+        <v>9</v>
+      </c>
+      <c r="T19" s="35">
         <v>9</v>
       </c>
       <c r="U19" s="6">
@@ -3299,14 +3390,18 @@
       <c r="AC19" s="6">
         <v>10</v>
       </c>
-      <c r="AD19" s="37">
-        <v>10</v>
-      </c>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="7"/>
+      <c r="AD19" s="36">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="45">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>11</v>
+      </c>
       <c r="AG19" s="7"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="20">
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3316,17 +3411,19 @@
       </c>
       <c r="AK19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="8"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>10</v>
+      </c>
       <c r="AM19" s="9">
         <f t="shared" si="3"/>
-        <v>56.727272727272727</v>
+        <v>74.060606060606062</v>
       </c>
       <c r="AN19" s="4"/>
     </row>
     <row r="20" spans="1:40" ht="14.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="4">
@@ -3343,8 +3440,8 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="36">
+      <c r="H20" s="73"/>
+      <c r="I20" s="35">
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -3368,16 +3465,16 @@
       <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <v>9</v>
       </c>
       <c r="R20" s="6">
         <v>10</v>
       </c>
-      <c r="S20" s="37">
-        <v>10</v>
-      </c>
-      <c r="T20" s="36">
+      <c r="S20" s="36">
+        <v>10</v>
+      </c>
+      <c r="T20" s="35">
         <v>10</v>
       </c>
       <c r="U20" s="6">
@@ -3407,14 +3504,18 @@
       <c r="AC20" s="6">
         <v>10</v>
       </c>
-      <c r="AD20" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="7"/>
+      <c r="AD20" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="45">
+        <v>13</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>14</v>
+      </c>
       <c r="AG20" s="7"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="20">
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="19">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -3424,17 +3525,19 @@
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="AL20" s="8">
+        <v>10</v>
+      </c>
       <c r="AM20" s="9">
         <f t="shared" si="3"/>
-        <v>54.272727272727273</v>
+        <v>73.27272727272728</v>
       </c>
       <c r="AN20" s="4"/>
     </row>
     <row r="21" spans="1:40" ht="14.25" hidden="1" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="4">
@@ -3449,8 +3552,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3462,8 +3565,8 @@
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -3473,12 +3576,12 @@
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="46"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="20">
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3490,15 +3593,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="8"/>
+      <c r="AL21" s="8">
+        <v>10</v>
+      </c>
       <c r="AM21" s="9">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="AN21" s="4"/>
     </row>
     <row r="22" spans="1:40" ht="14.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4">
@@ -3515,8 +3620,8 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="36">
+      <c r="H22" s="71"/>
+      <c r="I22" s="35">
         <v>10</v>
       </c>
       <c r="J22" s="6">
@@ -3546,10 +3651,10 @@
       <c r="R22" s="6">
         <v>10</v>
       </c>
-      <c r="S22" s="37">
-        <v>10</v>
-      </c>
-      <c r="T22" s="36">
+      <c r="S22" s="36">
+        <v>10</v>
+      </c>
+      <c r="T22" s="35">
         <v>10</v>
       </c>
       <c r="U22" s="6">
@@ -3579,14 +3684,18 @@
       <c r="AC22" s="6">
         <v>10</v>
       </c>
-      <c r="AD22" s="37">
-        <v>9</v>
-      </c>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="7"/>
+      <c r="AD22" s="36">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="45">
+        <v>13</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>14</v>
+      </c>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="20">
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="19">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -3596,17 +3705,19 @@
       </c>
       <c r="AK22" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>10</v>
+      </c>
       <c r="AM22" s="9">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>75.454545454545453</v>
       </c>
       <c r="AN22" s="4"/>
     </row>
     <row r="23" spans="1:40" ht="14.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="10">
@@ -3623,8 +3734,8 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="38">
+      <c r="H23" s="70"/>
+      <c r="I23" s="37">
         <v>10</v>
       </c>
       <c r="J23" s="12">
@@ -3654,10 +3765,10 @@
       <c r="R23" s="12">
         <v>10</v>
       </c>
-      <c r="S23" s="39">
-        <v>10</v>
-      </c>
-      <c r="T23" s="38">
+      <c r="S23" s="38">
+        <v>10</v>
+      </c>
+      <c r="T23" s="37">
         <v>8</v>
       </c>
       <c r="U23" s="12">
@@ -3687,14 +3798,18 @@
       <c r="AC23" s="12">
         <v>10</v>
       </c>
-      <c r="AD23" s="39">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="13"/>
+      <c r="AD23" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>10</v>
+      </c>
       <c r="AG23" s="13"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="21">
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="20">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -3704,17 +3819,19 @@
       </c>
       <c r="AK23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="15">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM23" s="14">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>74.333333333333329</v>
       </c>
       <c r="AN23" s="10"/>
     </row>
     <row r="24" spans="1:40" ht="14.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="10">
@@ -3731,8 +3848,8 @@
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="38">
+      <c r="H24" s="71"/>
+      <c r="I24" s="37">
         <v>10</v>
       </c>
       <c r="J24" s="12">
@@ -3762,10 +3879,10 @@
       <c r="R24" s="12">
         <v>10</v>
       </c>
-      <c r="S24" s="39">
-        <v>10</v>
-      </c>
-      <c r="T24" s="38">
+      <c r="S24" s="38">
+        <v>10</v>
+      </c>
+      <c r="T24" s="37">
         <v>8</v>
       </c>
       <c r="U24" s="12">
@@ -3795,14 +3912,18 @@
       <c r="AC24" s="12">
         <v>10</v>
       </c>
-      <c r="AD24" s="39">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="48"/>
-      <c r="AF24" s="13"/>
+      <c r="AD24" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>10</v>
+      </c>
       <c r="AG24" s="13"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="21">
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="20">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -3812,17 +3933,19 @@
       </c>
       <c r="AK24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="15">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="14">
         <f t="shared" si="3"/>
-        <v>57.81818181818182</v>
+        <v>75.151515151515156</v>
       </c>
       <c r="AN24" s="10"/>
     </row>
     <row r="25" spans="1:40" ht="14.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="10">
@@ -3839,8 +3962,8 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="38">
+      <c r="H25" s="70"/>
+      <c r="I25" s="37">
         <v>10</v>
       </c>
       <c r="J25" s="12">
@@ -3870,10 +3993,10 @@
       <c r="R25" s="12">
         <v>10</v>
       </c>
-      <c r="S25" s="39">
-        <v>10</v>
-      </c>
-      <c r="T25" s="38">
+      <c r="S25" s="38">
+        <v>10</v>
+      </c>
+      <c r="T25" s="37">
         <v>8</v>
       </c>
       <c r="U25" s="12">
@@ -3903,14 +4026,18 @@
       <c r="AC25" s="12">
         <v>10</v>
       </c>
-      <c r="AD25" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="13"/>
+      <c r="AD25" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>10</v>
+      </c>
       <c r="AG25" s="13"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="21">
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="20">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -3920,17 +4047,19 @@
       </c>
       <c r="AK25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="15">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM25" s="14">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>73.787878787878782</v>
       </c>
       <c r="AN25" s="10"/>
     </row>
     <row r="26" spans="1:40" ht="14.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="10">
@@ -3947,8 +4076,8 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="38">
+      <c r="H26" s="71"/>
+      <c r="I26" s="37">
         <v>10</v>
       </c>
       <c r="J26" s="12">
@@ -3978,10 +4107,10 @@
       <c r="R26" s="12">
         <v>10</v>
       </c>
-      <c r="S26" s="39">
-        <v>10</v>
-      </c>
-      <c r="T26" s="38">
+      <c r="S26" s="38">
+        <v>10</v>
+      </c>
+      <c r="T26" s="37">
         <v>8</v>
       </c>
       <c r="U26" s="12">
@@ -4011,14 +4140,18 @@
       <c r="AC26" s="12">
         <v>10</v>
       </c>
-      <c r="AD26" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="13"/>
+      <c r="AD26" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE26" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>10</v>
+      </c>
       <c r="AG26" s="13"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="21">
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="20">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -4028,17 +4161,19 @@
       </c>
       <c r="AK26" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="15">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM26" s="14">
         <f t="shared" si="3"/>
-        <v>57.272727272727273</v>
+        <v>74.606060606060609</v>
       </c>
       <c r="AN26" s="10"/>
     </row>
     <row r="27" spans="1:40" ht="14.25">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="10">
@@ -4055,8 +4190,8 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="38">
+      <c r="H27" s="70"/>
+      <c r="I27" s="37">
         <v>10</v>
       </c>
       <c r="J27" s="12">
@@ -4086,10 +4221,10 @@
       <c r="R27" s="12">
         <v>9</v>
       </c>
-      <c r="S27" s="39">
-        <v>9</v>
-      </c>
-      <c r="T27" s="38">
+      <c r="S27" s="38">
+        <v>9</v>
+      </c>
+      <c r="T27" s="37">
         <v>10</v>
       </c>
       <c r="U27" s="12">
@@ -4119,14 +4254,18 @@
       <c r="AC27" s="12">
         <v>10</v>
       </c>
-      <c r="AD27" s="39">
-        <v>10</v>
-      </c>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="13"/>
+      <c r="AD27" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE27" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>12</v>
+      </c>
       <c r="AG27" s="13"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="21">
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4136,17 +4275,19 @@
       </c>
       <c r="AK27" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM27" s="14">
         <f t="shared" si="3"/>
-        <v>55.909090909090907</v>
+        <v>73.909090909090907</v>
       </c>
       <c r="AN27" s="10"/>
     </row>
     <row r="28" spans="1:40" ht="14.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="10">
@@ -4163,8 +4304,8 @@
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="38">
+      <c r="H28" s="71"/>
+      <c r="I28" s="37">
         <v>10</v>
       </c>
       <c r="J28" s="12">
@@ -4194,10 +4335,10 @@
       <c r="R28" s="12">
         <v>10</v>
       </c>
-      <c r="S28" s="39">
-        <v>10</v>
-      </c>
-      <c r="T28" s="38">
+      <c r="S28" s="38">
+        <v>10</v>
+      </c>
+      <c r="T28" s="37">
         <v>10</v>
       </c>
       <c r="U28" s="12">
@@ -4227,14 +4368,18 @@
       <c r="AC28" s="12">
         <v>10</v>
       </c>
-      <c r="AD28" s="39">
-        <v>10</v>
-      </c>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="13"/>
+      <c r="AD28" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE28" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>12</v>
+      </c>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="21">
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="20">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -4244,17 +4389,19 @@
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM28" s="14">
         <f t="shared" si="3"/>
-        <v>57.81818181818182</v>
+        <v>75.818181818181813</v>
       </c>
       <c r="AN28" s="10"/>
     </row>
     <row r="29" spans="1:40" ht="14.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="10">
@@ -4271,8 +4418,8 @@
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="38">
+      <c r="H29" s="70"/>
+      <c r="I29" s="37">
         <v>9</v>
       </c>
       <c r="J29" s="12">
@@ -4302,10 +4449,10 @@
       <c r="R29" s="12">
         <v>10</v>
       </c>
-      <c r="S29" s="39">
-        <v>10</v>
-      </c>
-      <c r="T29" s="38">
+      <c r="S29" s="38">
+        <v>10</v>
+      </c>
+      <c r="T29" s="37">
         <v>10</v>
       </c>
       <c r="U29" s="12">
@@ -4335,14 +4482,18 @@
       <c r="AC29" s="12">
         <v>10</v>
       </c>
-      <c r="AD29" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="13"/>
+      <c r="AD29" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>14</v>
+      </c>
       <c r="AG29" s="13"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="21">
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="20">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -4352,17 +4503,19 @@
       </c>
       <c r="AK29" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="15">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM29" s="14">
         <f t="shared" si="3"/>
-        <v>57.272727272727266</v>
+        <v>75.939393939393938</v>
       </c>
       <c r="AN29" s="10"/>
     </row>
     <row r="30" spans="1:40" ht="14.25" hidden="1" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="10">
@@ -4377,8 +4530,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="38"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
@@ -4390,8 +4543,8 @@
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="37"/>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
@@ -4401,12 +4554,12 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="48"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="47"/>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="21">
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4418,15 +4571,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="15">
+      <c r="AL30" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM30" s="14">
         <f t="shared" si="3"/>
-        <v>2.7272727272727275</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="AN30" s="10"/>
     </row>
     <row r="31" spans="1:40" ht="14.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="10">
@@ -4443,8 +4598,8 @@
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="38">
+      <c r="H31" s="70"/>
+      <c r="I31" s="37">
         <v>8</v>
       </c>
       <c r="J31" s="12">
@@ -4474,10 +4629,10 @@
       <c r="R31" s="12">
         <v>10</v>
       </c>
-      <c r="S31" s="39">
-        <v>10</v>
-      </c>
-      <c r="T31" s="38">
+      <c r="S31" s="38">
+        <v>10</v>
+      </c>
+      <c r="T31" s="37">
         <v>7</v>
       </c>
       <c r="U31" s="12">
@@ -4507,14 +4662,18 @@
       <c r="AC31" s="12">
         <v>9</v>
       </c>
-      <c r="AD31" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="13"/>
+      <c r="AD31" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="47">
+        <v>11</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>10</v>
+      </c>
       <c r="AG31" s="13"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="21">
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="20">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -4524,17 +4683,19 @@
       </c>
       <c r="AK31" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="15">
+        <v>7</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM31" s="14">
         <f t="shared" si="3"/>
-        <v>56.181818181818187</v>
+        <v>73.181818181818187</v>
       </c>
       <c r="AN31" s="10"/>
     </row>
     <row r="32" spans="1:40" ht="14.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="10">
@@ -4551,8 +4712,8 @@
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="38">
+      <c r="H32" s="71"/>
+      <c r="I32" s="37">
         <v>9</v>
       </c>
       <c r="J32" s="12">
@@ -4582,10 +4743,10 @@
       <c r="R32" s="12">
         <v>10</v>
       </c>
-      <c r="S32" s="39">
-        <v>10</v>
-      </c>
-      <c r="T32" s="38">
+      <c r="S32" s="38">
+        <v>10</v>
+      </c>
+      <c r="T32" s="37">
         <v>7</v>
       </c>
       <c r="U32" s="12">
@@ -4615,14 +4776,18 @@
       <c r="AC32" s="12">
         <v>9</v>
       </c>
-      <c r="AD32" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="13"/>
+      <c r="AD32" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="47">
+        <v>11</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>10</v>
+      </c>
       <c r="AG32" s="13"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="21">
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="20">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -4632,17 +4797,19 @@
       </c>
       <c r="AK32" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="15">
+        <v>7</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM32" s="14">
         <f t="shared" si="3"/>
-        <v>55.63636363636364</v>
+        <v>72.63636363636364</v>
       </c>
       <c r="AN32" s="10"/>
     </row>
     <row r="33" spans="1:40" ht="14.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="10">
@@ -4659,8 +4826,8 @@
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="38">
+      <c r="H33" s="70"/>
+      <c r="I33" s="37">
         <v>10</v>
       </c>
       <c r="J33" s="12">
@@ -4690,10 +4857,10 @@
       <c r="R33" s="12">
         <v>10</v>
       </c>
-      <c r="S33" s="39">
-        <v>10</v>
-      </c>
-      <c r="T33" s="38">
+      <c r="S33" s="38">
+        <v>10</v>
+      </c>
+      <c r="T33" s="37">
         <v>10</v>
       </c>
       <c r="U33" s="12">
@@ -4723,14 +4890,18 @@
       <c r="AC33" s="12">
         <v>10</v>
       </c>
-      <c r="AD33" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="13"/>
+      <c r="AD33" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE33" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>14</v>
+      </c>
       <c r="AG33" s="13"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="21">
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="20">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -4740,17 +4911,19 @@
       </c>
       <c r="AK33" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="15">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM33" s="14">
         <f t="shared" si="3"/>
-        <v>55.090909090909093</v>
+        <v>73.757575757575751</v>
       </c>
       <c r="AN33" s="10"/>
     </row>
     <row r="34" spans="1:40" ht="14.25" hidden="1">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="10">
@@ -4767,8 +4940,8 @@
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="38">
+      <c r="H34" s="71"/>
+      <c r="I34" s="37">
         <v>9</v>
       </c>
       <c r="J34" s="12">
@@ -4788,8 +4961,8 @@
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="38">
+      <c r="S34" s="38"/>
+      <c r="T34" s="37">
         <v>10</v>
       </c>
       <c r="U34" s="12">
@@ -4807,12 +4980,12 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="48"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="47"/>
       <c r="AF34" s="13"/>
       <c r="AG34" s="13"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="21">
+      <c r="AH34" s="48"/>
+      <c r="AI34" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -4824,15 +4997,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="15">
+      <c r="AL34" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="14">
         <f t="shared" si="3"/>
-        <v>23.181818181818183</v>
+        <v>33.181818181818187</v>
       </c>
       <c r="AN34" s="10"/>
     </row>
     <row r="35" spans="1:40" ht="14.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="10">
@@ -4849,8 +5024,8 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="38">
+      <c r="H35" s="70"/>
+      <c r="I35" s="37">
         <v>9</v>
       </c>
       <c r="J35" s="12">
@@ -4880,10 +5055,10 @@
       <c r="R35" s="12">
         <v>10</v>
       </c>
-      <c r="S35" s="39">
-        <v>10</v>
-      </c>
-      <c r="T35" s="38">
+      <c r="S35" s="38">
+        <v>10</v>
+      </c>
+      <c r="T35" s="37">
         <v>8</v>
       </c>
       <c r="U35" s="12">
@@ -4913,14 +5088,18 @@
       <c r="AC35" s="12">
         <v>10</v>
       </c>
-      <c r="AD35" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="13"/>
+      <c r="AD35" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="47">
+        <v>13</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>13</v>
+      </c>
       <c r="AG35" s="13"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="21">
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="20">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -4930,17 +5109,19 @@
       </c>
       <c r="AK35" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="15">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="14">
         <f t="shared" si="3"/>
-        <v>55.36363636363636</v>
+        <v>74.030303030303031</v>
       </c>
       <c r="AN35" s="10"/>
     </row>
     <row r="36" spans="1:40" ht="14.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="10">
@@ -4957,8 +5138,8 @@
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="38">
+      <c r="H36" s="71"/>
+      <c r="I36" s="37">
         <v>10</v>
       </c>
       <c r="J36" s="12">
@@ -4988,10 +5169,10 @@
       <c r="R36" s="12">
         <v>10</v>
       </c>
-      <c r="S36" s="39">
-        <v>10</v>
-      </c>
-      <c r="T36" s="38">
+      <c r="S36" s="38">
+        <v>10</v>
+      </c>
+      <c r="T36" s="37">
         <v>8</v>
       </c>
       <c r="U36" s="12">
@@ -5021,14 +5202,18 @@
       <c r="AC36" s="12">
         <v>10</v>
       </c>
-      <c r="AD36" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="13"/>
+      <c r="AD36" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="47">
+        <v>13</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>13</v>
+      </c>
       <c r="AG36" s="13"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="21">
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="20">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -5038,20 +5223,22 @@
       </c>
       <c r="AK36" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="15">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM36" s="14">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>72.666666666666657</v>
       </c>
       <c r="AN36" s="10"/>
     </row>
     <row r="37" spans="1:40" ht="14.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>8</v>
       </c>
       <c r="C37" s="11">
@@ -5065,8 +5252,8 @@
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="38">
+      <c r="H37" s="70"/>
+      <c r="I37" s="37">
         <v>10</v>
       </c>
       <c r="J37" s="12">
@@ -5096,10 +5283,10 @@
       <c r="R37" s="12">
         <v>10</v>
       </c>
-      <c r="S37" s="39">
-        <v>10</v>
-      </c>
-      <c r="T37" s="38">
+      <c r="S37" s="38">
+        <v>10</v>
+      </c>
+      <c r="T37" s="37">
         <v>8</v>
       </c>
       <c r="U37" s="12">
@@ -5129,14 +5316,18 @@
       <c r="AC37" s="12">
         <v>10</v>
       </c>
-      <c r="AD37" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="13"/>
+      <c r="AD37" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE37" s="47">
+        <v>13</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>14</v>
+      </c>
       <c r="AG37" s="13"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="21">
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="20">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -5146,20 +5337,22 @@
       </c>
       <c r="AK37" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="14"/>
-      <c r="AM37" s="15">
+        <v>9</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM37" s="14">
         <f t="shared" si="3"/>
-        <v>57.545454545454547</v>
+        <v>76.545454545454547</v>
       </c>
       <c r="AN37" s="10"/>
     </row>
     <row r="38" spans="1:40" ht="14.25">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>8</v>
       </c>
       <c r="C38" s="11">
@@ -5173,8 +5366,8 @@
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="38">
+      <c r="H38" s="71"/>
+      <c r="I38" s="37">
         <v>9</v>
       </c>
       <c r="J38" s="12">
@@ -5204,10 +5397,10 @@
       <c r="R38" s="12">
         <v>10</v>
       </c>
-      <c r="S38" s="39">
-        <v>10</v>
-      </c>
-      <c r="T38" s="38">
+      <c r="S38" s="38">
+        <v>10</v>
+      </c>
+      <c r="T38" s="37">
         <v>8</v>
       </c>
       <c r="U38" s="12">
@@ -5237,14 +5430,18 @@
       <c r="AC38" s="12">
         <v>10</v>
       </c>
-      <c r="AD38" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="13"/>
+      <c r="AD38" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="47">
+        <v>13</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>14</v>
+      </c>
       <c r="AG38" s="13"/>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="21">
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="20">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -5254,17 +5451,19 @@
       </c>
       <c r="AK38" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="14"/>
-      <c r="AM38" s="15">
+        <v>9</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM38" s="14">
         <f t="shared" si="3"/>
-        <v>58.363636363636367</v>
+        <v>77.363636363636374</v>
       </c>
       <c r="AN38" s="10"/>
     </row>
     <row r="39" spans="1:40" ht="14.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="10">
@@ -5281,8 +5480,8 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="38">
+      <c r="H39" s="70"/>
+      <c r="I39" s="37">
         <v>9</v>
       </c>
       <c r="J39" s="12">
@@ -5312,10 +5511,10 @@
       <c r="R39" s="12">
         <v>10</v>
       </c>
-      <c r="S39" s="39">
-        <v>10</v>
-      </c>
-      <c r="T39" s="38">
+      <c r="S39" s="38">
+        <v>10</v>
+      </c>
+      <c r="T39" s="37">
         <v>6</v>
       </c>
       <c r="U39" s="12">
@@ -5345,14 +5544,18 @@
       <c r="AC39" s="12">
         <v>10</v>
       </c>
-      <c r="AD39" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="13"/>
+      <c r="AD39" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE39" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>12</v>
+      </c>
       <c r="AG39" s="13"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="21">
+      <c r="AH39" s="48"/>
+      <c r="AI39" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -5362,17 +5565,19 @@
       </c>
       <c r="AK39" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="14"/>
-      <c r="AM39" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM39" s="14">
         <f t="shared" si="3"/>
-        <v>55.909090909090907</v>
+        <v>73.909090909090907</v>
       </c>
       <c r="AN39" s="10"/>
     </row>
     <row r="40" spans="1:40" ht="14.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="10">
@@ -5389,8 +5594,8 @@
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="38">
+      <c r="H40" s="71"/>
+      <c r="I40" s="37">
         <v>10</v>
       </c>
       <c r="J40" s="12">
@@ -5420,10 +5625,10 @@
       <c r="R40" s="12">
         <v>10</v>
       </c>
-      <c r="S40" s="39">
-        <v>10</v>
-      </c>
-      <c r="T40" s="38">
+      <c r="S40" s="38">
+        <v>10</v>
+      </c>
+      <c r="T40" s="37">
         <v>6</v>
       </c>
       <c r="U40" s="12">
@@ -5453,14 +5658,18 @@
       <c r="AC40" s="12">
         <v>10</v>
       </c>
-      <c r="AD40" s="39">
-        <v>9</v>
-      </c>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="13"/>
+      <c r="AD40" s="38">
+        <v>9</v>
+      </c>
+      <c r="AE40" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>12</v>
+      </c>
       <c r="AG40" s="13"/>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="21">
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="20">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -5470,143 +5679,151 @@
       </c>
       <c r="AK40" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="15">
+        <v>8</v>
+      </c>
+      <c r="AL40" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM40" s="14">
         <f t="shared" si="3"/>
-        <v>56.454545454545453</v>
+        <v>74.454545454545453</v>
       </c>
       <c r="AN40" s="10"/>
     </row>
-    <row r="41" spans="1:40" s="66" customFormat="1" ht="14.25">
-      <c r="A41" s="53" t="s">
+    <row r="41" spans="1:40" s="64" customFormat="1" ht="14.25">
+      <c r="A41" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="54">
-        <v>10</v>
-      </c>
-      <c r="C41" s="55">
+      <c r="B41" s="53">
+        <v>10</v>
+      </c>
+      <c r="C41" s="54">
         <v>202202143</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="54">
+      <c r="E41" s="53">
         <v>1075569611</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="56">
-        <v>8</v>
-      </c>
-      <c r="J41" s="57">
-        <v>10</v>
-      </c>
-      <c r="K41" s="57">
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="55">
+        <v>8</v>
+      </c>
+      <c r="J41" s="56">
+        <v>10</v>
+      </c>
+      <c r="K41" s="56">
         <v>7</v>
       </c>
-      <c r="L41" s="57">
-        <v>9</v>
-      </c>
-      <c r="M41" s="57">
-        <v>8</v>
-      </c>
-      <c r="N41" s="57">
-        <v>10</v>
-      </c>
-      <c r="O41" s="57">
-        <v>8</v>
-      </c>
-      <c r="P41" s="57">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="58">
+      <c r="L41" s="56">
+        <v>9</v>
+      </c>
+      <c r="M41" s="56">
+        <v>8</v>
+      </c>
+      <c r="N41" s="56">
+        <v>10</v>
+      </c>
+      <c r="O41" s="56">
+        <v>8</v>
+      </c>
+      <c r="P41" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="57">
         <v>0</v>
       </c>
-      <c r="R41" s="57">
-        <v>8</v>
-      </c>
-      <c r="S41" s="59">
-        <v>9</v>
-      </c>
-      <c r="T41" s="56">
+      <c r="R41" s="56">
+        <v>8</v>
+      </c>
+      <c r="S41" s="58">
+        <v>9</v>
+      </c>
+      <c r="T41" s="55">
         <v>5</v>
       </c>
-      <c r="U41" s="57">
-        <v>10</v>
-      </c>
-      <c r="V41" s="57">
-        <v>8</v>
-      </c>
-      <c r="W41" s="57">
-        <v>10</v>
-      </c>
-      <c r="X41" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="57">
-        <v>10</v>
-      </c>
-      <c r="Z41" s="57">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="57">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="57">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="57">
-        <v>10</v>
-      </c>
-      <c r="AD41" s="59">
-        <v>10</v>
-      </c>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="61"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="63">
+      <c r="U41" s="56">
+        <v>10</v>
+      </c>
+      <c r="V41" s="56">
+        <v>8</v>
+      </c>
+      <c r="W41" s="56">
+        <v>10</v>
+      </c>
+      <c r="X41" s="56">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="56">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="56">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="56">
+        <v>9</v>
+      </c>
+      <c r="AB41" s="56">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="56">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="58">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="59">
+        <v>12</v>
+      </c>
+      <c r="AF41" s="60">
+        <v>13</v>
+      </c>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="62">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="AJ41" s="57">
+      <c r="AJ41" s="56">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="AK41" s="57">
+      <c r="AK41" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="65">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL41" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM41" s="63">
         <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="AN41" s="54"/>
+        <v>69.333333333333343</v>
+      </c>
+      <c r="AN41" s="53"/>
     </row>
     <row r="42" spans="1:40" ht="15" thickBot="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="29">
-        <v>10</v>
-      </c>
-      <c r="C42" s="30">
+      <c r="B42" s="28">
+        <v>10</v>
+      </c>
+      <c r="C42" s="29">
         <v>202202146</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <v>1034054104</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="38">
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="37">
         <v>9</v>
       </c>
       <c r="J42" s="12">
@@ -5636,10 +5853,10 @@
       <c r="R42" s="12">
         <v>10</v>
       </c>
-      <c r="S42" s="39">
-        <v>10</v>
-      </c>
-      <c r="T42" s="38">
+      <c r="S42" s="38">
+        <v>10</v>
+      </c>
+      <c r="T42" s="37">
         <v>5</v>
       </c>
       <c r="U42" s="12">
@@ -5669,14 +5886,18 @@
       <c r="AC42" s="12">
         <v>10</v>
       </c>
-      <c r="AD42" s="39">
-        <v>10</v>
-      </c>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="13"/>
+      <c r="AD42" s="38">
+        <v>10</v>
+      </c>
+      <c r="AE42" s="47">
+        <v>12</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>13</v>
+      </c>
       <c r="AG42" s="13"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="21">
+      <c r="AH42" s="48"/>
+      <c r="AI42" s="20">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
@@ -5686,806 +5907,808 @@
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="15">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>10</v>
+      </c>
+      <c r="AM42" s="14">
         <f t="shared" si="3"/>
-        <v>52.909090909090907</v>
+        <v>71.242424242424249</v>
       </c>
       <c r="AN42" s="10"/>
     </row>
     <row r="43" spans="1:40" ht="12.75">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <f>AVERAGE(I2:I22)</f>
         <v>9.25</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <f>AVERAGE(J2:J22)</f>
         <v>8.2750000000000004</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="18">
         <f t="shared" ref="K43:AM43" si="4">AVERAGE(K2:K22)</f>
         <v>7.2631578947368425</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="18">
         <f>AVERAGE(L2:L29)</f>
         <v>8.3076923076923084</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="18">
         <f>AVERAGE(M2:M29)</f>
         <v>8.8076923076923084</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="18">
         <f>AVERAGE(N2:N29)</f>
         <v>9.384615384615385</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="18">
         <f>AVERAGE(O2:O29)</f>
         <v>9.8076923076923084</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="18">
         <f>AVERAGE(P2:P23)</f>
         <v>10</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="18">
         <f>AVERAGE(Q2:Q29)</f>
         <v>9.0384615384615383</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R43" s="18">
         <f>AVERAGE(R2:R29)</f>
         <v>9.2307692307692299</v>
       </c>
-      <c r="S43" s="41">
+      <c r="S43" s="40">
         <f>AVERAGE(S2:S29)</f>
         <v>9.384615384615385</v>
       </c>
-      <c r="T43" s="40">
+      <c r="T43" s="39">
         <f t="shared" si="4"/>
         <v>7.2</v>
       </c>
-      <c r="U43" s="19">
+      <c r="U43" s="18">
         <f>AVERAGE(U2:U29)</f>
         <v>9.1111111111111107</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="18">
         <f t="shared" si="4"/>
         <v>8.7894736842105257</v>
       </c>
-      <c r="W43" s="19">
+      <c r="W43" s="18">
         <f>AVERAGE(W2:W29)</f>
         <v>8.8461538461538467</v>
       </c>
-      <c r="X43" s="19">
+      <c r="X43" s="18">
         <f t="shared" si="4"/>
         <v>9.8947368421052637</v>
       </c>
-      <c r="Y43" s="19">
+      <c r="Y43" s="18">
         <f t="shared" si="4"/>
         <v>9.5789473684210531</v>
       </c>
-      <c r="Z43" s="19">
+      <c r="Z43" s="18">
         <f>AVERAGE(Z2:Z29)</f>
         <v>9.384615384615385</v>
       </c>
-      <c r="AA43" s="19">
+      <c r="AA43" s="18">
         <f t="shared" si="4"/>
         <v>9.7368421052631575</v>
       </c>
-      <c r="AB43" s="19">
+      <c r="AB43" s="18">
         <f>AVERAGE(AB2:AB29)</f>
         <v>9.3076923076923084</v>
       </c>
-      <c r="AC43" s="19">
+      <c r="AC43" s="18">
         <f t="shared" si="4"/>
         <v>9.2631578947368425</v>
       </c>
-      <c r="AD43" s="41">
+      <c r="AD43" s="40">
         <f>AVERAGE(AD2:AD29)</f>
         <v>9.1538461538461533</v>
       </c>
-      <c r="AE43" s="40" t="e">
+      <c r="AE43" s="39">
+        <f>AVERAGE(AE2:AE29)</f>
+        <v>11.307692307692308</v>
+      </c>
+      <c r="AF43" s="18">
+        <f>AVERAGE(AF2:AF29)</f>
+        <v>11.346153846153847</v>
+      </c>
+      <c r="AG43" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF43" s="19" t="e">
+      <c r="AH43" s="40" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG43" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH43" s="41" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI43" s="35">
+      <c r="AI43" s="34">
         <f t="shared" si="4"/>
         <v>90.261904761904759</v>
       </c>
-      <c r="AJ43" s="19">
+      <c r="AJ43" s="18">
         <f t="shared" si="4"/>
         <v>91.333333333333329</v>
       </c>
-      <c r="AK43" s="19">
+      <c r="AK43" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="19" t="e">
+        <v>6.7777777777777786</v>
+      </c>
+      <c r="AL43" s="18">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM43" s="19">
+        <v>10</v>
+      </c>
+      <c r="AM43" s="18">
         <f t="shared" si="4"/>
-        <v>49.525974025974023</v>
-      </c>
-      <c r="AN43" s="19"/>
+        <v>65.827561327561327</v>
+      </c>
+      <c r="AN43" s="18"/>
     </row>
     <row r="44" spans="1:40" ht="12.75">
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="39">
         <f>AVERAGE(I23:I42)</f>
         <v>9.4210526315789469</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <f t="shared" ref="J44:AM44" si="5">AVERAGE(J23:J42)</f>
         <v>9.1578947368421044</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="18">
         <f t="shared" si="5"/>
         <v>7.7894736842105265</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="18">
         <f t="shared" si="5"/>
         <v>8.8947368421052637</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="18">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="18">
         <f t="shared" si="5"/>
         <v>9.4444444444444446</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="18">
         <f t="shared" si="5"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="18">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="Q44" s="18">
         <f t="shared" si="5"/>
         <v>8.8888888888888893</v>
       </c>
-      <c r="R44" s="19">
+      <c r="R44" s="18">
         <f t="shared" si="5"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="S44" s="41">
+      <c r="S44" s="40">
         <f t="shared" si="5"/>
         <v>9.8888888888888893</v>
       </c>
-      <c r="T44" s="40">
+      <c r="T44" s="39">
         <f t="shared" si="5"/>
         <v>7.8947368421052628</v>
       </c>
-      <c r="U44" s="19">
+      <c r="U44" s="18">
         <f t="shared" si="5"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="V44" s="19">
+      <c r="V44" s="18">
         <f t="shared" si="5"/>
         <v>9.3157894736842106</v>
       </c>
-      <c r="W44" s="19">
+      <c r="W44" s="18">
         <f t="shared" si="5"/>
         <v>9.7894736842105257</v>
       </c>
-      <c r="X44" s="19">
+      <c r="X44" s="18">
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="Y44" s="19">
+      <c r="Y44" s="18">
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="Z44" s="19">
+      <c r="Z44" s="18">
         <f t="shared" si="5"/>
         <v>8.6666666666666661</v>
       </c>
-      <c r="AA44" s="19">
+      <c r="AA44" s="18">
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="AB44" s="19">
+      <c r="AB44" s="18">
         <f t="shared" si="5"/>
         <v>9.7777777777777786</v>
       </c>
-      <c r="AC44" s="19">
+      <c r="AC44" s="18">
         <f t="shared" si="5"/>
         <v>9.8888888888888893</v>
       </c>
-      <c r="AD44" s="41">
+      <c r="AD44" s="40">
         <f t="shared" si="5"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="AE44" s="40" t="e">
+      <c r="AE44" s="39">
+        <f t="shared" si="5"/>
+        <v>12.111111111111111</v>
+      </c>
+      <c r="AF44" s="18">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AG44" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF44" s="19" t="e">
+      <c r="AH44" s="40" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG44" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH44" s="41" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI44" s="35">
+      <c r="AI44" s="34">
         <f t="shared" si="5"/>
         <v>94.7</v>
       </c>
-      <c r="AJ44" s="19">
+      <c r="AJ44" s="18">
         <f t="shared" si="5"/>
         <v>94.85</v>
       </c>
-      <c r="AK44" s="19">
+      <c r="AK44" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="19" t="e">
+        <v>7.2333333333333343</v>
+      </c>
+      <c r="AL44" s="18">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM44" s="19">
+        <v>10</v>
+      </c>
+      <c r="AM44" s="18">
         <f t="shared" si="5"/>
-        <v>51.695454545454552</v>
-      </c>
-      <c r="AN44" s="19"/>
+        <v>68.928787878787873</v>
+      </c>
+      <c r="AN44" s="18"/>
     </row>
     <row r="45" spans="1:40" ht="12.75">
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="39">
         <f>AVERAGE(I2:I42)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="18">
         <f t="shared" ref="J45:AM45" si="6">AVERAGE(J2:J42)</f>
         <v>8.7051282051282044</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="18">
         <f t="shared" si="6"/>
         <v>7.5263157894736841</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="18">
         <f t="shared" si="6"/>
         <v>8.526315789473685</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="18">
         <f t="shared" si="6"/>
         <v>8.7837837837837842</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="18">
         <f t="shared" si="6"/>
         <v>9.4594594594594597</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="18">
         <f t="shared" si="6"/>
         <v>9.7837837837837842</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="18">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="Q45" s="18">
         <f t="shared" si="6"/>
         <v>8.8648648648648649</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R45" s="18">
         <f t="shared" si="6"/>
         <v>9.4054054054054053</v>
       </c>
-      <c r="S45" s="41">
+      <c r="S45" s="40">
         <f t="shared" si="6"/>
         <v>9.5405405405405403</v>
       </c>
-      <c r="T45" s="40">
+      <c r="T45" s="39">
         <f t="shared" si="6"/>
         <v>7.5384615384615383</v>
       </c>
-      <c r="U45" s="19">
+      <c r="U45" s="18">
         <f t="shared" si="6"/>
         <v>9.1794871794871788</v>
       </c>
-      <c r="V45" s="19">
+      <c r="V45" s="18">
         <f t="shared" si="6"/>
         <v>9.0526315789473681</v>
       </c>
-      <c r="W45" s="19">
+      <c r="W45" s="18">
         <f t="shared" si="6"/>
         <v>9.2105263157894743</v>
       </c>
-      <c r="X45" s="19">
+      <c r="X45" s="18">
         <f t="shared" si="6"/>
         <v>9.8378378378378386</v>
       </c>
-      <c r="Y45" s="19">
+      <c r="Y45" s="18">
         <f t="shared" si="6"/>
         <v>9.6756756756756754</v>
       </c>
-      <c r="Z45" s="19">
+      <c r="Z45" s="18">
         <f t="shared" si="6"/>
         <v>9.2432432432432439</v>
       </c>
-      <c r="AA45" s="19">
+      <c r="AA45" s="18">
         <f t="shared" si="6"/>
         <v>9.7567567567567561</v>
       </c>
-      <c r="AB45" s="19">
+      <c r="AB45" s="18">
         <f t="shared" si="6"/>
         <v>9.486486486486486</v>
       </c>
-      <c r="AC45" s="19">
+      <c r="AC45" s="18">
         <f t="shared" si="6"/>
         <v>9.5675675675675684</v>
       </c>
-      <c r="AD45" s="41">
+      <c r="AD45" s="40">
         <f t="shared" si="6"/>
         <v>9.1621621621621614</v>
       </c>
-      <c r="AE45" s="40" t="e">
+      <c r="AE45" s="39">
+        <f t="shared" si="6"/>
+        <v>11.567567567567568</v>
+      </c>
+      <c r="AF45" s="18">
+        <f t="shared" si="6"/>
+        <v>11.702702702702704</v>
+      </c>
+      <c r="AG45" s="18" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF45" s="19" t="e">
+      <c r="AH45" s="40" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG45" s="19" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH45" s="41" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI45" s="35">
+      <c r="AI45" s="34">
         <f t="shared" si="6"/>
         <v>92.426829268292678</v>
       </c>
-      <c r="AJ45" s="19">
+      <c r="AJ45" s="18">
         <f t="shared" si="6"/>
         <v>93.048780487804876</v>
       </c>
-      <c r="AK45" s="19">
+      <c r="AK45" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="19" t="e">
+        <v>7</v>
+      </c>
+      <c r="AL45" s="18">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM45" s="19">
+        <v>10</v>
+      </c>
+      <c r="AM45" s="18">
         <f t="shared" si="6"/>
-        <v>50.584257206208427</v>
-      </c>
-      <c r="AN45" s="19"/>
+        <v>67.340354767184053</v>
+      </c>
+      <c r="AN45" s="18"/>
     </row>
     <row r="46" spans="1:40" ht="12.75">
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="39">
         <f>STDEV(I2:I42)</f>
         <v>1.6910497103299518</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="18">
         <f t="shared" ref="J46:AM46" si="7">STDEV(J2:J42)</f>
         <v>2.1695195584990348</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="18">
         <f t="shared" si="7"/>
         <v>1.7357425719155961</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="18">
         <f t="shared" si="7"/>
         <v>1.8415158577483244</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="18">
         <f t="shared" si="7"/>
         <v>1.4168653808698666</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="18">
         <f t="shared" si="7"/>
         <v>0.90045033778149652</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="18">
         <f t="shared" si="7"/>
         <v>0.53412103992005922</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P46" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="Q46" s="18">
         <f t="shared" si="7"/>
         <v>2.22563551675773</v>
       </c>
-      <c r="R46" s="19">
+      <c r="R46" s="18">
         <f t="shared" si="7"/>
         <v>1.8327189797835493</v>
       </c>
-      <c r="S46" s="41">
+      <c r="S46" s="40">
         <f t="shared" si="7"/>
         <v>1.6598961579735205</v>
       </c>
-      <c r="T46" s="40">
+      <c r="T46" s="39">
         <f t="shared" si="7"/>
         <v>1.9979746830248113</v>
       </c>
-      <c r="U46" s="19">
+      <c r="U46" s="18">
         <f t="shared" si="7"/>
         <v>1.9449231465237753</v>
       </c>
-      <c r="V46" s="19">
+      <c r="V46" s="18">
         <f t="shared" si="7"/>
         <v>1.7544902766523713</v>
       </c>
-      <c r="W46" s="19">
+      <c r="W46" s="18">
         <f t="shared" si="7"/>
         <v>1.8032687248115173</v>
       </c>
-      <c r="X46" s="19">
+      <c r="X46" s="18">
         <f t="shared" si="7"/>
         <v>0.68773030540537694</v>
       </c>
-      <c r="Y46" s="19">
+      <c r="Y46" s="18">
         <f t="shared" si="7"/>
         <v>0.74736775322364446</v>
       </c>
-      <c r="Z46" s="19">
+      <c r="Z46" s="18">
         <f t="shared" si="7"/>
         <v>0.98334478539674353</v>
       </c>
-      <c r="AA46" s="19">
+      <c r="AA46" s="18">
         <f t="shared" si="7"/>
         <v>0.43495883620083997</v>
       </c>
-      <c r="AB46" s="19">
+      <c r="AB46" s="18">
         <f t="shared" si="7"/>
         <v>1.6603483841521813</v>
       </c>
-      <c r="AC46" s="19">
+      <c r="AC46" s="18">
         <f t="shared" si="7"/>
         <v>1.6921475595713775</v>
       </c>
-      <c r="AD46" s="41">
+      <c r="AD46" s="40">
         <f t="shared" si="7"/>
         <v>1.6246967839075823</v>
       </c>
-      <c r="AE46" s="40" t="e">
+      <c r="AE46" s="39">
+        <f t="shared" si="7"/>
+        <v>2.3867753762548936</v>
+      </c>
+      <c r="AF46" s="18">
+        <f t="shared" si="7"/>
+        <v>2.6232387198616505</v>
+      </c>
+      <c r="AG46" s="18" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF46" s="19" t="e">
+      <c r="AH46" s="40" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG46" s="19" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH46" s="41" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI46" s="35">
+      <c r="AI46" s="34">
         <f t="shared" si="7"/>
         <v>26.302462093787394</v>
       </c>
-      <c r="AJ46" s="19">
+      <c r="AJ46" s="18">
         <f t="shared" si="7"/>
         <v>29.127264907224131</v>
       </c>
-      <c r="AK46" s="19">
+      <c r="AK46" s="18">
+        <f t="shared" si="7"/>
+        <v>2.7958302285129322</v>
+      </c>
+      <c r="AL46" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="19" t="e">
+      <c r="AM46" s="18">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM46" s="19">
-        <f t="shared" si="7"/>
-        <v>15.054815684936077</v>
-      </c>
-      <c r="AN46" s="19"/>
+        <v>17.460665520591032</v>
+      </c>
+      <c r="AN46" s="18"/>
     </row>
     <row r="47" spans="1:40" ht="12.75">
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="39">
         <f>MAX(I2:I42)</f>
         <v>10</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="18">
         <f t="shared" ref="J47:AM47" si="8">MAX(J2:J42)</f>
         <v>10</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="18">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="R47" s="19">
+      <c r="R47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="S47" s="41">
+      <c r="S47" s="40">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="T47" s="40">
+      <c r="T47" s="39">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="U47" s="19">
+      <c r="U47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="V47" s="19">
+      <c r="V47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="W47" s="19">
+      <c r="W47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="X47" s="19">
+      <c r="X47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Y47" s="19">
+      <c r="Y47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="Z47" s="19">
+      <c r="Z47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AA47" s="19">
+      <c r="AA47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AB47" s="19">
+      <c r="AB47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AC47" s="19">
+      <c r="AC47" s="18">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AD47" s="41">
+      <c r="AD47" s="40">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AE47" s="40">
+      <c r="AE47" s="39">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AF47" s="18">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AG47" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="19">
+      <c r="AH47" s="40">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="35">
+      <c r="AI47" s="34">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="AJ47" s="19">
+      <c r="AJ47" s="18">
         <f t="shared" si="8"/>
         <v>109</v>
       </c>
-      <c r="AK47" s="19">
+      <c r="AK47" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="19">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AL47" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM47" s="19">
+        <v>10</v>
+      </c>
+      <c r="AM47" s="18">
         <f t="shared" si="8"/>
-        <v>59.181818181818187</v>
-      </c>
-      <c r="AN47" s="19"/>
+        <v>78.848484848484858</v>
+      </c>
+      <c r="AN47" s="18"/>
     </row>
     <row r="48" spans="1:40" ht="13.5" thickBot="1">
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="42">
+      <c r="I48" s="41">
         <f>MIN(I2:I42)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J48" s="42">
         <f t="shared" ref="J48:AM48" si="9">MIN(J2:J42)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="43">
+      <c r="K48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L48" s="43">
+      <c r="L48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="42">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="N48" s="43">
+      <c r="N48" s="42">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="42">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="P48" s="43">
+      <c r="P48" s="42">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="Q48" s="43">
+      <c r="Q48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R48" s="43">
+      <c r="R48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S48" s="44">
+      <c r="S48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T48" s="42">
+      <c r="T48" s="41">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="U48" s="43">
+      <c r="U48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V48" s="43">
+      <c r="V48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W48" s="43">
+      <c r="W48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X48" s="43">
+      <c r="X48" s="42">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="Y48" s="43">
+      <c r="Y48" s="42">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="Z48" s="43">
+      <c r="Z48" s="42">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="AA48" s="43">
+      <c r="AA48" s="42">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="AB48" s="43">
+      <c r="AB48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC48" s="43">
+      <c r="AC48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="44">
+      <c r="AD48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="42">
+      <c r="AE48" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="43">
+      <c r="AF48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG48" s="43">
+      <c r="AG48" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AH48" s="44">
+      <c r="AH48" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI48" s="35">
+      <c r="AI48" s="34">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="AJ48" s="19">
+      <c r="AJ48" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AK48" s="19">
+      <c r="AK48" s="18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL48" s="19">
+      <c r="AL48" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="19">
+        <v>10</v>
+      </c>
+      <c r="AM48" s="18">
         <f t="shared" si="9"/>
-        <v>2.7272727272727275</v>
-      </c>
-      <c r="AN48" s="19"/>
+        <v>12.727272727272727</v>
+      </c>
+      <c r="AN48" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6529,21 +6752,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6725,31 +6939,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6765,4 +6980,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/attachments/2023년_명부_및_점수.xlsx
+++ b/attachments/2023년_명부_및_점수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SURIN\Desktop\1학기\전자회로실험\ISL-Homepage.github.io\attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\조교\ISL-Homepage.github.io\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EE9F5-D346-4211-8AA1-06E1A73F02B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6B4AC4-5BA5-4BC3-B8BB-54ADA9EEF527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37815" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="AH2" s="17">
-        <f>SUM(H2:R2)</f>
+        <f t="shared" ref="AH2:AH38" si="0">SUM(H2:R2)</f>
         <v>100</v>
       </c>
       <c r="AI2" s="4">
-        <f>SUM(S2:AC2)</f>
+        <f t="shared" ref="AI2:AI38" si="1">SUM(S2:AC2)</f>
         <v>106</v>
       </c>
       <c r="AJ2" s="4">
-        <f>(( AD2 +AE2+AF2)/3) +AG2</f>
+        <f t="shared" ref="AJ2:AJ38" si="2">(( AD2 +AE2+AF2)/3) +AG2</f>
         <v>0</v>
       </c>
       <c r="AK2" s="6">
         <v>8</v>
       </c>
       <c r="AL2" s="7">
-        <f>+AH2/(11*10)*30+AI2/(11*10)*30+AJ2+AK2</f>
+        <f t="shared" ref="AL2:AL38" si="3">+AH2/(11*10)*30+AI2/(11*10)*30+AJ2+AK2</f>
         <v>64.181818181818187</v>
       </c>
       <c r="AM2" s="2" t="s">
@@ -1556,22 +1556,22 @@
         <v>15</v>
       </c>
       <c r="AH3" s="18">
-        <f>SUM(H3:R3)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="AI3" s="10">
-        <f>SUM(S3:AC3)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AJ3" s="10">
-        <f>(( AD3 +AE3+AF3)/3) +AG3</f>
+        <f t="shared" si="2"/>
         <v>25.333333333333336</v>
       </c>
       <c r="AK3" s="64">
         <v>10</v>
       </c>
       <c r="AL3" s="12">
-        <f>+AH3/(11*10)*30+AI3/(11*10)*30+AJ3+AK3</f>
+        <f t="shared" si="3"/>
         <v>92.333333333333343</v>
       </c>
       <c r="AM3" s="2" t="s">
@@ -1675,22 +1675,22 @@
         <v>15</v>
       </c>
       <c r="AH4" s="17">
-        <f>SUM(H4:R4)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="AI4" s="4">
-        <f>SUM(S4:AC4)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AJ4" s="4">
-        <f>(( AD4 +AE4+AF4)/3) +AG4</f>
+        <f t="shared" si="2"/>
         <v>23.333333333333336</v>
       </c>
       <c r="AK4" s="6">
         <v>10</v>
       </c>
       <c r="AL4" s="7">
-        <f>+AH4/(11*10)*30+AI4/(11*10)*30+AJ4+AK4</f>
+        <f t="shared" si="3"/>
         <v>88.424242424242436</v>
       </c>
       <c r="AM4" s="2" t="s">
@@ -1794,22 +1794,22 @@
         <v>15</v>
       </c>
       <c r="AH5" s="17">
-        <f>SUM(H5:R5)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AI5" s="4">
-        <f>SUM(S5:AC5)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="AJ5" s="4">
-        <f>(( AD5 +AE5+AF5)/3) +AG5</f>
+        <f t="shared" si="2"/>
         <v>28.666666666666664</v>
       </c>
       <c r="AK5" s="6">
         <v>10</v>
       </c>
       <c r="AL5" s="7">
-        <f>+AH5/(11*10)*30+AI5/(11*10)*30+AJ5+AK5</f>
+        <f t="shared" si="3"/>
         <v>95.121212121212125</v>
       </c>
       <c r="AM5" s="2" t="s">
@@ -1913,22 +1913,22 @@
         <v>15</v>
       </c>
       <c r="AH6" s="18">
-        <f>SUM(H6:R6)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="AI6" s="10">
-        <f>SUM(S6:AC6)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AJ6" s="10">
-        <f>(( AD6 +AE6+AF6)/3) +AG6</f>
+        <f t="shared" si="2"/>
         <v>25.333333333333336</v>
       </c>
       <c r="AK6" s="64">
         <v>10</v>
       </c>
       <c r="AL6" s="12">
-        <f>+AH6/(11*10)*30+AI6/(11*10)*30+AJ6+AK6</f>
+        <f t="shared" si="3"/>
         <v>93.151515151515156</v>
       </c>
       <c r="AM6" s="2" t="s">
@@ -2032,22 +2032,22 @@
         <v>15</v>
       </c>
       <c r="AH7" s="17">
-        <f>SUM(H7:R7)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="AI7" s="4">
-        <f>SUM(S7:AC7)</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="AJ7" s="4">
-        <f>(( AD7 +AE7+AF7)/3) +AG7</f>
+        <f t="shared" si="2"/>
         <v>29.666666666666664</v>
       </c>
       <c r="AK7" s="6">
         <v>10</v>
       </c>
       <c r="AL7" s="7">
-        <f>+AH7/(11*10)*30+AI7/(11*10)*30+AJ7+AK7</f>
+        <f t="shared" si="3"/>
         <v>98.848484848484844</v>
       </c>
       <c r="AM7" s="2" t="s">
@@ -2151,22 +2151,22 @@
         <v>15</v>
       </c>
       <c r="AH8" s="18">
-        <f>SUM(H8:R8)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="AI8" s="10">
-        <f>SUM(S8:AC8)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="AJ8" s="10">
-        <f>(( AD8 +AE8+AF8)/3) +AG8</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK8" s="64">
         <v>10</v>
       </c>
       <c r="AL8" s="12">
-        <f>+AH8/(11*10)*30+AI8/(11*10)*30+AJ8+AK8</f>
+        <f t="shared" si="3"/>
         <v>92.121212121212125</v>
       </c>
       <c r="AM8" s="2" t="s">
@@ -2270,22 +2270,22 @@
         <v>15</v>
       </c>
       <c r="AH9" s="17">
-        <f>SUM(H9:R9)</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="AI9" s="4">
-        <f>SUM(S9:AC9)</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="AJ9" s="4">
-        <f>(( AD9 +AE9+AF9)/3) +AG9</f>
+        <f t="shared" si="2"/>
         <v>29.666666666666664</v>
       </c>
       <c r="AK9" s="6">
         <v>10</v>
       </c>
       <c r="AL9" s="7">
-        <f>+AH9/(11*10)*30+AI9/(11*10)*30+AJ9+AK9</f>
+        <f t="shared" si="3"/>
         <v>98.575757575757578</v>
       </c>
       <c r="AM9" s="2" t="s">
@@ -2389,22 +2389,22 @@
         <v>15</v>
       </c>
       <c r="AH10" s="18">
-        <f>SUM(H10:R10)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="AI10" s="10">
-        <f>SUM(S10:AC10)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="AJ10" s="10">
-        <f>(( AD10 +AE10+AF10)/3) +AG10</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK10" s="64">
         <v>10</v>
       </c>
       <c r="AL10" s="12">
-        <f>+AH10/(11*10)*30+AI10/(11*10)*30+AJ10+AK10</f>
+        <f t="shared" si="3"/>
         <v>92.939393939393938</v>
       </c>
       <c r="AM10" s="2" t="s">
@@ -2508,22 +2508,22 @@
         <v>15</v>
       </c>
       <c r="AH11" s="17">
-        <f>SUM(H11:R11)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="AI11" s="4">
-        <f>SUM(S11:AC11)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="AJ11" s="4">
-        <f>(( AD11 +AE11+AF11)/3) +AG11</f>
+        <f t="shared" si="2"/>
         <v>26.666666666666664</v>
       </c>
       <c r="AK11" s="6">
         <v>10</v>
       </c>
       <c r="AL11" s="7">
-        <f>+AH11/(11*10)*30+AI11/(11*10)*30+AJ11+AK11</f>
+        <f t="shared" si="3"/>
         <v>93.939393939393938</v>
       </c>
       <c r="AM11" s="2" t="s">
@@ -2627,22 +2627,22 @@
         <v>15</v>
       </c>
       <c r="AH12" s="18">
-        <f>SUM(H12:R12)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AI12" s="10">
-        <f>SUM(S12:AC12)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AJ12" s="10">
-        <f>(( AD12 +AE12+AF12)/3) +AG12</f>
+        <f t="shared" si="2"/>
         <v>26.666666666666664</v>
       </c>
       <c r="AK12" s="64">
         <v>10</v>
       </c>
       <c r="AL12" s="12">
-        <f>+AH12/(11*10)*30+AI12/(11*10)*30+AJ12+AK12</f>
+        <f t="shared" si="3"/>
         <v>92.575757575757564</v>
       </c>
       <c r="AM12" s="2" t="s">
@@ -2746,22 +2746,22 @@
         <v>15</v>
       </c>
       <c r="AH13" s="17">
-        <f>SUM(H13:R13)</f>
+        <f t="shared" si="0"/>
         <v>103.5</v>
       </c>
       <c r="AI13" s="4">
-        <f>SUM(S13:AC13)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="AJ13" s="4">
-        <f>(( AD13 +AE13+AF13)/3) +AG13</f>
+        <f t="shared" si="2"/>
         <v>26.666666666666664</v>
       </c>
       <c r="AK13" s="6">
         <v>10</v>
       </c>
       <c r="AL13" s="7">
-        <f>+AH13/(11*10)*30+AI13/(11*10)*30+AJ13+AK13</f>
+        <f t="shared" si="3"/>
         <v>93.257575757575751</v>
       </c>
       <c r="AM13" s="2" t="s">
@@ -2865,22 +2865,22 @@
         <v>15</v>
       </c>
       <c r="AH14" s="18">
-        <f>SUM(H14:R14)</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="AI14" s="10">
-        <f>SUM(S14:AC14)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AJ14" s="10">
-        <f>(( AD14 +AE14+AF14)/3) +AG14</f>
+        <f t="shared" si="2"/>
         <v>26.666666666666664</v>
       </c>
       <c r="AK14" s="64">
         <v>10</v>
       </c>
       <c r="AL14" s="12">
-        <f>+AH14/(11*10)*30+AI14/(11*10)*30+AJ14+AK14</f>
+        <f t="shared" si="3"/>
         <v>94.484848484848484</v>
       </c>
       <c r="AM14" s="2" t="s">
@@ -2984,22 +2984,22 @@
         <v>15</v>
       </c>
       <c r="AH15" s="17">
-        <f>SUM(H15:R15)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="AI15" s="4">
-        <f>SUM(S15:AC15)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AJ15" s="4">
-        <f>(( AD15 +AE15+AF15)/3) +AG15</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="AK15" s="6">
         <v>10</v>
       </c>
       <c r="AL15" s="7">
-        <f>+AH15/(11*10)*30+AI15/(11*10)*30+AJ15+AK15</f>
+        <f t="shared" si="3"/>
         <v>93.454545454545453</v>
       </c>
       <c r="AM15" s="2" t="s">
@@ -3103,22 +3103,22 @@
         <v>15</v>
       </c>
       <c r="AH16" s="18">
-        <f>SUM(H16:R16)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="AI16" s="10">
-        <f>SUM(S16:AC16)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="AJ16" s="10">
-        <f>(( AD16 +AE16+AF16)/3) +AG16</f>
+        <f t="shared" si="2"/>
         <v>27.666666666666664</v>
       </c>
       <c r="AK16" s="64">
         <v>10</v>
       </c>
       <c r="AL16" s="12">
-        <f>+AH16/(11*10)*30+AI16/(11*10)*30+AJ16+AK16</f>
+        <f t="shared" si="3"/>
         <v>94.939393939393938</v>
       </c>
       <c r="AM16" s="2" t="s">
@@ -3222,22 +3222,22 @@
         <v>15</v>
       </c>
       <c r="AH17" s="17">
-        <f>SUM(H17:R17)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="AI17" s="4">
-        <f>SUM(S17:AC17)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="AJ17" s="4">
-        <f>(( AD17 +AE17+AF17)/3) +AG17</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="AK17" s="6">
         <v>10</v>
       </c>
       <c r="AL17" s="7">
-        <f>+AH17/(11*10)*30+AI17/(11*10)*30+AJ17+AK17</f>
+        <f t="shared" si="3"/>
         <v>93.72727272727272</v>
       </c>
       <c r="AM17" s="2" t="s">
@@ -3341,22 +3341,22 @@
         <v>15</v>
       </c>
       <c r="AH18" s="17">
-        <f>SUM(H18:R18)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="AI18" s="4">
-        <f>SUM(S18:AC18)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AJ18" s="4">
-        <f>(( AD18 +AE18+AF18)/3) +AG18</f>
+        <f t="shared" si="2"/>
         <v>26.333333333333336</v>
       </c>
       <c r="AK18" s="6">
         <v>10</v>
       </c>
       <c r="AL18" s="7">
-        <f>+AH18/(11*10)*30+AI18/(11*10)*30+AJ18+AK18</f>
+        <f t="shared" si="3"/>
         <v>92.787878787878782</v>
       </c>
       <c r="AM18" s="2" t="s">
@@ -3460,22 +3460,22 @@
         <v>15</v>
       </c>
       <c r="AH19" s="18">
-        <f>SUM(H19:R19)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="AI19" s="10">
-        <f>SUM(S19:AC19)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AJ19" s="10">
-        <f>(( AD19 +AE19+AF19)/3) +AG19</f>
+        <f t="shared" si="2"/>
         <v>25.333333333333336</v>
       </c>
       <c r="AK19" s="64">
         <v>10</v>
       </c>
       <c r="AL19" s="12">
-        <f>+AH19/(11*10)*30+AI19/(11*10)*30+AJ19+AK19</f>
+        <f t="shared" si="3"/>
         <v>91.51515151515153</v>
       </c>
       <c r="AM19" s="2" t="s">
@@ -3579,22 +3579,22 @@
         <v>15</v>
       </c>
       <c r="AH20" s="17">
-        <f>SUM(H20:R20)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AI20" s="4">
-        <f>SUM(S20:AC20)</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="AJ20" s="4">
-        <f>(( AD20 +AE20+AF20)/3) +AG20</f>
+        <f t="shared" si="2"/>
         <v>26.333333333333336</v>
       </c>
       <c r="AK20" s="6">
         <v>10</v>
       </c>
       <c r="AL20" s="7">
-        <f>+AH20/(11*10)*30+AI20/(11*10)*30+AJ20+AK20</f>
+        <f t="shared" si="3"/>
         <v>92.787878787878782</v>
       </c>
       <c r="AM20" s="2" t="s">
@@ -3698,22 +3698,22 @@
         <v>15</v>
       </c>
       <c r="AH21" s="18">
-        <f>SUM(H21:R21)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AI21" s="10">
-        <f>SUM(S21:AC21)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AJ21" s="10">
-        <f>(( AD21 +AE21+AF21)/3) +AG21</f>
+        <f t="shared" si="2"/>
         <v>25.333333333333336</v>
       </c>
       <c r="AK21" s="64">
         <v>10</v>
       </c>
       <c r="AL21" s="12">
-        <f>+AH21/(11*10)*30+AI21/(11*10)*30+AJ21+AK21</f>
+        <f t="shared" si="3"/>
         <v>90.969696969696969</v>
       </c>
       <c r="AM21" s="2" t="s">
@@ -3817,22 +3817,22 @@
         <v>15</v>
       </c>
       <c r="AH22" s="17">
-        <f>SUM(H22:R22)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="AI22" s="4">
-        <f>SUM(S22:AC22)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="AJ22" s="4">
-        <f>(( AD22 +AE22+AF22)/3) +AG22</f>
+        <f t="shared" si="2"/>
         <v>23.333333333333336</v>
       </c>
       <c r="AK22" s="6">
         <v>10</v>
       </c>
       <c r="AL22" s="7">
-        <f>+AH22/(11*10)*30+AI22/(11*10)*30+AJ22+AK22</f>
+        <f t="shared" si="3"/>
         <v>87.060606060606062</v>
       </c>
       <c r="AM22" s="2" t="s">
@@ -3936,22 +3936,22 @@
         <v>15</v>
       </c>
       <c r="AH23" s="18">
-        <f>SUM(H23:R23)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="AI23" s="10">
-        <f>SUM(S23:AC23)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="AJ23" s="10">
-        <f>(( AD23 +AE23+AF23)/3) +AG23</f>
+        <f t="shared" si="2"/>
         <v>27.666666666666664</v>
       </c>
       <c r="AK23" s="64">
         <v>10</v>
       </c>
       <c r="AL23" s="12">
-        <f>+AH23/(11*10)*30+AI23/(11*10)*30+AJ23+AK23</f>
+        <f t="shared" si="3"/>
         <v>92.757575757575751</v>
       </c>
       <c r="AM23" s="2" t="s">
@@ -4055,22 +4055,22 @@
         <v>15</v>
       </c>
       <c r="AH24" s="17">
-        <f>SUM(H24:R24)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AI24" s="4">
-        <f>SUM(S24:AC24)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AJ24" s="4">
-        <f>(( AD24 +AE24+AF24)/3) +AG24</f>
+        <f t="shared" si="2"/>
         <v>23.333333333333336</v>
       </c>
       <c r="AK24" s="6">
         <v>10</v>
       </c>
       <c r="AL24" s="7">
-        <f>+AH24/(11*10)*30+AI24/(11*10)*30+AJ24+AK24</f>
+        <f t="shared" si="3"/>
         <v>52.969696969696969</v>
       </c>
       <c r="AM24" s="2" t="s">
@@ -4174,22 +4174,22 @@
         <v>15</v>
       </c>
       <c r="AH25" s="17">
-        <f>SUM(H25:R25)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="AI25" s="4">
-        <f>SUM(S25:AC25)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="AJ25" s="4">
-        <f>(( AD25 +AE25+AF25)/3) +AG25</f>
+        <f t="shared" si="2"/>
         <v>27.666666666666664</v>
       </c>
       <c r="AK25" s="6">
         <v>10</v>
       </c>
       <c r="AL25" s="7">
-        <f>+AH25/(11*10)*30+AI25/(11*10)*30+AJ25+AK25</f>
+        <f t="shared" si="3"/>
         <v>89.757575757575751</v>
       </c>
       <c r="AM25" s="2" t="s">
@@ -4293,22 +4293,22 @@
         <v>15</v>
       </c>
       <c r="AH26" s="18">
-        <f>SUM(H26:R26)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AI26" s="10">
-        <f>SUM(S26:AC26)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="AJ26" s="10">
-        <f>(( AD26 +AE26+AF26)/3) +AG26</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AK26" s="64">
         <v>10</v>
       </c>
       <c r="AL26" s="12">
-        <f>+AH26/(11*10)*30+AI26/(11*10)*30+AJ26+AK26</f>
+        <f t="shared" si="3"/>
         <v>93.36363636363636</v>
       </c>
       <c r="AM26" s="2" t="s">
@@ -4412,22 +4412,22 @@
         <v>15</v>
       </c>
       <c r="AH27" s="17">
-        <f>SUM(H27:R27)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AI27" s="4">
-        <f>SUM(S27:AC27)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="AJ27" s="4">
-        <f>(( AD27 +AE27+AF27)/3) +AG27</f>
+        <f t="shared" si="2"/>
         <v>27.666666666666664</v>
       </c>
       <c r="AK27" s="6">
         <v>10</v>
       </c>
       <c r="AL27" s="7">
-        <f>+AH27/(11*10)*30+AI27/(11*10)*30+AJ27+AK27</f>
+        <f t="shared" si="3"/>
         <v>90.575757575757564</v>
       </c>
       <c r="AM27" s="2" t="s">
@@ -4531,22 +4531,22 @@
         <v>15</v>
       </c>
       <c r="AH28" s="18">
-        <f>SUM(H28:R28)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="AI28" s="10">
-        <f>SUM(S28:AC28)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="AJ28" s="10">
-        <f>(( AD28 +AE28+AF28)/3) +AG28</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="AK28" s="64">
         <v>10</v>
       </c>
       <c r="AL28" s="12">
-        <f>+AH28/(11*10)*30+AI28/(11*10)*30+AJ28+AK28</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="AM28" s="2" t="s">
@@ -4650,22 +4650,22 @@
         <v>15</v>
       </c>
       <c r="AH29" s="18">
-        <f>SUM(H29:R29)</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AI29" s="10">
-        <f>SUM(S29:AC29)</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="AJ29" s="10">
-        <f>(( AD29 +AE29+AF29)/3) +AG29</f>
+        <f t="shared" si="2"/>
         <v>28.333333333333336</v>
       </c>
       <c r="AK29" s="64">
         <v>10</v>
       </c>
       <c r="AL29" s="12">
-        <f>+AH29/(11*10)*30+AI29/(11*10)*30+AJ29+AK29</f>
+        <f t="shared" si="3"/>
         <v>95.878787878787875</v>
       </c>
       <c r="AM29" s="2" t="s">
@@ -4770,22 +4770,22 @@
         <v>15</v>
       </c>
       <c r="AH30" s="17">
-        <f>SUM(H30:R30)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="AI30" s="4">
-        <f>SUM(S30:AC30)</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="AJ30" s="4">
-        <f>(( AD30 +AE30+AF30)/3) +AG30</f>
+        <f t="shared" si="2"/>
         <v>27.666666666666664</v>
       </c>
       <c r="AK30" s="6">
         <v>10</v>
       </c>
       <c r="AL30" s="7">
-        <f>+AH30/(11*10)*30+AI30/(11*10)*30+AJ30+AK30</f>
+        <f t="shared" si="3"/>
         <v>87.575757575757564</v>
       </c>
       <c r="AM30" s="2" t="s">
@@ -4889,22 +4889,22 @@
         <v>15</v>
       </c>
       <c r="AH31" s="18">
-        <f>SUM(H31:R31)</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="AI31" s="10">
-        <f>SUM(S31:AC31)</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="AJ31" s="10">
-        <f>(( AD31 +AE31+AF31)/3) +AG31</f>
+        <f t="shared" si="2"/>
         <v>28.333333333333336</v>
       </c>
       <c r="AK31" s="64">
         <v>10</v>
       </c>
       <c r="AL31" s="12">
-        <f>+AH31/(11*10)*30+AI31/(11*10)*30+AJ31+AK31</f>
+        <f t="shared" si="3"/>
         <v>96.696969696969703</v>
       </c>
       <c r="AM31" s="2" t="s">
@@ -5008,22 +5008,22 @@
         <v>15</v>
       </c>
       <c r="AH32" s="17">
-        <f>SUM(H32:R32)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="AI32" s="4">
-        <f>SUM(S32:AC32)</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="AJ32" s="4">
-        <f>(( AD32 +AE32+AF32)/3) +AG32</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK32" s="6">
         <v>10</v>
       </c>
       <c r="AL32" s="7">
-        <f>+AH32/(11*10)*30+AI32/(11*10)*30+AJ32+AK32</f>
+        <f t="shared" si="3"/>
         <v>94.575757575757564</v>
       </c>
       <c r="AM32" s="2" t="s">
@@ -5127,22 +5127,22 @@
         <v>15</v>
       </c>
       <c r="AH33" s="18">
-        <f>SUM(H33:R33)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AI33" s="10">
-        <f>SUM(S33:AC33)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AJ33" s="10">
-        <f>(( AD33 +AE33+AF33)/3) +AG33</f>
+        <f t="shared" si="2"/>
         <v>27.333333333333336</v>
       </c>
       <c r="AK33" s="64">
         <v>10</v>
       </c>
       <c r="AL33" s="12">
-        <f>+AH33/(11*10)*30+AI33/(11*10)*30+AJ33+AK33</f>
+        <f t="shared" si="3"/>
         <v>93.242424242424249</v>
       </c>
       <c r="AM33" s="2" t="s">
@@ -5246,22 +5246,22 @@
         <v>15</v>
       </c>
       <c r="AH34" s="17">
-        <f>SUM(H34:R34)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="AI34" s="4">
-        <f>SUM(S34:AC34)</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="AJ34" s="4">
-        <f>(( AD34 +AE34+AF34)/3) +AG34</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK34" s="6">
         <v>10</v>
       </c>
       <c r="AL34" s="7">
-        <f>+AH34/(11*10)*30+AI34/(11*10)*30+AJ34+AK34</f>
+        <f t="shared" si="3"/>
         <v>92.393939393939391</v>
       </c>
       <c r="AM34" s="2" t="s">
@@ -5365,22 +5365,22 @@
         <v>15</v>
       </c>
       <c r="AH35" s="18">
-        <f>SUM(H35:R35)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="AI35" s="10">
-        <f>SUM(S35:AC35)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="AJ35" s="10">
-        <f>(( AD35 +AE35+AF35)/3) +AG35</f>
+        <f t="shared" si="2"/>
         <v>27.333333333333336</v>
       </c>
       <c r="AK35" s="64">
         <v>10</v>
       </c>
       <c r="AL35" s="12">
-        <f>+AH35/(11*10)*30+AI35/(11*10)*30+AJ35+AK35</f>
+        <f t="shared" si="3"/>
         <v>93.787878787878782</v>
       </c>
       <c r="AM35" s="2" t="s">
@@ -5484,22 +5484,22 @@
         <v>15</v>
       </c>
       <c r="AH36" s="17">
-        <f>SUM(H36:R36)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="AI36" s="4">
-        <f>SUM(S36:AC36)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="AJ36" s="4">
-        <f>(( AD36 +AE36+AF36)/3) +AG36</f>
+        <f t="shared" si="2"/>
         <v>28.666666666666664</v>
       </c>
       <c r="AK36" s="6">
         <v>10</v>
       </c>
       <c r="AL36" s="7">
-        <f>+AH36/(11*10)*30+AI36/(11*10)*30+AJ36+AK36</f>
+        <f t="shared" si="3"/>
         <v>92.939393939393938</v>
       </c>
       <c r="AM36" s="2" t="s">
@@ -5603,22 +5603,22 @@
         <v>14</v>
       </c>
       <c r="AH37" s="56">
-        <f>SUM(H37:R37)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="AI37" s="50">
-        <f>SUM(S37:AC37)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AJ37" s="50">
-        <f>(( AD37 +AE37+AF37)/3) +AG37</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK37" s="64">
         <v>10</v>
       </c>
       <c r="AL37" s="57">
-        <f>+AH37/(11*10)*30+AI37/(11*10)*30+AJ37+AK37</f>
+        <f t="shared" si="3"/>
         <v>86.666666666666657</v>
       </c>
       <c r="AM37" s="2" t="s">
@@ -5723,22 +5723,22 @@
         <v>14</v>
       </c>
       <c r="AH38" s="18">
-        <f>SUM(H38:R38)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="AI38" s="10">
-        <f>SUM(S38:AC38)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="AJ38" s="10">
-        <f>(( AD38 +AE38+AF38)/3) +AG38</f>
+        <f t="shared" si="2"/>
         <v>25.666666666666664</v>
       </c>
       <c r="AK38" s="64">
         <v>10</v>
       </c>
       <c r="AL38" s="12">
-        <f>+AH38/(11*10)*30+AI38/(11*10)*30+AJ38+AK38</f>
+        <f t="shared" si="3"/>
         <v>88.575757575757564</v>
       </c>
       <c r="AM38" s="2" t="s">
@@ -6005,15 +6005,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100099A274E4045F945A473D33BE1DA50AC" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="60d3c2d98c6e5c422d44bdea4e4caa6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2e373f53-b420-467f-8c7e-fb09abd81bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="109aa45253f60eb4d75524d82b08b9bd" ns3:_="">
     <xsd:import namespace="2e373f53-b420-467f-8c7e-fb09abd81bb2"/>
@@ -6195,6 +6186,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3BA65B-A786-408E-9D8D-34FD5D067E91}">
   <ds:schemaRefs>
@@ -6212,14 +6212,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C57D13A5-F283-4CDB-80B9-14F94BD256F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6235,4 +6227,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8295DE0C-9CF4-4EE7-A321-420178090D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>